--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28813"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D5FC9DF-D770-4083-83A8-0CCEE3BAA020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlbea\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F6E724-2CB7-496C-9C74-D7BD6635FE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>Tested By</t>
   </si>
@@ -76,9 +81,6 @@
   </si>
   <si>
     <t>Group</t>
-  </si>
-  <si>
-    <t>Text</t>
   </si>
   <si>
     <t>Implemented In</t>
@@ -105,13 +107,124 @@
   </si>
   <si>
     <t>cut and paste the screenshot of each page in this part of the spreadsheet, please. use as much space is needed.</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>BOT II shall return a list of game move(s) to game manager</t>
+  </si>
+  <si>
+    <t>uta.cse3310.Bot.BotII.sendMove</t>
+  </si>
+  <si>
+    <t>Bot II shall receive the game board from the gamemanger</t>
+  </si>
+  <si>
+    <t>uta.cse3310.Bot.BotII.requestMove</t>
+  </si>
+  <si>
+    <t>Bot II shall implement a fixed strategy against either BotI or person to determine what move(s) should be made</t>
+  </si>
+  <si>
+    <t>uta.cse3310.Bot.BotII.implementBotStrategy</t>
+  </si>
+  <si>
+    <t>Bot II shall be able to capture pieces</t>
+  </si>
+  <si>
+    <t>uta.cse3310.Bot.BotII.implement BotStrategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bot II shall follow game rules of checkers according to  https://en.wikipedia.org/wiki/English_draughts </t>
+  </si>
+  <si>
+    <t>uta.cse3310.Bot.BotII.determineMoves</t>
+  </si>
+  <si>
+    <t>BotII shall be able to make one or more moves on the given game board/state</t>
+  </si>
+  <si>
+    <t>Bot II shall be given a request to make its move and return its move within the same function call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bot II shall evaluate multiple different moves </t>
+  </si>
+  <si>
+    <t>BotII shall be able to play against BotI with the same interface</t>
+  </si>
+  <si>
+    <t>BotII shall be able handle logic where a piece is a king</t>
+  </si>
+  <si>
+    <t>BotII Shall assign a basic elo rating to each set of moves (normal, jump move)</t>
+  </si>
+  <si>
+    <t>BotII shall ensure the move attempted is valid move</t>
+  </si>
+  <si>
+    <t>uta.cse3310.Bot.BotII.isValidMove</t>
+  </si>
+  <si>
+    <t>BotII shall ensure it can check both ways to move (diagonal left, diagonal right)</t>
+  </si>
+  <si>
+    <t>uta.cse3310.Bot.BotII.checkSingleMove</t>
+  </si>
+  <si>
+    <t>BotII shall be able to check the validity of a  normal move and a jump/capture move</t>
+  </si>
+  <si>
+    <t>BotII shall be able to determine how many moves or rows a piece is away from becoming a king after a move</t>
+  </si>
+  <si>
+    <t>uta.cse3310.Bot.BotII.movesToKing</t>
+  </si>
+  <si>
+    <t>BotII shall increase the ELO rating for a move depending on how far away the piece is from becoming king</t>
+  </si>
+  <si>
+    <t>BotII shall increase the elo rating for a jump/capture move</t>
+  </si>
+  <si>
+    <t>BotII shall sort possible moves according to the selected strategy (aggressive or passive) based on their ELO ratings</t>
+  </si>
+  <si>
+    <t>BotII shall select the highest ELO-rated move when playing aggressively and the lowest ELO-rated move when playing passively</t>
+  </si>
+  <si>
+    <t>BotII shall update its strategy during gameplay based on the current board state</t>
+  </si>
+  <si>
+    <t>uta.cse3310.Bot.BotII.playStyle</t>
+  </si>
+  <si>
+    <t>BotII shall switch to defensive strategy when at a numerical disadvantage</t>
+  </si>
+  <si>
+    <t>BotII shall determine if thegiven board is a start board (i.e. BotII has made no moves and the opponent has made 0 or 1 moves)</t>
+  </si>
+  <si>
+    <t>uta.cse3310.Bot.BotII.isFirstMove</t>
+  </si>
+  <si>
+    <t>BotII shall make a basic move if the given game board is a start game board</t>
+  </si>
+  <si>
+    <t>uta.cse3310.Bot.BotII.startMove</t>
+  </si>
+  <si>
+    <t>BotII shall, before every move determination flush the moves object</t>
+  </si>
+  <si>
+    <t>BotII shall, for every piece that belongs to it, determine the moves that piece can make, add it to a list and sort that list by ELO rating</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,16 +259,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,28 +601,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.06640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -550,7 +660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -558,19 +668,19 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="43.5">
+    </row>
+    <row r="4" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -578,50 +688,373 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="S4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="B8">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
+      <c r="B9">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlbea\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaitlynnhernandez/cse3310/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F6E724-2CB7-496C-9C74-D7BD6635FE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5092EB4F-20FA-4D40-944D-F789170B0D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
   <si>
     <t>Tested By</t>
   </si>
@@ -218,13 +218,139 @@
   </si>
   <si>
     <t>BotII shall, for every piece that belongs to it, determine the moves that piece can make, add it to a list and sort that list by ELO rating</t>
+  </si>
+  <si>
+    <t>Bot 1 shall use a fixed strategy to determine its moves when playing against the user or Bot II.</t>
+  </si>
+  <si>
+    <t>Bot 1 shall receive the current game board state from the Game Manager via the requestMove(Board board) method.</t>
+  </si>
+  <si>
+    <t>Bot 1 shall return its selected move(s) to the Game Manager via the sendMove()method.</t>
+  </si>
+  <si>
+    <t>Bot 1 shall communicate with the Game Manager via function calls</t>
+  </si>
+  <si>
+    <t>Bot 1 shall be able to play against Bot 2 using the same interface.</t>
+  </si>
+  <si>
+    <t>Bot 1 shall not store any game state locally; all state will reside with the Game Manager.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bot 1 shall correctly determine and evaluate all legal moves, including normal and capture moves, for all its pieces on the board. </t>
+  </si>
+  <si>
+    <t>Bot 1 shall utilize a LinkedList&lt;Move&gt; to represent and manage sequences of moves, including potential chains for multi-jump captures.</t>
+  </si>
+  <si>
+    <t>Bot 1 shall avoid moves that expose its pieces to immediate counter-capture, especially in the passive strategy. The defensive strategy will lower the score of such moves to discourage risky decisions.</t>
+  </si>
+  <si>
+    <t>Bot 1 shall send all move(s) to the Game Manager in a single transmission when multiple captures occur.</t>
+  </si>
+  <si>
+    <t>Bot 1 shall follow the rules for the game that come from https://en.wikipedia.org/wiki/English_draughts</t>
+  </si>
+  <si>
+    <t>Bot I shall use this function to dynamically change the strategy depending on the output of countallPieces()</t>
+  </si>
+  <si>
+    <t>Bot I shall count the board for all the pieces</t>
+  </si>
+  <si>
+    <t>Bot I shall play more aggressively (push forward more) if it has more pieces than the player.</t>
+  </si>
+  <si>
+    <t>Bot I shall play more cautiously if it has less pieces than player.</t>
+  </si>
+  <si>
+    <t>Bot I shall advance a space if the square is empty given that the space does not have an enemy piece on it.</t>
+  </si>
+  <si>
+    <t>Bot I shall evaluate and add a capturing move if the move exists and is legal.</t>
+  </si>
+  <si>
+    <t>Bot I shall identify whether a given move is a capturing move by evaluating the distance between the start and destination squares and checking for an opponent piece in between.</t>
+  </si>
+  <si>
+    <t>Bot I shall determine if a move places its piece in a vulnerable location where it can be captured by the opponent.</t>
+  </si>
+  <si>
+    <t>Bot I shall evaluate if a given board position can be used by the opponent to attack.</t>
+  </si>
+  <si>
+    <t>Bot I shall check if a move leaves the piece protected by an adjacent friendly piece.</t>
+  </si>
+  <si>
+    <t>Bot I shall detect if a square is occupied by a friendly piece to determine support.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bot I shall know the boundaries of the board so prevent plays made out of the board. </t>
+  </si>
+  <si>
+    <t>Bot1.java / requestMove()</t>
+  </si>
+  <si>
+    <t>Bot1.java / sendMove()</t>
+  </si>
+  <si>
+    <t>Bot1.java / requestMove(), sendMove()</t>
+  </si>
+  <si>
+    <t>Bot1.java / requestMove(), flushMoves()</t>
+  </si>
+  <si>
+    <t>Bot1.java / determineMoves(), playNormalMove(), playCapture()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bot1.java / sendMove(), determineMoves() </t>
+  </si>
+  <si>
+    <t>Bot1.java / passiveStrategyImplementation()</t>
+  </si>
+  <si>
+    <t>BotI.java / isAggressive()</t>
+  </si>
+  <si>
+    <t>BotI.java / countallPieces()</t>
+  </si>
+  <si>
+    <t>BotI.java /  aggressiveStrategyImplementation</t>
+  </si>
+  <si>
+    <t>BotI.java /  passiveStrategyImplementation</t>
+  </si>
+  <si>
+    <t>BotI.java / playNormalMove</t>
+  </si>
+  <si>
+    <t>BotI.java / playCapture</t>
+  </si>
+  <si>
+    <t>BotI.java / isCapturingMove</t>
+  </si>
+  <si>
+    <t>BotI.java / insideDangerRegion</t>
+  </si>
+  <si>
+    <t>BotI.java / canBeAttackedFrom</t>
+  </si>
+  <si>
+    <t>BotI.java / hasBackupAfterMove</t>
+  </si>
+  <si>
+    <t>BotI.java / hasSupportAt</t>
+  </si>
+  <si>
+    <t>BotI.java / isInsideBoard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +362,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,12 +391,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -601,28 +739,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.06640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -660,7 +798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -680,7 +818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -703,7 +841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -717,7 +855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -731,7 +869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -745,7 +883,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -759,7 +897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -773,7 +911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -787,7 +925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -801,7 +939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -815,7 +953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -829,7 +967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -843,7 +981,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -857,7 +995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -871,7 +1009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -885,7 +1023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -899,7 +1037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -913,7 +1051,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -927,7 +1065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -941,7 +1079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -955,7 +1093,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -969,7 +1107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -983,7 +1121,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -997,7 +1135,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1011,7 +1149,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1025,7 +1163,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1039,7 +1177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1051,6 +1189,328 @@
       </c>
       <c r="D29" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>33</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>33</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>33</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>33</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>33</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>33</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>33</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>33</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>33</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>33</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>33</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>33</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>33</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>33</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>33</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>33</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>33</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>33</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>33</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaitlynnhernandez/cse3310/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtian/Documents/UTA/Spring 2025/CSE 3310/cse3310-sp25-002/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5092EB4F-20FA-4D40-944D-F789170B0D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F7FD75-C49B-6F41-B2A5-ABF000868AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="15000" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="136">
   <si>
     <t>Tested By</t>
   </si>
@@ -344,6 +344,108 @@
   </si>
   <si>
     <t>BotI.java / isInsideBoard</t>
+  </si>
+  <si>
+    <t>The program shall display a waitlist of available players ready to play with their usernames and IDs in the order that the players joined.</t>
+  </si>
+  <si>
+    <t>joingame/Waitlist.js/displayWaitlist()</t>
+  </si>
+  <si>
+    <t>The program shall display a button for a game against another user.</t>
+  </si>
+  <si>
+    <t>webapp/index.html</t>
+  </si>
+  <si>
+    <t>The program shall display a button for a game against a bot.</t>
+  </si>
+  <si>
+    <t>The program shall update the waitlist as players login and join/leave a game.</t>
+  </si>
+  <si>
+    <t>joingame/Waitlist.js/add(), joingame/Waitlist.js/remove()</t>
+  </si>
+  <si>
+    <t>The program shall display a notification with updates to the waitlist.</t>
+  </si>
+  <si>
+    <t>joingame/DisplayNotification.js/displayNotification()</t>
+  </si>
+  <si>
+    <t>The program will display a notification to the user when they are next to join a game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The program shall have display a button to spectate a game of 2 bots playing against each other. </t>
+  </si>
+  <si>
+    <t>joingame/MatchMaker.js/requestSpectateBotVsBot()</t>
+  </si>
+  <si>
+    <t>The program will display players that choose to replay and new players at the bottom of the waitlist.</t>
+  </si>
+  <si>
+    <t>The program will load usernames and IDs in waitlist and display them within 2 seconds of logging in/joining a game.</t>
+  </si>
+  <si>
+    <t>The web interface of the Join Game component will be written in HTML5.</t>
+  </si>
+  <si>
+    <t>The program will be compatible with the web browsers Chrome, Firefox, and Safari.</t>
+  </si>
+  <si>
+    <t>joingame</t>
+  </si>
+  <si>
+    <t>The interactive and dynamic functionality within the component will be written in JavaScript.</t>
+  </si>
+  <si>
+    <t>joingame/Communication.js, Data.js, Displaynotification.js, MatchMaking.js, Waitlist.js</t>
+  </si>
+  <si>
+    <t>When the button to play against another player is pressed, the program will send the player information along with the game mode to the Page Manager component to initalize the pairing up process to begin a game.</t>
+  </si>
+  <si>
+    <t>joingame/MatchMaker.js/requestPlayerMatch()</t>
+  </si>
+  <si>
+    <t>When the button to play against a bot is pressed, the program will send the player information along with the game mode to the Page Manager component to intialize the process to start a game against a bot.</t>
+  </si>
+  <si>
+    <t>joingame/MatchMaker.js/requestBotMatch()</t>
+  </si>
+  <si>
+    <t>When a player(s) requests to join a game, the program removes their name from the waitlist.</t>
+  </si>
+  <si>
+    <t>joingame/Waitlist.js/remove()</t>
+  </si>
+  <si>
+    <t>When a player(s) logins successfully, the program adds their name to the waitlist.</t>
+  </si>
+  <si>
+    <t>joingame/Waitlist.js/add()</t>
+  </si>
+  <si>
+    <t>The program will receive player information (username and ID) from the Page Manager through a websocket.</t>
+  </si>
+  <si>
+    <t>joingame/Communication.js/handlePlayerData()</t>
+  </si>
+  <si>
+    <t>The program will create a player instance based on the provided data from the Page Manager.</t>
+  </si>
+  <si>
+    <t>joingame/Data.js/constructor()</t>
+  </si>
+  <si>
+    <t>The program will send player information (username and ID) and their selected game mode to the Page Manager through a websocket.</t>
+  </si>
+  <si>
+    <t>joingame/Communication.js/sendPlayerAttributes()</t>
+  </si>
+  <si>
+    <t>When the button to spectate a game of two bots playing against each other, the program will send players' username and ID along with the game mode to Page Manager to intialize the process to start the game</t>
   </si>
 </sst>
 </file>
@@ -391,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -399,10 +501,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -739,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1201,7 +1300,7 @@
       <c r="C30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1215,7 +1314,7 @@
       <c r="C31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1229,7 +1328,7 @@
       <c r="C32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1243,7 +1342,7 @@
       <c r="C33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1257,7 +1356,7 @@
       <c r="C34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1271,7 +1370,7 @@
       <c r="C35" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1285,7 +1384,7 @@
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1299,7 +1398,7 @@
       <c r="C37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1313,7 +1412,7 @@
       <c r="C38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1327,7 +1426,7 @@
       <c r="C39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1341,7 +1440,7 @@
       <c r="C40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1352,10 +1451,10 @@
       <c r="B41">
         <v>33</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1366,10 +1465,10 @@
       <c r="B42">
         <v>33</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1380,10 +1479,10 @@
       <c r="B43">
         <v>33</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1394,10 +1493,10 @@
       <c r="B44">
         <v>33</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1408,10 +1507,10 @@
       <c r="B45">
         <v>33</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1422,10 +1521,10 @@
       <c r="B46">
         <v>33</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1436,10 +1535,10 @@
       <c r="B47">
         <v>33</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1450,10 +1549,10 @@
       <c r="B48">
         <v>33</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1464,10 +1563,10 @@
       <c r="B49">
         <v>33</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1478,10 +1577,10 @@
       <c r="B50">
         <v>33</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1492,10 +1591,10 @@
       <c r="B51">
         <v>33</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1506,11 +1605,291 @@
       <c r="B52">
         <v>33</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="1" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>26</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>26</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>26</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>26</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>26</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>26</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>26</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>26</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>26</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>26</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>26</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>26</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>26</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67">
+        <v>26</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68">
+        <v>26</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>26</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>26</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <v>26</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <v>26</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtian/Documents/UTA/Spring 2025/CSE 3310/cse3310-sp25-002/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pravesh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F7FD75-C49B-6F41-B2A5-ABF000868AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCD270C-8AC9-7F45-A3C3-D515C5874C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15000" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="760" windowWidth="28520" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="153">
   <si>
     <t>Tested By</t>
   </si>
@@ -446,13 +446,64 @@
   </si>
   <si>
     <t>When the button to spectate a game of two bots playing against each other, the program will send players' username and ID along with the game mode to Page Manager to intialize the process to start the game</t>
+  </si>
+  <si>
+    <t>After a game concludes, the players go to the end of the line waiting for the new game</t>
+  </si>
+  <si>
+    <t>The results of every game played will be stored into a database, and shall be used for building the contents of the leaderboard.</t>
+  </si>
+  <si>
+    <t>The system will detect a draw, if one occurs</t>
+  </si>
+  <si>
+    <t>The system will have an understanding of the game rules in order to detect winnings after each play, and check for legalMoves to terminate the game</t>
+  </si>
+  <si>
+    <t>The subsytem will send game termination information to database, only when the game ends through a final summary</t>
+  </si>
+  <si>
+    <t>The subsystem will send a final termination message to game play once a match is over</t>
+  </si>
+  <si>
+    <t>The subsystem will handle a confirmation response from the database.</t>
+  </si>
+  <si>
+    <t>The subsytem will track the captured pieces, in order to determine who has lost the game</t>
+  </si>
+  <si>
+    <t>The subsystem will keep track of the player scores after a move, as well as update them</t>
+  </si>
+  <si>
+    <t>GameTermination.java/checkGameOver()</t>
+  </si>
+  <si>
+    <t>GameResult.java/saveResultsToDatabase()</t>
+  </si>
+  <si>
+    <t>GameResult.java/checkForLegalMoves(), getWinner()</t>
+  </si>
+  <si>
+    <t>GameTermination.java/saveResultsToDatabase()</t>
+  </si>
+  <si>
+    <t>GameTermination.java/endGame(), sendResults()</t>
+  </si>
+  <si>
+    <t>GameResult.java/confirmDataStored()</t>
+  </si>
+  <si>
+    <t>GameResult.java/trackCapturedPieces()</t>
+  </si>
+  <si>
+    <t>GameResult.java/updateScores(), getScore()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +522,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -493,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -502,6 +559,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -838,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1892,6 +1952,132 @@
         <v>113</v>
       </c>
     </row>
+    <row r="73" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>35</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>35</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>35</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>35</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>35</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>35</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <v>35</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>35</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81">
+        <v>35</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pravesh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCD270C-8AC9-7F45-A3C3-D515C5874C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D670A50-AFBE-499F-9E35-6D987A8002CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="760" windowWidth="28520" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="193">
   <si>
     <t>Tested By</t>
   </si>
@@ -497,13 +497,134 @@
   </si>
   <si>
     <t>GameResult.java/updateScores(), getScore()</t>
+  </si>
+  <si>
+    <t>The game will run as a Java program with JavaScript/HTML clients.</t>
+  </si>
+  <si>
+    <t>The rules follow English Draughts from Wikipedia.</t>
+  </si>
+  <si>
+    <t>Display a standard 8x8 checkers board grid with alternating dark and light squares. Board layout should be clear and consistent, with the dark square at the bottom left corner.</t>
+  </si>
+  <si>
+    <t>Display checker pieces for both players. Regular and king pieces should be visually different, and valid moves must be highlighted when a piece is selected.</t>
+  </si>
+  <si>
+    <t>The game will allow selection of pieces and display valid move destinations by commuicating with other teams. Display feedback for illegal moves, captures, and multiple jump possibilities, as provided by other responsible teams to the game display team.</t>
+  </si>
+  <si>
+    <t>Display current player's turn, player names (ID).</t>
+  </si>
+  <si>
+    <t>Implement method for other teams to send messages to the players.</t>
+  </si>
+  <si>
+    <t>Keep game board hidden until the game starts. Enable or disable move interface based on game state and player's turn. This must be controlled by page manager.</t>
+  </si>
+  <si>
+    <t>Provide buttons for resigning, and offering draw.</t>
+  </si>
+  <si>
+    <t>Indicate who moves first.</t>
+  </si>
+  <si>
+    <t>Display all valid moves for a selected piece. Valid moves are determined by backend and visualized on the board.</t>
+  </si>
+  <si>
+    <t>Send all player moves to the backend. Game display collects and formats movement data.</t>
+  </si>
+  <si>
+    <t>Support multiple concurrent game instances by designing the checkers board as a reusable class.</t>
+  </si>
+  <si>
+    <t>Automatically rotate the board 180 degrees for the black player to maintain player perspective.</t>
+  </si>
+  <si>
+    <t>Implement robust error handling in UI functions with clear feedback.</t>
+  </si>
+  <si>
+    <t>Define a standardized JSON message format for client-server communications with type-based message handling.</t>
+  </si>
+  <si>
+    <t>Automatically promote pieces to kings upon reaching the opponent's back row and update visuals.</t>
+  </si>
+  <si>
+    <t>Manage game state transitions and update UI appropriately during turn changes or game completion.</t>
+  </si>
+  <si>
+    <t>Notify players of game events such as opponent moves and game end.</t>
+  </si>
+  <si>
+    <t>Prevent duplication of event listeners.</t>
+  </si>
+  <si>
+    <t>Java WebSocket Server
+connection object in client JS</t>
+  </si>
+  <si>
+    <t>CheckersBoard class construction and design pattern</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard.handle_checkers_piece_click()</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard.update_board_style(), game_display_checkers.js/CheckersBoard.create_checkers_board()</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard.update_board_style(), CSS styling in game_display_checkers.js/update_board_style()</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard.handle_checkers_piece_click(), game_display_checkers.js/CheckersBoard.show_possible_moves()</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard.update_current_player(), game_id</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/game_display_popup_messages()</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard.create_checkers_board()</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/handle_resign(), game_display_checkers.js/offer_draw(), game_display_checkers.js/add_game_display_user_control_event_listener()</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard constructor, game_display_checkers.js/update_current_player()</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard.show_possible_moves(), game_display_checkers.js/return_allowed_moves(), game_display_checkers.js/is_valid_move()</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard.move_checkers_piece(), WebSocket message: {type: "move", ...}</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard.rotateBoardIfBlack()</t>
+  </si>
+  <si>
+    <t>Try/catch blocks, game_display_checkers.js/game_display_popup_messages()</t>
+  </si>
+  <si>
+    <t>WebSocket message formatting in game_display_checkers.js/game_display_handle_websocket_received_data()</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/move_checkers_piece(), game_display_checkers.js/update_board_style()</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/update_current_player(), game_display_checkers.js/game_display_handle_websocket_received_data()</t>
+  </si>
+  <si>
+    <t>Message handling in game_display_checkers.js/game_display_handle_websocket_received_data()</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/register_buttons_to_event_listener()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +650,12 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -550,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -564,6 +691,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,28 +1028,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="81" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -957,7 +1087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -977,7 +1107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1000,7 +1130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1014,7 +1144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1028,7 +1158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1042,7 +1172,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1056,7 +1186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1070,7 +1200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1084,7 +1214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1098,7 +1228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1112,7 +1242,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1126,7 +1256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1140,7 +1270,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1154,7 +1284,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1168,7 +1298,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1182,7 +1312,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1196,7 +1326,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1210,7 +1340,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1224,7 +1354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1238,7 +1368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1252,7 +1382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1266,7 +1396,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1280,7 +1410,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1294,7 +1424,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1308,7 +1438,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1322,7 +1452,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1336,7 +1466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1350,7 +1480,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1364,7 +1494,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1378,7 +1508,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1392,7 +1522,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1406,7 +1536,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1420,7 +1550,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1434,7 +1564,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1448,7 +1578,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1462,7 +1592,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1476,7 +1606,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1490,7 +1620,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1504,7 +1634,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1518,7 +1648,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1532,7 +1662,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1546,7 +1676,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1560,7 +1690,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -1574,7 +1704,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -1588,7 +1718,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -1602,7 +1732,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -1616,7 +1746,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -1630,7 +1760,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -1644,7 +1774,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -1658,7 +1788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -1672,7 +1802,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -1686,7 +1816,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -1700,7 +1830,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -1714,7 +1844,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -1728,7 +1858,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -1742,7 +1872,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -1756,7 +1886,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -1770,7 +1900,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -1784,7 +1914,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -1798,7 +1928,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -1812,7 +1942,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -1826,7 +1956,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -1840,7 +1970,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
@@ -1854,7 +1984,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
@@ -1868,7 +1998,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
@@ -1882,7 +2012,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
@@ -1896,7 +2026,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
@@ -1910,7 +2040,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
@@ -1924,7 +2054,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
@@ -1938,7 +2068,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
@@ -1952,7 +2082,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
@@ -1966,7 +2096,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>71</v>
       </c>
@@ -1980,7 +2110,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
@@ -1994,7 +2124,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>73</v>
       </c>
@@ -2008,7 +2138,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>74</v>
       </c>
@@ -2022,7 +2152,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>75</v>
       </c>
@@ -2036,7 +2166,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>76</v>
       </c>
@@ -2050,7 +2180,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>77</v>
       </c>
@@ -2064,7 +2194,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>78</v>
       </c>
@@ -2076,6 +2206,286 @@
       </c>
       <c r="D81" s="1" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>27</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <v>27</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>81</v>
+      </c>
+      <c r="B84" s="6">
+        <v>27</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>82</v>
+      </c>
+      <c r="B85" s="6">
+        <v>27</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>83</v>
+      </c>
+      <c r="B86" s="6">
+        <v>27</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>84</v>
+      </c>
+      <c r="B87" s="6">
+        <v>27</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>85</v>
+      </c>
+      <c r="B88" s="6">
+        <v>27</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>86</v>
+      </c>
+      <c r="B89" s="6">
+        <v>27</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>87</v>
+      </c>
+      <c r="B90" s="6">
+        <v>27</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>88</v>
+      </c>
+      <c r="B91" s="6">
+        <v>27</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>89</v>
+      </c>
+      <c r="B92" s="6">
+        <v>27</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>90</v>
+      </c>
+      <c r="B93" s="6">
+        <v>27</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>91</v>
+      </c>
+      <c r="B94" s="6">
+        <v>27</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>92</v>
+      </c>
+      <c r="B95" s="6">
+        <v>27</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>93</v>
+      </c>
+      <c r="B96" s="6">
+        <v>27</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>94</v>
+      </c>
+      <c r="B97" s="6">
+        <v>27</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>95</v>
+      </c>
+      <c r="B98" s="6">
+        <v>27</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>96</v>
+      </c>
+      <c r="B99" s="6">
+        <v>27</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>97</v>
+      </c>
+      <c r="B100" s="6">
+        <v>27</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>98</v>
+      </c>
+      <c r="B101" s="6">
+        <v>27</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D670A50-AFBE-499F-9E35-6D987A8002CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015FAE43-4A49-4945-A8E0-B7350BCF26AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="215">
   <si>
     <t>Tested By</t>
   </si>
@@ -618,6 +618,72 @@
   </si>
   <si>
     <t>game_display_checkers.js/register_buttons_to_event_listener()</t>
+  </si>
+  <si>
+    <t>Game Play shall determine whether a move is legal or not and decides whether a piece has been captured.</t>
+  </si>
+  <si>
+    <t>A checker's piece shall not move to a spot taken by another checker's piece.  If the user attempts to move in a spot that is taken send an error message to Game Manager</t>
+  </si>
+  <si>
+    <t>A checker's piece shall only move diagonally up the board unless it is marked by a crown, allowing the piece to move diagonally up and down.</t>
+  </si>
+  <si>
+    <t>A checker's piece shall not move beyond the border of the playing field.</t>
+  </si>
+  <si>
+    <t>Game Play shall communicate with Game Manager, notifying whether the requested move is legal and whether a piece has been captured.</t>
+  </si>
+  <si>
+    <t>A player shall not be allowed to move checker pieces of their oponent</t>
+  </si>
+  <si>
+    <t>The user is able to make multiple successive jumps during one turn, if each jump captures an opponents piece and follows the rules associated with the user's cheker piece (i.e a king could do this in either a backwards or forwards direction, and a regular piece is only able to do this in a forward direction)</t>
+  </si>
+  <si>
+    <t>The user must capture an opponent's piece if a legal move is presented/available</t>
+  </si>
+  <si>
+    <t>The bot should be subject to the same rules as the user</t>
+  </si>
+  <si>
+    <t>A king checker piece is not able to move both up and down during one turn. It must choose to either move up or down</t>
+  </si>
+  <si>
+    <t>If the user is presented two different opportunities to capture an opponents checker piece during their turn, they are allowed to chose which checker's piece they capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A king checker piece shall be held to the same capture rules as a regular checker piece. </t>
+  </si>
+  <si>
+    <t>A captured piece shall be removed from the game</t>
+  </si>
+  <si>
+    <t>A pieces move length shall be proportional to the amount of the opponent's pieces the moving piece jumps over.</t>
+  </si>
+  <si>
+    <t>GamePlay.GamePlay.returnBoard</t>
+  </si>
+  <si>
+    <t>GamePlay.rules.isLegal</t>
+  </si>
+  <si>
+    <t>GamePlay.rules.inBounds</t>
+  </si>
+  <si>
+    <t>GamePlay.rules.canMovePiece</t>
+  </si>
+  <si>
+    <t>GamePlay.rules.isLegal / GamePlay.GamePlay.returnBoard</t>
+  </si>
+  <si>
+    <t>GamePlay.rules.returnBoard</t>
+  </si>
+  <si>
+    <t>GamePlay shall return a list of possible moves a player can take during their turn</t>
+  </si>
+  <si>
+    <t>GamePlay.GamePlay.returnMoves</t>
   </si>
 </sst>
 </file>
@@ -677,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -691,8 +757,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,28 +1092,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:S116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -1087,7 +1151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1107,7 +1171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1130,7 +1194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1144,7 +1208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1158,7 +1222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1172,7 +1236,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1186,7 +1250,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1200,7 +1264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1214,7 +1278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1228,7 +1292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1242,7 +1306,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1256,7 +1320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1270,7 +1334,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1284,7 +1348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1298,7 +1362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1312,7 +1376,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1326,7 +1390,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1340,7 +1404,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1354,7 +1418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1368,7 +1432,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1382,7 +1446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1396,7 +1460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1410,7 +1474,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1424,7 +1488,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1438,7 +1502,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1452,7 +1516,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1466,7 +1530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1480,7 +1544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1494,7 +1558,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1508,7 +1572,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1522,7 +1586,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1536,7 +1600,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1550,7 +1614,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1564,7 +1628,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1578,7 +1642,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1592,7 +1656,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1606,7 +1670,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1620,7 +1684,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1634,7 +1698,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1648,7 +1712,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1662,7 +1726,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1676,7 +1740,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1690,7 +1754,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>42</v>
       </c>
@@ -1704,7 +1768,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>43</v>
       </c>
@@ -1718,7 +1782,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>44</v>
       </c>
@@ -1732,7 +1796,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>45</v>
       </c>
@@ -1746,7 +1810,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>46</v>
       </c>
@@ -1760,7 +1824,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>47</v>
       </c>
@@ -1774,7 +1838,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>48</v>
       </c>
@@ -1788,7 +1852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>49</v>
       </c>
@@ -1802,7 +1866,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>50</v>
       </c>
@@ -1816,7 +1880,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>51</v>
       </c>
@@ -1830,7 +1894,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>52</v>
       </c>
@@ -1844,7 +1908,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>53</v>
       </c>
@@ -1858,7 +1922,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>54</v>
       </c>
@@ -1872,7 +1936,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>55</v>
       </c>
@@ -1886,7 +1950,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>56</v>
       </c>
@@ -1900,7 +1964,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>57</v>
       </c>
@@ -1914,7 +1978,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>58</v>
       </c>
@@ -1928,7 +1992,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>59</v>
       </c>
@@ -1942,7 +2006,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>60</v>
       </c>
@@ -1956,7 +2020,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>61</v>
       </c>
@@ -1970,7 +2034,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>62</v>
       </c>
@@ -1984,7 +2048,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>63</v>
       </c>
@@ -1998,7 +2062,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>64</v>
       </c>
@@ -2012,7 +2076,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>65</v>
       </c>
@@ -2026,7 +2090,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>66</v>
       </c>
@@ -2040,7 +2104,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>67</v>
       </c>
@@ -2054,7 +2118,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>68</v>
       </c>
@@ -2068,7 +2132,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>69</v>
       </c>
@@ -2082,7 +2146,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>70</v>
       </c>
@@ -2096,7 +2160,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>71</v>
       </c>
@@ -2110,7 +2174,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>72</v>
       </c>
@@ -2124,7 +2188,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>73</v>
       </c>
@@ -2138,7 +2202,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>74</v>
       </c>
@@ -2152,7 +2216,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>75</v>
       </c>
@@ -2166,7 +2230,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>76</v>
       </c>
@@ -2180,7 +2244,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>77</v>
       </c>
@@ -2194,7 +2258,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>78</v>
       </c>
@@ -2208,8 +2272,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82">
         <v>79</v>
       </c>
       <c r="B82">
@@ -2218,12 +2282,12 @@
       <c r="C82" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83">
         <v>80</v>
       </c>
       <c r="B83">
@@ -2232,260 +2296,470 @@
       <c r="C83" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84">
         <v>81</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84">
         <v>27</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85">
         <v>82</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85">
         <v>27</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86">
         <v>83</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86">
         <v>27</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87">
         <v>84</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87">
         <v>27</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88">
         <v>85</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88">
         <v>27</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89">
         <v>86</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89">
         <v>27</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90">
         <v>87</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90">
         <v>27</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91">
         <v>88</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91">
         <v>27</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="6">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92">
         <v>89</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92">
         <v>27</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93">
         <v>90</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93">
         <v>27</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94">
         <v>91</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94">
         <v>27</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95">
         <v>92</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95">
         <v>27</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96">
         <v>93</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96">
         <v>27</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97">
         <v>94</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97">
         <v>27</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98">
         <v>95</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98">
         <v>27</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99">
         <v>96</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99">
         <v>27</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100">
         <v>97</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100">
         <v>27</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101">
         <v>98</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101">
         <v>27</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="5" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102">
+        <v>36</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103">
+        <v>36</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104">
+        <v>36</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105">
+        <v>36</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106">
+        <v>36</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107">
+        <v>36</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108">
+        <v>36</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109">
+        <v>36</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110">
+        <v>36</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="B111">
+        <v>36</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112">
+        <v>36</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113">
+        <v>36</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="B114">
+        <v>36</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>112</v>
+      </c>
+      <c r="B115">
+        <v>36</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>113</v>
+      </c>
+      <c r="B116">
+        <v>36</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015FAE43-4A49-4945-A8E0-B7350BCF26AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34F1CF5-CFE5-4BCE-8E98-B9C0ED9000E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="238">
   <si>
     <t>Tested By</t>
   </si>
@@ -684,13 +684,82 @@
   </si>
   <si>
     <t>GamePlay.GamePlay.returnMoves</t>
+  </si>
+  <si>
+    <t>The system shall allow the user to be matched with another user if the user desires to play against another user</t>
+  </si>
+  <si>
+    <t>PairUp/Matchmaking/pair</t>
+  </si>
+  <si>
+    <t>The system shall allow the user to be matched with a bot if the user desires to play against a bot</t>
+  </si>
+  <si>
+    <t>The system shall allow a bot to play against another bot</t>
+  </si>
+  <si>
+    <t>The system shall manage a "matchmaking" pool with players that are looking for a match against another player</t>
+  </si>
+  <si>
+    <t>PairUp/Matchmaking/matching</t>
+  </si>
+  <si>
+    <t>The system shall allow other subsystems to add/remove/search/clear players from the matchmaking pool</t>
+  </si>
+  <si>
+    <t>PairUp/PairUp</t>
+  </si>
+  <si>
+    <t>The system shall allow other subsystems to "ping" the matchmaking pool, which tells the matchmaker to look for possible pairs in the current pool</t>
+  </si>
+  <si>
+    <t>PairUp/ping</t>
+  </si>
+  <si>
+    <t>The system shall provide information of the two entities that were matched for a game to game manager</t>
+  </si>
+  <si>
+    <t>The system shall keep track of information of players in queue, including their timeOfEntry, playerID, playerName, if their playAgainstBot, and wins</t>
+  </si>
+  <si>
+    <t>PairUp/PlayerInMatchmaking/N/A</t>
+  </si>
+  <si>
+    <t>The system shall keep track of all match information before sending it to game manager</t>
+  </si>
+  <si>
+    <t>PairUp/Match/N/A</t>
+  </si>
+  <si>
+    <t>The system shall implement a matchmaking algorithm to pair up players of the same skill range. The algorithm will instantly match those with a similar win count (+/- 1 win), but keep those that don't get matched instantly inside the matchmaking "pool".</t>
+  </si>
+  <si>
+    <t>The system shall ensure that no player gets stuck in matchmaking for eternity, if a match can be made. A player will have a "priority" once they have been in queue for more than 60 seconds, pairing them with the next player that enters queue, regardless of their win count</t>
+  </si>
+  <si>
+    <t>The system shall keep track of all players in the queue, using a LinkedHashMap that stores playerID as a key, and the "PlayerInMatchmaking" object as its value</t>
+  </si>
+  <si>
+    <t>PairUp/Matchmaking</t>
+  </si>
+  <si>
+    <t>The system shall routinely check for possible matches to prevent a standstill scenario. An asychrounous scheduler is used to "ping" the matching method, telling it to check for available pairings between players currently in the queue every 60 seconds.</t>
+  </si>
+  <si>
+    <t>PairUp/MatchmakingScheduler</t>
+  </si>
+  <si>
+    <t>The system will support direct matches, in which a player directly challenges another player to avoid going through the matchmaking process</t>
+  </si>
+  <si>
+    <t>PairUp/PairUp/pair</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,16 +791,33 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -739,11 +825,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -758,6 +949,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,28 +1307,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S116"/>
+  <dimension ref="A1:S130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="36.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -1151,7 +1366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1171,7 +1386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1194,7 +1409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1208,7 +1423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1222,7 +1437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1236,7 +1451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1250,7 +1465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1264,7 +1479,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1278,7 +1493,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1292,7 +1507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1306,7 +1521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1320,7 +1535,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1334,7 +1549,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1348,7 +1563,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1362,7 +1577,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1376,7 +1591,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1390,7 +1605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1404,7 +1619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1418,7 +1633,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1432,7 +1647,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1446,7 +1661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1460,7 +1675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1474,7 +1689,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1488,7 +1703,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1502,7 +1717,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1516,7 +1731,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1530,7 +1745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1544,7 +1759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1558,7 +1773,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1572,7 +1787,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1586,7 +1801,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1600,7 +1815,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1614,7 +1829,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1628,7 +1843,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1642,7 +1857,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1656,7 +1871,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1670,7 +1885,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1684,7 +1899,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1698,7 +1913,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1712,7 +1927,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1726,7 +1941,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1740,7 +1955,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1754,7 +1969,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>42</v>
       </c>
@@ -1768,7 +1983,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>43</v>
       </c>
@@ -1782,7 +1997,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>44</v>
       </c>
@@ -1796,7 +2011,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>45</v>
       </c>
@@ -1810,7 +2025,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>46</v>
       </c>
@@ -1824,7 +2039,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>47</v>
       </c>
@@ -1838,7 +2053,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>48</v>
       </c>
@@ -1852,7 +2067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>49</v>
       </c>
@@ -1866,7 +2081,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>50</v>
       </c>
@@ -1880,7 +2095,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>51</v>
       </c>
@@ -1894,7 +2109,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>52</v>
       </c>
@@ -1908,7 +2123,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>53</v>
       </c>
@@ -1922,7 +2137,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>54</v>
       </c>
@@ -1936,7 +2151,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>55</v>
       </c>
@@ -1950,7 +2165,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>56</v>
       </c>
@@ -1964,7 +2179,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>57</v>
       </c>
@@ -1978,7 +2193,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>58</v>
       </c>
@@ -1992,7 +2207,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>59</v>
       </c>
@@ -2006,7 +2221,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>60</v>
       </c>
@@ -2020,7 +2235,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>61</v>
       </c>
@@ -2034,7 +2249,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>62</v>
       </c>
@@ -2048,7 +2263,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>63</v>
       </c>
@@ -2062,7 +2277,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>64</v>
       </c>
@@ -2076,7 +2291,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>65</v>
       </c>
@@ -2090,7 +2305,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>66</v>
       </c>
@@ -2104,7 +2319,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>67</v>
       </c>
@@ -2118,7 +2333,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>68</v>
       </c>
@@ -2132,7 +2347,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>69</v>
       </c>
@@ -2146,7 +2361,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>70</v>
       </c>
@@ -2160,7 +2375,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>71</v>
       </c>
@@ -2174,7 +2389,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>72</v>
       </c>
@@ -2188,7 +2403,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>73</v>
       </c>
@@ -2202,7 +2417,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>74</v>
       </c>
@@ -2216,7 +2431,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>75</v>
       </c>
@@ -2230,7 +2445,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>76</v>
       </c>
@@ -2244,7 +2459,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>77</v>
       </c>
@@ -2258,7 +2473,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>78</v>
       </c>
@@ -2272,7 +2487,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>79</v>
       </c>
@@ -2286,7 +2501,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>80</v>
       </c>
@@ -2300,7 +2515,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>81</v>
       </c>
@@ -2314,7 +2529,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>82</v>
       </c>
@@ -2328,7 +2543,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>83</v>
       </c>
@@ -2342,7 +2557,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>84</v>
       </c>
@@ -2356,7 +2571,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>85</v>
       </c>
@@ -2370,7 +2585,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>86</v>
       </c>
@@ -2384,7 +2599,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>87</v>
       </c>
@@ -2398,7 +2613,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>88</v>
       </c>
@@ -2412,7 +2627,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>89</v>
       </c>
@@ -2426,7 +2641,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>90</v>
       </c>
@@ -2440,7 +2655,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>91</v>
       </c>
@@ -2454,7 +2669,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>92</v>
       </c>
@@ -2468,7 +2683,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>93</v>
       </c>
@@ -2482,7 +2697,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>94</v>
       </c>
@@ -2496,7 +2711,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>95</v>
       </c>
@@ -2510,7 +2725,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>96</v>
       </c>
@@ -2524,7 +2739,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>97</v>
       </c>
@@ -2538,7 +2753,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>98</v>
       </c>
@@ -2552,7 +2767,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>99</v>
       </c>
@@ -2566,7 +2781,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>100</v>
       </c>
@@ -2580,7 +2795,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>101</v>
       </c>
@@ -2594,7 +2809,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>102</v>
       </c>
@@ -2608,7 +2823,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>103</v>
       </c>
@@ -2622,7 +2837,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>104</v>
       </c>
@@ -2636,7 +2851,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>105</v>
       </c>
@@ -2650,7 +2865,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>106</v>
       </c>
@@ -2664,7 +2879,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>107</v>
       </c>
@@ -2678,7 +2893,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>108</v>
       </c>
@@ -2692,7 +2907,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>109</v>
       </c>
@@ -2706,7 +2921,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>110</v>
       </c>
@@ -2720,7 +2935,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>111</v>
       </c>
@@ -2734,7 +2949,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>112</v>
       </c>
@@ -2748,7 +2963,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>113</v>
       </c>
@@ -2760,6 +2975,202 @@
       </c>
       <c r="D116" s="1" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="B117">
+        <v>31</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>115</v>
+      </c>
+      <c r="B118">
+        <v>31</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="B119">
+        <v>31</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>117</v>
+      </c>
+      <c r="B120">
+        <v>31</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="B121">
+        <v>31</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>119</v>
+      </c>
+      <c r="B122">
+        <v>31</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>120</v>
+      </c>
+      <c r="B123">
+        <v>31</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>121</v>
+      </c>
+      <c r="B124">
+        <v>31</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>122</v>
+      </c>
+      <c r="B125">
+        <v>31</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>123</v>
+      </c>
+      <c r="B126">
+        <v>31</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="78.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>124</v>
+      </c>
+      <c r="B127">
+        <v>31</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>125</v>
+      </c>
+      <c r="B128">
+        <v>31</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>126</v>
+      </c>
+      <c r="B129">
+        <v>31</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>127</v>
+      </c>
+      <c r="B130">
+        <v>31</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34F1CF5-CFE5-4BCE-8E98-B9C0ED9000E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268BDE3A-4762-4C47-BF0A-499A24993D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,80 +686,80 @@
     <t>GamePlay.GamePlay.returnMoves</t>
   </si>
   <si>
-    <t>The system shall allow the user to be matched with another user if the user desires to play against another user</t>
-  </si>
-  <si>
     <t>PairUp/Matchmaking/pair</t>
   </si>
   <si>
-    <t>The system shall allow the user to be matched with a bot if the user desires to play against a bot</t>
-  </si>
-  <si>
-    <t>The system shall allow a bot to play against another bot</t>
-  </si>
-  <si>
-    <t>The system shall manage a "matchmaking" pool with players that are looking for a match against another player</t>
-  </si>
-  <si>
     <t>PairUp/Matchmaking/matching</t>
   </si>
   <si>
-    <t>The system shall allow other subsystems to add/remove/search/clear players from the matchmaking pool</t>
-  </si>
-  <si>
     <t>PairUp/PairUp</t>
   </si>
   <si>
-    <t>The system shall allow other subsystems to "ping" the matchmaking pool, which tells the matchmaker to look for possible pairs in the current pool</t>
-  </si>
-  <si>
     <t>PairUp/ping</t>
   </si>
   <si>
-    <t>The system shall provide information of the two entities that were matched for a game to game manager</t>
-  </si>
-  <si>
-    <t>The system shall keep track of information of players in queue, including their timeOfEntry, playerID, playerName, if their playAgainstBot, and wins</t>
-  </si>
-  <si>
     <t>PairUp/PlayerInMatchmaking/N/A</t>
   </si>
   <si>
-    <t>The system shall keep track of all match information before sending it to game manager</t>
-  </si>
-  <si>
     <t>PairUp/Match/N/A</t>
   </si>
   <si>
-    <t>The system shall implement a matchmaking algorithm to pair up players of the same skill range. The algorithm will instantly match those with a similar win count (+/- 1 win), but keep those that don't get matched instantly inside the matchmaking "pool".</t>
-  </si>
-  <si>
-    <t>The system shall ensure that no player gets stuck in matchmaking for eternity, if a match can be made. A player will have a "priority" once they have been in queue for more than 60 seconds, pairing them with the next player that enters queue, regardless of their win count</t>
-  </si>
-  <si>
-    <t>The system shall keep track of all players in the queue, using a LinkedHashMap that stores playerID as a key, and the "PlayerInMatchmaking" object as its value</t>
-  </si>
-  <si>
     <t>PairUp/Matchmaking</t>
   </si>
   <si>
-    <t>The system shall routinely check for possible matches to prevent a standstill scenario. An asychrounous scheduler is used to "ping" the matching method, telling it to check for available pairings between players currently in the queue every 60 seconds.</t>
-  </si>
-  <si>
     <t>PairUp/MatchmakingScheduler</t>
   </si>
   <si>
-    <t>The system will support direct matches, in which a player directly challenges another player to avoid going through the matchmaking process</t>
-  </si>
-  <si>
     <t>PairUp/PairUp/pair</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall allow other subsystems to add/remove/search/clear players from the matchmaking pool</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall allow other subsystems to "ping" the matchmaking pool, which tells the matchmaker to look for possible pairs in the current pool</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall provide information of the two entities that were matched for a game to game manager</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall keep track of information of players in queue, including their timeOfEntry, playerID, playerName, if their playAgainstBot, and wins</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall keep track of all match information before sending it to game manager</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall implement a matchmaking algorithm to pair up players of the same skill range. The algorithm will instantly match those with a similar win count (+/- 1 win), but keep those that don't get matched instantly inside the matchmaking "pool".</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall ensure that no player gets stuck in matchmaking for eternity, if a match can be made. A player will have a "priority" once they have been in queue for more than 60 seconds, pairing them with the next player that enters queue, regardless of their win count</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall keep track of all players in the queue, using a LinkedHashMap that stores playerID as a key, and the "PlayerInMatchmaking" object as its value</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall routinely check for possible matches to prevent a standstill scenario. An asychrounous scheduler is used to "ping" the matching method, telling it to check for available pairings between players currently in the queue every 60 seconds.</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem will support direct matches, in which a player directly challenges another player to avoid going through the matchmaking process</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall allow the user to be matched with another user if the user desires to play against another user</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall allow the user to be matched with a bot if the user desires to play against a bot</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall allow a bot to play against another bot</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall manage a "matchmaking" pool with players that are looking for a match against another player</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,33 +791,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F8F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -825,116 +808,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF284E3F"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF284E3F"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFF6F8F9"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFF6F8F9"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF284E3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF284E3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -949,30 +827,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1309,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2963,7 +2817,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>113</v>
       </c>
@@ -2977,200 +2831,200 @@
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>114</v>
       </c>
       <c r="B117">
         <v>31</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D117" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="118" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>115</v>
       </c>
       <c r="B118">
         <v>31</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C118" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>116</v>
       </c>
       <c r="B119">
         <v>31</v>
       </c>
-      <c r="C119" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C119" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>117</v>
       </c>
       <c r="B120">
         <v>31</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C120" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>118</v>
       </c>
       <c r="B121">
         <v>31</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C121" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>119</v>
       </c>
       <c r="B122">
         <v>31</v>
       </c>
-      <c r="C122" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C122" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>120</v>
       </c>
       <c r="B123">
         <v>31</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C123" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>121</v>
       </c>
       <c r="B124">
         <v>31</v>
       </c>
-      <c r="C124" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D124" s="9" t="s">
+      <c r="C124" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D124" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>122</v>
       </c>
       <c r="B125">
         <v>31</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D125" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D125" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>123</v>
       </c>
       <c r="B126">
         <v>31</v>
       </c>
-      <c r="C126" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="78.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C126" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>124</v>
       </c>
       <c r="B127">
         <v>31</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C127" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>125</v>
       </c>
       <c r="B128">
         <v>31</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C128" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>126</v>
       </c>
       <c r="B129">
         <v>31</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C129" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>127</v>
       </c>
       <c r="B130">
         <v>31</v>
       </c>
-      <c r="C130" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>237</v>
+      <c r="C130" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fergie/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268BDE3A-4762-4C47-BF0A-499A24993D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED5A3F4-FBEB-0746-A9CB-9471BABE4182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="256">
   <si>
     <t>Tested By</t>
   </si>
@@ -753,13 +751,75 @@
   </si>
   <si>
     <t>The PairUp subsystem shall manage a "matchmaking" pool with players that are looking for a match against another player</t>
+  </si>
+  <si>
+    <t>The Database shall store player information and ranking of all users who create an account.</t>
+  </si>
+  <si>
+    <t>The Database shall retrieve player account when page manager interface requests it by matching it to a players unique Username.</t>
+  </si>
+  <si>
+    <t>The Database will be created in SQLite3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Database shall update the  rank for the winner and loser after a match has ended, which will be signaled by the game termination interface. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Database shall display a query in which it orders all the accounts in ascending order by ranking having highest rank at the top. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The query ranking the accounts shall be repeated after every match. </t>
+  </si>
+  <si>
+    <t>The Database shall be updated, adding a new player if the player selects “create new account” button. Will also assign a unique ID to the player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The database shall store player information which includes the username and Unique ID. </t>
+  </si>
+  <si>
+    <t>The DB shall return an error message “username unavailable” if the username entered in the login interface matches any entries in the player table Database.</t>
+  </si>
+  <si>
+    <t>The DB will return player information and player ID to Pair up interface when it is requested and verified that a pair up is possible between players by the Pair up interface.</t>
+  </si>
+  <si>
+    <t>The player ranking shall be a calculated with the following formula
+Rn = Ro + K(W-We)
+ Rn is the new rating.
+ Ro the old (pre-event) rating.
+ K a constant (32 for 0-2099, 24 for 2100-2399, 16 for 2400 and above).
+ W the score in the event - i.e. for a single match win=1; draw=0.5; lose=0.
+ We the expected score (Win Expectancy), from the following formula:
+ We = 1/ (exp10(-dr/400) + 1)
+ dr equals the difference in ratings.</t>
+  </si>
+  <si>
+    <t>Uta.cse3310.DB.insertUser </t>
+  </si>
+  <si>
+    <t>Uta.cse3310.DB.getLeaderboard </t>
+  </si>
+  <si>
+    <t>Uta.cse3310.DB. SQLiteConnector  </t>
+  </si>
+  <si>
+    <t>Uta.cse3310.DB. UpdatePlayer </t>
+  </si>
+  <si>
+    <t>Uta.cse3310.DB.ValidateUser  </t>
+  </si>
+  <si>
+    <t>Uta.cse3310.DB.ValidateUser </t>
+  </si>
+  <si>
+    <t>Uta.cse3310.DB.GetRank </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,6 +851,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -812,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -827,6 +899,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,28 +1243,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S130"/>
+  <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -1220,7 +1302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1240,7 +1322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1263,7 +1345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1277,7 +1359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1291,7 +1373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1305,7 +1387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1319,7 +1401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1333,7 +1415,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1347,7 +1429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1361,7 +1443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1375,7 +1457,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1389,7 +1471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1403,7 +1485,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1417,7 +1499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1431,7 +1513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1445,7 +1527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1459,7 +1541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1473,7 +1555,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1487,7 +1569,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1501,7 +1583,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1515,7 +1597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1529,7 +1611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1543,7 +1625,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1557,7 +1639,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1571,7 +1653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1585,7 +1667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1599,7 +1681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1613,7 +1695,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1627,7 +1709,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1641,7 +1723,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1655,7 +1737,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1669,7 +1751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1683,7 +1765,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1697,7 +1779,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1711,7 +1793,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1725,7 +1807,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1739,7 +1821,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1753,7 +1835,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1767,7 +1849,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1781,7 +1863,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1795,7 +1877,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1809,7 +1891,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1823,7 +1905,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
@@ -1837,7 +1919,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -1851,7 +1933,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
@@ -1865,7 +1947,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
@@ -1879,7 +1961,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
@@ -1893,7 +1975,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
@@ -1907,7 +1989,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
@@ -1921,7 +2003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
@@ -1935,7 +2017,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
@@ -1949,7 +2031,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
@@ -1963,7 +2045,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
@@ -1977,7 +2059,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
@@ -1991,7 +2073,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
@@ -2005,7 +2087,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
@@ -2019,7 +2101,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
@@ -2033,7 +2115,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
@@ -2047,7 +2129,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58</v>
       </c>
@@ -2061,7 +2143,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59</v>
       </c>
@@ -2075,7 +2157,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60</v>
       </c>
@@ -2089,7 +2171,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>61</v>
       </c>
@@ -2103,7 +2185,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>62</v>
       </c>
@@ -2117,7 +2199,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>63</v>
       </c>
@@ -2131,7 +2213,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>64</v>
       </c>
@@ -2145,7 +2227,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>65</v>
       </c>
@@ -2159,7 +2241,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>66</v>
       </c>
@@ -2173,7 +2255,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>67</v>
       </c>
@@ -2187,7 +2269,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>68</v>
       </c>
@@ -2201,7 +2283,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>69</v>
       </c>
@@ -2215,7 +2297,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>70</v>
       </c>
@@ -2229,7 +2311,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>71</v>
       </c>
@@ -2243,7 +2325,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>72</v>
       </c>
@@ -2257,7 +2339,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>73</v>
       </c>
@@ -2271,7 +2353,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>74</v>
       </c>
@@ -2285,7 +2367,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>75</v>
       </c>
@@ -2299,7 +2381,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>76</v>
       </c>
@@ -2313,7 +2395,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>77</v>
       </c>
@@ -2327,7 +2409,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>78</v>
       </c>
@@ -2341,7 +2423,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>79</v>
       </c>
@@ -2355,7 +2437,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>80</v>
       </c>
@@ -2369,7 +2451,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>81</v>
       </c>
@@ -2383,7 +2465,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>82</v>
       </c>
@@ -2397,7 +2479,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>83</v>
       </c>
@@ -2411,7 +2493,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>84</v>
       </c>
@@ -2425,7 +2507,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>85</v>
       </c>
@@ -2439,7 +2521,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>86</v>
       </c>
@@ -2453,7 +2535,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>87</v>
       </c>
@@ -2467,7 +2549,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>88</v>
       </c>
@@ -2481,7 +2563,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>89</v>
       </c>
@@ -2495,7 +2577,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>90</v>
       </c>
@@ -2509,7 +2591,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>91</v>
       </c>
@@ -2523,7 +2605,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>92</v>
       </c>
@@ -2537,7 +2619,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>93</v>
       </c>
@@ -2551,7 +2633,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>94</v>
       </c>
@@ -2565,7 +2647,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>95</v>
       </c>
@@ -2579,7 +2661,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>96</v>
       </c>
@@ -2593,7 +2675,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>97</v>
       </c>
@@ -2607,7 +2689,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>98</v>
       </c>
@@ -2621,7 +2703,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>99</v>
       </c>
@@ -2635,7 +2717,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>100</v>
       </c>
@@ -2649,7 +2731,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>101</v>
       </c>
@@ -2663,7 +2745,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>102</v>
       </c>
@@ -2677,7 +2759,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>103</v>
       </c>
@@ -2691,7 +2773,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>104</v>
       </c>
@@ -2705,7 +2787,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>105</v>
       </c>
@@ -2719,7 +2801,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>106</v>
       </c>
@@ -2733,7 +2815,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>107</v>
       </c>
@@ -2747,7 +2829,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>108</v>
       </c>
@@ -2761,7 +2843,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>109</v>
       </c>
@@ -2775,7 +2857,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>110</v>
       </c>
@@ -2789,7 +2871,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>111</v>
       </c>
@@ -2803,7 +2885,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>112</v>
       </c>
@@ -2817,7 +2899,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>113</v>
       </c>
@@ -2831,7 +2913,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>114</v>
       </c>
@@ -2845,7 +2927,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>115</v>
       </c>
@@ -2859,7 +2941,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>116</v>
       </c>
@@ -2873,7 +2955,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>117</v>
       </c>
@@ -2887,7 +2969,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>118</v>
       </c>
@@ -2901,7 +2983,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>119</v>
       </c>
@@ -2915,7 +2997,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>120</v>
       </c>
@@ -2929,7 +3011,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>121</v>
       </c>
@@ -2943,7 +3025,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>122</v>
       </c>
@@ -2957,7 +3039,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>123</v>
       </c>
@@ -2971,7 +3053,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>124</v>
       </c>
@@ -2985,7 +3067,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>125</v>
       </c>
@@ -2999,7 +3081,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>126</v>
       </c>
@@ -3013,7 +3095,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>127</v>
       </c>
@@ -3026,6 +3108,166 @@
       <c r="D130" s="1" t="s">
         <v>223</v>
       </c>
+    </row>
+    <row r="131" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>128</v>
+      </c>
+      <c r="B131">
+        <v>30</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>129</v>
+      </c>
+      <c r="B132">
+        <v>30</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>130</v>
+      </c>
+      <c r="B133">
+        <v>30</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>131</v>
+      </c>
+      <c r="B134">
+        <v>30</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>132</v>
+      </c>
+      <c r="B135">
+        <v>30</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>133</v>
+      </c>
+      <c r="B136">
+        <v>30</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>134</v>
+      </c>
+      <c r="B137">
+        <v>30</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>135</v>
+      </c>
+      <c r="B138">
+        <v>30</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>136</v>
+      </c>
+      <c r="B139">
+        <v>30</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>137</v>
+      </c>
+      <c r="B140">
+        <v>30</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>138</v>
+      </c>
+      <c r="B141">
+        <v>30</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C143" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fergie/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mavsuta-my.sharepoint.com/personal/cmb6906_mavs_uta_edu/Documents/2024-2025/Spring/Fundamentals of SE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED5A3F4-FBEB-0746-A9CB-9471BABE4182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{879BA1B7-AEFB-1F4C-96A0-906E7F19F358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="271">
   <si>
     <t>Tested By</t>
   </si>
@@ -813,6 +813,51 @@
   </si>
   <si>
     <t>Uta.cse3310.DB.GetRank </t>
+  </si>
+  <si>
+    <t>A leaderboard will be displayed after each game</t>
+  </si>
+  <si>
+    <t>summary.html</t>
+  </si>
+  <si>
+    <t>The results of every game played will be stored into a database. And shall be used for building the contents of the leaderboard</t>
+  </si>
+  <si>
+    <t>summary.js</t>
+  </si>
+  <si>
+    <t>The leaderboard page shall display a search bar to search players ranks</t>
+  </si>
+  <si>
+    <t>The leaderboard page shall display the current players stats</t>
+  </si>
+  <si>
+    <t>The leaderboard page shall show a table that includes the top 100 players</t>
+  </si>
+  <si>
+    <t>The leaderboard shall display a players name, W/L, Wins, Losses, and Time played (most likely information)</t>
+  </si>
+  <si>
+    <t>The leaderboard page shall take information from the page manager and display that information</t>
+  </si>
+  <si>
+    <t>The leaderboard shall be coded in html</t>
+  </si>
+  <si>
+    <t>The leaderboard shall rank players based off highest win loss ratio</t>
+  </si>
+  <si>
+    <t>The leaderboard page shall have a back button that goes to main menu</t>
+  </si>
+  <si>
+    <t>U009</t>
+  </si>
+  <si>
+    <t>U010</t>
+  </si>
+  <si>
+    <t>Summary:</t>
   </si>
 </sst>
 </file>
@@ -924,6 +969,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>145294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49866792-F7A3-FFB5-F8EC-832A93D7D26D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23479125" y="62928500"/>
+          <a:ext cx="7772400" cy="4415669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1243,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S143"/>
+  <dimension ref="A1:S151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" topLeftCell="D139" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M147" sqref="M147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3081,7 +3175,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>126</v>
       </c>
@@ -3095,7 +3189,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>127</v>
       </c>
@@ -3109,7 +3203,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>128</v>
       </c>
@@ -3123,7 +3217,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>129</v>
       </c>
@@ -3137,7 +3231,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>130</v>
       </c>
@@ -3151,7 +3245,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>131</v>
       </c>
@@ -3165,7 +3259,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>132</v>
       </c>
@@ -3179,7 +3273,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>133</v>
       </c>
@@ -3193,7 +3287,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>134</v>
       </c>
@@ -3207,7 +3301,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>135</v>
       </c>
@@ -3221,7 +3315,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>136</v>
       </c>
@@ -3235,7 +3329,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>137</v>
       </c>
@@ -3249,7 +3343,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" ht="208" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>138</v>
       </c>
@@ -3263,14 +3357,158 @@
         <v>255</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C142" s="6"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C143" s="6"/>
+    <row r="142" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>139</v>
+      </c>
+      <c r="B142">
+        <v>28</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D142" t="s">
+        <v>257</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="R142" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>140</v>
+      </c>
+      <c r="B143">
+        <v>28</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D143" t="s">
+        <v>259</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>141</v>
+      </c>
+      <c r="B144">
+        <v>28</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D144" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>142</v>
+      </c>
+      <c r="B145">
+        <v>28</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D145" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>143</v>
+      </c>
+      <c r="B146">
+        <v>28</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D146" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>144</v>
+      </c>
+      <c r="B147">
+        <v>28</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D147" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>145</v>
+      </c>
+      <c r="B148">
+        <v>28</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D148" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>146</v>
+      </c>
+      <c r="B149">
+        <v>28</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D149" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150">
+        <v>28</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D150" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>148</v>
+      </c>
+      <c r="B151">
+        <v>28</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D151" t="s">
+        <v>257</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mavsuta-my.sharepoint.com/personal/cmb6906_mavs_uta_edu/Documents/2024-2025/Spring/Fundamentals of SE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{879BA1B7-AEFB-1F4C-96A0-906E7F19F358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{879BA1B7-AEFB-1F4C-96A0-906E7F19F358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39493073-E4FC-43A9-95E0-73D5DF3F67C1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="310">
   <si>
     <t>Tested By</t>
   </si>
@@ -79,6 +81,9 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>Requirement</t>
   </si>
   <si>
     <t>Implemented In</t>
@@ -107,9 +112,6 @@
     <t>cut and paste the screenshot of each page in this part of the spreadsheet, please. use as much space is needed.</t>
   </si>
   <si>
-    <t>Requirement</t>
-  </si>
-  <si>
     <t>BOT II shall return a list of game move(s) to game manager</t>
   </si>
   <si>
@@ -221,30 +223,51 @@
     <t>Bot 1 shall use a fixed strategy to determine its moves when playing against the user or Bot II.</t>
   </si>
   <si>
+    <t>Bot1.java / requestMove()</t>
+  </si>
+  <si>
     <t>Bot 1 shall receive the current game board state from the Game Manager via the requestMove(Board board) method.</t>
   </si>
   <si>
     <t>Bot 1 shall return its selected move(s) to the Game Manager via the sendMove()method.</t>
   </si>
   <si>
+    <t>Bot1.java / sendMove()</t>
+  </si>
+  <si>
     <t>Bot 1 shall communicate with the Game Manager via function calls</t>
   </si>
   <si>
+    <t>Bot1.java / requestMove(), sendMove()</t>
+  </si>
+  <si>
     <t>Bot 1 shall be able to play against Bot 2 using the same interface.</t>
   </si>
   <si>
     <t>Bot 1 shall not store any game state locally; all state will reside with the Game Manager.</t>
   </si>
   <si>
+    <t>Bot1.java / requestMove(), flushMoves()</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bot 1 shall correctly determine and evaluate all legal moves, including normal and capture moves, for all its pieces on the board. </t>
   </si>
   <si>
+    <t>Bot1.java / determineMoves(), playNormalMove(), playCapture()</t>
+  </si>
+  <si>
     <t>Bot 1 shall utilize a LinkedList&lt;Move&gt; to represent and manage sequences of moves, including potential chains for multi-jump captures.</t>
   </si>
   <si>
+    <t xml:space="preserve">Bot1.java / sendMove(), determineMoves() </t>
+  </si>
+  <si>
     <t>Bot 1 shall avoid moves that expose its pieces to immediate counter-capture, especially in the passive strategy. The defensive strategy will lower the score of such moves to discourage risky decisions.</t>
   </si>
   <si>
+    <t>Bot1.java / passiveStrategyImplementation()</t>
+  </si>
+  <si>
     <t>Bot 1 shall send all move(s) to the Game Manager in a single transmission when multiple captures occur.</t>
   </si>
   <si>
@@ -254,93 +277,72 @@
     <t>Bot I shall use this function to dynamically change the strategy depending on the output of countallPieces()</t>
   </si>
   <si>
+    <t>BotI.java / isAggressive()</t>
+  </si>
+  <si>
     <t>Bot I shall count the board for all the pieces</t>
   </si>
   <si>
+    <t>BotI.java / countallPieces()</t>
+  </si>
+  <si>
     <t>Bot I shall play more aggressively (push forward more) if it has more pieces than the player.</t>
   </si>
   <si>
+    <t>BotI.java /  aggressiveStrategyImplementation</t>
+  </si>
+  <si>
     <t>Bot I shall play more cautiously if it has less pieces than player.</t>
   </si>
   <si>
+    <t>BotI.java /  passiveStrategyImplementation</t>
+  </si>
+  <si>
     <t>Bot I shall advance a space if the square is empty given that the space does not have an enemy piece on it.</t>
   </si>
   <si>
+    <t>BotI.java / playNormalMove</t>
+  </si>
+  <si>
     <t>Bot I shall evaluate and add a capturing move if the move exists and is legal.</t>
   </si>
   <si>
+    <t>BotI.java / playCapture</t>
+  </si>
+  <si>
     <t>Bot I shall identify whether a given move is a capturing move by evaluating the distance between the start and destination squares and checking for an opponent piece in between.</t>
   </si>
   <si>
+    <t>BotI.java / isCapturingMove</t>
+  </si>
+  <si>
     <t>Bot I shall determine if a move places its piece in a vulnerable location where it can be captured by the opponent.</t>
   </si>
   <si>
+    <t>BotI.java / insideDangerRegion</t>
+  </si>
+  <si>
     <t>Bot I shall evaluate if a given board position can be used by the opponent to attack.</t>
   </si>
   <si>
+    <t>BotI.java / canBeAttackedFrom</t>
+  </si>
+  <si>
     <t>Bot I shall check if a move leaves the piece protected by an adjacent friendly piece.</t>
   </si>
   <si>
+    <t>BotI.java / hasBackupAfterMove</t>
+  </si>
+  <si>
     <t>Bot I shall detect if a square is occupied by a friendly piece to determine support.</t>
   </si>
   <si>
+    <t>BotI.java / hasSupportAt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bot I shall know the boundaries of the board so prevent plays made out of the board. </t>
   </si>
   <si>
-    <t>Bot1.java / requestMove()</t>
-  </si>
-  <si>
-    <t>Bot1.java / sendMove()</t>
-  </si>
-  <si>
-    <t>Bot1.java / requestMove(), sendMove()</t>
-  </si>
-  <si>
-    <t>Bot1.java / requestMove(), flushMoves()</t>
-  </si>
-  <si>
-    <t>Bot1.java / determineMoves(), playNormalMove(), playCapture()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot1.java / sendMove(), determineMoves() </t>
-  </si>
-  <si>
-    <t>Bot1.java / passiveStrategyImplementation()</t>
-  </si>
-  <si>
-    <t>BotI.java / isAggressive()</t>
-  </si>
-  <si>
-    <t>BotI.java / countallPieces()</t>
-  </si>
-  <si>
-    <t>BotI.java /  aggressiveStrategyImplementation</t>
-  </si>
-  <si>
-    <t>BotI.java /  passiveStrategyImplementation</t>
-  </si>
-  <si>
-    <t>BotI.java / playNormalMove</t>
-  </si>
-  <si>
-    <t>BotI.java / playCapture</t>
-  </si>
-  <si>
-    <t>BotI.java / isCapturingMove</t>
-  </si>
-  <si>
-    <t>BotI.java / insideDangerRegion</t>
-  </si>
-  <si>
-    <t>BotI.java / canBeAttackedFrom</t>
-  </si>
-  <si>
-    <t>BotI.java / hasBackupAfterMove</t>
-  </si>
-  <si>
-    <t>BotI.java / hasSupportAt</t>
-  </si>
-  <si>
     <t>BotI.java / isInsideBoard</t>
   </si>
   <si>
@@ -449,199 +451,214 @@
     <t>After a game concludes, the players go to the end of the line waiting for the new game</t>
   </si>
   <si>
+    <t>GameTermination.java/checkGameOver()</t>
+  </si>
+  <si>
     <t>The results of every game played will be stored into a database, and shall be used for building the contents of the leaderboard.</t>
   </si>
   <si>
+    <t>GameResult.java/saveResultsToDatabase()</t>
+  </si>
+  <si>
     <t>The system will detect a draw, if one occurs</t>
   </si>
   <si>
     <t>The system will have an understanding of the game rules in order to detect winnings after each play, and check for legalMoves to terminate the game</t>
   </si>
   <si>
+    <t>GameResult.java/checkForLegalMoves(), getWinner()</t>
+  </si>
+  <si>
     <t>The subsytem will send game termination information to database, only when the game ends through a final summary</t>
   </si>
   <si>
+    <t>GameTermination.java/saveResultsToDatabase()</t>
+  </si>
+  <si>
     <t>The subsystem will send a final termination message to game play once a match is over</t>
   </si>
   <si>
+    <t>GameTermination.java/endGame(), sendResults()</t>
+  </si>
+  <si>
     <t>The subsystem will handle a confirmation response from the database.</t>
   </si>
   <si>
+    <t>GameResult.java/confirmDataStored()</t>
+  </si>
+  <si>
     <t>The subsytem will track the captured pieces, in order to determine who has lost the game</t>
   </si>
   <si>
+    <t>GameResult.java/trackCapturedPieces()</t>
+  </si>
+  <si>
     <t>The subsystem will keep track of the player scores after a move, as well as update them</t>
   </si>
   <si>
-    <t>GameTermination.java/checkGameOver()</t>
-  </si>
-  <si>
-    <t>GameResult.java/saveResultsToDatabase()</t>
-  </si>
-  <si>
-    <t>GameResult.java/checkForLegalMoves(), getWinner()</t>
-  </si>
-  <si>
-    <t>GameTermination.java/saveResultsToDatabase()</t>
-  </si>
-  <si>
-    <t>GameTermination.java/endGame(), sendResults()</t>
-  </si>
-  <si>
-    <t>GameResult.java/confirmDataStored()</t>
-  </si>
-  <si>
-    <t>GameResult.java/trackCapturedPieces()</t>
-  </si>
-  <si>
     <t>GameResult.java/updateScores(), getScore()</t>
   </si>
   <si>
     <t>The game will run as a Java program with JavaScript/HTML clients.</t>
-  </si>
-  <si>
-    <t>The rules follow English Draughts from Wikipedia.</t>
-  </si>
-  <si>
-    <t>Display a standard 8x8 checkers board grid with alternating dark and light squares. Board layout should be clear and consistent, with the dark square at the bottom left corner.</t>
-  </si>
-  <si>
-    <t>Display checker pieces for both players. Regular and king pieces should be visually different, and valid moves must be highlighted when a piece is selected.</t>
-  </si>
-  <si>
-    <t>The game will allow selection of pieces and display valid move destinations by commuicating with other teams. Display feedback for illegal moves, captures, and multiple jump possibilities, as provided by other responsible teams to the game display team.</t>
-  </si>
-  <si>
-    <t>Display current player's turn, player names (ID).</t>
-  </si>
-  <si>
-    <t>Implement method for other teams to send messages to the players.</t>
-  </si>
-  <si>
-    <t>Keep game board hidden until the game starts. Enable or disable move interface based on game state and player's turn. This must be controlled by page manager.</t>
-  </si>
-  <si>
-    <t>Provide buttons for resigning, and offering draw.</t>
-  </si>
-  <si>
-    <t>Indicate who moves first.</t>
-  </si>
-  <si>
-    <t>Display all valid moves for a selected piece. Valid moves are determined by backend and visualized on the board.</t>
-  </si>
-  <si>
-    <t>Send all player moves to the backend. Game display collects and formats movement data.</t>
-  </si>
-  <si>
-    <t>Support multiple concurrent game instances by designing the checkers board as a reusable class.</t>
-  </si>
-  <si>
-    <t>Automatically rotate the board 180 degrees for the black player to maintain player perspective.</t>
-  </si>
-  <si>
-    <t>Implement robust error handling in UI functions with clear feedback.</t>
-  </si>
-  <si>
-    <t>Define a standardized JSON message format for client-server communications with type-based message handling.</t>
-  </si>
-  <si>
-    <t>Automatically promote pieces to kings upon reaching the opponent's back row and update visuals.</t>
-  </si>
-  <si>
-    <t>Manage game state transitions and update UI appropriately during turn changes or game completion.</t>
-  </si>
-  <si>
-    <t>Notify players of game events such as opponent moves and game end.</t>
-  </si>
-  <si>
-    <t>Prevent duplication of event listeners.</t>
   </si>
   <si>
     <t>Java WebSocket Server
 connection object in client JS</t>
   </si>
   <si>
+    <t>The rules follow English Draughts from Wikipedia.</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard.handle_checkers_piece_click()</t>
+  </si>
+  <si>
+    <t>Display a standard 8x8 checkers board grid with alternating dark and light squares. Board layout should be clear and consistent, with the dark square at the bottom left corner.</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard.update_board_style(), game_display_checkers.js/CheckersBoard.create_checkers_board()</t>
+  </si>
+  <si>
+    <t>Display checker pieces for both players. Regular and king pieces should be visually different, and valid moves must be highlighted when a piece is selected.</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard.update_board_style(), CSS styling in game_display_checkers.js/update_board_style()</t>
+  </si>
+  <si>
+    <t>The game will allow selection of pieces and display valid move destinations by commuicating with other teams. Display feedback for illegal moves, captures, and multiple jump possibilities, as provided by other responsible teams to the game display team.</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard.handle_checkers_piece_click(), game_display_checkers.js/CheckersBoard.show_possible_moves()</t>
+  </si>
+  <si>
+    <t>Display current player's turn, player names (ID).</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard.update_current_player(), game_id</t>
+  </si>
+  <si>
+    <t>Implement method for other teams to send messages to the players.</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/game_display_popup_messages()</t>
+  </si>
+  <si>
+    <t>Keep game board hidden until the game starts. Enable or disable move interface based on game state and player's turn. This must be controlled by page manager.</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard.create_checkers_board()</t>
+  </si>
+  <si>
+    <t>Provide buttons for resigning, and offering draw.</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/handle_resign(), game_display_checkers.js/offer_draw(), game_display_checkers.js/add_game_display_user_control_event_listener()</t>
+  </si>
+  <si>
+    <t>Indicate who moves first.</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard constructor, game_display_checkers.js/update_current_player()</t>
+  </si>
+  <si>
+    <t>Display all valid moves for a selected piece. Valid moves are determined by backend and visualized on the board.</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard.show_possible_moves(), game_display_checkers.js/return_allowed_moves(), game_display_checkers.js/is_valid_move()</t>
+  </si>
+  <si>
+    <t>Send all player moves to the backend. Game display collects and formats movement data.</t>
+  </si>
+  <si>
+    <t>game_display_checkers.js/CheckersBoard.move_checkers_piece(), WebSocket message: {type: "move", ...}</t>
+  </si>
+  <si>
+    <t>Support multiple concurrent game instances by designing the checkers board as a reusable class.</t>
+  </si>
+  <si>
     <t>CheckersBoard class construction and design pattern</t>
   </si>
   <si>
-    <t>game_display_checkers.js/CheckersBoard.handle_checkers_piece_click()</t>
-  </si>
-  <si>
-    <t>game_display_checkers.js/CheckersBoard.update_board_style(), game_display_checkers.js/CheckersBoard.create_checkers_board()</t>
-  </si>
-  <si>
-    <t>game_display_checkers.js/CheckersBoard.update_board_style(), CSS styling in game_display_checkers.js/update_board_style()</t>
-  </si>
-  <si>
-    <t>game_display_checkers.js/CheckersBoard.handle_checkers_piece_click(), game_display_checkers.js/CheckersBoard.show_possible_moves()</t>
-  </si>
-  <si>
-    <t>game_display_checkers.js/CheckersBoard.update_current_player(), game_id</t>
-  </si>
-  <si>
-    <t>game_display_checkers.js/game_display_popup_messages()</t>
-  </si>
-  <si>
-    <t>game_display_checkers.js/CheckersBoard.create_checkers_board()</t>
-  </si>
-  <si>
-    <t>game_display_checkers.js/handle_resign(), game_display_checkers.js/offer_draw(), game_display_checkers.js/add_game_display_user_control_event_listener()</t>
-  </si>
-  <si>
-    <t>game_display_checkers.js/CheckersBoard constructor, game_display_checkers.js/update_current_player()</t>
-  </si>
-  <si>
-    <t>game_display_checkers.js/CheckersBoard.show_possible_moves(), game_display_checkers.js/return_allowed_moves(), game_display_checkers.js/is_valid_move()</t>
-  </si>
-  <si>
-    <t>game_display_checkers.js/CheckersBoard.move_checkers_piece(), WebSocket message: {type: "move", ...}</t>
+    <t>Automatically rotate the board 180 degrees for the black player to maintain player perspective.</t>
   </si>
   <si>
     <t>game_display_checkers.js/CheckersBoard.rotateBoardIfBlack()</t>
   </si>
   <si>
+    <t>Implement robust error handling in UI functions with clear feedback.</t>
+  </si>
+  <si>
     <t>Try/catch blocks, game_display_checkers.js/game_display_popup_messages()</t>
   </si>
   <si>
+    <t>Define a standardized JSON message format for client-server communications with type-based message handling.</t>
+  </si>
+  <si>
     <t>WebSocket message formatting in game_display_checkers.js/game_display_handle_websocket_received_data()</t>
   </si>
   <si>
+    <t>Automatically promote pieces to kings upon reaching the opponent's back row and update visuals.</t>
+  </si>
+  <si>
     <t>game_display_checkers.js/move_checkers_piece(), game_display_checkers.js/update_board_style()</t>
   </si>
   <si>
+    <t>Manage game state transitions and update UI appropriately during turn changes or game completion.</t>
+  </si>
+  <si>
     <t>game_display_checkers.js/update_current_player(), game_display_checkers.js/game_display_handle_websocket_received_data()</t>
   </si>
   <si>
+    <t>Notify players of game events such as opponent moves and game end.</t>
+  </si>
+  <si>
     <t>Message handling in game_display_checkers.js/game_display_handle_websocket_received_data()</t>
   </si>
   <si>
+    <t>Prevent duplication of event listeners.</t>
+  </si>
+  <si>
     <t>game_display_checkers.js/register_buttons_to_event_listener()</t>
   </si>
   <si>
     <t>Game Play shall determine whether a move is legal or not and decides whether a piece has been captured.</t>
   </si>
   <si>
+    <t>GamePlay.GamePlay.returnBoard</t>
+  </si>
+  <si>
     <t>A checker's piece shall not move to a spot taken by another checker's piece.  If the user attempts to move in a spot that is taken send an error message to Game Manager</t>
   </si>
   <si>
+    <t>GamePlay.rules.isLegal</t>
+  </si>
+  <si>
     <t>A checker's piece shall only move diagonally up the board unless it is marked by a crown, allowing the piece to move diagonally up and down.</t>
   </si>
   <si>
     <t>A checker's piece shall not move beyond the border of the playing field.</t>
   </si>
   <si>
+    <t>GamePlay.rules.inBounds</t>
+  </si>
+  <si>
     <t>Game Play shall communicate with Game Manager, notifying whether the requested move is legal and whether a piece has been captured.</t>
   </si>
   <si>
     <t>A player shall not be allowed to move checker pieces of their oponent</t>
   </si>
   <si>
+    <t>GamePlay.rules.canMovePiece</t>
+  </si>
+  <si>
     <t>The user is able to make multiple successive jumps during one turn, if each jump captures an opponents piece and follows the rules associated with the user's cheker piece (i.e a king could do this in either a backwards or forwards direction, and a regular piece is only able to do this in a forward direction)</t>
   </si>
   <si>
     <t>The user must capture an opponent's piece if a legal move is presented/available</t>
   </si>
   <si>
+    <t>GamePlay.rules.isLegal / GamePlay.GamePlay.returnBoard</t>
+  </si>
+  <si>
     <t>The bot should be subject to the same rules as the user</t>
   </si>
   <si>
@@ -660,21 +677,6 @@
     <t>A pieces move length shall be proportional to the amount of the opponent's pieces the moving piece jumps over.</t>
   </si>
   <si>
-    <t>GamePlay.GamePlay.returnBoard</t>
-  </si>
-  <si>
-    <t>GamePlay.rules.isLegal</t>
-  </si>
-  <si>
-    <t>GamePlay.rules.inBounds</t>
-  </si>
-  <si>
-    <t>GamePlay.rules.canMovePiece</t>
-  </si>
-  <si>
-    <t>GamePlay.rules.isLegal / GamePlay.GamePlay.returnBoard</t>
-  </si>
-  <si>
     <t>GamePlay.rules.returnBoard</t>
   </si>
   <si>
@@ -684,87 +686,99 @@
     <t>GamePlay.GamePlay.returnMoves</t>
   </si>
   <si>
+    <t>The PairUp subsystem shall allow the user to be matched with another user if the user desires to play against another user</t>
+  </si>
+  <si>
     <t>PairUp/Matchmaking/pair</t>
   </si>
   <si>
+    <t>The PairUp subsystem shall allow the user to be matched with a bot if the user desires to play against a bot</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall allow a bot to play against another bot</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall manage a "matchmaking" pool with players that are looking for a match against another player</t>
+  </si>
+  <si>
     <t>PairUp/Matchmaking/matching</t>
   </si>
   <si>
+    <t>The PairUp subsystem shall allow other subsystems to add/remove/search/clear players from the matchmaking pool</t>
+  </si>
+  <si>
     <t>PairUp/PairUp</t>
   </si>
   <si>
+    <t>The PairUp subsystem shall allow other subsystems to "ping" the matchmaking pool, which tells the matchmaker to look for possible pairs in the current pool</t>
+  </si>
+  <si>
     <t>PairUp/ping</t>
   </si>
   <si>
+    <t>The PairUp subsystem shall provide information of the two entities that were matched for a game to game manager</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall keep track of information of players in queue, including their timeOfEntry, playerID, playerName, if their playAgainstBot, and wins</t>
+  </si>
+  <si>
     <t>PairUp/PlayerInMatchmaking/N/A</t>
   </si>
   <si>
+    <t>The PairUp subsystem shall keep track of all match information before sending it to game manager</t>
+  </si>
+  <si>
     <t>PairUp/Match/N/A</t>
   </si>
   <si>
+    <t>The PairUp subsystem shall implement a matchmaking algorithm to pair up players of the same skill range. The algorithm will instantly match those with a similar win count (+/- 1 win), but keep those that don't get matched instantly inside the matchmaking "pool".</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall ensure that no player gets stuck in matchmaking for eternity, if a match can be made. A player will have a "priority" once they have been in queue for more than 60 seconds, pairing them with the next player that enters queue, regardless of their win count</t>
+  </si>
+  <si>
+    <t>The PairUp subsystem shall keep track of all players in the queue, using a LinkedHashMap that stores playerID as a key, and the "PlayerInMatchmaking" object as its value</t>
+  </si>
+  <si>
     <t>PairUp/Matchmaking</t>
   </si>
   <si>
+    <t>The PairUp subsystem shall routinely check for possible matches to prevent a standstill scenario. An asychrounous scheduler is used to "ping" the matching method, telling it to check for available pairings between players currently in the queue every 60 seconds.</t>
+  </si>
+  <si>
     <t>PairUp/MatchmakingScheduler</t>
   </si>
   <si>
+    <t>The PairUp subsystem will support direct matches, in which a player directly challenges another player to avoid going through the matchmaking process</t>
+  </si>
+  <si>
     <t>PairUp/PairUp/pair</t>
   </si>
   <si>
-    <t>The PairUp subsystem shall allow other subsystems to add/remove/search/clear players from the matchmaking pool</t>
-  </si>
-  <si>
-    <t>The PairUp subsystem shall allow other subsystems to "ping" the matchmaking pool, which tells the matchmaker to look for possible pairs in the current pool</t>
-  </si>
-  <si>
-    <t>The PairUp subsystem shall provide information of the two entities that were matched for a game to game manager</t>
-  </si>
-  <si>
-    <t>The PairUp subsystem shall keep track of information of players in queue, including their timeOfEntry, playerID, playerName, if their playAgainstBot, and wins</t>
-  </si>
-  <si>
-    <t>The PairUp subsystem shall keep track of all match information before sending it to game manager</t>
-  </si>
-  <si>
-    <t>The PairUp subsystem shall implement a matchmaking algorithm to pair up players of the same skill range. The algorithm will instantly match those with a similar win count (+/- 1 win), but keep those that don't get matched instantly inside the matchmaking "pool".</t>
-  </si>
-  <si>
-    <t>The PairUp subsystem shall ensure that no player gets stuck in matchmaking for eternity, if a match can be made. A player will have a "priority" once they have been in queue for more than 60 seconds, pairing them with the next player that enters queue, regardless of their win count</t>
-  </si>
-  <si>
-    <t>The PairUp subsystem shall keep track of all players in the queue, using a LinkedHashMap that stores playerID as a key, and the "PlayerInMatchmaking" object as its value</t>
-  </si>
-  <si>
-    <t>The PairUp subsystem shall routinely check for possible matches to prevent a standstill scenario. An asychrounous scheduler is used to "ping" the matching method, telling it to check for available pairings between players currently in the queue every 60 seconds.</t>
-  </si>
-  <si>
-    <t>The PairUp subsystem will support direct matches, in which a player directly challenges another player to avoid going through the matchmaking process</t>
-  </si>
-  <si>
-    <t>The PairUp subsystem shall allow the user to be matched with another user if the user desires to play against another user</t>
-  </si>
-  <si>
-    <t>The PairUp subsystem shall allow the user to be matched with a bot if the user desires to play against a bot</t>
-  </si>
-  <si>
-    <t>The PairUp subsystem shall allow a bot to play against another bot</t>
-  </si>
-  <si>
-    <t>The PairUp subsystem shall manage a "matchmaking" pool with players that are looking for a match against another player</t>
-  </si>
-  <si>
     <t>The Database shall store player information and ranking of all users who create an account.</t>
   </si>
   <si>
+    <t>Uta.cse3310.DB.insertUser </t>
+  </si>
+  <si>
     <t>The Database shall retrieve player account when page manager interface requests it by matching it to a players unique Username.</t>
   </si>
   <si>
+    <t>Uta.cse3310.DB.getLeaderboard </t>
+  </si>
+  <si>
     <t>The Database will be created in SQLite3</t>
   </si>
   <si>
+    <t>Uta.cse3310.DB. SQLiteConnector  </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Database shall update the  rank for the winner and loser after a match has ended, which will be signaled by the game termination interface. </t>
   </si>
   <si>
+    <t>Uta.cse3310.DB. UpdatePlayer </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Database shall display a query in which it orders all the accounts in ascending order by ranking having highest rank at the top. </t>
   </si>
   <si>
@@ -780,7 +794,13 @@
     <t>The DB shall return an error message “username unavailable” if the username entered in the login interface matches any entries in the player table Database.</t>
   </si>
   <si>
+    <t>Uta.cse3310.DB.ValidateUser  </t>
+  </si>
+  <si>
     <t>The DB will return player information and player ID to Pair up interface when it is requested and verified that a pair up is possible between players by the Pair up interface.</t>
+  </si>
+  <si>
+    <t>Uta.cse3310.DB.ValidateUser </t>
   </si>
   <si>
     <t>The player ranking shall be a calculated with the following formula
@@ -794,24 +814,6 @@
  dr equals the difference in ratings.</t>
   </si>
   <si>
-    <t>Uta.cse3310.DB.insertUser </t>
-  </si>
-  <si>
-    <t>Uta.cse3310.DB.getLeaderboard </t>
-  </si>
-  <si>
-    <t>Uta.cse3310.DB. SQLiteConnector  </t>
-  </si>
-  <si>
-    <t>Uta.cse3310.DB. UpdatePlayer </t>
-  </si>
-  <si>
-    <t>Uta.cse3310.DB.ValidateUser  </t>
-  </si>
-  <si>
-    <t>Uta.cse3310.DB.ValidateUser </t>
-  </si>
-  <si>
     <t>Uta.cse3310.DB.GetRank </t>
   </si>
   <si>
@@ -821,12 +823,21 @@
     <t>summary.html</t>
   </si>
   <si>
+    <t>U009</t>
+  </si>
+  <si>
+    <t>Summary:</t>
+  </si>
+  <si>
     <t>The results of every game played will be stored into a database. And shall be used for building the contents of the leaderboard</t>
   </si>
   <si>
     <t>summary.js</t>
   </si>
   <si>
+    <t>U010</t>
+  </si>
+  <si>
     <t>The leaderboard page shall display a search bar to search players ranks</t>
   </si>
   <si>
@@ -851,20 +862,146 @@
     <t>The leaderboard page shall have a back button that goes to main menu</t>
   </si>
   <si>
-    <t>U009</t>
-  </si>
-  <si>
-    <t>U010</t>
-  </si>
-  <si>
-    <t>Summary:</t>
+    <t>The system shall convert JSON messages from the frontend into Java objects and send them to the correct part of the backend (like the database, matchmaking, or game logic). It shall also convert Java objects back into JSON to send responses.</t>
+  </si>
+  <si>
+    <t>JSONconverter in pairup_subsys.java, UserEvent.java, App.java</t>
+  </si>
+  <si>
+    <t>The backend shall be written in Java and shall communicate with the frontend, which is made using JavaScript and HTML. The system shall work on any web browser.</t>
+  </si>
+  <si>
+    <t>PageManager.java</t>
+  </si>
+  <si>
+    <t>After a game concludes, a leaderboard will be shown using score data sourced from the gameplay session.</t>
+  </si>
+  <si>
+    <t>getUserScore() in Summary.java</t>
+  </si>
+  <si>
+    <t>The client interface will be a single HTML page that dynamically shows/hides relevant sections depending on the current game state.</t>
+  </si>
+  <si>
+    <t>Managed by frontend; enabled/disabled via received WebSocket events</t>
+  </si>
+  <si>
+    <t>All messages sent and received over WebSockets will be in JSON format, converted to Java using a custom JSONconverter.</t>
+  </si>
+  <si>
+    <t>public class App in App.java (extends WebSocketServer)</t>
+  </si>
+  <si>
+    <t>After a player makes a move, the system shall check the new game state and send an update to the players involved.</t>
+  </si>
+  <si>
+    <t>game_status in game_status.java, handleMoveRequest() in PageManager.java</t>
+  </si>
+  <si>
+    <t>Each client that connects to the system shall be given a unique ID, which shall be used to send messages and manage game logic.</t>
+  </si>
+  <si>
+    <t>int clientId in App.java, linked via UserEvent.id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Java backend shall be event-driven. The GameManager shall run on a 1-second timer loop, and other parts of the system </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shall respond to events sent through WebSocket.</t>
+    </r>
+  </si>
+  <si>
+    <t>UserEvent in UserEvent.java, timer logic inside GameManager</t>
+  </si>
+  <si>
+    <t>When the backend gets a move from the frontend, it shall check if the move is valid, apply it using the GameManager, and send the updated game status to both players.</t>
+  </si>
+  <si>
+    <t>handleMoveRequest(UserEvent) in PageManager.java, makeMove() in GameManager.java</t>
+  </si>
+  <si>
+    <t>If a player resigns, the system shall log the event in the GameManager and send a message to both players to confirm the resignation and end the game.</t>
+  </si>
+  <si>
+    <t>handleResign(UserEvent) in PageManager.java, processResign() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>If a player offers a draw, the system shall notify the other player. If the draw is accepted, the game shall end and both players shall be notified.</t>
+  </si>
+  <si>
+    <t>handleDrawOffer(UserEvent) and handleDrawAccept(UserEvent) in PageManager.java</t>
+  </si>
+  <si>
+    <t>All event handler methods shall return a `UserEventReply` that includes a `game_status` object and a list of client IDs who should receive the message.</t>
+  </si>
+  <si>
+    <t>UserEventReply in UserEventReply.java, game_status in game_status.java</t>
+  </si>
+  <si>
+    <t>On game start, a show_game_display event will be sent to each player with their ID, assigned color, and starting player information.</t>
+  </si>
+  <si>
+    <t>buildShowGameDisplay() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>On game end (via win, resign, or draw), a hide_game_display event will be sent to all participants.</t>
+  </si>
+  <si>
+    <t>buildHideGameDisplay() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>The backend must support relaying move_made_by_other_player_or_bot messages to ensure clients update pieces visually.</t>
+  </si>
+  <si>
+    <t>processMove() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>Backend must support responding to get_allowed_moves requests and return a list of valid moves in valid_moves format.</t>
+  </si>
+  <si>
+    <t>processAllowedMovesRequest() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>The backend shall be able to send `notify_players` messages for things like game wins or losses, connection issues, or error alerts.</t>
+  </si>
+  <si>
+    <t>buildNotifyPlayers() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>The system shall return the game status for a player when given their player ID.</t>
+  </si>
+  <si>
+    <t>getGameinfo() in GameManagerSubsys.java</t>
+  </si>
+  <si>
+    <t>The system shall retrieve game-related data such as the current turn, winner, loser, and draw status from the controller.</t>
+  </si>
+  <si>
+    <t>Look up game sessions using client ID using GamePageController</t>
+  </si>
+  <si>
+    <t>getAllPlayerIDs(), processMove() in GamePageController.java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,6 +1045,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -917,7 +1073,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -925,11 +1081,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -954,6 +1200,33 @@
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,8 +1256,8 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>145294</xdr:rowOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>716794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1337,28 +1610,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S151"/>
+  <dimension ref="A1:S171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D139" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M147" sqref="M147"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -1396,7 +1669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15.95">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1404,19 +1677,19 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="48">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1424,22 +1697,22 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.95">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1453,7 +1726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15.95">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1467,7 +1740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="32.1">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1481,7 +1754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="15.95">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1495,7 +1768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="32.1">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1509,7 +1782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="32.1">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1523,7 +1796,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="32.1">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1537,7 +1810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="15.95">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1551,7 +1824,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="15.95">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1565,7 +1838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="15.95">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1579,7 +1852,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="32.1">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1593,7 +1866,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="15.95">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1607,7 +1880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="32.1">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1621,7 +1894,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="32.1">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1635,7 +1908,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="32.1">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1649,7 +1922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="32.1">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1663,7 +1936,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.95">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1677,7 +1950,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="32.1">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1691,7 +1964,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="48">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1705,7 +1978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="32.1">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1719,7 +1992,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="32.1">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1733,7 +2006,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="48">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1747,7 +2020,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="32.1">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1761,7 +2034,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="32.1">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1775,7 +2048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="48">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1789,7 +2062,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="32.1">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1800,10 +2073,10 @@
         <v>60</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="32.1">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1811,13 +2084,13 @@
         <v>33</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" ht="32.1">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1825,13 +2098,13 @@
         <v>33</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="32.1">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1839,13 +2112,13 @@
         <v>33</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="32.1">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1853,13 +2126,13 @@
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="32.1">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1867,13 +2140,13 @@
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="48">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1881,13 +2154,13 @@
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="48">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1895,13 +2168,13 @@
         <v>33</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="63.95">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1909,13 +2182,13 @@
         <v>33</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="32.1">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1923,13 +2196,13 @@
         <v>33</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="32.1">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1937,13 +2210,13 @@
         <v>33</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="32.1">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1951,13 +2224,13 @@
         <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.95">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1965,13 +2238,13 @@
         <v>33</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="32.1">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1979,13 +2252,13 @@
         <v>33</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="32.1">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1993,13 +2266,13 @@
         <v>33</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="32.1">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2007,13 +2280,13 @@
         <v>33</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="32.1">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2021,13 +2294,13 @@
         <v>33</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="48">
       <c r="A47">
         <v>44</v>
       </c>
@@ -2035,13 +2308,13 @@
         <v>33</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="32.1">
       <c r="A48">
         <v>45</v>
       </c>
@@ -2049,13 +2322,13 @@
         <v>33</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="32.1">
       <c r="A49">
         <v>46</v>
       </c>
@@ -2063,13 +2336,13 @@
         <v>33</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="32.1">
       <c r="A50">
         <v>47</v>
       </c>
@@ -2077,13 +2350,13 @@
         <v>33</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="32.1">
       <c r="A51">
         <v>48</v>
       </c>
@@ -2091,13 +2364,13 @@
         <v>33</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="32.1">
       <c r="A52">
         <v>49</v>
       </c>
@@ -2105,13 +2378,13 @@
         <v>33</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="48">
       <c r="A53">
         <v>50</v>
       </c>
@@ -2125,7 +2398,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="32.1">
       <c r="A54">
         <v>51</v>
       </c>
@@ -2139,7 +2412,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="15.95">
       <c r="A55">
         <v>52</v>
       </c>
@@ -2153,7 +2426,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="32.1">
       <c r="A56">
         <v>53</v>
       </c>
@@ -2167,7 +2440,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="32.1">
       <c r="A57">
         <v>54</v>
       </c>
@@ -2181,7 +2454,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="32.1">
       <c r="A58">
         <v>55</v>
       </c>
@@ -2195,7 +2468,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="32.1">
       <c r="A59">
         <v>56</v>
       </c>
@@ -2209,7 +2482,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="32.1">
       <c r="A60">
         <v>57</v>
       </c>
@@ -2223,7 +2496,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="32.1">
       <c r="A61">
         <v>58</v>
       </c>
@@ -2237,7 +2510,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="32.1">
       <c r="A62">
         <v>59</v>
       </c>
@@ -2251,7 +2524,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="32.1">
       <c r="A63">
         <v>60</v>
       </c>
@@ -2265,7 +2538,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="32.1">
       <c r="A64">
         <v>61</v>
       </c>
@@ -2279,7 +2552,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="63.95">
       <c r="A65">
         <v>62</v>
       </c>
@@ -2293,7 +2566,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="63.95">
       <c r="A66">
         <v>63</v>
       </c>
@@ -2307,7 +2580,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="32.1">
       <c r="A67">
         <v>64</v>
       </c>
@@ -2321,7 +2594,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="32.1">
       <c r="A68">
         <v>65</v>
       </c>
@@ -2335,7 +2608,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="32.1">
       <c r="A69">
         <v>66</v>
       </c>
@@ -2349,7 +2622,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="32.1">
       <c r="A70">
         <v>67</v>
       </c>
@@ -2363,7 +2636,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="48">
       <c r="A71">
         <v>68</v>
       </c>
@@ -2377,7 +2650,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="63.95">
       <c r="A72">
         <v>69</v>
       </c>
@@ -2391,7 +2664,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="32.1">
       <c r="A73">
         <v>70</v>
       </c>
@@ -2402,10 +2675,10 @@
         <v>136</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="48">
       <c r="A74">
         <v>71</v>
       </c>
@@ -2413,13 +2686,13 @@
         <v>35</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.95">
       <c r="A75">
         <v>72</v>
       </c>
@@ -2427,13 +2700,13 @@
         <v>35</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="48">
       <c r="A76">
         <v>73</v>
       </c>
@@ -2441,13 +2714,13 @@
         <v>35</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="48">
       <c r="A77">
         <v>74</v>
       </c>
@@ -2455,13 +2728,13 @@
         <v>35</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="32.1">
       <c r="A78">
         <v>75</v>
       </c>
@@ -2469,13 +2742,13 @@
         <v>35</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="32.1">
       <c r="A79">
         <v>76</v>
       </c>
@@ -2483,13 +2756,13 @@
         <v>35</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="32.1">
       <c r="A80">
         <v>77</v>
       </c>
@@ -2497,13 +2770,13 @@
         <v>35</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="32.1">
       <c r="A81">
         <v>78</v>
       </c>
@@ -2511,13 +2784,13 @@
         <v>35</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>79</v>
       </c>
@@ -2528,10 +2801,10 @@
         <v>153</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>80</v>
       </c>
@@ -2539,13 +2812,13 @@
         <v>27</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>81</v>
       </c>
@@ -2553,13 +2826,13 @@
         <v>27</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>82</v>
       </c>
@@ -2567,13 +2840,13 @@
         <v>27</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>83</v>
       </c>
@@ -2581,13 +2854,13 @@
         <v>27</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>84</v>
       </c>
@@ -2595,13 +2868,13 @@
         <v>27</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>85</v>
       </c>
@@ -2609,13 +2882,13 @@
         <v>27</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>86</v>
       </c>
@@ -2623,13 +2896,13 @@
         <v>27</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>87</v>
       </c>
@@ -2637,13 +2910,13 @@
         <v>27</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>88</v>
       </c>
@@ -2651,13 +2924,13 @@
         <v>27</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>89</v>
       </c>
@@ -2665,13 +2938,13 @@
         <v>27</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>90</v>
       </c>
@@ -2679,13 +2952,13 @@
         <v>27</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>91</v>
       </c>
@@ -2693,13 +2966,13 @@
         <v>27</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>92</v>
       </c>
@@ -2707,13 +2980,13 @@
         <v>27</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>93</v>
       </c>
@@ -2721,13 +2994,13 @@
         <v>27</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>94</v>
       </c>
@@ -2735,13 +3008,13 @@
         <v>27</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>95</v>
       </c>
@@ -2749,13 +3022,13 @@
         <v>27</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>96</v>
       </c>
@@ -2763,13 +3036,13 @@
         <v>27</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>97</v>
       </c>
@@ -2777,13 +3050,13 @@
         <v>27</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>98</v>
       </c>
@@ -2791,13 +3064,13 @@
         <v>27</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="32.1">
       <c r="A102">
         <v>99</v>
       </c>
@@ -2808,10 +3081,10 @@
         <v>193</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="48">
       <c r="A103">
         <v>100</v>
       </c>
@@ -2819,13 +3092,13 @@
         <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="48">
       <c r="A104">
         <v>101</v>
       </c>
@@ -2833,13 +3106,13 @@
         <v>36</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="32.1">
       <c r="A105">
         <v>102</v>
       </c>
@@ -2847,13 +3120,13 @@
         <v>36</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="48">
       <c r="A106">
         <v>103</v>
       </c>
@@ -2861,13 +3134,13 @@
         <v>36</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="32.1">
       <c r="A107">
         <v>104</v>
       </c>
@@ -2875,13 +3148,13 @@
         <v>36</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="96">
       <c r="A108">
         <v>105</v>
       </c>
@@ -2889,13 +3162,13 @@
         <v>36</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="32.1">
       <c r="A109">
         <v>106</v>
       </c>
@@ -2903,13 +3176,13 @@
         <v>36</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.95">
       <c r="A110">
         <v>107</v>
       </c>
@@ -2917,13 +3190,13 @@
         <v>36</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="32.1">
       <c r="A111">
         <v>108</v>
       </c>
@@ -2931,13 +3204,13 @@
         <v>36</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="48">
       <c r="A112">
         <v>109</v>
       </c>
@@ -2945,13 +3218,13 @@
         <v>36</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="32.1">
       <c r="A113">
         <v>110</v>
       </c>
@@ -2959,13 +3232,13 @@
         <v>36</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.95">
       <c r="A114">
         <v>111</v>
       </c>
@@ -2973,13 +3246,13 @@
         <v>36</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="32.1">
       <c r="A115">
         <v>112</v>
       </c>
@@ -2987,13 +3260,13 @@
         <v>36</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="32.1">
       <c r="A116">
         <v>113</v>
       </c>
@@ -3007,7 +3280,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="48">
       <c r="A117">
         <v>114</v>
       </c>
@@ -3015,13 +3288,13 @@
         <v>31</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="32.1">
       <c r="A118">
         <v>115</v>
       </c>
@@ -3029,13 +3302,13 @@
         <v>31</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="32.1">
       <c r="A119">
         <v>116</v>
       </c>
@@ -3043,13 +3316,13 @@
         <v>31</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="48">
       <c r="A120">
         <v>117</v>
       </c>
@@ -3057,13 +3330,13 @@
         <v>31</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="48">
       <c r="A121">
         <v>118</v>
       </c>
@@ -3071,13 +3344,13 @@
         <v>31</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="48">
       <c r="A122">
         <v>119</v>
       </c>
@@ -3085,13 +3358,13 @@
         <v>31</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="32.1">
       <c r="A123">
         <v>120</v>
       </c>
@@ -3099,13 +3372,13 @@
         <v>31</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="48">
       <c r="A124">
         <v>121</v>
       </c>
@@ -3113,13 +3386,13 @@
         <v>31</v>
       </c>
       <c r="C124" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:4" ht="32.1">
       <c r="A125">
         <v>122</v>
       </c>
@@ -3130,10 +3403,10 @@
         <v>228</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="80.099999999999994">
       <c r="A126">
         <v>123</v>
       </c>
@@ -3141,13 +3414,13 @@
         <v>31</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="80.099999999999994">
       <c r="A127">
         <v>124</v>
       </c>
@@ -3155,13 +3428,13 @@
         <v>31</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="48">
       <c r="A128">
         <v>125</v>
       </c>
@@ -3169,13 +3442,13 @@
         <v>31</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" ht="80.099999999999994">
       <c r="A129">
         <v>126</v>
       </c>
@@ -3183,13 +3456,13 @@
         <v>31</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="48">
       <c r="A130">
         <v>127</v>
       </c>
@@ -3197,13 +3470,13 @@
         <v>31</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" ht="33.950000000000003">
       <c r="A131">
         <v>128</v>
       </c>
@@ -3214,10 +3487,10 @@
         <v>238</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" ht="51">
       <c r="A132">
         <v>129</v>
       </c>
@@ -3225,13 +3498,13 @@
         <v>30</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" ht="17.100000000000001">
       <c r="A133">
         <v>130</v>
       </c>
@@ -3239,13 +3512,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" ht="51">
       <c r="A134">
         <v>131</v>
       </c>
@@ -3253,13 +3526,13 @@
         <v>30</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" ht="51">
       <c r="A135">
         <v>132</v>
       </c>
@@ -3267,13 +3540,13 @@
         <v>30</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" ht="33.950000000000003">
       <c r="A136">
         <v>133</v>
       </c>
@@ -3281,13 +3554,13 @@
         <v>30</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="51">
       <c r="A137">
         <v>134</v>
       </c>
@@ -3295,13 +3568,13 @@
         <v>30</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="33.950000000000003">
       <c r="A138">
         <v>135</v>
       </c>
@@ -3309,13 +3582,13 @@
         <v>30</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="68.099999999999994">
       <c r="A139">
         <v>136</v>
       </c>
@@ -3323,13 +3596,13 @@
         <v>30</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="68.099999999999994">
       <c r="A140">
         <v>137</v>
       </c>
@@ -3337,13 +3610,13 @@
         <v>30</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" ht="208" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" ht="207.95">
       <c r="A141">
         <v>138</v>
       </c>
@@ -3351,13 +3624,13 @@
         <v>30</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" ht="15.95">
       <c r="A142">
         <v>139</v>
       </c>
@@ -3371,13 +3644,13 @@
         <v>257</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="R142" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="48">
       <c r="A143">
         <v>140</v>
       </c>
@@ -3385,16 +3658,16 @@
         <v>28</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D143" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="32.1">
       <c r="A144">
         <v>141</v>
       </c>
@@ -3402,13 +3675,13 @@
         <v>28</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D144" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="15.95">
       <c r="A145">
         <v>142</v>
       </c>
@@ -3416,13 +3689,13 @@
         <v>28</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D145" t="s">
         <v>261</v>
       </c>
-      <c r="D145" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:4" ht="32.1">
       <c r="A146">
         <v>143</v>
       </c>
@@ -3430,13 +3703,13 @@
         <v>28</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D146" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="32.1">
       <c r="A147">
         <v>144</v>
       </c>
@@ -3444,13 +3717,13 @@
         <v>28</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D147" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="32.1">
       <c r="A148">
         <v>145</v>
       </c>
@@ -3458,13 +3731,13 @@
         <v>28</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D148" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.95">
       <c r="A149">
         <v>146</v>
       </c>
@@ -3472,13 +3745,13 @@
         <v>28</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D149" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="32.1">
       <c r="A150">
         <v>147</v>
       </c>
@@ -3486,13 +3759,13 @@
         <v>28</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D150" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="32.1">
       <c r="A151">
         <v>148</v>
       </c>
@@ -3500,10 +3773,290 @@
         <v>28</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D151" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="72.75">
+      <c r="A152">
+        <v>149</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="57.75">
+      <c r="A153">
+        <v>150</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="23.25">
+      <c r="A154">
+        <v>151</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="35.25">
+      <c r="A155">
+        <v>152</v>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="35.25">
+      <c r="A156">
+        <v>153</v>
+      </c>
+      <c r="B156">
+        <v>5</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="43.5">
+      <c r="A157">
+        <v>154</v>
+      </c>
+      <c r="B157">
+        <v>6</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="43.5">
+      <c r="A158">
+        <v>155</v>
+      </c>
+      <c r="B158">
+        <v>7</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="57.75">
+      <c r="A159">
+        <v>156</v>
+      </c>
+      <c r="B159">
+        <v>8</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="57.75">
+      <c r="A160">
+        <v>157</v>
+      </c>
+      <c r="B160">
+        <v>9</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="43.5">
+      <c r="A161">
+        <v>158</v>
+      </c>
+      <c r="B161">
+        <v>10</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="43.5">
+      <c r="A162">
+        <v>159</v>
+      </c>
+      <c r="B162">
+        <v>11</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D162" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="46.5">
+      <c r="A163">
+        <v>160</v>
+      </c>
+      <c r="B163">
+        <v>12</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D163" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="35.25">
+      <c r="A164">
+        <v>161</v>
+      </c>
+      <c r="B164">
+        <v>13</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D164" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="35.25">
+      <c r="A165">
+        <v>162</v>
+      </c>
+      <c r="B165">
+        <v>14</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D165" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="35.25">
+      <c r="A166">
+        <v>163</v>
+      </c>
+      <c r="B166">
+        <v>15</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="35.25">
+      <c r="A167">
+        <v>164</v>
+      </c>
+      <c r="B167">
+        <v>16</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="35.25">
+      <c r="A168">
+        <v>165</v>
+      </c>
+      <c r="B168">
+        <v>17</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="23.25">
+      <c r="A169">
+        <v>166</v>
+      </c>
+      <c r="B169">
+        <v>18</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="35.25">
+      <c r="A170">
+        <v>167</v>
+      </c>
+      <c r="B170">
+        <v>19</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D170" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="23.25">
+      <c r="A171">
+        <v>168</v>
+      </c>
+      <c r="B171">
+        <v>20</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mavsuta-my.sharepoint.com/personal/cmb6906_mavs_uta_edu/Documents/2024-2025/Spring/Fundamentals of SE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\GitRepos\cse3310-sp25-002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{879BA1B7-AEFB-1F4C-96A0-906E7F19F358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39493073-E4FC-43A9-95E0-73D5DF3F67C1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85A7EB0-011B-4F4E-A4CE-1E991D561FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="380">
   <si>
     <t>Tested By</t>
   </si>
@@ -904,13 +904,289 @@
     <t>int clientId in App.java, linked via UserEvent.id</t>
   </si>
   <si>
+    <t>UserEvent in UserEvent.java, timer logic inside GameManager</t>
+  </si>
+  <si>
+    <t>When the backend gets a move from the frontend, it shall check if the move is valid, apply it using the GameManager, and send the updated game status to both players.</t>
+  </si>
+  <si>
+    <t>handleMoveRequest(UserEvent) in PageManager.java, makeMove() in GameManager.java</t>
+  </si>
+  <si>
+    <t>If a player resigns, the system shall log the event in the GameManager and send a message to both players to confirm the resignation and end the game.</t>
+  </si>
+  <si>
+    <t>handleResign(UserEvent) in PageManager.java, processResign() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>If a player offers a draw, the system shall notify the other player. If the draw is accepted, the game shall end and both players shall be notified.</t>
+  </si>
+  <si>
+    <t>handleDrawOffer(UserEvent) and handleDrawAccept(UserEvent) in PageManager.java</t>
+  </si>
+  <si>
+    <t>All event handler methods shall return a `UserEventReply` that includes a `game_status` object and a list of client IDs who should receive the message.</t>
+  </si>
+  <si>
+    <t>UserEventReply in UserEventReply.java, game_status in game_status.java</t>
+  </si>
+  <si>
+    <t>On game start, a show_game_display event will be sent to each player with their ID, assigned color, and starting player information.</t>
+  </si>
+  <si>
+    <t>buildShowGameDisplay() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>On game end (via win, resign, or draw), a hide_game_display event will be sent to all participants.</t>
+  </si>
+  <si>
+    <t>buildHideGameDisplay() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>The backend must support relaying move_made_by_other_player_or_bot messages to ensure clients update pieces visually.</t>
+  </si>
+  <si>
+    <t>processMove() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>Backend must support responding to get_allowed_moves requests and return a list of valid moves in valid_moves format.</t>
+  </si>
+  <si>
+    <t>processAllowedMovesRequest() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>The backend shall be able to send `notify_players` messages for things like game wins or losses, connection issues, or error alerts.</t>
+  </si>
+  <si>
+    <t>buildNotifyPlayers() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>The system shall return the game status for a player when given their player ID.</t>
+  </si>
+  <si>
+    <t>getGameinfo() in GameManagerSubsys.java</t>
+  </si>
+  <si>
+    <t>The system shall retrieve game-related data such as the current turn, winner, loser, and draw status from the controller.</t>
+  </si>
+  <si>
+    <t>Look up game sessions using client ID using GamePageController</t>
+  </si>
+  <si>
+    <t>getAllPlayerIDs(), processMove() in GamePageController.java</t>
+  </si>
+  <si>
+    <t>The system shall have an object of squared data type for each individual board</t>
+  </si>
+  <si>
+    <t>GameManager/Board.getSquare, GameManager/Square.Square()</t>
+  </si>
+  <si>
+    <t>The board shall be a 2D array of Square objects</t>
+  </si>
+  <si>
+    <t>GameManager/Board.Board()</t>
+  </si>
+  <si>
+    <t>Move objects shall be linked list data structures to allow multiple steps in a single participant move</t>
+  </si>
+  <si>
+    <t>GameManager/Moves.Moves(), GameManager/move.Move()</t>
+  </si>
+  <si>
+    <t>The system shall enforce turn-based play using a boolean system</t>
+  </si>
+  <si>
+    <t>The system shall receive moves from players or bots and incorporate them from Square destination into the board</t>
+  </si>
+  <si>
+    <t>The system shall place each player ID to their designated board and team once they're matched together</t>
+  </si>
+  <si>
+    <t>GameManager/GamePairController.newMatch()</t>
+  </si>
+  <si>
+    <t>The system shall have colors of white and black randomly assigned to each player, where one is white and the other is black</t>
+  </si>
+  <si>
+    <t>GameManager/Game.Game</t>
+  </si>
+  <si>
+    <t>The system shall update the score of the player after a piece is captured</t>
+  </si>
+  <si>
+    <t>GameManager/Player.addScore()</t>
+  </si>
+  <si>
+    <t>The system shall process a given Move object and respond with an disapproval alert if it is illegal</t>
+  </si>
+  <si>
+    <t>GameManager/GameManager.processMove()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall contain information of the position of the piece occupying a square </t>
+  </si>
+  <si>
+    <t>GameManager/Square.getRow()|.getColumn()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall contain information of the type of piece occupying a square </t>
+  </si>
+  <si>
+    <t>GameManager/Square.getColor()|.isKing()</t>
+  </si>
+  <si>
+    <t>Move objects shall be utilized to encode the requested move from both players and bots</t>
+  </si>
+  <si>
+    <t>GameManager/Moves.makeMove()</t>
+  </si>
+  <si>
+    <t>Checks whether the game is active</t>
+  </si>
+  <si>
+    <t>GameManager/Game.gameActive()</t>
+  </si>
+  <si>
+    <t>Verfies whether slots are available to create a new game and creates one if so</t>
+  </si>
+  <si>
+    <t>GameManager/GameManager.createGame()</t>
+  </si>
+  <si>
+    <t>Deals with game termination and notifies GameTermination</t>
+  </si>
+  <si>
+    <t>GameManager/GameManager.terminateGame()</t>
+  </si>
+  <si>
+    <t>Deals with restarting the game</t>
+  </si>
+  <si>
+    <t>Initialises a new game with the relevant data to accomodate pairups</t>
+  </si>
+  <si>
+    <t>Deals with the piece count on the board</t>
+  </si>
+  <si>
+    <t>GameManager/Player.getPieces()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deals with the pieces taken </t>
+  </si>
+  <si>
+    <t>GameManager/Player.takePieces()</t>
+  </si>
+  <si>
+    <t>PageManager shall be able to receive game ID's and the current board</t>
+  </si>
+  <si>
+    <t>GameManager/GamePageController.sendBoard()</t>
+  </si>
+  <si>
+    <t>GamePlay shall be able to access a list of moves</t>
+  </si>
+  <si>
+    <t>GameManager/GamePageController.processMove()</t>
+  </si>
+  <si>
+    <t>The system will support a maximum of 10 concurrent games</t>
+  </si>
+  <si>
+    <t>GameManager</t>
+  </si>
+  <si>
+    <t>Returns the game called by the searched player ID</t>
+  </si>
+  <si>
+    <t>GameManager/GamePageController.returnGame(), GameManager/GameManager.findGameByPlayerId</t>
+  </si>
+  <si>
+    <t>Tracks captures being made</t>
+  </si>
+  <si>
+    <t>GameManager/Game.lastCapture()</t>
+  </si>
+  <si>
+    <t>Returns the winner and loser of the game</t>
+  </si>
+  <si>
+    <t>GameManager/Game.getWinner()|.getLoser(), GameManager/GamePageController.getWinner()|.getLoser()</t>
+  </si>
+  <si>
+    <t>Updates the state of the board</t>
+  </si>
+  <si>
+    <t>GameManager/Game.updateBoard(), GameManager/Board.getSquare()</t>
+  </si>
+  <si>
+    <t>Checks whether the player is a bot or not</t>
+  </si>
+  <si>
+    <t>GameManager/Game.isPlayer1Bot()|.isPlayer2Bot()</t>
+  </si>
+  <si>
+    <t>Checks if a player is in an active game</t>
+  </si>
+  <si>
+    <t>GameManager/GameManager.isPlayerInGame()</t>
+  </si>
+  <si>
+    <t>Returns active game count</t>
+  </si>
+  <si>
+    <t>GameManager/GameManager.getActiveGameCount()</t>
+  </si>
+  <si>
+    <t>Removes a player from game if needed</t>
+  </si>
+  <si>
+    <t>GameManager/GameManager.removePlayer()</t>
+  </si>
+  <si>
+    <t>Processes player requests to quit game</t>
+  </si>
+  <si>
+    <t>GameManager/GameManager.playerQuit()</t>
+  </si>
+  <si>
+    <t>Utilises pair made by GamePairController while creating games</t>
+  </si>
+  <si>
+    <t>Returns the player whose turn it is</t>
+  </si>
+  <si>
+    <t>GameManager/GamePageController.playerTurn()</t>
+  </si>
+  <si>
+    <t>Returns that the game was declared a draw</t>
+  </si>
+  <si>
+    <t>GameManager/GamePageController.getDraw()</t>
+  </si>
+  <si>
+    <t>GameManager/Game.progressGame()</t>
+  </si>
+  <si>
+    <t>The system shall manage the game state for each active match</t>
+  </si>
+  <si>
+    <t>GameManager/Game, GameManager/GameManager.requestBotMoves</t>
+  </si>
+  <si>
+    <t>The system shall receive moves performed by Bot 1 and Bot 2</t>
+  </si>
+  <si>
+    <t>GameManager/Game.switchTurn()</t>
+  </si>
+  <si>
+    <t>GameManager/Board.execute(), GameManager/Move.getStart()|.getDest()</t>
+  </si>
+  <si>
+    <t>U005</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">The Java backend shall be event-driven. The GameManager shall run on a 1-second timer loop, and other parts of the system </t>
     </r>
     <r>
@@ -919,107 +1195,24 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>shall respond to events sent through WebSocket.</t>
     </r>
-  </si>
-  <si>
-    <t>UserEvent in UserEvent.java, timer logic inside GameManager</t>
-  </si>
-  <si>
-    <t>When the backend gets a move from the frontend, it shall check if the move is valid, apply it using the GameManager, and send the updated game status to both players.</t>
-  </si>
-  <si>
-    <t>handleMoveRequest(UserEvent) in PageManager.java, makeMove() in GameManager.java</t>
-  </si>
-  <si>
-    <t>If a player resigns, the system shall log the event in the GameManager and send a message to both players to confirm the resignation and end the game.</t>
-  </si>
-  <si>
-    <t>handleResign(UserEvent) in PageManager.java, processResign() in GameDisplayConnector.java</t>
-  </si>
-  <si>
-    <t>If a player offers a draw, the system shall notify the other player. If the draw is accepted, the game shall end and both players shall be notified.</t>
-  </si>
-  <si>
-    <t>handleDrawOffer(UserEvent) and handleDrawAccept(UserEvent) in PageManager.java</t>
-  </si>
-  <si>
-    <t>All event handler methods shall return a `UserEventReply` that includes a `game_status` object and a list of client IDs who should receive the message.</t>
-  </si>
-  <si>
-    <t>UserEventReply in UserEventReply.java, game_status in game_status.java</t>
-  </si>
-  <si>
-    <t>On game start, a show_game_display event will be sent to each player with their ID, assigned color, and starting player information.</t>
-  </si>
-  <si>
-    <t>buildShowGameDisplay() in GameDisplayConnector.java</t>
-  </si>
-  <si>
-    <t>On game end (via win, resign, or draw), a hide_game_display event will be sent to all participants.</t>
-  </si>
-  <si>
-    <t>buildHideGameDisplay() in GameDisplayConnector.java</t>
-  </si>
-  <si>
-    <t>The backend must support relaying move_made_by_other_player_or_bot messages to ensure clients update pieces visually.</t>
-  </si>
-  <si>
-    <t>processMove() in GameDisplayConnector.java</t>
-  </si>
-  <si>
-    <t>Backend must support responding to get_allowed_moves requests and return a list of valid moves in valid_moves format.</t>
-  </si>
-  <si>
-    <t>processAllowedMovesRequest() in GameDisplayConnector.java</t>
-  </si>
-  <si>
-    <t>The backend shall be able to send `notify_players` messages for things like game wins or losses, connection issues, or error alerts.</t>
-  </si>
-  <si>
-    <t>buildNotifyPlayers() in GameDisplayConnector.java</t>
-  </si>
-  <si>
-    <t>The system shall return the game status for a player when given their player ID.</t>
-  </si>
-  <si>
-    <t>getGameinfo() in GameManagerSubsys.java</t>
-  </si>
-  <si>
-    <t>The system shall retrieve game-related data such as the current turn, winner, loser, and draw status from the controller.</t>
-  </si>
-  <si>
-    <t>Look up game sessions using client ID using GamePageController</t>
-  </si>
-  <si>
-    <t>getAllPlayerIDs(), processMove() in GamePageController.java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1029,32 +1222,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1062,6 +1232,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1073,7 +1244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1081,101 +1252,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1183,49 +1264,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1610,13 +1698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S171"/>
+  <dimension ref="A1:S207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" style="1" customWidth="1"/>
@@ -1626,12 +1714,12 @@
     <col min="19" max="19" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -1669,11 +1757,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.95">
-      <c r="A3" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1689,17 +1777,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="48">
-      <c r="A4">
+    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="12">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1712,2352 +1800,2922 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.95">
-      <c r="A5">
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="13">
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.95">
-      <c r="A6">
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="13">
         <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="32.1">
-      <c r="A7">
+    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="13">
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.95">
-      <c r="A8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="13">
         <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="32.1">
-      <c r="A9">
+    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="13">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="32.1">
-      <c r="A10">
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="13">
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="32.1">
-      <c r="A11">
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="13">
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.95">
-      <c r="A12">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="13">
         <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.95">
-      <c r="A13">
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="13">
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.95">
-      <c r="A14">
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="13">
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="32.1">
-      <c r="A15">
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="13">
         <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.95">
-      <c r="A16">
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="13">
         <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="32.1">
-      <c r="A17">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="13">
         <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32.1">
-      <c r="A18">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="13">
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="32.1">
-      <c r="A19">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="13">
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="32.1">
-      <c r="A20">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="13">
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.95">
-      <c r="A21">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="13">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="32.1">
-      <c r="A22">
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="13">
         <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="48">
-      <c r="A23">
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
         <v>20</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="13">
         <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="32.1">
-      <c r="A24">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>21</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="13">
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="32.1">
-      <c r="A25">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="13">
         <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="48">
-      <c r="A26">
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>23</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="13">
         <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="32.1">
-      <c r="A27">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <v>24</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="13">
         <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="32.1">
-      <c r="A28">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <v>25</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="13">
         <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="48">
-      <c r="A29">
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <v>26</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="13">
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="32.1">
-      <c r="A30">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>27</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="13">
         <v>33</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="32.1">
-      <c r="A31">
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
         <v>28</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="13">
         <v>33</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="32.1">
-      <c r="A32">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
         <v>29</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="13">
         <v>33</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="32.1">
-      <c r="A33">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
         <v>30</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="13">
         <v>33</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="32.1">
-      <c r="A34">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
         <v>31</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="13">
         <v>33</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="32.1">
-      <c r="A35">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
         <v>32</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="13">
         <v>33</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="48">
-      <c r="A36">
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>33</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="13">
         <v>33</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="48">
-      <c r="A37">
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
         <v>34</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="13">
         <v>33</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="63.95">
-      <c r="A38">
+    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <v>35</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="13">
         <v>33</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="32.1">
-      <c r="A39">
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
         <v>36</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="13">
         <v>33</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="32.1">
-      <c r="A40">
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
         <v>37</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="13">
         <v>33</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="32.1">
-      <c r="A41">
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
         <v>38</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="13">
         <v>33</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.95">
-      <c r="A42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
         <v>39</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="13">
         <v>33</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="32.1">
-      <c r="A43">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
         <v>40</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="13">
         <v>33</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="32.1">
-      <c r="A44">
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
         <v>41</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="13">
         <v>33</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="32.1">
-      <c r="A45">
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
         <v>42</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="13">
         <v>33</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="32.1">
-      <c r="A46">
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
         <v>43</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="13">
         <v>33</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="48">
-      <c r="A47">
+    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
         <v>44</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="13">
         <v>33</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="32.1">
-      <c r="A48">
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
         <v>45</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="13">
         <v>33</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="32.1">
-      <c r="A49">
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
         <v>46</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="13">
         <v>33</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="32.1">
-      <c r="A50">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
         <v>47</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="13">
         <v>33</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="32.1">
-      <c r="A51">
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
         <v>48</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="13">
         <v>33</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="32.1">
-      <c r="A52">
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
         <v>49</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="13">
         <v>33</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="48">
-      <c r="A53">
+    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
         <v>50</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="13">
         <v>26</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="32.1">
-      <c r="A54">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
         <v>51</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="13">
         <v>26</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.95">
-      <c r="A55">
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
         <v>52</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="13">
         <v>26</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="32.1">
-      <c r="A56">
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
         <v>53</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="13">
         <v>26</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="32.1">
-      <c r="A57">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
         <v>54</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="13">
         <v>26</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="32.1">
-      <c r="A58">
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
         <v>55</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="13">
         <v>26</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="32.1">
-      <c r="A59">
+    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
         <v>56</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="13">
         <v>26</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="32.1">
-      <c r="A60">
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
         <v>57</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="13">
         <v>26</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="32.1">
-      <c r="A61">
+    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
         <v>58</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="13">
         <v>26</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="32.1">
-      <c r="A62">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
         <v>59</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="13">
         <v>26</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="32.1">
-      <c r="A63">
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
         <v>60</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="13">
         <v>26</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="32.1">
-      <c r="A64">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
         <v>61</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="13">
         <v>26</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="63.95">
-      <c r="A65">
+    <row r="65" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
         <v>62</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="13">
         <v>26</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="63.95">
-      <c r="A66">
+    <row r="66" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
         <v>63</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="13">
         <v>26</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="32.1">
-      <c r="A67">
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
         <v>64</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="13">
         <v>26</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="32.1">
-      <c r="A68">
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
         <v>65</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="13">
         <v>26</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="32.1">
-      <c r="A69">
+    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
         <v>66</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="13">
         <v>26</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="32.1">
-      <c r="A70">
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
         <v>67</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="13">
         <v>26</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="48">
-      <c r="A71">
+    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
         <v>68</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="13">
         <v>26</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="63.95">
-      <c r="A72">
+    <row r="72" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
         <v>69</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="13">
         <v>26</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="32.1">
-      <c r="A73">
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
         <v>70</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="13">
         <v>35</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="48">
-      <c r="A74">
+    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
         <v>71</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="13">
         <v>35</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.95">
-      <c r="A75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="13">
         <v>72</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="13">
         <v>35</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="48">
-      <c r="A76">
+    <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
         <v>73</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="13">
         <v>35</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="48">
-      <c r="A77">
+    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="13">
         <v>74</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="13">
         <v>35</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="32.1">
-      <c r="A78">
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
         <v>75</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="13">
         <v>35</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="32.1">
-      <c r="A79">
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="13">
         <v>76</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="13">
         <v>35</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="32.1">
-      <c r="A80">
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="13">
         <v>77</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="13">
         <v>35</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="32.1">
-      <c r="A81">
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="13">
         <v>78</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="13">
         <v>35</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82">
+    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="13">
         <v>79</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="13">
         <v>27</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="13">
         <v>80</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="13">
         <v>27</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
+    <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="13">
         <v>81</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="13">
         <v>27</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
+    <row r="85" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="13">
         <v>82</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="13">
         <v>27</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
+    <row r="86" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A86" s="13">
         <v>83</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="13">
         <v>27</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
         <v>84</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="13">
         <v>27</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
+    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
         <v>85</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="13">
         <v>27</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89">
+    <row r="89" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
         <v>86</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="13">
         <v>27</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90">
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="13">
         <v>87</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="13">
         <v>27</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91">
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="13">
         <v>88</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="13">
         <v>27</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92">
+    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="13">
         <v>89</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="13">
         <v>27</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93">
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="13">
         <v>90</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="13">
         <v>27</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
+    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="13">
         <v>91</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="13">
         <v>27</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95">
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="13">
         <v>92</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="13">
         <v>27</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
+    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="13">
         <v>93</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="13">
         <v>27</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="15" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97">
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="13">
         <v>94</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="13">
         <v>27</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="15" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98">
+    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="13">
         <v>95</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="13">
         <v>27</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99">
+    <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="13">
         <v>96</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="13">
         <v>27</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100">
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="13">
         <v>97</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="13">
         <v>27</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="15" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="13">
         <v>98</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="13">
         <v>27</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="32.1">
-      <c r="A102">
+    <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="13">
         <v>99</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="13">
         <v>36</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="15" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="48">
-      <c r="A103">
+    <row r="103" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="13">
         <v>100</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="13">
         <v>36</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="48">
-      <c r="A104">
+    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="13">
         <v>101</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="13">
         <v>36</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="32.1">
-      <c r="A105">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="13">
         <v>102</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="13">
         <v>36</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="48">
-      <c r="A106">
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="13">
         <v>103</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="13">
         <v>36</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="15" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="32.1">
-      <c r="A107">
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="13">
         <v>104</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="13">
         <v>36</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="96">
-      <c r="A108">
+    <row r="108" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A108" s="13">
         <v>105</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="13">
         <v>36</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="32.1">
-      <c r="A109">
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="13">
         <v>106</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="13">
         <v>36</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="15" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.95">
-      <c r="A110">
+    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="13">
         <v>107</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="13">
         <v>36</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="15" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="32.1">
-      <c r="A111">
+    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="13">
         <v>108</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="13">
         <v>36</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="48">
-      <c r="A112">
+    <row r="112" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="13">
         <v>109</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="13">
         <v>36</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="32.1">
-      <c r="A113">
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="13">
         <v>110</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="13">
         <v>36</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.95">
-      <c r="A114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="13">
         <v>111</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="13">
         <v>36</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="32.1">
-      <c r="A115">
+    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="13">
         <v>112</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="13">
         <v>36</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="15" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="32.1">
-      <c r="A116">
+    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="13">
         <v>113</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="13">
         <v>36</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="15" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="48">
-      <c r="A117">
+    <row r="117" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="13">
         <v>114</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="13">
         <v>31</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="15" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="32.1">
-      <c r="A118">
+    <row r="118" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="13">
         <v>115</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="13">
         <v>31</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="15" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="32.1">
-      <c r="A119">
+    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="13">
         <v>116</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="13">
         <v>31</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="15" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="48">
-      <c r="A120">
+    <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="13">
         <v>117</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="13">
         <v>31</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="48">
-      <c r="A121">
+    <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121" s="13">
         <v>118</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="13">
         <v>31</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="48">
-      <c r="A122">
+    <row r="122" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="13">
         <v>119</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="13">
         <v>31</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="15" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="32.1">
-      <c r="A123">
+    <row r="123" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123" s="13">
         <v>120</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="13">
         <v>31</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="15" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="48">
-      <c r="A124">
+    <row r="124" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A124" s="13">
         <v>121</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="13">
         <v>31</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="32.1">
-      <c r="A125">
+    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="13">
         <v>122</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="13">
         <v>31</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="15" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="80.099999999999994">
-      <c r="A126">
+    <row r="126" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A126" s="13">
         <v>123</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="13">
         <v>31</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="80.099999999999994">
-      <c r="A127">
+    <row r="127" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A127" s="13">
         <v>124</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="13">
         <v>31</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="48">
-      <c r="A128">
+    <row r="128" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A128" s="13">
         <v>125</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="13">
         <v>31</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="15" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="80.099999999999994">
-      <c r="A129">
+    <row r="129" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A129" s="13">
         <v>126</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="13">
         <v>31</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="15" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="48">
-      <c r="A130">
+    <row r="130" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130" s="13">
         <v>127</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="13">
         <v>31</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="15" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="33.950000000000003">
-      <c r="A131">
+    <row r="131" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="13">
         <v>128</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="13">
         <v>30</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D131" s="17" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="51">
-      <c r="A132">
+    <row r="132" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="13">
         <v>129</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="13">
         <v>30</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="17" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="17.100000000000001">
-      <c r="A133">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A133" s="13">
         <v>130</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="13">
         <v>30</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="51">
-      <c r="A134">
+    <row r="134" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="13">
         <v>131</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="13">
         <v>30</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="51">
-      <c r="A135">
+    <row r="135" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="13">
         <v>132</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="13">
         <v>30</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D135" s="17" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="33.950000000000003">
-      <c r="A136">
+    <row r="136" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="13">
         <v>133</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="13">
         <v>30</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D136" s="17" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="51">
-      <c r="A137">
+    <row r="137" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="13">
         <v>134</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="13">
         <v>30</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D137" s="17" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="33.950000000000003">
-      <c r="A138">
+    <row r="138" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="13">
         <v>135</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="13">
         <v>30</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C138" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="17" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="68.099999999999994">
-      <c r="A139">
+    <row r="139" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="13">
         <v>136</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="13">
         <v>30</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="17" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="68.099999999999994">
-      <c r="A140">
+    <row r="140" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="13">
         <v>137</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="13">
         <v>30</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="D140" s="17" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="207.95">
-      <c r="A141">
+    <row r="141" spans="1:18" ht="195" x14ac:dyDescent="0.25">
+      <c r="A141" s="13">
         <v>138</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="13">
         <v>30</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="17" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="15.95">
-      <c r="A142">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A142" s="14">
         <v>139</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="14">
         <v>28</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E142" s="4" t="s">
         <v>258</v>
       </c>
       <c r="R142" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="48">
-      <c r="A143">
+    <row r="143" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="14">
         <v>140</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="14">
         <v>28</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="32.1">
-      <c r="A144">
+    <row r="144" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="14">
         <v>141</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="14">
         <v>28</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="15" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="15.95">
-      <c r="A145">
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="14">
         <v>142</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="14">
         <v>28</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="15" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="32.1">
-      <c r="A146">
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="14">
         <v>143</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="14">
         <v>28</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="15" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="32.1">
-      <c r="A147">
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A147" s="14">
         <v>144</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="14">
         <v>28</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="15" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="32.1">
-      <c r="A148">
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="14">
         <v>145</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="14">
         <v>28</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="15" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.95">
-      <c r="A149">
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="14">
         <v>146</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="14">
         <v>28</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="15" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="32.1">
-      <c r="A150">
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="14">
         <v>147</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="14">
         <v>28</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="15" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="32.1">
-      <c r="A151">
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="14">
         <v>148</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="14">
         <v>28</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="15" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="72.75">
-      <c r="A152">
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A152" s="14">
         <v>149</v>
       </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152" s="1" t="s">
+      <c r="B152" s="14">
+        <v>29</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D152" s="10" t="s">
+      <c r="D152" s="18" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="57.75">
-      <c r="A153">
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A153" s="14">
         <v>150</v>
       </c>
-      <c r="B153">
-        <v>2</v>
-      </c>
-      <c r="C153" s="1" t="s">
+      <c r="B153" s="14">
+        <v>29</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D153" s="12" t="s">
+      <c r="D153" s="18" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="23.25">
-      <c r="A154">
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="14">
         <v>151</v>
       </c>
-      <c r="B154">
-        <v>3</v>
-      </c>
-      <c r="C154" s="11" t="s">
+      <c r="B154" s="14">
+        <v>29</v>
+      </c>
+      <c r="C154" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D154" s="12" t="s">
+      <c r="D154" s="18" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="35.25">
-      <c r="A155">
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A155" s="14">
         <v>152</v>
       </c>
-      <c r="B155">
-        <v>4</v>
-      </c>
-      <c r="C155" s="11" t="s">
+      <c r="B155" s="14">
+        <v>29</v>
+      </c>
+      <c r="C155" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="D155" s="12" t="s">
+      <c r="D155" s="18" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="35.25">
-      <c r="A156">
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A156" s="14">
         <v>153</v>
       </c>
-      <c r="B156">
-        <v>5</v>
-      </c>
-      <c r="C156" s="11" t="s">
+      <c r="B156" s="14">
+        <v>29</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D156" s="12" t="s">
+      <c r="D156" s="18" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="43.5">
-      <c r="A157">
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A157" s="14">
         <v>154</v>
       </c>
-      <c r="B157">
-        <v>6</v>
-      </c>
-      <c r="C157" s="1" t="s">
+      <c r="B157" s="14">
+        <v>29</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D157" s="12" t="s">
+      <c r="D157" s="18" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="43.5">
-      <c r="A158">
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="14">
         <v>155</v>
       </c>
-      <c r="B158">
-        <v>7</v>
-      </c>
-      <c r="C158" s="1" t="s">
+      <c r="B158" s="14">
+        <v>29</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D158" s="12" t="s">
+      <c r="D158" s="18" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="57.75">
-      <c r="A159">
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A159" s="14">
         <v>156</v>
       </c>
-      <c r="B159">
-        <v>8</v>
-      </c>
-      <c r="C159" s="18" t="s">
+      <c r="B159" s="14">
+        <v>29</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D159" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="D159" s="12" t="s">
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A160" s="14">
+        <v>157</v>
+      </c>
+      <c r="B160" s="14">
+        <v>29</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="57.75">
-      <c r="A160">
-        <v>157</v>
-      </c>
-      <c r="B160">
-        <v>9</v>
-      </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="D160" s="14" t="s">
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A161" s="14">
+        <v>158</v>
+      </c>
+      <c r="B161" s="14">
+        <v>29</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="43.5">
-      <c r="A161">
-        <v>158</v>
-      </c>
-      <c r="B161">
-        <v>10</v>
-      </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="D161" s="14" t="s">
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="14">
+        <v>159</v>
+      </c>
+      <c r="B162" s="14">
+        <v>29</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="43.5">
-      <c r="A162">
-        <v>159</v>
-      </c>
-      <c r="B162">
-        <v>11</v>
-      </c>
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="14">
+        <v>160</v>
+      </c>
+      <c r="B163" s="14">
+        <v>29</v>
+      </c>
+      <c r="C163" s="8" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="46.5">
-      <c r="A163">
-        <v>160</v>
-      </c>
-      <c r="B163">
-        <v>12</v>
-      </c>
-      <c r="C163" s="13" t="s">
+      <c r="D163" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="D163" s="14" t="s">
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" s="14">
+        <v>161</v>
+      </c>
+      <c r="B164" s="14">
+        <v>29</v>
+      </c>
+      <c r="C164" s="8" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="35.25">
-      <c r="A164">
-        <v>161</v>
-      </c>
-      <c r="B164">
-        <v>13</v>
-      </c>
-      <c r="C164" s="13" t="s">
+      <c r="D164" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="D164" s="14" t="s">
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A165" s="14">
+        <v>162</v>
+      </c>
+      <c r="B165" s="14">
+        <v>29</v>
+      </c>
+      <c r="C165" s="8" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" ht="35.25">
-      <c r="A165">
-        <v>162</v>
-      </c>
-      <c r="B165">
-        <v>14</v>
-      </c>
-      <c r="C165" s="13" t="s">
+      <c r="D165" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="D165" s="14" t="s">
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A166" s="14">
+        <v>163</v>
+      </c>
+      <c r="B166" s="14">
+        <v>29</v>
+      </c>
+      <c r="C166" s="8" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="35.25">
-      <c r="A166">
-        <v>163</v>
-      </c>
-      <c r="B166">
-        <v>15</v>
-      </c>
-      <c r="C166" s="13" t="s">
+      <c r="D166" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="D166" s="14" t="s">
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A167" s="14">
+        <v>164</v>
+      </c>
+      <c r="B167" s="14">
+        <v>29</v>
+      </c>
+      <c r="C167" s="8" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" ht="35.25">
-      <c r="A167">
-        <v>164</v>
-      </c>
-      <c r="B167">
-        <v>16</v>
-      </c>
-      <c r="C167" s="13" t="s">
+      <c r="D167" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A168" s="14">
+        <v>165</v>
+      </c>
+      <c r="B168" s="14">
+        <v>29</v>
+      </c>
+      <c r="C168" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="35.25">
-      <c r="A168">
-        <v>165</v>
-      </c>
-      <c r="B168">
-        <v>17</v>
-      </c>
-      <c r="C168" s="13" t="s">
+      <c r="D168" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="D168" s="14" t="s">
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="14">
+        <v>166</v>
+      </c>
+      <c r="B169" s="14">
+        <v>29</v>
+      </c>
+      <c r="C169" s="8" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="23.25">
-      <c r="A169">
-        <v>166</v>
-      </c>
-      <c r="B169">
-        <v>18</v>
-      </c>
-      <c r="C169" s="13" t="s">
+      <c r="D169" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="D169" s="15" t="s">
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A170" s="14">
+        <v>167</v>
+      </c>
+      <c r="B170" s="14">
+        <v>29</v>
+      </c>
+      <c r="C170" s="8" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="35.25">
-      <c r="A170">
-        <v>167</v>
-      </c>
-      <c r="B170">
-        <v>19</v>
-      </c>
-      <c r="C170" s="13" t="s">
+      <c r="D170" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="14">
+        <v>168</v>
+      </c>
+      <c r="B171" s="14">
+        <v>29</v>
+      </c>
+      <c r="C171" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="D170" s="15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="23.25">
-      <c r="A171">
-        <v>168</v>
-      </c>
-      <c r="B171">
-        <v>20</v>
-      </c>
-      <c r="C171" s="16" t="s">
+      <c r="D171" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="D171" s="17" t="s">
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="14">
+        <v>169</v>
+      </c>
+      <c r="B172" s="14">
+        <v>32</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>309</v>
       </c>
+      <c r="D172" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="14">
+        <v>170</v>
+      </c>
+      <c r="B173" s="14">
+        <v>32</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D173" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="14">
+        <v>171</v>
+      </c>
+      <c r="B174" s="14">
+        <v>32</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D174" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="14">
+        <v>172</v>
+      </c>
+      <c r="B175" s="14">
+        <v>32</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D175" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="14">
+        <v>173</v>
+      </c>
+      <c r="B176" s="14">
+        <v>32</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D176" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A177" s="14">
+        <v>174</v>
+      </c>
+      <c r="B177" s="14">
+        <v>32</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D177" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="14">
+        <v>175</v>
+      </c>
+      <c r="B178" s="14">
+        <v>32</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D178" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="14">
+        <v>176</v>
+      </c>
+      <c r="B179" s="14">
+        <v>32</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D179" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" s="14">
+        <v>177</v>
+      </c>
+      <c r="B180" s="14">
+        <v>32</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D180" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="14">
+        <v>178</v>
+      </c>
+      <c r="B181" s="14">
+        <v>32</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D181" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="14">
+        <v>179</v>
+      </c>
+      <c r="B182" s="14">
+        <v>32</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D182" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="14">
+        <v>180</v>
+      </c>
+      <c r="B183" s="14">
+        <v>32</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D183" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="14">
+        <v>181</v>
+      </c>
+      <c r="B184" s="14">
+        <v>32</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D184" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="14">
+        <v>182</v>
+      </c>
+      <c r="B185" s="14">
+        <v>32</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D185" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E185" s="4"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="14">
+        <v>183</v>
+      </c>
+      <c r="B186" s="14">
+        <v>32</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D186" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="E186" s="4"/>
+    </row>
+    <row r="187" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="14">
+        <v>184</v>
+      </c>
+      <c r="B187" s="14">
+        <v>32</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D187" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="E187" s="4"/>
+    </row>
+    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="14">
+        <v>185</v>
+      </c>
+      <c r="B188" s="14">
+        <v>32</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D188" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="E188" s="4"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="14">
+        <v>186</v>
+      </c>
+      <c r="B189" s="14">
+        <v>32</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D189" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="14">
+        <v>187</v>
+      </c>
+      <c r="B190" s="14">
+        <v>32</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D190" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="14">
+        <v>188</v>
+      </c>
+      <c r="B191" s="14">
+        <v>32</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D191" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="14">
+        <v>189</v>
+      </c>
+      <c r="B192" s="14">
+        <v>32</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D192" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="14">
+        <v>190</v>
+      </c>
+      <c r="B193" s="14">
+        <v>32</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="E193" s="4"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="14">
+        <v>191</v>
+      </c>
+      <c r="B194" s="14">
+        <v>32</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D194" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="E194" s="4"/>
+    </row>
+    <row r="195" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="14">
+        <v>192</v>
+      </c>
+      <c r="B195" s="14">
+        <v>32</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D195" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="14">
+        <v>193</v>
+      </c>
+      <c r="B196" s="14">
+        <v>32</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="E196" s="4"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="14">
+        <v>194</v>
+      </c>
+      <c r="B197" s="14">
+        <v>32</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E197" s="4"/>
+    </row>
+    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="14">
+        <v>195</v>
+      </c>
+      <c r="B198" s="14">
+        <v>32</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D198" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="14">
+        <v>196</v>
+      </c>
+      <c r="B199" s="14">
+        <v>32</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D199" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="E199" s="4"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="14">
+        <v>197</v>
+      </c>
+      <c r="B200" s="14">
+        <v>32</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D200" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="E200" s="4"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="14">
+        <v>198</v>
+      </c>
+      <c r="B201" s="14">
+        <v>32</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D201" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="E201" s="4"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="14">
+        <v>199</v>
+      </c>
+      <c r="B202" s="14">
+        <v>32</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D202" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="E202" s="4"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="14">
+        <v>200</v>
+      </c>
+      <c r="B203" s="14">
+        <v>32</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D203" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="E203" s="4"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="14">
+        <v>201</v>
+      </c>
+      <c r="B204" s="14">
+        <v>32</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D204" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="E204" s="4"/>
+    </row>
+    <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="14">
+        <v>202</v>
+      </c>
+      <c r="B205" s="14">
+        <v>32</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D205" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E205" s="4"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="14">
+        <v>203</v>
+      </c>
+      <c r="B206" s="14">
+        <v>32</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D206" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="E206" s="4"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="14">
+        <v>204</v>
+      </c>
+      <c r="B207" s="14">
+        <v>32</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D207" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E207" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\GitRepos\cse3310-sp25-002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mavsuta-my.sharepoint.com/personal/anh7674_mavs_uta_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85A7EB0-011B-4F4E-A4CE-1E991D561FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BC9751C-A6C4-4E21-8EB6-DDB8B1DF3622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="416">
   <si>
     <t>Tested By</t>
   </si>
@@ -902,288 +902,6 @@
   </si>
   <si>
     <t>int clientId in App.java, linked via UserEvent.id</t>
-  </si>
-  <si>
-    <t>UserEvent in UserEvent.java, timer logic inside GameManager</t>
-  </si>
-  <si>
-    <t>When the backend gets a move from the frontend, it shall check if the move is valid, apply it using the GameManager, and send the updated game status to both players.</t>
-  </si>
-  <si>
-    <t>handleMoveRequest(UserEvent) in PageManager.java, makeMove() in GameManager.java</t>
-  </si>
-  <si>
-    <t>If a player resigns, the system shall log the event in the GameManager and send a message to both players to confirm the resignation and end the game.</t>
-  </si>
-  <si>
-    <t>handleResign(UserEvent) in PageManager.java, processResign() in GameDisplayConnector.java</t>
-  </si>
-  <si>
-    <t>If a player offers a draw, the system shall notify the other player. If the draw is accepted, the game shall end and both players shall be notified.</t>
-  </si>
-  <si>
-    <t>handleDrawOffer(UserEvent) and handleDrawAccept(UserEvent) in PageManager.java</t>
-  </si>
-  <si>
-    <t>All event handler methods shall return a `UserEventReply` that includes a `game_status` object and a list of client IDs who should receive the message.</t>
-  </si>
-  <si>
-    <t>UserEventReply in UserEventReply.java, game_status in game_status.java</t>
-  </si>
-  <si>
-    <t>On game start, a show_game_display event will be sent to each player with their ID, assigned color, and starting player information.</t>
-  </si>
-  <si>
-    <t>buildShowGameDisplay() in GameDisplayConnector.java</t>
-  </si>
-  <si>
-    <t>On game end (via win, resign, or draw), a hide_game_display event will be sent to all participants.</t>
-  </si>
-  <si>
-    <t>buildHideGameDisplay() in GameDisplayConnector.java</t>
-  </si>
-  <si>
-    <t>The backend must support relaying move_made_by_other_player_or_bot messages to ensure clients update pieces visually.</t>
-  </si>
-  <si>
-    <t>processMove() in GameDisplayConnector.java</t>
-  </si>
-  <si>
-    <t>Backend must support responding to get_allowed_moves requests and return a list of valid moves in valid_moves format.</t>
-  </si>
-  <si>
-    <t>processAllowedMovesRequest() in GameDisplayConnector.java</t>
-  </si>
-  <si>
-    <t>The backend shall be able to send `notify_players` messages for things like game wins or losses, connection issues, or error alerts.</t>
-  </si>
-  <si>
-    <t>buildNotifyPlayers() in GameDisplayConnector.java</t>
-  </si>
-  <si>
-    <t>The system shall return the game status for a player when given their player ID.</t>
-  </si>
-  <si>
-    <t>getGameinfo() in GameManagerSubsys.java</t>
-  </si>
-  <si>
-    <t>The system shall retrieve game-related data such as the current turn, winner, loser, and draw status from the controller.</t>
-  </si>
-  <si>
-    <t>Look up game sessions using client ID using GamePageController</t>
-  </si>
-  <si>
-    <t>getAllPlayerIDs(), processMove() in GamePageController.java</t>
-  </si>
-  <si>
-    <t>The system shall have an object of squared data type for each individual board</t>
-  </si>
-  <si>
-    <t>GameManager/Board.getSquare, GameManager/Square.Square()</t>
-  </si>
-  <si>
-    <t>The board shall be a 2D array of Square objects</t>
-  </si>
-  <si>
-    <t>GameManager/Board.Board()</t>
-  </si>
-  <si>
-    <t>Move objects shall be linked list data structures to allow multiple steps in a single participant move</t>
-  </si>
-  <si>
-    <t>GameManager/Moves.Moves(), GameManager/move.Move()</t>
-  </si>
-  <si>
-    <t>The system shall enforce turn-based play using a boolean system</t>
-  </si>
-  <si>
-    <t>The system shall receive moves from players or bots and incorporate them from Square destination into the board</t>
-  </si>
-  <si>
-    <t>The system shall place each player ID to their designated board and team once they're matched together</t>
-  </si>
-  <si>
-    <t>GameManager/GamePairController.newMatch()</t>
-  </si>
-  <si>
-    <t>The system shall have colors of white and black randomly assigned to each player, where one is white and the other is black</t>
-  </si>
-  <si>
-    <t>GameManager/Game.Game</t>
-  </si>
-  <si>
-    <t>The system shall update the score of the player after a piece is captured</t>
-  </si>
-  <si>
-    <t>GameManager/Player.addScore()</t>
-  </si>
-  <si>
-    <t>The system shall process a given Move object and respond with an disapproval alert if it is illegal</t>
-  </si>
-  <si>
-    <t>GameManager/GameManager.processMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall contain information of the position of the piece occupying a square </t>
-  </si>
-  <si>
-    <t>GameManager/Square.getRow()|.getColumn()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall contain information of the type of piece occupying a square </t>
-  </si>
-  <si>
-    <t>GameManager/Square.getColor()|.isKing()</t>
-  </si>
-  <si>
-    <t>Move objects shall be utilized to encode the requested move from both players and bots</t>
-  </si>
-  <si>
-    <t>GameManager/Moves.makeMove()</t>
-  </si>
-  <si>
-    <t>Checks whether the game is active</t>
-  </si>
-  <si>
-    <t>GameManager/Game.gameActive()</t>
-  </si>
-  <si>
-    <t>Verfies whether slots are available to create a new game and creates one if so</t>
-  </si>
-  <si>
-    <t>GameManager/GameManager.createGame()</t>
-  </si>
-  <si>
-    <t>Deals with game termination and notifies GameTermination</t>
-  </si>
-  <si>
-    <t>GameManager/GameManager.terminateGame()</t>
-  </si>
-  <si>
-    <t>Deals with restarting the game</t>
-  </si>
-  <si>
-    <t>Initialises a new game with the relevant data to accomodate pairups</t>
-  </si>
-  <si>
-    <t>Deals with the piece count on the board</t>
-  </si>
-  <si>
-    <t>GameManager/Player.getPieces()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deals with the pieces taken </t>
-  </si>
-  <si>
-    <t>GameManager/Player.takePieces()</t>
-  </si>
-  <si>
-    <t>PageManager shall be able to receive game ID's and the current board</t>
-  </si>
-  <si>
-    <t>GameManager/GamePageController.sendBoard()</t>
-  </si>
-  <si>
-    <t>GamePlay shall be able to access a list of moves</t>
-  </si>
-  <si>
-    <t>GameManager/GamePageController.processMove()</t>
-  </si>
-  <si>
-    <t>The system will support a maximum of 10 concurrent games</t>
-  </si>
-  <si>
-    <t>GameManager</t>
-  </si>
-  <si>
-    <t>Returns the game called by the searched player ID</t>
-  </si>
-  <si>
-    <t>GameManager/GamePageController.returnGame(), GameManager/GameManager.findGameByPlayerId</t>
-  </si>
-  <si>
-    <t>Tracks captures being made</t>
-  </si>
-  <si>
-    <t>GameManager/Game.lastCapture()</t>
-  </si>
-  <si>
-    <t>Returns the winner and loser of the game</t>
-  </si>
-  <si>
-    <t>GameManager/Game.getWinner()|.getLoser(), GameManager/GamePageController.getWinner()|.getLoser()</t>
-  </si>
-  <si>
-    <t>Updates the state of the board</t>
-  </si>
-  <si>
-    <t>GameManager/Game.updateBoard(), GameManager/Board.getSquare()</t>
-  </si>
-  <si>
-    <t>Checks whether the player is a bot or not</t>
-  </si>
-  <si>
-    <t>GameManager/Game.isPlayer1Bot()|.isPlayer2Bot()</t>
-  </si>
-  <si>
-    <t>Checks if a player is in an active game</t>
-  </si>
-  <si>
-    <t>GameManager/GameManager.isPlayerInGame()</t>
-  </si>
-  <si>
-    <t>Returns active game count</t>
-  </si>
-  <si>
-    <t>GameManager/GameManager.getActiveGameCount()</t>
-  </si>
-  <si>
-    <t>Removes a player from game if needed</t>
-  </si>
-  <si>
-    <t>GameManager/GameManager.removePlayer()</t>
-  </si>
-  <si>
-    <t>Processes player requests to quit game</t>
-  </si>
-  <si>
-    <t>GameManager/GameManager.playerQuit()</t>
-  </si>
-  <si>
-    <t>Utilises pair made by GamePairController while creating games</t>
-  </si>
-  <si>
-    <t>Returns the player whose turn it is</t>
-  </si>
-  <si>
-    <t>GameManager/GamePageController.playerTurn()</t>
-  </si>
-  <si>
-    <t>Returns that the game was declared a draw</t>
-  </si>
-  <si>
-    <t>GameManager/GamePageController.getDraw()</t>
-  </si>
-  <si>
-    <t>GameManager/Game.progressGame()</t>
-  </si>
-  <si>
-    <t>The system shall manage the game state for each active match</t>
-  </si>
-  <si>
-    <t>GameManager/Game, GameManager/GameManager.requestBotMoves</t>
-  </si>
-  <si>
-    <t>The system shall receive moves performed by Bot 1 and Bot 2</t>
-  </si>
-  <si>
-    <t>GameManager/Game.switchTurn()</t>
-  </si>
-  <si>
-    <t>GameManager/Board.execute(), GameManager/Move.getStart()|.getDest()</t>
-  </si>
-  <si>
-    <t>U005</t>
   </si>
   <si>
     <r>
@@ -1201,12 +919,402 @@
       <t>shall respond to events sent through WebSocket.</t>
     </r>
   </si>
+  <si>
+    <t>UserEvent in UserEvent.java, timer logic inside GameManager</t>
+  </si>
+  <si>
+    <t>When the backend gets a move from the frontend, it shall check if the move is valid, apply it using the GameManager, and send the updated game status to both players.</t>
+  </si>
+  <si>
+    <t>handleMoveRequest(UserEvent) in PageManager.java, makeMove() in GameManager.java</t>
+  </si>
+  <si>
+    <t>If a player resigns, the system shall log the event in the GameManager and send a message to both players to confirm the resignation and end the game.</t>
+  </si>
+  <si>
+    <t>handleResign(UserEvent) in PageManager.java, processResign() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>If a player offers a draw, the system shall notify the other player. If the draw is accepted, the game shall end and both players shall be notified.</t>
+  </si>
+  <si>
+    <t>handleDrawOffer(UserEvent) and handleDrawAccept(UserEvent) in PageManager.java</t>
+  </si>
+  <si>
+    <t>All event handler methods shall return a `UserEventReply` that includes a `game_status` object and a list of client IDs who should receive the message.</t>
+  </si>
+  <si>
+    <t>UserEventReply in UserEventReply.java, game_status in game_status.java</t>
+  </si>
+  <si>
+    <t>On game start, a show_game_display event will be sent to each player with their ID, assigned color, and starting player information.</t>
+  </si>
+  <si>
+    <t>buildShowGameDisplay() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>On game end (via win, resign, or draw), a hide_game_display event will be sent to all participants.</t>
+  </si>
+  <si>
+    <t>buildHideGameDisplay() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>The backend must support relaying move_made_by_other_player_or_bot messages to ensure clients update pieces visually.</t>
+  </si>
+  <si>
+    <t>processMove() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>Backend must support responding to get_allowed_moves requests and return a list of valid moves in valid_moves format.</t>
+  </si>
+  <si>
+    <t>processAllowedMovesRequest() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>The backend shall be able to send `notify_players` messages for things like game wins or losses, connection issues, or error alerts.</t>
+  </si>
+  <si>
+    <t>buildNotifyPlayers() in GameDisplayConnector.java</t>
+  </si>
+  <si>
+    <t>The system shall return the game status for a player when given their player ID.</t>
+  </si>
+  <si>
+    <t>getGameinfo() in GameManagerSubsys.java</t>
+  </si>
+  <si>
+    <t>The system shall retrieve game-related data such as the current turn, winner, loser, and draw status from the controller.</t>
+  </si>
+  <si>
+    <t>Look up game sessions using client ID using GamePageController</t>
+  </si>
+  <si>
+    <t>getAllPlayerIDs(), processMove() in GamePageController.java</t>
+  </si>
+  <si>
+    <t>The system shall have an object of squared data type for each individual board</t>
+  </si>
+  <si>
+    <t>GameManager/Board.getSquare, GameManager/Square.Square()</t>
+  </si>
+  <si>
+    <t>The board shall be a 2D array of Square objects</t>
+  </si>
+  <si>
+    <t>GameManager/Board.Board()</t>
+  </si>
+  <si>
+    <t>Move objects shall be linked list data structures to allow multiple steps in a single participant move</t>
+  </si>
+  <si>
+    <t>GameManager/Moves.Moves(), GameManager/move.Move()</t>
+  </si>
+  <si>
+    <t>The system shall manage the game state for each active match</t>
+  </si>
+  <si>
+    <t>GameManager/Game.progressGame()</t>
+  </si>
+  <si>
+    <t>The system shall enforce turn-based play using a boolean system</t>
+  </si>
+  <si>
+    <t>GameManager/Game.switchTurn()</t>
+  </si>
+  <si>
+    <t>The system shall receive moves from players or bots and incorporate them from Square destination into the board</t>
+  </si>
+  <si>
+    <t>GameManager/Board.execute(), GameManager/Move.getStart()|.getDest()</t>
+  </si>
+  <si>
+    <t>The system shall place each player ID to their designated board and team once they're matched together</t>
+  </si>
+  <si>
+    <t>GameManager/GamePairController.newMatch()</t>
+  </si>
+  <si>
+    <t>The system shall receive moves performed by Bot 1 and Bot 2</t>
+  </si>
+  <si>
+    <t>GameManager/Game, GameManager/GameManager.requestBotMoves</t>
+  </si>
+  <si>
+    <t>The system shall have colors of white and black randomly assigned to each player, where one is white and the other is black</t>
+  </si>
+  <si>
+    <t>GameManager/Game.Game</t>
+  </si>
+  <si>
+    <t>The system shall update the score of the player after a piece is captured</t>
+  </si>
+  <si>
+    <t>GameManager/Player.addScore()</t>
+  </si>
+  <si>
+    <t>The system shall process a given Move object and respond with an disapproval alert if it is illegal</t>
+  </si>
+  <si>
+    <t>GameManager/GameManager.processMove()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall contain information of the position of the piece occupying a square </t>
+  </si>
+  <si>
+    <t>GameManager/Square.getRow()|.getColumn()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall contain information of the type of piece occupying a square </t>
+  </si>
+  <si>
+    <t>GameManager/Square.getColor()|.isKing()</t>
+  </si>
+  <si>
+    <t>Move objects shall be utilized to encode the requested move from both players and bots</t>
+  </si>
+  <si>
+    <t>GameManager/Moves.makeMove()</t>
+  </si>
+  <si>
+    <t>Checks whether the game is active</t>
+  </si>
+  <si>
+    <t>GameManager/Game.gameActive()</t>
+  </si>
+  <si>
+    <t>Verfies whether slots are available to create a new game and creates one if so</t>
+  </si>
+  <si>
+    <t>GameManager/GameManager.createGame()</t>
+  </si>
+  <si>
+    <t>Deals with game termination and notifies GameTermination</t>
+  </si>
+  <si>
+    <t>GameManager/GameManager.terminateGame()</t>
+  </si>
+  <si>
+    <t>Deals with restarting the game</t>
+  </si>
+  <si>
+    <t>Initialises a new game with the relevant data to accomodate pairups</t>
+  </si>
+  <si>
+    <t>Deals with the piece count on the board</t>
+  </si>
+  <si>
+    <t>GameManager/Player.getPieces()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deals with the pieces taken </t>
+  </si>
+  <si>
+    <t>GameManager/Player.takePieces()</t>
+  </si>
+  <si>
+    <t>PageManager shall be able to receive game ID's and the current board</t>
+  </si>
+  <si>
+    <t>GameManager/GamePageController.sendBoard()</t>
+  </si>
+  <si>
+    <t>GamePlay shall be able to access a list of moves</t>
+  </si>
+  <si>
+    <t>GameManager/GamePageController.processMove()</t>
+  </si>
+  <si>
+    <t>The system will support a maximum of 10 concurrent games</t>
+  </si>
+  <si>
+    <t>GameManager</t>
+  </si>
+  <si>
+    <t>U005</t>
+  </si>
+  <si>
+    <t>Returns the game called by the searched player ID</t>
+  </si>
+  <si>
+    <t>GameManager/GamePageController.returnGame(), GameManager/GameManager.findGameByPlayerId</t>
+  </si>
+  <si>
+    <t>Tracks captures being made</t>
+  </si>
+  <si>
+    <t>GameManager/Game.lastCapture()</t>
+  </si>
+  <si>
+    <t>Returns the winner and loser of the game</t>
+  </si>
+  <si>
+    <t>GameManager/Game.getWinner()|.getLoser(), GameManager/GamePageController.getWinner()|.getLoser()</t>
+  </si>
+  <si>
+    <t>Updates the state of the board</t>
+  </si>
+  <si>
+    <t>GameManager/Game.updateBoard(), GameManager/Board.getSquare()</t>
+  </si>
+  <si>
+    <t>Checks whether the player is a bot or not</t>
+  </si>
+  <si>
+    <t>GameManager/Game.isPlayer1Bot()|.isPlayer2Bot()</t>
+  </si>
+  <si>
+    <t>Checks if a player is in an active game</t>
+  </si>
+  <si>
+    <t>GameManager/GameManager.isPlayerInGame()</t>
+  </si>
+  <si>
+    <t>Returns active game count</t>
+  </si>
+  <si>
+    <t>GameManager/GameManager.getActiveGameCount()</t>
+  </si>
+  <si>
+    <t>Removes a player from game if needed</t>
+  </si>
+  <si>
+    <t>GameManager/GameManager.removePlayer()</t>
+  </si>
+  <si>
+    <t>Processes player requests to quit game</t>
+  </si>
+  <si>
+    <t>GameManager/GameManager.playerQuit()</t>
+  </si>
+  <si>
+    <t>Utilises pair made by GamePairController while creating games</t>
+  </si>
+  <si>
+    <t>Returns the player whose turn it is</t>
+  </si>
+  <si>
+    <t>GameManager/GamePageController.playerTurn()</t>
+  </si>
+  <si>
+    <t>Returns that the game was declared a draw</t>
+  </si>
+  <si>
+    <t>GameManager/GamePageController.getDraw()</t>
+  </si>
+  <si>
+    <t>Input box:</t>
+  </si>
+  <si>
+    <t>The login page must provide a text input field for the user to enter their username.</t>
+  </si>
+  <si>
+    <t>input-box in loginHander.js</t>
+  </si>
+  <si>
+    <t>Username must contain atleast 8 characters, 1 digit, and 1 special character. Message displays when wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onkeyup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pattern to be used for the username requirements:  /^(?=.*\d)(?=.*[!@#$%^&amp;*])[A-Za-z\d!@#$%^&amp;*]{8,}$/</t>
+  </si>
+  <si>
+    <t>onkeyup</t>
+  </si>
+  <si>
+    <t>Container:</t>
+  </si>
+  <si>
+    <t>There are constraints on special characters that can be used in username. If found any, give an error message with the instructions. It should display</t>
+  </si>
+  <si>
+    <t>onkeyup, sendUsername()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The login page shall display an alert if the username is invalid or missing upon form submission. </t>
+  </si>
+  <si>
+    <t>joinGame()</t>
+  </si>
+  <si>
+    <t>The login page must have a button to "Join Game" once the user is done entering their username</t>
+  </si>
+  <si>
+    <t>button, .button-container, joinGame()</t>
+  </si>
+  <si>
+    <t>Button hover shall darken the button to provide visual feedback on hover.</t>
+  </si>
+  <si>
+    <t>button:hoover</t>
+  </si>
+  <si>
+    <t>Once the username is successfully submitted, the "join game" button should redirect the user to the game game.</t>
+  </si>
+  <si>
+    <t>button hoover:</t>
+  </si>
+  <si>
+    <t>Communications between the html pages and the java code will be via a websockets.</t>
+  </si>
+  <si>
+    <t>loginHandler.js, WebSocket</t>
+  </si>
+  <si>
+    <t>Websockets messages will be JSON encoded.</t>
+  </si>
+  <si>
+    <t>Logic performed by other subsystems in Java, not in HTML</t>
+  </si>
+  <si>
+    <t>index.html only has structure, JS logic is in loginHandler.js</t>
+  </si>
+  <si>
+    <t>The login page shall validate the username in real time as the user types.</t>
+  </si>
+  <si>
+    <t>onekeyup</t>
+  </si>
+  <si>
+    <t>The login page shall show validation rules when the input field is focused.</t>
+  </si>
+  <si>
+    <t>uInput.onfocus, #message</t>
+  </si>
+  <si>
+    <t>The login page shall hide the validation message when the input field is blurred.</t>
+  </si>
+  <si>
+    <t>uInput.onblur</t>
+  </si>
+  <si>
+    <t>Instructions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The login page shall display ✓ or ✖ icons for each validation rule depending on input.	</t>
+  </si>
+  <si>
+    <t>onkeyup, .valid, .invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The login page shall alert the user with "Joining Game" upon valid submission.	</t>
+  </si>
+  <si>
+    <t>The username shall be unique, no duplicate usernames allowed.</t>
+  </si>
+  <si>
+    <t>recieveFromPageManager(msg), message</t>
+  </si>
+  <si>
+    <t>summary:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,7 +1364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1267,28 +1375,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1297,23 +1393,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1370,6 +1457,288 @@
         <a:xfrm>
           <a:off x="23479125" y="62928500"/>
           <a:ext cx="7772400" cy="4415669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2152650</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5785B674-F998-28A6-981E-A20F59520686}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{49866792-F7A3-FFB5-F8EC-832A93D7D26D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20640675" y="88515825"/>
+          <a:ext cx="2152650" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>542925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7CE82F-6A10-AA06-2CA1-DF5B55CA20E7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5785B674-F998-28A6-981E-A20F59520686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20716875" y="89677875"/>
+          <a:ext cx="3381375" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BDED87B-7837-F177-A84E-E441E2F3B570}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6D7CE82F-6A10-AA06-2CA1-DF5B55CA20E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20935950" y="91935300"/>
+          <a:ext cx="2038350" cy="1914525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92122C1-4BB6-A7A8-0FBE-6FA9C0B791DB}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6BDED87B-7837-F177-A84E-E441E2F3B570}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21040725" y="94135575"/>
+          <a:ext cx="2400300" cy="2152650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE6628E-601C-9BC9-FBA6-76D82FF7B362}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A92122C1-4BB6-A7A8-0FBE-6FA9C0B791DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23488650" y="94135575"/>
+          <a:ext cx="2533650" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F4C7D9-7895-E15D-9655-68FF7A707F43}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EAE6628E-601C-9BC9-FBA6-76D82FF7B362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21040725" y="96545400"/>
+          <a:ext cx="3695700" cy="1943100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1698,28 +2067,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S207"/>
+  <dimension ref="A1:S230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D205" sqref="D205"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -1757,11 +2127,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:19">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1777,17 +2147,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="4" spans="1:19" ht="43.15">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="8">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1800,2926 +2170,3368 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    <row r="5" spans="1:19" ht="28.9">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="9">
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+    <row r="6" spans="1:19" ht="28.9">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+    <row r="7" spans="1:19" ht="28.9">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="9">
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+    <row r="8" spans="1:19">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+    <row r="9" spans="1:19" ht="28.9">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="9">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+    <row r="10" spans="1:19" ht="28.9">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="9">
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+    <row r="11" spans="1:19" ht="28.9">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="9">
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+    <row r="12" spans="1:19">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="9">
         <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+    <row r="13" spans="1:19" ht="28.9">
+      <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="9">
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+    <row r="14" spans="1:19">
+      <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="9">
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+    <row r="15" spans="1:19" ht="28.9">
+      <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="9">
         <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+    <row r="16" spans="1:19">
+      <c r="A16" s="9">
         <v>13</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="9">
         <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+    <row r="17" spans="1:4" ht="28.9">
+      <c r="A17" s="9">
         <v>14</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="9">
         <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+    <row r="18" spans="1:4" ht="28.9">
+      <c r="A18" s="9">
         <v>15</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="9">
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+    <row r="19" spans="1:4" ht="28.9">
+      <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="9">
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+    <row r="20" spans="1:4" ht="28.9">
+      <c r="A20" s="9">
         <v>17</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="9">
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+    <row r="21" spans="1:4" ht="28.9">
+      <c r="A21" s="9">
         <v>18</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="9">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+    <row r="22" spans="1:4" ht="43.15">
+      <c r="A22" s="9">
         <v>19</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="9">
         <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+    <row r="23" spans="1:4" ht="43.15">
+      <c r="A23" s="9">
         <v>20</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="9">
         <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+    <row r="24" spans="1:4" ht="28.9">
+      <c r="A24" s="9">
         <v>21</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="9">
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+    <row r="25" spans="1:4" ht="28.9">
+      <c r="A25" s="9">
         <v>22</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="9">
         <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+    <row r="26" spans="1:4" ht="43.15">
+      <c r="A26" s="9">
         <v>23</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="9">
         <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+    <row r="27" spans="1:4" ht="28.9">
+      <c r="A27" s="9">
         <v>24</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="9">
         <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+    <row r="28" spans="1:4" ht="28.9">
+      <c r="A28" s="9">
         <v>25</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="9">
         <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+    <row r="29" spans="1:4" ht="43.15">
+      <c r="A29" s="9">
         <v>26</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="9">
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+    <row r="30" spans="1:4" ht="28.9">
+      <c r="A30" s="9">
         <v>27</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="9">
         <v>33</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+    <row r="31" spans="1:4" ht="43.15">
+      <c r="A31" s="9">
         <v>28</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="9">
         <v>33</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+    <row r="32" spans="1:4" ht="28.9">
+      <c r="A32" s="9">
         <v>29</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="9">
         <v>33</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
+    <row r="33" spans="1:4" ht="28.9">
+      <c r="A33" s="9">
         <v>30</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="9">
         <v>33</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+    <row r="34" spans="1:4" ht="28.9">
+      <c r="A34" s="9">
         <v>31</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="9">
         <v>33</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+    <row r="35" spans="1:4" ht="28.9">
+      <c r="A35" s="9">
         <v>32</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="9">
         <v>33</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+    <row r="36" spans="1:4" ht="43.15">
+      <c r="A36" s="9">
         <v>33</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="9">
         <v>33</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
+    <row r="37" spans="1:4" ht="43.15">
+      <c r="A37" s="9">
         <v>34</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="9">
         <v>33</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+    <row r="38" spans="1:4" ht="57.6">
+      <c r="A38" s="9">
         <v>35</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="9">
         <v>33</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
+    <row r="39" spans="1:4" ht="28.9">
+      <c r="A39" s="9">
         <v>36</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="9">
         <v>33</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+    <row r="40" spans="1:4" ht="28.9">
+      <c r="A40" s="9">
         <v>37</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="9">
         <v>33</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+    <row r="41" spans="1:4" ht="28.9">
+      <c r="A41" s="9">
         <v>38</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="9">
         <v>33</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
+    <row r="42" spans="1:4">
+      <c r="A42" s="9">
         <v>39</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="9">
         <v>33</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
+    <row r="43" spans="1:4" ht="28.9">
+      <c r="A43" s="9">
         <v>40</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="9">
         <v>33</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+    <row r="44" spans="1:4" ht="28.9">
+      <c r="A44" s="9">
         <v>41</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="9">
         <v>33</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
+    <row r="45" spans="1:4" ht="28.9">
+      <c r="A45" s="9">
         <v>42</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="9">
         <v>33</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
+    <row r="46" spans="1:4" ht="28.9">
+      <c r="A46" s="9">
         <v>43</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="9">
         <v>33</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
+    <row r="47" spans="1:4" ht="57.6">
+      <c r="A47" s="9">
         <v>44</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="9">
         <v>33</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
+    <row r="48" spans="1:4" ht="43.15">
+      <c r="A48" s="9">
         <v>45</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="9">
         <v>33</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
+    <row r="49" spans="1:4" ht="28.9">
+      <c r="A49" s="9">
         <v>46</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="9">
         <v>33</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
+    <row r="50" spans="1:4" ht="28.9">
+      <c r="A50" s="9">
         <v>47</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="9">
         <v>33</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
+    <row r="51" spans="1:4" ht="28.9">
+      <c r="A51" s="9">
         <v>48</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="9">
         <v>33</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
+    <row r="52" spans="1:4" ht="28.9">
+      <c r="A52" s="9">
         <v>49</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="9">
         <v>33</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
+    <row r="53" spans="1:4" ht="43.15">
+      <c r="A53" s="9">
         <v>50</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="9">
         <v>26</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
+    <row r="54" spans="1:4" ht="28.9">
+      <c r="A54" s="9">
         <v>51</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="9">
         <v>26</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
+    <row r="55" spans="1:4" ht="28.9">
+      <c r="A55" s="9">
         <v>52</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="9">
         <v>26</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
+    <row r="56" spans="1:4" ht="28.9">
+      <c r="A56" s="9">
         <v>53</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="9">
         <v>26</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
+    <row r="57" spans="1:4" ht="28.9">
+      <c r="A57" s="9">
         <v>54</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="9">
         <v>26</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
+    <row r="58" spans="1:4" ht="28.9">
+      <c r="A58" s="9">
         <v>55</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="9">
         <v>26</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
+    <row r="59" spans="1:4" ht="28.9">
+      <c r="A59" s="9">
         <v>56</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="9">
         <v>26</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
+    <row r="60" spans="1:4" ht="28.9">
+      <c r="A60" s="9">
         <v>57</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="9">
         <v>26</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
+    <row r="61" spans="1:4" ht="43.15">
+      <c r="A61" s="9">
         <v>58</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="9">
         <v>26</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
+    <row r="62" spans="1:4" ht="28.9">
+      <c r="A62" s="9">
         <v>59</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="9">
         <v>26</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
+    <row r="63" spans="1:4" ht="28.9">
+      <c r="A63" s="9">
         <v>60</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="9">
         <v>26</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
+    <row r="64" spans="1:4" ht="28.9">
+      <c r="A64" s="9">
         <v>61</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="9">
         <v>26</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
+    <row r="65" spans="1:4" ht="72">
+      <c r="A65" s="9">
         <v>62</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="9">
         <v>26</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
+    <row r="66" spans="1:4" ht="57.6">
+      <c r="A66" s="9">
         <v>63</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="9">
         <v>26</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
+    <row r="67" spans="1:4" ht="28.9">
+      <c r="A67" s="9">
         <v>64</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="9">
         <v>26</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
+    <row r="68" spans="1:4" ht="28.9">
+      <c r="A68" s="9">
         <v>65</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="9">
         <v>26</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
+    <row r="69" spans="1:4" ht="28.9">
+      <c r="A69" s="9">
         <v>66</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="9">
         <v>26</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
+    <row r="70" spans="1:4" ht="28.9">
+      <c r="A70" s="9">
         <v>67</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="9">
         <v>26</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
+    <row r="71" spans="1:4" ht="43.15">
+      <c r="A71" s="9">
         <v>68</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="9">
         <v>26</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
+    <row r="72" spans="1:4" ht="57.6">
+      <c r="A72" s="9">
         <v>69</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="9">
         <v>26</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
+    <row r="73" spans="1:4" ht="28.9">
+      <c r="A73" s="9">
         <v>70</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="9">
         <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
+    <row r="74" spans="1:4" ht="43.15">
+      <c r="A74" s="9">
         <v>71</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="9">
         <v>35</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
+    <row r="75" spans="1:4">
+      <c r="A75" s="9">
         <v>72</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="9">
         <v>35</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
+    <row r="76" spans="1:4" ht="43.15">
+      <c r="A76" s="9">
         <v>73</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="9">
         <v>35</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
+    <row r="77" spans="1:4" ht="43.15">
+      <c r="A77" s="9">
         <v>74</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="9">
         <v>35</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
+    <row r="78" spans="1:4" ht="28.9">
+      <c r="A78" s="9">
         <v>75</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="9">
         <v>35</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
+    <row r="79" spans="1:4" ht="28.9">
+      <c r="A79" s="9">
         <v>76</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="9">
         <v>35</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
+    <row r="80" spans="1:4" ht="28.9">
+      <c r="A80" s="9">
         <v>77</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B80" s="9">
         <v>35</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
+    <row r="81" spans="1:4" ht="28.9">
+      <c r="A81" s="9">
         <v>78</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="9">
         <v>35</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
+    <row r="82" spans="1:4" ht="28.9">
+      <c r="A82" s="9">
         <v>79</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B82" s="9">
         <v>27</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
+    <row r="83" spans="1:4">
+      <c r="A83" s="9">
         <v>80</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="9">
         <v>27</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
+    <row r="84" spans="1:4" ht="57.6">
+      <c r="A84" s="9">
         <v>81</v>
       </c>
-      <c r="B84" s="13">
+      <c r="B84" s="9">
         <v>27</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
+    <row r="85" spans="1:4" ht="43.15">
+      <c r="A85" s="9">
         <v>82</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="9">
         <v>27</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
+    <row r="86" spans="1:4" ht="72">
+      <c r="A86" s="9">
         <v>83</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="9">
         <v>27</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
+    <row r="87" spans="1:4">
+      <c r="A87" s="9">
         <v>84</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="9">
         <v>27</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D87" s="15" t="s">
+      <c r="D87" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
+    <row r="88" spans="1:4" ht="28.9">
+      <c r="A88" s="9">
         <v>85</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="9">
         <v>27</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D88" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
+    <row r="89" spans="1:4" ht="43.15">
+      <c r="A89" s="9">
         <v>86</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B89" s="9">
         <v>27</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D89" s="10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
+    <row r="90" spans="1:4" ht="28.9">
+      <c r="A90" s="9">
         <v>87</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B90" s="9">
         <v>27</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
+    <row r="91" spans="1:4" ht="28.9">
+      <c r="A91" s="9">
         <v>88</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="9">
         <v>27</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D91" s="10" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
+    <row r="92" spans="1:4" ht="28.9">
+      <c r="A92" s="9">
         <v>89</v>
       </c>
-      <c r="B92" s="13">
+      <c r="B92" s="9">
         <v>27</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D92" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
+    <row r="93" spans="1:4" ht="28.9">
+      <c r="A93" s="9">
         <v>90</v>
       </c>
-      <c r="B93" s="13">
+      <c r="B93" s="9">
         <v>27</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D93" s="15" t="s">
+      <c r="D93" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
+    <row r="94" spans="1:4" ht="28.9">
+      <c r="A94" s="9">
         <v>91</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="9">
         <v>27</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
+    <row r="95" spans="1:4" ht="28.9">
+      <c r="A95" s="9">
         <v>92</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B95" s="9">
         <v>27</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="D95" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
+    <row r="96" spans="1:4" ht="28.9">
+      <c r="A96" s="9">
         <v>93</v>
       </c>
-      <c r="B96" s="13">
+      <c r="B96" s="9">
         <v>27</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D96" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
+    <row r="97" spans="1:4" ht="43.15">
+      <c r="A97" s="9">
         <v>94</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B97" s="9">
         <v>27</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D97" s="10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
+    <row r="98" spans="1:4" ht="28.9">
+      <c r="A98" s="9">
         <v>95</v>
       </c>
-      <c r="B98" s="13">
+      <c r="B98" s="9">
         <v>27</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D98" s="15" t="s">
+      <c r="D98" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
+    <row r="99" spans="1:4" ht="28.9">
+      <c r="A99" s="9">
         <v>96</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="9">
         <v>27</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D99" s="15" t="s">
+      <c r="D99" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
+    <row r="100" spans="1:4" ht="28.9">
+      <c r="A100" s="9">
         <v>97</v>
       </c>
-      <c r="B100" s="13">
+      <c r="B100" s="9">
         <v>27</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D100" s="15" t="s">
+      <c r="D100" s="10" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
+    <row r="101" spans="1:4">
+      <c r="A101" s="9">
         <v>98</v>
       </c>
-      <c r="B101" s="13">
+      <c r="B101" s="9">
         <v>27</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D101" s="15" t="s">
+      <c r="D101" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="13">
+    <row r="102" spans="1:4" ht="28.9">
+      <c r="A102" s="9">
         <v>99</v>
       </c>
-      <c r="B102" s="13">
+      <c r="B102" s="9">
         <v>36</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D102" s="15" t="s">
+      <c r="D102" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="13">
+    <row r="103" spans="1:4" ht="57.6">
+      <c r="A103" s="9">
         <v>100</v>
       </c>
-      <c r="B103" s="13">
+      <c r="B103" s="9">
         <v>36</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D103" s="15" t="s">
+      <c r="D103" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="13">
+    <row r="104" spans="1:4" ht="43.15">
+      <c r="A104" s="9">
         <v>101</v>
       </c>
-      <c r="B104" s="13">
+      <c r="B104" s="9">
         <v>36</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="13">
+    <row r="105" spans="1:4" ht="28.9">
+      <c r="A105" s="9">
         <v>102</v>
       </c>
-      <c r="B105" s="13">
+      <c r="B105" s="9">
         <v>36</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D105" s="15" t="s">
+      <c r="D105" s="10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="13">
+    <row r="106" spans="1:4" ht="43.15">
+      <c r="A106" s="9">
         <v>103</v>
       </c>
-      <c r="B106" s="13">
+      <c r="B106" s="9">
         <v>36</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D106" s="15" t="s">
+      <c r="D106" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="13">
+    <row r="107" spans="1:4" ht="28.9">
+      <c r="A107" s="9">
         <v>104</v>
       </c>
-      <c r="B107" s="13">
+      <c r="B107" s="9">
         <v>36</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D107" s="15" t="s">
+      <c r="D107" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A108" s="13">
+    <row r="108" spans="1:4" ht="86.45">
+      <c r="A108" s="9">
         <v>105</v>
       </c>
-      <c r="B108" s="13">
+      <c r="B108" s="9">
         <v>36</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D108" s="15" t="s">
+      <c r="D108" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="13">
+    <row r="109" spans="1:4" ht="28.9">
+      <c r="A109" s="9">
         <v>106</v>
       </c>
-      <c r="B109" s="13">
+      <c r="B109" s="9">
         <v>36</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D109" s="15" t="s">
+      <c r="D109" s="10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="13">
+    <row r="110" spans="1:4">
+      <c r="A110" s="9">
         <v>107</v>
       </c>
-      <c r="B110" s="13">
+      <c r="B110" s="9">
         <v>36</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D110" s="15" t="s">
+      <c r="D110" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="13">
+    <row r="111" spans="1:4" ht="43.15">
+      <c r="A111" s="9">
         <v>108</v>
       </c>
-      <c r="B111" s="13">
+      <c r="B111" s="9">
         <v>36</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D111" s="15" t="s">
+      <c r="D111" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="13">
+    <row r="112" spans="1:4" ht="57.6">
+      <c r="A112" s="9">
         <v>109</v>
       </c>
-      <c r="B112" s="13">
+      <c r="B112" s="9">
         <v>36</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D112" s="15" t="s">
+      <c r="D112" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="13">
+    <row r="113" spans="1:4" ht="28.9">
+      <c r="A113" s="9">
         <v>110</v>
       </c>
-      <c r="B113" s="13">
+      <c r="B113" s="9">
         <v>36</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D113" s="15" t="s">
+      <c r="D113" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="13">
+    <row r="114" spans="1:4">
+      <c r="A114" s="9">
         <v>111</v>
       </c>
-      <c r="B114" s="13">
+      <c r="B114" s="9">
         <v>36</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D114" s="15" t="s">
+      <c r="D114" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="13">
+    <row r="115" spans="1:4" ht="43.15">
+      <c r="A115" s="9">
         <v>112</v>
       </c>
-      <c r="B115" s="13">
+      <c r="B115" s="9">
         <v>36</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D115" s="15" t="s">
+      <c r="D115" s="10" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="13">
+    <row r="116" spans="1:4" ht="28.9">
+      <c r="A116" s="9">
         <v>113</v>
       </c>
-      <c r="B116" s="13">
+      <c r="B116" s="9">
         <v>36</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D116" s="15" t="s">
+      <c r="D116" s="10" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="13">
+    <row r="117" spans="1:4" ht="43.15">
+      <c r="A117" s="9">
         <v>114</v>
       </c>
-      <c r="B117" s="13">
+      <c r="B117" s="9">
         <v>31</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D117" s="15" t="s">
+      <c r="D117" s="10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="13">
+    <row r="118" spans="1:4" ht="43.15">
+      <c r="A118" s="9">
         <v>115</v>
       </c>
-      <c r="B118" s="13">
+      <c r="B118" s="9">
         <v>31</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D118" s="15" t="s">
+      <c r="D118" s="10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="13">
+    <row r="119" spans="1:4" ht="28.9">
+      <c r="A119" s="9">
         <v>116</v>
       </c>
-      <c r="B119" s="13">
+      <c r="B119" s="9">
         <v>31</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D119" s="15" t="s">
+      <c r="D119" s="10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="13">
+    <row r="120" spans="1:4" ht="43.15">
+      <c r="A120" s="9">
         <v>117</v>
       </c>
-      <c r="B120" s="13">
+      <c r="B120" s="9">
         <v>31</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D120" s="15" t="s">
+      <c r="D120" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="13">
+    <row r="121" spans="1:4" ht="43.15">
+      <c r="A121" s="9">
         <v>118</v>
       </c>
-      <c r="B121" s="13">
+      <c r="B121" s="9">
         <v>31</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D121" s="15" t="s">
+      <c r="D121" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A122" s="13">
+    <row r="122" spans="1:4" ht="43.15">
+      <c r="A122" s="9">
         <v>119</v>
       </c>
-      <c r="B122" s="13">
+      <c r="B122" s="9">
         <v>31</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D122" s="15" t="s">
+      <c r="D122" s="10" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A123" s="13">
+    <row r="123" spans="1:4" ht="43.15">
+      <c r="A123" s="9">
         <v>120</v>
       </c>
-      <c r="B123" s="13">
+      <c r="B123" s="9">
         <v>31</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D123" s="15" t="s">
+      <c r="D123" s="10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A124" s="13">
+    <row r="124" spans="1:4" ht="43.15">
+      <c r="A124" s="9">
         <v>121</v>
       </c>
-      <c r="B124" s="13">
+      <c r="B124" s="9">
         <v>31</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D124" s="15" t="s">
+      <c r="D124" s="10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="13">
+    <row r="125" spans="1:4" ht="28.9">
+      <c r="A125" s="9">
         <v>122</v>
       </c>
-      <c r="B125" s="13">
+      <c r="B125" s="9">
         <v>31</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D125" s="15" t="s">
+      <c r="D125" s="10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A126" s="13">
+    <row r="126" spans="1:4" ht="72">
+      <c r="A126" s="9">
         <v>123</v>
       </c>
-      <c r="B126" s="13">
+      <c r="B126" s="9">
         <v>31</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D126" s="15" t="s">
+      <c r="D126" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A127" s="13">
+    <row r="127" spans="1:4" ht="86.45">
+      <c r="A127" s="9">
         <v>124</v>
       </c>
-      <c r="B127" s="13">
+      <c r="B127" s="9">
         <v>31</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D127" s="15" t="s">
+      <c r="D127" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A128" s="13">
+    <row r="128" spans="1:4" ht="57.6">
+      <c r="A128" s="9">
         <v>125</v>
       </c>
-      <c r="B128" s="13">
+      <c r="B128" s="9">
         <v>31</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D128" s="15" t="s">
+      <c r="D128" s="10" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A129" s="13">
+    <row r="129" spans="1:18" ht="72">
+      <c r="A129" s="9">
         <v>126</v>
       </c>
-      <c r="B129" s="13">
+      <c r="B129" s="9">
         <v>31</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D129" s="15" t="s">
+      <c r="D129" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A130" s="13">
+    <row r="130" spans="1:18" ht="43.15">
+      <c r="A130" s="9">
         <v>127</v>
       </c>
-      <c r="B130" s="13">
+      <c r="B130" s="9">
         <v>31</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D130" s="15" t="s">
+      <c r="D130" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="13">
+    <row r="131" spans="1:18" ht="28.9">
+      <c r="A131" s="9">
         <v>128</v>
       </c>
-      <c r="B131" s="13">
+      <c r="B131" s="9">
         <v>30</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D131" s="17" t="s">
+      <c r="D131" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A132" s="13">
+    <row r="132" spans="1:18" ht="43.15">
+      <c r="A132" s="9">
         <v>129</v>
       </c>
-      <c r="B132" s="13">
+      <c r="B132" s="9">
         <v>30</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C132" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D132" s="17" t="s">
+      <c r="D132" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A133" s="13">
+    <row r="133" spans="1:18">
+      <c r="A133" s="9">
         <v>130</v>
       </c>
-      <c r="B133" s="13">
+      <c r="B133" s="9">
         <v>30</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D133" s="17" t="s">
+      <c r="D133" s="11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A134" s="13">
+    <row r="134" spans="1:18" ht="43.15">
+      <c r="A134" s="9">
         <v>131</v>
       </c>
-      <c r="B134" s="13">
+      <c r="B134" s="9">
         <v>30</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D134" s="17" t="s">
+      <c r="D134" s="11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="13">
+    <row r="135" spans="1:18" ht="43.15">
+      <c r="A135" s="9">
         <v>132</v>
       </c>
-      <c r="B135" s="13">
+      <c r="B135" s="9">
         <v>30</v>
       </c>
-      <c r="C135" s="11" t="s">
+      <c r="C135" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D135" s="17" t="s">
+      <c r="D135" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="13">
+    <row r="136" spans="1:18" ht="28.9">
+      <c r="A136" s="9">
         <v>133</v>
       </c>
-      <c r="B136" s="13">
+      <c r="B136" s="9">
         <v>30</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C136" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D136" s="17" t="s">
+      <c r="D136" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A137" s="13">
+    <row r="137" spans="1:18" ht="43.15">
+      <c r="A137" s="9">
         <v>134</v>
       </c>
-      <c r="B137" s="13">
+      <c r="B137" s="9">
         <v>30</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="C137" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D137" s="17" t="s">
+      <c r="D137" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="13">
+    <row r="138" spans="1:18" ht="28.9">
+      <c r="A138" s="9">
         <v>135</v>
       </c>
-      <c r="B138" s="13">
+      <c r="B138" s="9">
         <v>30</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="C138" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D138" s="17" t="s">
+      <c r="D138" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A139" s="13">
+    <row r="139" spans="1:18" ht="57.6">
+      <c r="A139" s="9">
         <v>136</v>
       </c>
-      <c r="B139" s="13">
+      <c r="B139" s="9">
         <v>30</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D139" s="17" t="s">
+      <c r="D139" s="11" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A140" s="13">
+    <row r="140" spans="1:18" ht="57.6">
+      <c r="A140" s="9">
         <v>137</v>
       </c>
-      <c r="B140" s="13">
+      <c r="B140" s="9">
         <v>30</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D140" s="17" t="s">
+      <c r="D140" s="11" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="195" x14ac:dyDescent="0.25">
-      <c r="A141" s="13">
+    <row r="141" spans="1:18" ht="187.15">
+      <c r="A141" s="9">
         <v>138</v>
       </c>
-      <c r="B141" s="13">
+      <c r="B141" s="9">
         <v>30</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D141" s="17" t="s">
+      <c r="D141" s="11" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A142" s="14">
+    <row r="142" spans="1:18">
+      <c r="A142" s="9">
         <v>139</v>
       </c>
-      <c r="B142" s="14">
+      <c r="B142" s="9">
         <v>28</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D142" s="15" t="s">
+      <c r="D142" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="E142" s="4" t="s">
+      <c r="E142" s="1" t="s">
         <v>258</v>
       </c>
       <c r="R142" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="14">
+    <row r="143" spans="1:18" ht="43.15">
+      <c r="A143" s="9">
         <v>140</v>
       </c>
-      <c r="B143" s="14">
+      <c r="B143" s="9">
         <v>28</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D143" s="15" t="s">
+      <c r="D143" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="E143" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="14">
+    <row r="144" spans="1:18" ht="28.9">
+      <c r="A144" s="9">
         <v>141</v>
       </c>
-      <c r="B144" s="14">
+      <c r="B144" s="9">
         <v>28</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D144" s="15" t="s">
+      <c r="D144" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="E144" s="4"/>
-    </row>
-    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="14">
+    </row>
+    <row r="145" spans="1:4" ht="28.9">
+      <c r="A145" s="9">
         <v>142</v>
       </c>
-      <c r="B145" s="14">
+      <c r="B145" s="9">
         <v>28</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D145" s="15" t="s">
+      <c r="D145" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E145" s="4"/>
-    </row>
-    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="14">
+    </row>
+    <row r="146" spans="1:4" ht="28.9">
+      <c r="A146" s="9">
         <v>143</v>
       </c>
-      <c r="B146" s="14">
+      <c r="B146" s="9">
         <v>28</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D146" s="15" t="s">
+      <c r="D146" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="E146" s="4"/>
-    </row>
-    <row r="147" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="14">
+    </row>
+    <row r="147" spans="1:4" ht="28.9">
+      <c r="A147" s="9">
         <v>144</v>
       </c>
-      <c r="B147" s="14">
+      <c r="B147" s="9">
         <v>28</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D147" s="15" t="s">
+      <c r="D147" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E147" s="4"/>
-    </row>
-    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="14">
+    </row>
+    <row r="148" spans="1:4" ht="28.9">
+      <c r="A148" s="9">
         <v>145</v>
       </c>
-      <c r="B148" s="14">
+      <c r="B148" s="9">
         <v>28</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D148" s="15" t="s">
+      <c r="D148" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E148" s="4"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="14">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="9">
         <v>146</v>
       </c>
-      <c r="B149" s="14">
+      <c r="B149" s="9">
         <v>28</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D149" s="15" t="s">
+      <c r="D149" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="E149" s="4"/>
-    </row>
-    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="14">
+    </row>
+    <row r="150" spans="1:4" ht="28.9">
+      <c r="A150" s="9">
         <v>147</v>
       </c>
-      <c r="B150" s="14">
+      <c r="B150" s="9">
         <v>28</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D150" s="15" t="s">
+      <c r="D150" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E150" s="4"/>
-    </row>
-    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="14">
+    </row>
+    <row r="151" spans="1:4" ht="28.9">
+      <c r="A151" s="9">
         <v>148</v>
       </c>
-      <c r="B151" s="14">
+      <c r="B151" s="9">
         <v>28</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D151" s="15" t="s">
+      <c r="D151" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="E151" s="4"/>
-    </row>
-    <row r="152" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A152" s="14">
+    </row>
+    <row r="152" spans="1:4" ht="72">
+      <c r="A152" s="9">
         <v>149</v>
       </c>
-      <c r="B152" s="14">
+      <c r="B152" s="9">
         <v>29</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C152" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D152" s="18" t="s">
+      <c r="D152" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="E152" s="4"/>
-    </row>
-    <row r="153" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A153" s="14">
+    </row>
+    <row r="153" spans="1:4" ht="57.6">
+      <c r="A153" s="9">
         <v>150</v>
       </c>
-      <c r="B153" s="14">
+      <c r="B153" s="9">
         <v>29</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E153" s="4"/>
-    </row>
-    <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="14">
+    </row>
+    <row r="154" spans="1:4" ht="28.9">
+      <c r="A154" s="9">
         <v>151</v>
       </c>
-      <c r="B154" s="14">
+      <c r="B154" s="9">
         <v>29</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D154" s="18" t="s">
+      <c r="D154" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="E154" s="4"/>
-    </row>
-    <row r="155" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="14">
+    </row>
+    <row r="155" spans="1:4" ht="43.15">
+      <c r="A155" s="9">
         <v>152</v>
       </c>
-      <c r="B155" s="14">
+      <c r="B155" s="9">
         <v>29</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D155" s="18" t="s">
+      <c r="D155" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E155" s="4"/>
-    </row>
-    <row r="156" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A156" s="14">
+    </row>
+    <row r="156" spans="1:4" ht="43.15">
+      <c r="A156" s="9">
         <v>153</v>
       </c>
-      <c r="B156" s="14">
+      <c r="B156" s="9">
         <v>29</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D156" s="18" t="s">
+      <c r="D156" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E156" s="4"/>
-    </row>
-    <row r="157" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A157" s="14">
+    </row>
+    <row r="157" spans="1:4" ht="43.15">
+      <c r="A157" s="9">
         <v>154</v>
       </c>
-      <c r="B157" s="14">
+      <c r="B157" s="9">
         <v>29</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D157" s="18" t="s">
+      <c r="D157" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="E157" s="4"/>
-    </row>
-    <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A158" s="14">
+    </row>
+    <row r="158" spans="1:4" ht="43.15">
+      <c r="A158" s="9">
         <v>155</v>
       </c>
-      <c r="B158" s="14">
+      <c r="B158" s="9">
         <v>29</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D158" s="18" t="s">
+      <c r="D158" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="E158" s="4"/>
-    </row>
-    <row r="159" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A159" s="14">
+    </row>
+    <row r="159" spans="1:4" ht="57.6">
+      <c r="A159" s="9">
         <v>156</v>
       </c>
-      <c r="B159" s="14">
+      <c r="B159" s="9">
         <v>29</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="57.6">
+      <c r="A160" s="9">
+        <v>157</v>
+      </c>
+      <c r="B160" s="9">
+        <v>29</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="43.15">
+      <c r="A161" s="9">
+        <v>158</v>
+      </c>
+      <c r="B161" s="9">
+        <v>29</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="43.15">
+      <c r="A162" s="9">
+        <v>159</v>
+      </c>
+      <c r="B162" s="9">
+        <v>29</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="43.15">
+      <c r="A163" s="9">
+        <v>160</v>
+      </c>
+      <c r="B163" s="9">
+        <v>29</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="43.15">
+      <c r="A164" s="9">
+        <v>161</v>
+      </c>
+      <c r="B164" s="9">
+        <v>29</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="28.9">
+      <c r="A165" s="9">
+        <v>162</v>
+      </c>
+      <c r="B165" s="9">
+        <v>29</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="43.15">
+      <c r="A166" s="9">
+        <v>163</v>
+      </c>
+      <c r="B166" s="9">
+        <v>29</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="43.15">
+      <c r="A167" s="9">
+        <v>164</v>
+      </c>
+      <c r="B167" s="9">
+        <v>29</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="43.15">
+      <c r="A168" s="9">
+        <v>165</v>
+      </c>
+      <c r="B168" s="9">
+        <v>29</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="28.9">
+      <c r="A169" s="9">
+        <v>166</v>
+      </c>
+      <c r="B169" s="9">
+        <v>29</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="43.15">
+      <c r="A170" s="9">
+        <v>167</v>
+      </c>
+      <c r="B170" s="9">
+        <v>29</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="28.9">
+      <c r="A171" s="9">
+        <v>168</v>
+      </c>
+      <c r="B171" s="9">
+        <v>29</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="28.9">
+      <c r="A172" s="9">
+        <v>169</v>
+      </c>
+      <c r="B172" s="9">
+        <v>32</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="9">
+        <v>170</v>
+      </c>
+      <c r="B173" s="9">
+        <v>32</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="28.9">
+      <c r="A174" s="9">
+        <v>171</v>
+      </c>
+      <c r="B174" s="9">
+        <v>32</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="28.9">
+      <c r="A175" s="9">
+        <v>172</v>
+      </c>
+      <c r="B175" s="9">
+        <v>32</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="28.9">
+      <c r="A176" s="9">
+        <v>173</v>
+      </c>
+      <c r="B176" s="9">
+        <v>32</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="28.9">
+      <c r="A177" s="9">
+        <v>174</v>
+      </c>
+      <c r="B177" s="9">
+        <v>32</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="28.9">
+      <c r="A178" s="9">
+        <v>175</v>
+      </c>
+      <c r="B178" s="9">
+        <v>32</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="28.9">
+      <c r="A179" s="9">
+        <v>176</v>
+      </c>
+      <c r="B179" s="9">
+        <v>32</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="43.15">
+      <c r="A180" s="9">
+        <v>177</v>
+      </c>
+      <c r="B180" s="9">
+        <v>32</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="28.9">
+      <c r="A181" s="9">
+        <v>178</v>
+      </c>
+      <c r="B181" s="9">
+        <v>32</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="28.9">
+      <c r="A182" s="9">
+        <v>179</v>
+      </c>
+      <c r="B182" s="9">
+        <v>32</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="28.9">
+      <c r="A183" s="9">
+        <v>180</v>
+      </c>
+      <c r="B183" s="9">
+        <v>32</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="28.9">
+      <c r="A184" s="9">
+        <v>181</v>
+      </c>
+      <c r="B184" s="9">
+        <v>32</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="28.9">
+      <c r="A185" s="9">
+        <v>182</v>
+      </c>
+      <c r="B185" s="9">
+        <v>32</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="9">
+        <v>183</v>
+      </c>
+      <c r="B186" s="9">
+        <v>32</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="28.9">
+      <c r="A187" s="9">
+        <v>184</v>
+      </c>
+      <c r="B187" s="9">
+        <v>32</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="28.9">
+      <c r="A188" s="9">
+        <v>185</v>
+      </c>
+      <c r="B188" s="9">
+        <v>32</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="9">
+        <v>186</v>
+      </c>
+      <c r="B189" s="9">
+        <v>32</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="28.9">
+      <c r="A190" s="9">
+        <v>187</v>
+      </c>
+      <c r="B190" s="9">
+        <v>32</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="9">
+        <v>188</v>
+      </c>
+      <c r="B191" s="9">
+        <v>32</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="9">
+        <v>189</v>
+      </c>
+      <c r="B192" s="9">
+        <v>32</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" ht="28.9">
+      <c r="A193" s="9">
+        <v>190</v>
+      </c>
+      <c r="B193" s="9">
+        <v>32</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18">
+      <c r="A194" s="9">
+        <v>191</v>
+      </c>
+      <c r="B194" s="9">
+        <v>32</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" ht="28.9">
+      <c r="A195" s="9">
+        <v>192</v>
+      </c>
+      <c r="B195" s="9">
+        <v>32</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" ht="28.9">
+      <c r="A196" s="9">
+        <v>193</v>
+      </c>
+      <c r="B196" s="9">
+        <v>32</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18">
+      <c r="A197" s="9">
+        <v>194</v>
+      </c>
+      <c r="B197" s="9">
+        <v>32</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" ht="28.9">
+      <c r="A198" s="9">
+        <v>195</v>
+      </c>
+      <c r="B198" s="9">
+        <v>32</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18">
+      <c r="A199" s="9">
+        <v>196</v>
+      </c>
+      <c r="B199" s="9">
+        <v>32</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18">
+      <c r="A200" s="9">
+        <v>197</v>
+      </c>
+      <c r="B200" s="9">
+        <v>32</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18">
+      <c r="A201" s="9">
+        <v>198</v>
+      </c>
+      <c r="B201" s="9">
+        <v>32</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18">
+      <c r="A202" s="9">
+        <v>199</v>
+      </c>
+      <c r="B202" s="9">
+        <v>32</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18">
+      <c r="A203" s="9">
+        <v>200</v>
+      </c>
+      <c r="B203" s="9">
+        <v>32</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18">
+      <c r="A204" s="9">
+        <v>201</v>
+      </c>
+      <c r="B204" s="9">
+        <v>32</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" ht="28.9">
+      <c r="A205" s="9">
+        <v>202</v>
+      </c>
+      <c r="B205" s="9">
+        <v>32</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18">
+      <c r="A206" s="9">
+        <v>203</v>
+      </c>
+      <c r="B206" s="9">
+        <v>32</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18">
+      <c r="A207" s="9">
+        <v>204</v>
+      </c>
+      <c r="B207" s="9">
+        <v>32</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D207" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="D159" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="E159" s="4"/>
-    </row>
-    <row r="160" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A160" s="14">
-        <v>157</v>
-      </c>
-      <c r="B160" s="14">
-        <v>29</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D160" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="E160" s="4"/>
-    </row>
-    <row r="161" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A161" s="14">
-        <v>158</v>
-      </c>
-      <c r="B161" s="14">
-        <v>29</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D161" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="E161" s="4"/>
-    </row>
-    <row r="162" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="14">
-        <v>159</v>
-      </c>
-      <c r="B162" s="14">
-        <v>29</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D162" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="E162" s="4"/>
-    </row>
-    <row r="163" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A163" s="14">
-        <v>160</v>
-      </c>
-      <c r="B163" s="14">
-        <v>29</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D163" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E163" s="4"/>
-    </row>
-    <row r="164" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A164" s="14">
-        <v>161</v>
-      </c>
-      <c r="B164" s="14">
-        <v>29</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D164" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="E164" s="4"/>
-    </row>
-    <row r="165" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A165" s="14">
-        <v>162</v>
-      </c>
-      <c r="B165" s="14">
-        <v>29</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D165" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="E165" s="4"/>
-    </row>
-    <row r="166" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A166" s="14">
-        <v>163</v>
-      </c>
-      <c r="B166" s="14">
-        <v>29</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D166" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="E166" s="4"/>
-    </row>
-    <row r="167" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A167" s="14">
-        <v>164</v>
-      </c>
-      <c r="B167" s="14">
-        <v>29</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="D167" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="E167" s="4"/>
-    </row>
-    <row r="168" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A168" s="14">
-        <v>165</v>
-      </c>
-      <c r="B168" s="14">
-        <v>29</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="D168" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="E168" s="4"/>
-    </row>
-    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="14">
-        <v>166</v>
-      </c>
-      <c r="B169" s="14">
-        <v>29</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D169" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="E169" s="4"/>
-    </row>
-    <row r="170" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A170" s="14">
-        <v>167</v>
-      </c>
-      <c r="B170" s="14">
-        <v>29</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D170" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="E170" s="4"/>
-    </row>
-    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="14">
-        <v>168</v>
-      </c>
-      <c r="B171" s="14">
-        <v>29</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D171" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="E171" s="4"/>
-    </row>
-    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="14">
-        <v>169</v>
-      </c>
-      <c r="B172" s="14">
-        <v>32</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D172" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="E172" s="4"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="14">
-        <v>170</v>
-      </c>
-      <c r="B173" s="14">
-        <v>32</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D173" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="E173" s="4"/>
-    </row>
-    <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="14">
-        <v>171</v>
-      </c>
-      <c r="B174" s="14">
-        <v>32</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D174" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="E174" s="4"/>
-    </row>
-    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="14">
-        <v>172</v>
-      </c>
-      <c r="B175" s="14">
-        <v>32</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D175" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="E175" s="4"/>
-    </row>
-    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="14">
-        <v>173</v>
-      </c>
-      <c r="B176" s="14">
-        <v>32</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D176" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="E176" s="4"/>
-    </row>
-    <row r="177" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A177" s="14">
-        <v>174</v>
-      </c>
-      <c r="B177" s="14">
-        <v>32</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D177" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="E177" s="4"/>
-    </row>
-    <row r="178" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A178" s="14">
-        <v>175</v>
-      </c>
-      <c r="B178" s="14">
-        <v>32</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D178" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E178" s="4"/>
-    </row>
-    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="14">
-        <v>176</v>
-      </c>
-      <c r="B179" s="14">
-        <v>32</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D179" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="E179" s="4"/>
-    </row>
-    <row r="180" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A180" s="14">
-        <v>177</v>
-      </c>
-      <c r="B180" s="14">
-        <v>32</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D180" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="E180" s="4"/>
-    </row>
-    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="14">
-        <v>178</v>
-      </c>
-      <c r="B181" s="14">
-        <v>32</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D181" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="E181" s="4"/>
-    </row>
-    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="14">
-        <v>179</v>
-      </c>
-      <c r="B182" s="14">
-        <v>32</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D182" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="E182" s="4"/>
-    </row>
-    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="14">
-        <v>180</v>
-      </c>
-      <c r="B183" s="14">
-        <v>32</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D183" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="E183" s="4"/>
-    </row>
-    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="14">
-        <v>181</v>
-      </c>
-      <c r="B184" s="14">
-        <v>32</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D184" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="E184" s="4"/>
-    </row>
-    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="14">
-        <v>182</v>
-      </c>
-      <c r="B185" s="14">
-        <v>32</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D185" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="E185" s="4"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="14">
-        <v>183</v>
-      </c>
-      <c r="B186" s="14">
-        <v>32</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D186" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="E186" s="4"/>
-    </row>
-    <row r="187" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="14">
-        <v>184</v>
-      </c>
-      <c r="B187" s="14">
-        <v>32</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D187" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="E187" s="4"/>
-    </row>
-    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="14">
-        <v>185</v>
-      </c>
-      <c r="B188" s="14">
-        <v>32</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D188" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="E188" s="4"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="14">
-        <v>186</v>
-      </c>
-      <c r="B189" s="14">
-        <v>32</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="D189" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="E189" s="4"/>
-    </row>
-    <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="14">
-        <v>187</v>
-      </c>
-      <c r="B190" s="14">
-        <v>32</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D190" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E190" s="4"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="14">
-        <v>188</v>
-      </c>
-      <c r="B191" s="14">
-        <v>32</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D191" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="E191" s="4"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="14">
-        <v>189</v>
-      </c>
-      <c r="B192" s="14">
-        <v>32</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D192" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="E192" s="4"/>
-    </row>
-    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="14">
-        <v>190</v>
-      </c>
-      <c r="B193" s="14">
-        <v>32</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D193" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="E193" s="4"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="14">
-        <v>191</v>
-      </c>
-      <c r="B194" s="14">
-        <v>32</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D194" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="E194" s="4"/>
-    </row>
-    <row r="195" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="14">
-        <v>192</v>
-      </c>
-      <c r="B195" s="14">
-        <v>32</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D195" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="14">
-        <v>193</v>
-      </c>
-      <c r="B196" s="14">
-        <v>32</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D196" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="E196" s="4"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="14">
-        <v>194</v>
-      </c>
-      <c r="B197" s="14">
-        <v>32</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="D197" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="E197" s="4"/>
-    </row>
-    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="14">
-        <v>195</v>
-      </c>
-      <c r="B198" s="14">
-        <v>32</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D198" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="E198" s="4"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="14">
-        <v>196</v>
-      </c>
-      <c r="B199" s="14">
-        <v>32</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D199" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="E199" s="4"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="14">
-        <v>197</v>
-      </c>
-      <c r="B200" s="14">
-        <v>32</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D200" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="E200" s="4"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="14">
-        <v>198</v>
-      </c>
-      <c r="B201" s="14">
-        <v>32</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="D201" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="E201" s="4"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="14">
-        <v>199</v>
-      </c>
-      <c r="B202" s="14">
-        <v>32</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D202" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="E202" s="4"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="14">
-        <v>200</v>
-      </c>
-      <c r="B203" s="14">
-        <v>32</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D203" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="E203" s="4"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="14">
-        <v>201</v>
-      </c>
-      <c r="B204" s="14">
-        <v>32</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="D204" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="E204" s="4"/>
-    </row>
-    <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="14">
-        <v>202</v>
-      </c>
-      <c r="B205" s="14">
-        <v>32</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="D205" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="E205" s="4"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="14">
-        <v>203</v>
-      </c>
-      <c r="B206" s="14">
-        <v>32</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="D206" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="E206" s="4"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="14">
-        <v>204</v>
-      </c>
-      <c r="B207" s="14">
-        <v>32</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D207" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="E207" s="4"/>
+      <c r="R207" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" ht="29.25">
+      <c r="A208" s="8">
+        <v>205</v>
+      </c>
+      <c r="B208" s="8">
+        <v>25</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" ht="43.5">
+      <c r="A209" s="8">
+        <v>206</v>
+      </c>
+      <c r="B209" s="8">
+        <v>25</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" ht="43.5">
+      <c r="A210" s="8">
+        <v>207</v>
+      </c>
+      <c r="B210" s="8">
+        <v>25</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="R210" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" ht="43.5">
+      <c r="A211" s="8">
+        <v>208</v>
+      </c>
+      <c r="B211" s="8">
+        <v>25</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" ht="29.25">
+      <c r="A212" s="8">
+        <v>209</v>
+      </c>
+      <c r="B212" s="8">
+        <v>25</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" ht="29.25">
+      <c r="A213" s="8">
+        <v>210</v>
+      </c>
+      <c r="B213" s="8">
+        <v>25</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" ht="29.25">
+      <c r="A214" s="8">
+        <v>211</v>
+      </c>
+      <c r="B214" s="8">
+        <v>25</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" ht="43.5">
+      <c r="A215" s="8">
+        <v>212</v>
+      </c>
+      <c r="B215" s="8">
+        <v>25</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R215" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" ht="29.25">
+      <c r="A216" s="8">
+        <v>213</v>
+      </c>
+      <c r="B216" s="8">
+        <v>25</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" ht="15">
+      <c r="A217" s="8">
+        <v>214</v>
+      </c>
+      <c r="B217" s="8">
+        <v>25</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" ht="29.25">
+      <c r="A218" s="8">
+        <v>215</v>
+      </c>
+      <c r="B218" s="8">
+        <v>25</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" ht="29.25">
+      <c r="A219" s="9">
+        <v>216</v>
+      </c>
+      <c r="B219" s="9">
+        <v>25</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" ht="29.25">
+      <c r="A220" s="9">
+        <v>217</v>
+      </c>
+      <c r="B220" s="9">
+        <v>25</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" ht="29.25">
+      <c r="A221" s="9">
+        <v>218</v>
+      </c>
+      <c r="B221" s="9">
+        <v>25</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="R221" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" ht="30.75">
+      <c r="A222" s="9">
+        <v>219</v>
+      </c>
+      <c r="B222" s="9">
+        <v>25</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" ht="29.25">
+      <c r="A223" s="9">
+        <v>220</v>
+      </c>
+      <c r="B223" s="9">
+        <v>25</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" ht="29.25">
+      <c r="A224" s="9">
+        <v>221</v>
+      </c>
+      <c r="B224" s="9">
+        <v>25</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="230" spans="18:18">
+      <c r="R230" t="s">
+        <v>415</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDD0FC4969DCF4449136D2C873E795D1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c6f44795faba901663e8a9bf3a6322e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d2c32087-eb03-4a65-b505-380146e007a4" xmlns:ns4="2f381668-55bb-4cca-a2e9-7746dbcfba3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7caa3c07606457882248d14e3a3261f4" ns3:_="" ns4:_="">
+    <xsd:import namespace="d2c32087-eb03-4a65-b505-380146e007a4"/>
+    <xsd:import namespace="2f381668-55bb-4cca-a2e9-7746dbcfba3d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2c32087-eb03-4a65-b505-380146e007a4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="11" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2f381668-55bb-4cca-a2e9-7746dbcfba3d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8DC07DF-80B7-4F51-9B64-7871291DEDB3}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}"/>
 </file>
--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mavsuta-my.sharepoint.com/personal/anh7674_mavs_uta_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtian/Documents/UTA/Spring 2025/CSE 3310/cse3310-sp25-002/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BC9751C-A6C4-4E21-8EB6-DDB8B1DF3622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFE4871-967C-244C-B466-C827EC2CE343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="417">
   <si>
     <t>Tested By</t>
   </si>
@@ -346,106 +346,28 @@
     <t>BotI.java / isInsideBoard</t>
   </si>
   <si>
-    <t>The program shall display a waitlist of available players ready to play with their usernames and IDs in the order that the players joined.</t>
-  </si>
-  <si>
     <t>joingame/Waitlist.js/displayWaitlist()</t>
   </si>
   <si>
-    <t>The program shall display a button for a game against another user.</t>
-  </si>
-  <si>
     <t>webapp/index.html</t>
   </si>
   <si>
-    <t>The program shall display a button for a game against a bot.</t>
-  </si>
-  <si>
-    <t>The program shall update the waitlist as players login and join/leave a game.</t>
-  </si>
-  <si>
     <t>joingame/Waitlist.js/add(), joingame/Waitlist.js/remove()</t>
   </si>
   <si>
-    <t>The program shall display a notification with updates to the waitlist.</t>
-  </si>
-  <si>
     <t>joingame/DisplayNotification.js/displayNotification()</t>
   </si>
   <si>
-    <t>The program will display a notification to the user when they are next to join a game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The program shall have display a button to spectate a game of 2 bots playing against each other. </t>
-  </si>
-  <si>
     <t>joingame/MatchMaker.js/requestSpectateBotVsBot()</t>
   </si>
   <si>
-    <t>The program will display players that choose to replay and new players at the bottom of the waitlist.</t>
-  </si>
-  <si>
-    <t>The program will load usernames and IDs in waitlist and display them within 2 seconds of logging in/joining a game.</t>
-  </si>
-  <si>
-    <t>The web interface of the Join Game component will be written in HTML5.</t>
-  </si>
-  <si>
-    <t>The program will be compatible with the web browsers Chrome, Firefox, and Safari.</t>
-  </si>
-  <si>
     <t>joingame</t>
   </si>
   <si>
-    <t>The interactive and dynamic functionality within the component will be written in JavaScript.</t>
-  </si>
-  <si>
     <t>joingame/Communication.js, Data.js, Displaynotification.js, MatchMaking.js, Waitlist.js</t>
   </si>
   <si>
-    <t>When the button to play against another player is pressed, the program will send the player information along with the game mode to the Page Manager component to initalize the pairing up process to begin a game.</t>
-  </si>
-  <si>
-    <t>joingame/MatchMaker.js/requestPlayerMatch()</t>
-  </si>
-  <si>
-    <t>When the button to play against a bot is pressed, the program will send the player information along with the game mode to the Page Manager component to intialize the process to start a game against a bot.</t>
-  </si>
-  <si>
-    <t>joingame/MatchMaker.js/requestBotMatch()</t>
-  </si>
-  <si>
-    <t>When a player(s) requests to join a game, the program removes their name from the waitlist.</t>
-  </si>
-  <si>
-    <t>joingame/Waitlist.js/remove()</t>
-  </si>
-  <si>
-    <t>When a player(s) logins successfully, the program adds their name to the waitlist.</t>
-  </si>
-  <si>
-    <t>joingame/Waitlist.js/add()</t>
-  </si>
-  <si>
-    <t>The program will receive player information (username and ID) from the Page Manager through a websocket.</t>
-  </si>
-  <si>
-    <t>joingame/Communication.js/handlePlayerData()</t>
-  </si>
-  <si>
-    <t>The program will create a player instance based on the provided data from the Page Manager.</t>
-  </si>
-  <si>
     <t>joingame/Data.js/constructor()</t>
-  </si>
-  <si>
-    <t>The program will send player information (username and ID) and their selected game mode to the Page Manager through a websocket.</t>
-  </si>
-  <si>
-    <t>joingame/Communication.js/sendPlayerAttributes()</t>
-  </si>
-  <si>
-    <t>When the button to spectate a game of two bots playing against each other, the program will send players' username and ID along with the game mode to Page Manager to intialize the process to start the game</t>
   </si>
   <si>
     <t>After a game concludes, the players go to the end of the line waiting for the new game</t>
@@ -1309,12 +1231,93 @@
   <si>
     <t>summary:</t>
   </si>
+  <si>
+    <t>The join game page shall display a waitlist of available players ready to play with their usernames and IDs in the order that the players joined.</t>
+  </si>
+  <si>
+    <t>The join game page shall display a button for a game against another user.</t>
+  </si>
+  <si>
+    <t>The join game page shall display a button for a game against a bot.</t>
+  </si>
+  <si>
+    <t>The join game program shall update the waitlist as players login and join/leave a game.</t>
+  </si>
+  <si>
+    <t>The join game page shall display a notification with updates to the waitlist.</t>
+  </si>
+  <si>
+    <t>The join game page will display a notification to the user when they are next to join a game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The join game page shall have display a button to spectate a game of 2 bots playing against each other. </t>
+  </si>
+  <si>
+    <t>The join game page will display players that choose to replay and new players at the bottom of the waitlist.</t>
+  </si>
+  <si>
+    <t>The join game program will load usernames and IDs in waitlist and display them within 2 seconds of logging in/joining a game.</t>
+  </si>
+  <si>
+    <t>The web interface of the Join Game page will be written in HTML5.</t>
+  </si>
+  <si>
+    <t>The Join Game program will be compatible with the web browsers Chrome, Firefox, and Safari.</t>
+  </si>
+  <si>
+    <t>The interactive and dynamic functionality within the Join Game component will be written in JavaScript.</t>
+  </si>
+  <si>
+    <t>When the button to play against another player is pressed, the Join Game program will send the player information along with the game mode to the Page Manager component to initalize the pairing up process to begin a game.</t>
+  </si>
+  <si>
+    <t>joingame/MatchMaker.js/requestPlayerMatch(), addToQueue(), Data.js/getGameMode()</t>
+  </si>
+  <si>
+    <t>When the button to play against a bot is pressed, the Join Game program will send the player information along with the game mode to the Page Manager component to intialize the process to start a game against a bot.</t>
+  </si>
+  <si>
+    <t>joingame/MatchMaker.js/requestBotMatch(), addToQueue(), Data.js/getGameMode()</t>
+  </si>
+  <si>
+    <t>When a player(s) requests to join a game, the Join Game page removes their name from the waitlist.</t>
+  </si>
+  <si>
+    <t>joingame/Waitlist.js/remove(), joingame/Data.js/getID()</t>
+  </si>
+  <si>
+    <t>When a player(s) logins successfully, the Join Game page adds their name to the waitlist.</t>
+  </si>
+  <si>
+    <t>joingame/Waitlist.js/add(), joingame/Data.js/getID(), joingame/Data.js/getUsername()</t>
+  </si>
+  <si>
+    <t>The Join Game program will receive and process player information (username and ID) from the Page Manager through a websocket. Once the processing is finished, other components will be notified about player information.</t>
+  </si>
+  <si>
+    <t>joingame/Communication.js/handlePlayerData(), Data.js</t>
+  </si>
+  <si>
+    <t>The Join Game program will create a player instance based on the provided data from the Page Manager.</t>
+  </si>
+  <si>
+    <t>The Join Game program will send player information (username and ID) and their selected game mode to the Page Manager through a websocket.</t>
+  </si>
+  <si>
+    <t>joingame/Communication.js/sendPlayerAttributes(), Data.js</t>
+  </si>
+  <si>
+    <t>When the button to spectate a game of two bots playing against each other, the Join Game program will send players' username and ID along with the game mode to Page Manager to intialize the process to start the game</t>
+  </si>
+  <si>
+    <t>joingame/MatchMaker.js/requestSpectateBotVsBot(), addToQueue(), Data.js/getGameMode()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2069,27 +2072,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="43.15">
+    <row r="4" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="28.9">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="28.9">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -2198,7 +2201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="28.9">
+    <row r="7" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="28.9">
+    <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="28.9">
+    <row r="10" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="28.9">
+    <row r="11" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -2268,7 +2271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="28.9">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>11</v>
       </c>
@@ -2310,7 +2313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="28.9">
+    <row r="15" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>12</v>
       </c>
@@ -2324,7 +2327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>13</v>
       </c>
@@ -2338,7 +2341,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.9">
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>14</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.9">
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>15</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.9">
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -2380,7 +2383,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.9">
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>17</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.9">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="43.15">
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>19</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43.15">
+    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>20</v>
       </c>
@@ -2436,7 +2439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.9">
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>21</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.9">
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>22</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="43.15">
+    <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>23</v>
       </c>
@@ -2478,7 +2481,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.9">
+    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>24</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.9">
+    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>25</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="43.15">
+    <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>26</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.9">
+    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>27</v>
       </c>
@@ -2534,7 +2537,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="43.15">
+    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>28</v>
       </c>
@@ -2548,7 +2551,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.9">
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>29</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.9">
+    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>30</v>
       </c>
@@ -2576,7 +2579,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.9">
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>31</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.9">
+    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>32</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="43.15">
+    <row r="36" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>33</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="43.15">
+    <row r="37" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>34</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="57.6">
+    <row r="38" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>35</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="28.9">
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>36</v>
       </c>
@@ -2660,7 +2663,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28.9">
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>37</v>
       </c>
@@ -2674,7 +2677,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.9">
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>38</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>39</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.9">
+    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>40</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="28.9">
+    <row r="44" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>41</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.9">
+    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>42</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28.9">
+    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>43</v>
       </c>
@@ -2758,7 +2761,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="57.6">
+    <row r="47" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>44</v>
       </c>
@@ -2772,7 +2775,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="43.15">
+    <row r="48" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>45</v>
       </c>
@@ -2786,7 +2789,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="28.9">
+    <row r="49" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>46</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.9">
+    <row r="50" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>47</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="28.9">
+    <row r="51" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>48</v>
       </c>
@@ -2828,7 +2831,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="28.9">
+    <row r="52" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>49</v>
       </c>
@@ -2842,7 +2845,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="43.15">
+    <row r="53" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>50</v>
       </c>
@@ -2850,13 +2853,13 @@
         <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="28.9">
+    </row>
+    <row r="54" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>51</v>
       </c>
@@ -2864,13 +2867,13 @@
         <v>26</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>391</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="28.9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>52</v>
       </c>
@@ -2878,13 +2881,13 @@
         <v>26</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>106</v>
+        <v>392</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="28.9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>53</v>
       </c>
@@ -2892,13 +2895,13 @@
         <v>26</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>107</v>
+        <v>393</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="28.9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>54</v>
       </c>
@@ -2906,13 +2909,13 @@
         <v>26</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>109</v>
+        <v>394</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="28.9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>55</v>
       </c>
@@ -2920,13 +2923,13 @@
         <v>26</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>111</v>
+        <v>395</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="28.9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>56</v>
       </c>
@@ -2934,13 +2937,13 @@
         <v>26</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>112</v>
+        <v>396</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="28.9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>57</v>
       </c>
@@ -2948,13 +2951,13 @@
         <v>26</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>114</v>
+        <v>397</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="43.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>58</v>
       </c>
@@ -2962,13 +2965,13 @@
         <v>26</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>115</v>
+        <v>398</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="28.9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>59</v>
       </c>
@@ -2976,13 +2979,13 @@
         <v>26</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>116</v>
+        <v>399</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="28.9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>60</v>
       </c>
@@ -2990,13 +2993,13 @@
         <v>26</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>117</v>
+        <v>400</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="28.9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>61</v>
       </c>
@@ -3004,13 +3007,13 @@
         <v>26</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>119</v>
+        <v>401</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="72">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>62</v>
       </c>
@@ -3018,13 +3021,13 @@
         <v>26</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>121</v>
+        <v>402</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="57.6">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>63</v>
       </c>
@@ -3032,13 +3035,13 @@
         <v>26</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>123</v>
+        <v>404</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="28.9">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>64</v>
       </c>
@@ -3046,13 +3049,13 @@
         <v>26</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>125</v>
+        <v>406</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="28.9">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>65</v>
       </c>
@@ -3060,13 +3063,13 @@
         <v>26</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>127</v>
+        <v>408</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="28.9">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>66</v>
       </c>
@@ -3074,13 +3077,13 @@
         <v>26</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>129</v>
+        <v>410</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="28.9">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>67</v>
       </c>
@@ -3088,13 +3091,13 @@
         <v>26</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>131</v>
+        <v>412</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="43.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>68</v>
       </c>
@@ -3102,13 +3105,13 @@
         <v>26</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>133</v>
+        <v>413</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="57.6">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>69</v>
       </c>
@@ -3116,13 +3119,13 @@
         <v>26</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="28.9">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>70</v>
       </c>
@@ -3130,13 +3133,13 @@
         <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="43.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>71</v>
       </c>
@@ -3144,13 +3147,13 @@
         <v>35</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>72</v>
       </c>
@@ -3158,13 +3161,13 @@
         <v>35</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="43.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>73</v>
       </c>
@@ -3172,13 +3175,13 @@
         <v>35</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="43.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>74</v>
       </c>
@@ -3186,13 +3189,13 @@
         <v>35</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="28.9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>75</v>
       </c>
@@ -3200,13 +3203,13 @@
         <v>35</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="28.9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>76</v>
       </c>
@@ -3214,13 +3217,13 @@
         <v>35</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="28.9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>77</v>
       </c>
@@ -3228,13 +3231,13 @@
         <v>35</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="28.9">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>78</v>
       </c>
@@ -3242,13 +3245,13 @@
         <v>35</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="28.9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>79</v>
       </c>
@@ -3256,13 +3259,13 @@
         <v>27</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>80</v>
       </c>
@@ -3270,13 +3273,13 @@
         <v>27</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="57.6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>81</v>
       </c>
@@ -3284,13 +3287,13 @@
         <v>27</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="43.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>82</v>
       </c>
@@ -3298,13 +3301,13 @@
         <v>27</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>83</v>
       </c>
@@ -3312,13 +3315,13 @@
         <v>27</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>84</v>
       </c>
@@ -3326,13 +3329,13 @@
         <v>27</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="28.9">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>85</v>
       </c>
@@ -3340,13 +3343,13 @@
         <v>27</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="43.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>86</v>
       </c>
@@ -3354,13 +3357,13 @@
         <v>27</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="28.9">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>87</v>
       </c>
@@ -3368,13 +3371,13 @@
         <v>27</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="28.9">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>88</v>
       </c>
@@ -3382,13 +3385,13 @@
         <v>27</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="28.9">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>89</v>
       </c>
@@ -3396,13 +3399,13 @@
         <v>27</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="28.9">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>90</v>
       </c>
@@ -3410,13 +3413,13 @@
         <v>27</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="28.9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>91</v>
       </c>
@@ -3424,13 +3427,13 @@
         <v>27</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="28.9">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>92</v>
       </c>
@@ -3438,13 +3441,13 @@
         <v>27</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="28.9">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>93</v>
       </c>
@@ -3452,13 +3455,13 @@
         <v>27</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="43.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>94</v>
       </c>
@@ -3466,13 +3469,13 @@
         <v>27</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="28.9">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>95</v>
       </c>
@@ -3480,13 +3483,13 @@
         <v>27</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="28.9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>96</v>
       </c>
@@ -3494,13 +3497,13 @@
         <v>27</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="28.9">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>97</v>
       </c>
@@ -3508,13 +3511,13 @@
         <v>27</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>98</v>
       </c>
@@ -3522,13 +3525,13 @@
         <v>27</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="28.9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>99</v>
       </c>
@@ -3536,13 +3539,13 @@
         <v>36</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="57.6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>100</v>
       </c>
@@ -3550,13 +3553,13 @@
         <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="43.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>101</v>
       </c>
@@ -3564,13 +3567,13 @@
         <v>36</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="28.9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>102</v>
       </c>
@@ -3578,13 +3581,13 @@
         <v>36</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="43.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>103</v>
       </c>
@@ -3592,13 +3595,13 @@
         <v>36</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="28.9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>104</v>
       </c>
@@ -3606,13 +3609,13 @@
         <v>36</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="86.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
         <v>105</v>
       </c>
@@ -3620,13 +3623,13 @@
         <v>36</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="28.9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>106</v>
       </c>
@@ -3634,13 +3637,13 @@
         <v>36</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
         <v>107</v>
       </c>
@@ -3648,13 +3651,13 @@
         <v>36</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="43.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>108</v>
       </c>
@@ -3662,13 +3665,13 @@
         <v>36</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="57.6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>109</v>
       </c>
@@ -3676,13 +3679,13 @@
         <v>36</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="28.9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>110</v>
       </c>
@@ -3690,13 +3693,13 @@
         <v>36</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>111</v>
       </c>
@@ -3704,13 +3707,13 @@
         <v>36</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="43.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>112</v>
       </c>
@@ -3718,13 +3721,13 @@
         <v>36</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="28.9">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
         <v>113</v>
       </c>
@@ -3732,13 +3735,13 @@
         <v>36</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="43.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>114</v>
       </c>
@@ -3746,13 +3749,13 @@
         <v>31</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="43.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
         <v>115</v>
       </c>
@@ -3760,13 +3763,13 @@
         <v>31</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="28.9">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>116</v>
       </c>
@@ -3774,13 +3777,13 @@
         <v>31</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="43.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
         <v>117</v>
       </c>
@@ -3788,13 +3791,13 @@
         <v>31</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="43.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
         <v>118</v>
       </c>
@@ -3802,13 +3805,13 @@
         <v>31</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="43.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>119</v>
       </c>
@@ -3816,13 +3819,13 @@
         <v>31</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="43.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
         <v>120</v>
       </c>
@@ -3830,13 +3833,13 @@
         <v>31</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="43.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
         <v>121</v>
       </c>
@@ -3844,13 +3847,13 @@
         <v>31</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="28.9">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>122</v>
       </c>
@@ -3858,13 +3861,13 @@
         <v>31</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="72">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
         <v>123</v>
       </c>
@@ -3872,13 +3875,13 @@
         <v>31</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="86.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A127" s="9">
         <v>124</v>
       </c>
@@ -3886,13 +3889,13 @@
         <v>31</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="57.6">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
         <v>125</v>
       </c>
@@ -3900,13 +3903,13 @@
         <v>31</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" ht="72">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
         <v>126</v>
       </c>
@@ -3914,13 +3917,13 @@
         <v>31</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" ht="43.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
         <v>127</v>
       </c>
@@ -3928,13 +3931,13 @@
         <v>31</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" ht="28.9">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" s="9">
         <v>128</v>
       </c>
@@ -3942,13 +3945,13 @@
         <v>30</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" ht="43.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A132" s="9">
         <v>129</v>
       </c>
@@ -3956,13 +3959,13 @@
         <v>30</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
         <v>130</v>
       </c>
@@ -3970,13 +3973,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" ht="43.15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A134" s="9">
         <v>131</v>
       </c>
@@ -3984,13 +3987,13 @@
         <v>30</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" ht="43.15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
         <v>132</v>
       </c>
@@ -3998,13 +4001,13 @@
         <v>30</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" ht="28.9">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="9">
         <v>133</v>
       </c>
@@ -4012,13 +4015,13 @@
         <v>30</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="43.15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A137" s="9">
         <v>134</v>
       </c>
@@ -4026,13 +4029,13 @@
         <v>30</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" ht="28.9">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="9">
         <v>135</v>
       </c>
@@ -4040,13 +4043,13 @@
         <v>30</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" ht="57.6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" s="9">
         <v>136</v>
       </c>
@@ -4054,13 +4057,13 @@
         <v>30</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" ht="57.6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A140" s="9">
         <v>137</v>
       </c>
@@ -4068,13 +4071,13 @@
         <v>30</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" ht="187.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" ht="208" x14ac:dyDescent="0.2">
       <c r="A141" s="9">
         <v>138</v>
       </c>
@@ -4082,13 +4085,13 @@
         <v>30</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="9">
         <v>139</v>
       </c>
@@ -4096,19 +4099,19 @@
         <v>28</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="R142" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="43.15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A143" s="9">
         <v>140</v>
       </c>
@@ -4116,16 +4119,16 @@
         <v>28</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="28.9">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="9">
         <v>141</v>
       </c>
@@ -4133,13 +4136,13 @@
         <v>28</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="28.9">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="9">
         <v>142</v>
       </c>
@@ -4147,13 +4150,13 @@
         <v>28</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="28.9">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="9">
         <v>143</v>
       </c>
@@ -4161,13 +4164,13 @@
         <v>28</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="28.9">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="9">
         <v>144</v>
       </c>
@@ -4175,13 +4178,13 @@
         <v>28</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="28.9">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="9">
         <v>145</v>
       </c>
@@ -4189,13 +4192,13 @@
         <v>28</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="9">
         <v>146</v>
       </c>
@@ -4203,13 +4206,13 @@
         <v>28</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="28.9">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="9">
         <v>147</v>
       </c>
@@ -4217,13 +4220,13 @@
         <v>28</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="28.9">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="9">
         <v>148</v>
       </c>
@@ -4231,13 +4234,13 @@
         <v>28</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="72">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A152" s="9">
         <v>149</v>
       </c>
@@ -4245,13 +4248,13 @@
         <v>29</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="57.6">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A153" s="9">
         <v>150</v>
       </c>
@@ -4259,13 +4262,13 @@
         <v>29</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="28.9">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="9">
         <v>151</v>
       </c>
@@ -4273,13 +4276,13 @@
         <v>29</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="43.15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A155" s="9">
         <v>152</v>
       </c>
@@ -4287,13 +4290,13 @@
         <v>29</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="43.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A156" s="9">
         <v>153</v>
       </c>
@@ -4301,13 +4304,13 @@
         <v>29</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="43.15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="9">
         <v>154</v>
       </c>
@@ -4315,13 +4318,13 @@
         <v>29</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="43.15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A158" s="9">
         <v>155</v>
       </c>
@@ -4329,13 +4332,13 @@
         <v>29</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="57.6">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A159" s="9">
         <v>156</v>
       </c>
@@ -4343,13 +4346,13 @@
         <v>29</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="57.6">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A160" s="9">
         <v>157</v>
       </c>
@@ -4357,13 +4360,13 @@
         <v>29</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="43.15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A161" s="9">
         <v>158</v>
       </c>
@@ -4371,13 +4374,13 @@
         <v>29</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="43.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A162" s="9">
         <v>159</v>
       </c>
@@ -4385,13 +4388,13 @@
         <v>29</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="43.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A163" s="9">
         <v>160</v>
       </c>
@@ -4399,13 +4402,13 @@
         <v>29</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="43.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A164" s="9">
         <v>161</v>
       </c>
@@ -4413,13 +4416,13 @@
         <v>29</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="28.9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" s="9">
         <v>162</v>
       </c>
@@ -4427,13 +4430,13 @@
         <v>29</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="43.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A166" s="9">
         <v>163</v>
       </c>
@@ -4441,13 +4444,13 @@
         <v>29</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="43.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A167" s="9">
         <v>164</v>
       </c>
@@ -4455,13 +4458,13 @@
         <v>29</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="43.15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A168" s="9">
         <v>165</v>
       </c>
@@ -4469,13 +4472,13 @@
         <v>29</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="28.9">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="9">
         <v>166</v>
       </c>
@@ -4483,13 +4486,13 @@
         <v>29</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="43.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A170" s="9">
         <v>167</v>
       </c>
@@ -4497,13 +4500,13 @@
         <v>29</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="28.9">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" s="9">
         <v>168</v>
       </c>
@@ -4511,13 +4514,13 @@
         <v>29</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="28.9">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="9">
         <v>169</v>
       </c>
@@ -4525,13 +4528,13 @@
         <v>32</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="9">
         <v>170</v>
       </c>
@@ -4539,13 +4542,13 @@
         <v>32</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="28.9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="9">
         <v>171</v>
       </c>
@@ -4553,13 +4556,13 @@
         <v>32</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="28.9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A175" s="9">
         <v>172</v>
       </c>
@@ -4567,13 +4570,13 @@
         <v>32</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="28.9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="9">
         <v>173</v>
       </c>
@@ -4581,13 +4584,13 @@
         <v>32</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="28.9">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A177" s="9">
         <v>174</v>
       </c>
@@ -4595,13 +4598,13 @@
         <v>32</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="28.9">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="9">
         <v>175</v>
       </c>
@@ -4609,13 +4612,13 @@
         <v>32</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="28.9">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="9">
         <v>176</v>
       </c>
@@ -4623,13 +4626,13 @@
         <v>32</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="43.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A180" s="9">
         <v>177</v>
       </c>
@@ -4637,13 +4640,13 @@
         <v>32</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="28.9">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="9">
         <v>178</v>
       </c>
@@ -4651,13 +4654,13 @@
         <v>32</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="28.9">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="9">
         <v>179</v>
       </c>
@@ -4665,13 +4668,13 @@
         <v>32</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="28.9">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A183" s="9">
         <v>180</v>
       </c>
@@ -4679,13 +4682,13 @@
         <v>32</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="28.9">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="9">
         <v>181</v>
       </c>
@@ -4693,13 +4696,13 @@
         <v>32</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="28.9">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="9">
         <v>182</v>
       </c>
@@ -4707,13 +4710,13 @@
         <v>32</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="9">
         <v>183</v>
       </c>
@@ -4721,13 +4724,13 @@
         <v>32</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="28.9">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" s="9">
         <v>184</v>
       </c>
@@ -4735,13 +4738,13 @@
         <v>32</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="28.9">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="9">
         <v>185</v>
       </c>
@@ -4749,13 +4752,13 @@
         <v>32</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="9">
         <v>186</v>
       </c>
@@ -4763,13 +4766,13 @@
         <v>32</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="28.9">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="9">
         <v>187</v>
       </c>
@@ -4777,13 +4780,13 @@
         <v>32</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="9">
         <v>188</v>
       </c>
@@ -4791,13 +4794,13 @@
         <v>32</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="9">
         <v>189</v>
       </c>
@@ -4805,13 +4808,13 @@
         <v>32</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18" ht="28.9">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="9">
         <v>190</v>
       </c>
@@ -4819,13 +4822,13 @@
         <v>32</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="9">
         <v>191</v>
       </c>
@@ -4833,13 +4836,13 @@
         <v>32</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" ht="28.9">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="9">
         <v>192</v>
       </c>
@@ -4847,16 +4850,16 @@
         <v>32</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" ht="28.9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="9">
         <v>193</v>
       </c>
@@ -4864,13 +4867,13 @@
         <v>32</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="9">
         <v>194</v>
       </c>
@@ -4878,13 +4881,13 @@
         <v>32</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18" ht="28.9">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="9">
         <v>195</v>
       </c>
@@ -4892,13 +4895,13 @@
         <v>32</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="9">
         <v>196</v>
       </c>
@@ -4906,13 +4909,13 @@
         <v>32</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="9">
         <v>197</v>
       </c>
@@ -4920,13 +4923,13 @@
         <v>32</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="9">
         <v>198</v>
       </c>
@@ -4934,13 +4937,13 @@
         <v>32</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="9">
         <v>199</v>
       </c>
@@ -4948,13 +4951,13 @@
         <v>32</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="9">
         <v>200</v>
       </c>
@@ -4962,13 +4965,13 @@
         <v>32</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="9">
         <v>201</v>
       </c>
@@ -4976,13 +4979,13 @@
         <v>32</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" ht="28.9">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="9">
         <v>202</v>
       </c>
@@ -4990,13 +4993,13 @@
         <v>32</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="9">
         <v>203</v>
       </c>
@@ -5004,13 +5007,13 @@
         <v>32</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="207" spans="1:18">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="9">
         <v>204</v>
       </c>
@@ -5018,16 +5021,16 @@
         <v>32</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="R207" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18" ht="29.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" s="8">
         <v>205</v>
       </c>
@@ -5035,13 +5038,13 @@
         <v>25</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" ht="43.5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A209" s="8">
         <v>206</v>
       </c>
@@ -5049,13 +5052,13 @@
         <v>25</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" ht="43.5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="8">
         <v>207</v>
       </c>
@@ -5063,16 +5066,16 @@
         <v>25</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="R210" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" ht="43.5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A211" s="8">
         <v>208</v>
       </c>
@@ -5080,13 +5083,13 @@
         <v>25</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18" ht="29.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="8">
         <v>209</v>
       </c>
@@ -5094,13 +5097,13 @@
         <v>25</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" ht="29.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A213" s="8">
         <v>210</v>
       </c>
@@ -5108,13 +5111,13 @@
         <v>25</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" ht="29.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="8">
         <v>211</v>
       </c>
@@ -5122,13 +5125,13 @@
         <v>25</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18" ht="43.5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="8">
         <v>212</v>
       </c>
@@ -5136,16 +5139,16 @@
         <v>25</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="R215" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" ht="29.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A216" s="8">
         <v>213</v>
       </c>
@@ -5153,13 +5156,13 @@
         <v>25</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" ht="15">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="8">
         <v>214</v>
       </c>
@@ -5167,13 +5170,13 @@
         <v>25</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" ht="29.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="8">
         <v>215</v>
       </c>
@@ -5181,13 +5184,13 @@
         <v>25</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" ht="29.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="9">
         <v>216</v>
       </c>
@@ -5195,13 +5198,13 @@
         <v>25</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" ht="29.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="9">
         <v>217</v>
       </c>
@@ -5209,13 +5212,13 @@
         <v>25</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" ht="29.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" s="9">
         <v>218</v>
       </c>
@@ -5223,16 +5226,16 @@
         <v>25</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="R221" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" ht="30.75">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="9">
         <v>219</v>
       </c>
@@ -5240,13 +5243,13 @@
         <v>25</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" ht="29.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="9">
         <v>220</v>
       </c>
@@ -5254,13 +5257,13 @@
         <v>25</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" ht="29.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="9">
         <v>221</v>
       </c>
@@ -5268,15 +5271,15 @@
         <v>25</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="230" spans="18:18">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="230" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R230" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -5287,6 +5290,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDD0FC4969DCF4449136D2C873E795D1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c6f44795faba901663e8a9bf3a6322e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d2c32087-eb03-4a65-b505-380146e007a4" xmlns:ns4="2f381668-55bb-4cca-a2e9-7746dbcfba3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7caa3c07606457882248d14e3a3261f4" ns3:_="" ns4:_="">
     <xsd:import namespace="d2c32087-eb03-4a65-b505-380146e007a4"/>
@@ -5507,14 +5518,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5525,13 +5528,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8DC07DF-80B7-4F51-9B64-7871291DEDB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8DC07DF-80B7-4F51-9B64-7871291DEDB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
+    <ds:schemaRef ds:uri="2f381668-55bb-4cca-a2e9-7746dbcfba3d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtian/Documents/UTA/Spring 2025/CSE 3310/cse3310-sp25-002/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mavsuta-my.sharepoint.com/personal/anh7674_mavs_uta_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFE4871-967C-244C-B466-C827EC2CE343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BC9751C-A6C4-4E21-8EB6-DDB8B1DF3622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="416">
   <si>
     <t>Tested By</t>
   </si>
@@ -346,28 +346,106 @@
     <t>BotI.java / isInsideBoard</t>
   </si>
   <si>
+    <t>The program shall display a waitlist of available players ready to play with their usernames and IDs in the order that the players joined.</t>
+  </si>
+  <si>
     <t>joingame/Waitlist.js/displayWaitlist()</t>
   </si>
   <si>
+    <t>The program shall display a button for a game against another user.</t>
+  </si>
+  <si>
     <t>webapp/index.html</t>
   </si>
   <si>
+    <t>The program shall display a button for a game against a bot.</t>
+  </si>
+  <si>
+    <t>The program shall update the waitlist as players login and join/leave a game.</t>
+  </si>
+  <si>
     <t>joingame/Waitlist.js/add(), joingame/Waitlist.js/remove()</t>
   </si>
   <si>
+    <t>The program shall display a notification with updates to the waitlist.</t>
+  </si>
+  <si>
     <t>joingame/DisplayNotification.js/displayNotification()</t>
   </si>
   <si>
+    <t>The program will display a notification to the user when they are next to join a game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The program shall have display a button to spectate a game of 2 bots playing against each other. </t>
+  </si>
+  <si>
     <t>joingame/MatchMaker.js/requestSpectateBotVsBot()</t>
   </si>
   <si>
+    <t>The program will display players that choose to replay and new players at the bottom of the waitlist.</t>
+  </si>
+  <si>
+    <t>The program will load usernames and IDs in waitlist and display them within 2 seconds of logging in/joining a game.</t>
+  </si>
+  <si>
+    <t>The web interface of the Join Game component will be written in HTML5.</t>
+  </si>
+  <si>
+    <t>The program will be compatible with the web browsers Chrome, Firefox, and Safari.</t>
+  </si>
+  <si>
     <t>joingame</t>
   </si>
   <si>
+    <t>The interactive and dynamic functionality within the component will be written in JavaScript.</t>
+  </si>
+  <si>
     <t>joingame/Communication.js, Data.js, Displaynotification.js, MatchMaking.js, Waitlist.js</t>
   </si>
   <si>
+    <t>When the button to play against another player is pressed, the program will send the player information along with the game mode to the Page Manager component to initalize the pairing up process to begin a game.</t>
+  </si>
+  <si>
+    <t>joingame/MatchMaker.js/requestPlayerMatch()</t>
+  </si>
+  <si>
+    <t>When the button to play against a bot is pressed, the program will send the player information along with the game mode to the Page Manager component to intialize the process to start a game against a bot.</t>
+  </si>
+  <si>
+    <t>joingame/MatchMaker.js/requestBotMatch()</t>
+  </si>
+  <si>
+    <t>When a player(s) requests to join a game, the program removes their name from the waitlist.</t>
+  </si>
+  <si>
+    <t>joingame/Waitlist.js/remove()</t>
+  </si>
+  <si>
+    <t>When a player(s) logins successfully, the program adds their name to the waitlist.</t>
+  </si>
+  <si>
+    <t>joingame/Waitlist.js/add()</t>
+  </si>
+  <si>
+    <t>The program will receive player information (username and ID) from the Page Manager through a websocket.</t>
+  </si>
+  <si>
+    <t>joingame/Communication.js/handlePlayerData()</t>
+  </si>
+  <si>
+    <t>The program will create a player instance based on the provided data from the Page Manager.</t>
+  </si>
+  <si>
     <t>joingame/Data.js/constructor()</t>
+  </si>
+  <si>
+    <t>The program will send player information (username and ID) and their selected game mode to the Page Manager through a websocket.</t>
+  </si>
+  <si>
+    <t>joingame/Communication.js/sendPlayerAttributes()</t>
+  </si>
+  <si>
+    <t>When the button to spectate a game of two bots playing against each other, the program will send players' username and ID along with the game mode to Page Manager to intialize the process to start the game</t>
   </si>
   <si>
     <t>After a game concludes, the players go to the end of the line waiting for the new game</t>
@@ -1231,93 +1309,12 @@
   <si>
     <t>summary:</t>
   </si>
-  <si>
-    <t>The join game page shall display a waitlist of available players ready to play with their usernames and IDs in the order that the players joined.</t>
-  </si>
-  <si>
-    <t>The join game page shall display a button for a game against another user.</t>
-  </si>
-  <si>
-    <t>The join game page shall display a button for a game against a bot.</t>
-  </si>
-  <si>
-    <t>The join game program shall update the waitlist as players login and join/leave a game.</t>
-  </si>
-  <si>
-    <t>The join game page shall display a notification with updates to the waitlist.</t>
-  </si>
-  <si>
-    <t>The join game page will display a notification to the user when they are next to join a game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The join game page shall have display a button to spectate a game of 2 bots playing against each other. </t>
-  </si>
-  <si>
-    <t>The join game page will display players that choose to replay and new players at the bottom of the waitlist.</t>
-  </si>
-  <si>
-    <t>The join game program will load usernames and IDs in waitlist and display them within 2 seconds of logging in/joining a game.</t>
-  </si>
-  <si>
-    <t>The web interface of the Join Game page will be written in HTML5.</t>
-  </si>
-  <si>
-    <t>The Join Game program will be compatible with the web browsers Chrome, Firefox, and Safari.</t>
-  </si>
-  <si>
-    <t>The interactive and dynamic functionality within the Join Game component will be written in JavaScript.</t>
-  </si>
-  <si>
-    <t>When the button to play against another player is pressed, the Join Game program will send the player information along with the game mode to the Page Manager component to initalize the pairing up process to begin a game.</t>
-  </si>
-  <si>
-    <t>joingame/MatchMaker.js/requestPlayerMatch(), addToQueue(), Data.js/getGameMode()</t>
-  </si>
-  <si>
-    <t>When the button to play against a bot is pressed, the Join Game program will send the player information along with the game mode to the Page Manager component to intialize the process to start a game against a bot.</t>
-  </si>
-  <si>
-    <t>joingame/MatchMaker.js/requestBotMatch(), addToQueue(), Data.js/getGameMode()</t>
-  </si>
-  <si>
-    <t>When a player(s) requests to join a game, the Join Game page removes their name from the waitlist.</t>
-  </si>
-  <si>
-    <t>joingame/Waitlist.js/remove(), joingame/Data.js/getID()</t>
-  </si>
-  <si>
-    <t>When a player(s) logins successfully, the Join Game page adds their name to the waitlist.</t>
-  </si>
-  <si>
-    <t>joingame/Waitlist.js/add(), joingame/Data.js/getID(), joingame/Data.js/getUsername()</t>
-  </si>
-  <si>
-    <t>The Join Game program will receive and process player information (username and ID) from the Page Manager through a websocket. Once the processing is finished, other components will be notified about player information.</t>
-  </si>
-  <si>
-    <t>joingame/Communication.js/handlePlayerData(), Data.js</t>
-  </si>
-  <si>
-    <t>The Join Game program will create a player instance based on the provided data from the Page Manager.</t>
-  </si>
-  <si>
-    <t>The Join Game program will send player information (username and ID) and their selected game mode to the Page Manager through a websocket.</t>
-  </si>
-  <si>
-    <t>joingame/Communication.js/sendPlayerAttributes(), Data.js</t>
-  </si>
-  <si>
-    <t>When the button to spectate a game of two bots playing against each other, the Join Game program will send players' username and ID along with the game mode to Page Manager to intialize the process to start the game</t>
-  </si>
-  <si>
-    <t>joingame/MatchMaker.js/requestSpectateBotVsBot(), addToQueue(), Data.js/getGameMode()</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2072,27 +2069,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:C66"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -2130,7 +2127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -2150,7 +2147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="43.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2173,7 +2170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="28.9">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -2187,7 +2184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="28.9">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -2201,7 +2198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="28.9">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -2215,7 +2212,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -2229,7 +2226,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="28.9">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -2243,7 +2240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="28.9">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -2257,7 +2254,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="28.9">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -2271,7 +2268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -2285,7 +2282,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="28.9">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -2299,7 +2296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" s="9">
         <v>11</v>
       </c>
@@ -2313,7 +2310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="28.9">
       <c r="A15" s="9">
         <v>12</v>
       </c>
@@ -2327,7 +2324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="9">
         <v>13</v>
       </c>
@@ -2341,7 +2338,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="28.9">
       <c r="A17" s="9">
         <v>14</v>
       </c>
@@ -2355,7 +2352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="28.9">
       <c r="A18" s="9">
         <v>15</v>
       </c>
@@ -2369,7 +2366,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="28.9">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -2383,7 +2380,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="28.9">
       <c r="A20" s="9">
         <v>17</v>
       </c>
@@ -2397,7 +2394,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="28.9">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -2411,7 +2408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="43.15">
       <c r="A22" s="9">
         <v>19</v>
       </c>
@@ -2425,7 +2422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="43.15">
       <c r="A23" s="9">
         <v>20</v>
       </c>
@@ -2439,7 +2436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="28.9">
       <c r="A24" s="9">
         <v>21</v>
       </c>
@@ -2453,7 +2450,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="28.9">
       <c r="A25" s="9">
         <v>22</v>
       </c>
@@ -2467,7 +2464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="43.15">
       <c r="A26" s="9">
         <v>23</v>
       </c>
@@ -2481,7 +2478,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="28.9">
       <c r="A27" s="9">
         <v>24</v>
       </c>
@@ -2495,7 +2492,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="28.9">
       <c r="A28" s="9">
         <v>25</v>
       </c>
@@ -2509,7 +2506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="43.15">
       <c r="A29" s="9">
         <v>26</v>
       </c>
@@ -2523,7 +2520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="28.9">
       <c r="A30" s="9">
         <v>27</v>
       </c>
@@ -2537,7 +2534,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="43.15">
       <c r="A31" s="9">
         <v>28</v>
       </c>
@@ -2551,7 +2548,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="28.9">
       <c r="A32" s="9">
         <v>29</v>
       </c>
@@ -2565,7 +2562,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="28.9">
       <c r="A33" s="9">
         <v>30</v>
       </c>
@@ -2579,7 +2576,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="28.9">
       <c r="A34" s="9">
         <v>31</v>
       </c>
@@ -2593,7 +2590,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="28.9">
       <c r="A35" s="9">
         <v>32</v>
       </c>
@@ -2607,7 +2604,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="43.15">
       <c r="A36" s="9">
         <v>33</v>
       </c>
@@ -2621,7 +2618,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="43.15">
       <c r="A37" s="9">
         <v>34</v>
       </c>
@@ -2635,7 +2632,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="57.6">
       <c r="A38" s="9">
         <v>35</v>
       </c>
@@ -2649,7 +2646,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="28.9">
       <c r="A39" s="9">
         <v>36</v>
       </c>
@@ -2663,7 +2660,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="28.9">
       <c r="A40" s="9">
         <v>37</v>
       </c>
@@ -2677,7 +2674,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="28.9">
       <c r="A41" s="9">
         <v>38</v>
       </c>
@@ -2691,7 +2688,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="9">
         <v>39</v>
       </c>
@@ -2705,7 +2702,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="28.9">
       <c r="A43" s="9">
         <v>40</v>
       </c>
@@ -2719,7 +2716,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="28.9">
       <c r="A44" s="9">
         <v>41</v>
       </c>
@@ -2733,7 +2730,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="28.9">
       <c r="A45" s="9">
         <v>42</v>
       </c>
@@ -2747,7 +2744,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="28.9">
       <c r="A46" s="9">
         <v>43</v>
       </c>
@@ -2761,7 +2758,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="57.6">
       <c r="A47" s="9">
         <v>44</v>
       </c>
@@ -2775,7 +2772,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="43.15">
       <c r="A48" s="9">
         <v>45</v>
       </c>
@@ -2789,7 +2786,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="28.9">
       <c r="A49" s="9">
         <v>46</v>
       </c>
@@ -2803,7 +2800,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="28.9">
       <c r="A50" s="9">
         <v>47</v>
       </c>
@@ -2817,7 +2814,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="28.9">
       <c r="A51" s="9">
         <v>48</v>
       </c>
@@ -2831,7 +2828,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="28.9">
       <c r="A52" s="9">
         <v>49</v>
       </c>
@@ -2845,7 +2842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="43.15">
       <c r="A53" s="9">
         <v>50</v>
       </c>
@@ -2853,13 +2850,13 @@
         <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>390</v>
+        <v>102</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="28.9">
       <c r="A54" s="9">
         <v>51</v>
       </c>
@@ -2867,13 +2864,13 @@
         <v>26</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>391</v>
+        <v>104</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="28.9">
       <c r="A55" s="9">
         <v>52</v>
       </c>
@@ -2881,13 +2878,13 @@
         <v>26</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>392</v>
+        <v>106</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="28.9">
       <c r="A56" s="9">
         <v>53</v>
       </c>
@@ -2895,13 +2892,13 @@
         <v>26</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>393</v>
+        <v>107</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="28.9">
       <c r="A57" s="9">
         <v>54</v>
       </c>
@@ -2909,13 +2906,13 @@
         <v>26</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>394</v>
+        <v>109</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="28.9">
       <c r="A58" s="9">
         <v>55</v>
       </c>
@@ -2923,13 +2920,13 @@
         <v>26</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>395</v>
+        <v>111</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="28.9">
       <c r="A59" s="9">
         <v>56</v>
       </c>
@@ -2937,13 +2934,13 @@
         <v>26</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>396</v>
+        <v>112</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="28.9">
       <c r="A60" s="9">
         <v>57</v>
       </c>
@@ -2951,13 +2948,13 @@
         <v>26</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>397</v>
+        <v>114</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="43.15">
       <c r="A61" s="9">
         <v>58</v>
       </c>
@@ -2965,13 +2962,13 @@
         <v>26</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>398</v>
+        <v>115</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="28.9">
       <c r="A62" s="9">
         <v>59</v>
       </c>
@@ -2979,13 +2976,13 @@
         <v>26</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>399</v>
+        <v>116</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="28.9">
       <c r="A63" s="9">
         <v>60</v>
       </c>
@@ -2993,13 +2990,13 @@
         <v>26</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>400</v>
+        <v>117</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="28.9">
       <c r="A64" s="9">
         <v>61</v>
       </c>
@@ -3007,13 +3004,13 @@
         <v>26</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>401</v>
+        <v>119</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="72">
       <c r="A65" s="9">
         <v>62</v>
       </c>
@@ -3021,13 +3018,13 @@
         <v>26</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>402</v>
+        <v>121</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="57.6">
       <c r="A66" s="9">
         <v>63</v>
       </c>
@@ -3035,13 +3032,13 @@
         <v>26</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>404</v>
+        <v>123</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="28.9">
       <c r="A67" s="9">
         <v>64</v>
       </c>
@@ -3049,13 +3046,13 @@
         <v>26</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>406</v>
+        <v>125</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="28.9">
       <c r="A68" s="9">
         <v>65</v>
       </c>
@@ -3063,13 +3060,13 @@
         <v>26</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>408</v>
+        <v>127</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="28.9">
       <c r="A69" s="9">
         <v>66</v>
       </c>
@@ -3077,13 +3074,13 @@
         <v>26</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>410</v>
+        <v>129</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="28.9">
       <c r="A70" s="9">
         <v>67</v>
       </c>
@@ -3091,13 +3088,13 @@
         <v>26</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>412</v>
+        <v>131</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="43.15">
       <c r="A71" s="9">
         <v>68</v>
       </c>
@@ -3105,13 +3102,13 @@
         <v>26</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>413</v>
+        <v>133</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="57.6">
       <c r="A72" s="9">
         <v>69</v>
       </c>
@@ -3119,13 +3116,13 @@
         <v>26</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>415</v>
+        <v>135</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="28.9">
       <c r="A73" s="9">
         <v>70</v>
       </c>
@@ -3133,13 +3130,13 @@
         <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="43.15">
       <c r="A74" s="9">
         <v>71</v>
       </c>
@@ -3147,13 +3144,13 @@
         <v>35</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="9">
         <v>72</v>
       </c>
@@ -3161,13 +3158,13 @@
         <v>35</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="43.15">
       <c r="A76" s="9">
         <v>73</v>
       </c>
@@ -3175,13 +3172,13 @@
         <v>35</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="43.15">
       <c r="A77" s="9">
         <v>74</v>
       </c>
@@ -3189,13 +3186,13 @@
         <v>35</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="28.9">
       <c r="A78" s="9">
         <v>75</v>
       </c>
@@ -3203,13 +3200,13 @@
         <v>35</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="28.9">
       <c r="A79" s="9">
         <v>76</v>
       </c>
@@ -3217,13 +3214,13 @@
         <v>35</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="28.9">
       <c r="A80" s="9">
         <v>77</v>
       </c>
@@ -3231,13 +3228,13 @@
         <v>35</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="28.9">
       <c r="A81" s="9">
         <v>78</v>
       </c>
@@ -3245,13 +3242,13 @@
         <v>35</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="28.9">
       <c r="A82" s="9">
         <v>79</v>
       </c>
@@ -3259,13 +3256,13 @@
         <v>27</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="9">
         <v>80</v>
       </c>
@@ -3273,13 +3270,13 @@
         <v>27</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="57.6">
       <c r="A84" s="9">
         <v>81</v>
       </c>
@@ -3287,13 +3284,13 @@
         <v>27</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="43.15">
       <c r="A85" s="9">
         <v>82</v>
       </c>
@@ -3301,13 +3298,13 @@
         <v>27</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="72">
       <c r="A86" s="9">
         <v>83</v>
       </c>
@@ -3315,13 +3312,13 @@
         <v>27</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="9">
         <v>84</v>
       </c>
@@ -3329,13 +3326,13 @@
         <v>27</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="28.9">
       <c r="A88" s="9">
         <v>85</v>
       </c>
@@ -3343,13 +3340,13 @@
         <v>27</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="43.15">
       <c r="A89" s="9">
         <v>86</v>
       </c>
@@ -3357,13 +3354,13 @@
         <v>27</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="28.9">
       <c r="A90" s="9">
         <v>87</v>
       </c>
@@ -3371,13 +3368,13 @@
         <v>27</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="28.9">
       <c r="A91" s="9">
         <v>88</v>
       </c>
@@ -3385,13 +3382,13 @@
         <v>27</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="28.9">
       <c r="A92" s="9">
         <v>89</v>
       </c>
@@ -3399,13 +3396,13 @@
         <v>27</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="28.9">
       <c r="A93" s="9">
         <v>90</v>
       </c>
@@ -3413,13 +3410,13 @@
         <v>27</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="28.9">
       <c r="A94" s="9">
         <v>91</v>
       </c>
@@ -3427,13 +3424,13 @@
         <v>27</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="28.9">
       <c r="A95" s="9">
         <v>92</v>
       </c>
@@ -3441,13 +3438,13 @@
         <v>27</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="28.9">
       <c r="A96" s="9">
         <v>93</v>
       </c>
@@ -3455,13 +3452,13 @@
         <v>27</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="43.15">
       <c r="A97" s="9">
         <v>94</v>
       </c>
@@ -3469,13 +3466,13 @@
         <v>27</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="28.9">
       <c r="A98" s="9">
         <v>95</v>
       </c>
@@ -3483,13 +3480,13 @@
         <v>27</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="28.9">
       <c r="A99" s="9">
         <v>96</v>
       </c>
@@ -3497,13 +3494,13 @@
         <v>27</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="28.9">
       <c r="A100" s="9">
         <v>97</v>
       </c>
@@ -3511,13 +3508,13 @@
         <v>27</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="9">
         <v>98</v>
       </c>
@@ -3525,13 +3522,13 @@
         <v>27</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="28.9">
       <c r="A102" s="9">
         <v>99</v>
       </c>
@@ -3539,13 +3536,13 @@
         <v>36</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="57.6">
       <c r="A103" s="9">
         <v>100</v>
       </c>
@@ -3553,13 +3550,13 @@
         <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="43.15">
       <c r="A104" s="9">
         <v>101</v>
       </c>
@@ -3567,13 +3564,13 @@
         <v>36</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="28.9">
       <c r="A105" s="9">
         <v>102</v>
       </c>
@@ -3581,13 +3578,13 @@
         <v>36</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="43.15">
       <c r="A106" s="9">
         <v>103</v>
       </c>
@@ -3595,13 +3592,13 @@
         <v>36</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="28.9">
       <c r="A107" s="9">
         <v>104</v>
       </c>
@@ -3609,13 +3606,13 @@
         <v>36</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="86.45">
       <c r="A108" s="9">
         <v>105</v>
       </c>
@@ -3623,13 +3620,13 @@
         <v>36</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="28.9">
       <c r="A109" s="9">
         <v>106</v>
       </c>
@@ -3637,13 +3634,13 @@
         <v>36</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="9">
         <v>107</v>
       </c>
@@ -3651,13 +3648,13 @@
         <v>36</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="43.15">
       <c r="A111" s="9">
         <v>108</v>
       </c>
@@ -3665,13 +3662,13 @@
         <v>36</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="57.6">
       <c r="A112" s="9">
         <v>109</v>
       </c>
@@ -3679,13 +3676,13 @@
         <v>36</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="28.9">
       <c r="A113" s="9">
         <v>110</v>
       </c>
@@ -3693,13 +3690,13 @@
         <v>36</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="9">
         <v>111</v>
       </c>
@@ -3707,13 +3704,13 @@
         <v>36</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="43.15">
       <c r="A115" s="9">
         <v>112</v>
       </c>
@@ -3721,13 +3718,13 @@
         <v>36</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="28.9">
       <c r="A116" s="9">
         <v>113</v>
       </c>
@@ -3735,13 +3732,13 @@
         <v>36</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="43.15">
       <c r="A117" s="9">
         <v>114</v>
       </c>
@@ -3749,13 +3746,13 @@
         <v>31</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="43.15">
       <c r="A118" s="9">
         <v>115</v>
       </c>
@@ -3763,13 +3760,13 @@
         <v>31</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="28.9">
       <c r="A119" s="9">
         <v>116</v>
       </c>
@@ -3777,13 +3774,13 @@
         <v>31</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="43.15">
       <c r="A120" s="9">
         <v>117</v>
       </c>
@@ -3791,13 +3788,13 @@
         <v>31</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="43.15">
       <c r="A121" s="9">
         <v>118</v>
       </c>
@@ -3805,13 +3802,13 @@
         <v>31</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="43.15">
       <c r="A122" s="9">
         <v>119</v>
       </c>
@@ -3819,13 +3816,13 @@
         <v>31</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="43.15">
       <c r="A123" s="9">
         <v>120</v>
       </c>
@@ -3833,13 +3830,13 @@
         <v>31</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="43.15">
       <c r="A124" s="9">
         <v>121</v>
       </c>
@@ -3847,13 +3844,13 @@
         <v>31</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="28.9">
       <c r="A125" s="9">
         <v>122</v>
       </c>
@@ -3861,13 +3858,13 @@
         <v>31</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="72">
       <c r="A126" s="9">
         <v>123</v>
       </c>
@@ -3875,13 +3872,13 @@
         <v>31</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="86.45">
       <c r="A127" s="9">
         <v>124</v>
       </c>
@@ -3889,13 +3886,13 @@
         <v>31</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="57.6">
       <c r="A128" s="9">
         <v>125</v>
       </c>
@@ -3903,13 +3900,13 @@
         <v>31</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" ht="72">
       <c r="A129" s="9">
         <v>126</v>
       </c>
@@ -3917,13 +3914,13 @@
         <v>31</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="43.15">
       <c r="A130" s="9">
         <v>127</v>
       </c>
@@ -3931,13 +3928,13 @@
         <v>31</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" ht="28.9">
       <c r="A131" s="9">
         <v>128</v>
       </c>
@@ -3945,13 +3942,13 @@
         <v>30</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" ht="43.15">
       <c r="A132" s="9">
         <v>129</v>
       </c>
@@ -3959,13 +3956,13 @@
         <v>30</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" s="9">
         <v>130</v>
       </c>
@@ -3973,13 +3970,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" ht="43.15">
       <c r="A134" s="9">
         <v>131</v>
       </c>
@@ -3987,13 +3984,13 @@
         <v>30</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" ht="43.15">
       <c r="A135" s="9">
         <v>132</v>
       </c>
@@ -4001,13 +3998,13 @@
         <v>30</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" ht="28.9">
       <c r="A136" s="9">
         <v>133</v>
       </c>
@@ -4015,13 +4012,13 @@
         <v>30</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="43.15">
       <c r="A137" s="9">
         <v>134</v>
       </c>
@@ -4029,13 +4026,13 @@
         <v>30</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="28.9">
       <c r="A138" s="9">
         <v>135</v>
       </c>
@@ -4043,13 +4040,13 @@
         <v>30</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="57.6">
       <c r="A139" s="9">
         <v>136</v>
       </c>
@@ -4057,13 +4054,13 @@
         <v>30</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="57.6">
       <c r="A140" s="9">
         <v>137</v>
       </c>
@@ -4071,13 +4068,13 @@
         <v>30</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" ht="208" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" ht="187.15">
       <c r="A141" s="9">
         <v>138</v>
       </c>
@@ -4085,13 +4082,13 @@
         <v>30</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142" s="9">
         <v>139</v>
       </c>
@@ -4099,19 +4096,19 @@
         <v>28</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="R142" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="43.15">
       <c r="A143" s="9">
         <v>140</v>
       </c>
@@ -4119,16 +4116,16 @@
         <v>28</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="28.9">
       <c r="A144" s="9">
         <v>141</v>
       </c>
@@ -4136,13 +4133,13 @@
         <v>28</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="28.9">
       <c r="A145" s="9">
         <v>142</v>
       </c>
@@ -4150,13 +4147,13 @@
         <v>28</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="28.9">
       <c r="A146" s="9">
         <v>143</v>
       </c>
@@ -4164,13 +4161,13 @@
         <v>28</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="28.9">
       <c r="A147" s="9">
         <v>144</v>
       </c>
@@ -4178,13 +4175,13 @@
         <v>28</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="28.9">
       <c r="A148" s="9">
         <v>145</v>
       </c>
@@ -4192,13 +4189,13 @@
         <v>28</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="9">
         <v>146</v>
       </c>
@@ -4206,13 +4203,13 @@
         <v>28</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="28.9">
       <c r="A150" s="9">
         <v>147</v>
       </c>
@@ -4220,13 +4217,13 @@
         <v>28</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="28.9">
       <c r="A151" s="9">
         <v>148</v>
       </c>
@@ -4234,13 +4231,13 @@
         <v>28</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="72">
       <c r="A152" s="9">
         <v>149</v>
       </c>
@@ -4248,13 +4245,13 @@
         <v>29</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="57.6">
       <c r="A153" s="9">
         <v>150</v>
       </c>
@@ -4262,13 +4259,13 @@
         <v>29</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="28.9">
       <c r="A154" s="9">
         <v>151</v>
       </c>
@@ -4276,13 +4273,13 @@
         <v>29</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="43.15">
       <c r="A155" s="9">
         <v>152</v>
       </c>
@@ -4290,13 +4287,13 @@
         <v>29</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="43.15">
       <c r="A156" s="9">
         <v>153</v>
       </c>
@@ -4304,13 +4301,13 @@
         <v>29</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="43.15">
       <c r="A157" s="9">
         <v>154</v>
       </c>
@@ -4318,13 +4315,13 @@
         <v>29</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="43.15">
       <c r="A158" s="9">
         <v>155</v>
       </c>
@@ -4332,13 +4329,13 @@
         <v>29</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="57.6">
       <c r="A159" s="9">
         <v>156</v>
       </c>
@@ -4346,13 +4343,13 @@
         <v>29</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="57.6">
       <c r="A160" s="9">
         <v>157</v>
       </c>
@@ -4360,13 +4357,13 @@
         <v>29</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="43.15">
       <c r="A161" s="9">
         <v>158</v>
       </c>
@@ -4374,13 +4371,13 @@
         <v>29</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="43.15">
       <c r="A162" s="9">
         <v>159</v>
       </c>
@@ -4388,13 +4385,13 @@
         <v>29</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="43.15">
       <c r="A163" s="9">
         <v>160</v>
       </c>
@@ -4402,13 +4399,13 @@
         <v>29</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="43.15">
       <c r="A164" s="9">
         <v>161</v>
       </c>
@@ -4416,13 +4413,13 @@
         <v>29</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="28.9">
       <c r="A165" s="9">
         <v>162</v>
       </c>
@@ -4430,13 +4427,13 @@
         <v>29</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="43.15">
       <c r="A166" s="9">
         <v>163</v>
       </c>
@@ -4444,13 +4441,13 @@
         <v>29</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="43.15">
       <c r="A167" s="9">
         <v>164</v>
       </c>
@@ -4458,13 +4455,13 @@
         <v>29</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="43.15">
       <c r="A168" s="9">
         <v>165</v>
       </c>
@@ -4472,13 +4469,13 @@
         <v>29</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="28.9">
       <c r="A169" s="9">
         <v>166</v>
       </c>
@@ -4486,13 +4483,13 @@
         <v>29</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="43.15">
       <c r="A170" s="9">
         <v>167</v>
       </c>
@@ -4500,13 +4497,13 @@
         <v>29</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="28.9">
       <c r="A171" s="9">
         <v>168</v>
       </c>
@@ -4514,13 +4511,13 @@
         <v>29</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="28.9">
       <c r="A172" s="9">
         <v>169</v>
       </c>
@@ -4528,13 +4525,13 @@
         <v>32</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="9">
         <v>170</v>
       </c>
@@ -4542,13 +4539,13 @@
         <v>32</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="28.9">
       <c r="A174" s="9">
         <v>171</v>
       </c>
@@ -4556,13 +4553,13 @@
         <v>32</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="28.9">
       <c r="A175" s="9">
         <v>172</v>
       </c>
@@ -4570,13 +4567,13 @@
         <v>32</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="28.9">
       <c r="A176" s="9">
         <v>173</v>
       </c>
@@ -4584,13 +4581,13 @@
         <v>32</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="28.9">
       <c r="A177" s="9">
         <v>174</v>
       </c>
@@ -4598,13 +4595,13 @@
         <v>32</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="28.9">
       <c r="A178" s="9">
         <v>175</v>
       </c>
@@ -4612,13 +4609,13 @@
         <v>32</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="28.9">
       <c r="A179" s="9">
         <v>176</v>
       </c>
@@ -4626,13 +4623,13 @@
         <v>32</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="43.15">
       <c r="A180" s="9">
         <v>177</v>
       </c>
@@ -4640,13 +4637,13 @@
         <v>32</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="28.9">
       <c r="A181" s="9">
         <v>178</v>
       </c>
@@ -4654,13 +4651,13 @@
         <v>32</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="28.9">
       <c r="A182" s="9">
         <v>179</v>
       </c>
@@ -4668,13 +4665,13 @@
         <v>32</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="28.9">
       <c r="A183" s="9">
         <v>180</v>
       </c>
@@ -4682,13 +4679,13 @@
         <v>32</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="28.9">
       <c r="A184" s="9">
         <v>181</v>
       </c>
@@ -4696,13 +4693,13 @@
         <v>32</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="28.9">
       <c r="A185" s="9">
         <v>182</v>
       </c>
@@ -4710,13 +4707,13 @@
         <v>32</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="9">
         <v>183</v>
       </c>
@@ -4724,13 +4721,13 @@
         <v>32</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="28.9">
       <c r="A187" s="9">
         <v>184</v>
       </c>
@@ -4738,13 +4735,13 @@
         <v>32</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="28.9">
       <c r="A188" s="9">
         <v>185</v>
       </c>
@@ -4752,13 +4749,13 @@
         <v>32</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="9">
         <v>186</v>
       </c>
@@ -4766,13 +4763,13 @@
         <v>32</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="28.9">
       <c r="A190" s="9">
         <v>187</v>
       </c>
@@ -4780,13 +4777,13 @@
         <v>32</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="9">
         <v>188</v>
       </c>
@@ -4794,13 +4791,13 @@
         <v>32</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="9">
         <v>189</v>
       </c>
@@ -4808,13 +4805,13 @@
         <v>32</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" ht="28.9">
       <c r="A193" s="9">
         <v>190</v>
       </c>
@@ -4822,13 +4819,13 @@
         <v>32</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18">
       <c r="A194" s="9">
         <v>191</v>
       </c>
@@ -4836,13 +4833,13 @@
         <v>32</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" ht="28.9">
       <c r="A195" s="9">
         <v>192</v>
       </c>
@@ -4850,16 +4847,16 @@
         <v>32</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" ht="28.9">
       <c r="A196" s="9">
         <v>193</v>
       </c>
@@ -4867,13 +4864,13 @@
         <v>32</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18">
       <c r="A197" s="9">
         <v>194</v>
       </c>
@@ -4881,13 +4878,13 @@
         <v>32</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" ht="28.9">
       <c r="A198" s="9">
         <v>195</v>
       </c>
@@ -4895,13 +4892,13 @@
         <v>32</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18">
       <c r="A199" s="9">
         <v>196</v>
       </c>
@@ -4909,13 +4906,13 @@
         <v>32</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18">
       <c r="A200" s="9">
         <v>197</v>
       </c>
@@ -4923,13 +4920,13 @@
         <v>32</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18">
       <c r="A201" s="9">
         <v>198</v>
       </c>
@@ -4937,13 +4934,13 @@
         <v>32</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18">
       <c r="A202" s="9">
         <v>199</v>
       </c>
@@ -4951,13 +4948,13 @@
         <v>32</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18">
       <c r="A203" s="9">
         <v>200</v>
       </c>
@@ -4965,13 +4962,13 @@
         <v>32</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18">
       <c r="A204" s="9">
         <v>201</v>
       </c>
@@ -4979,13 +4976,13 @@
         <v>32</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" ht="28.9">
       <c r="A205" s="9">
         <v>202</v>
       </c>
@@ -4993,13 +4990,13 @@
         <v>32</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18">
       <c r="A206" s="9">
         <v>203</v>
       </c>
@@ -5007,13 +5004,13 @@
         <v>32</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="207" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18">
       <c r="A207" s="9">
         <v>204</v>
       </c>
@@ -5021,16 +5018,16 @@
         <v>32</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="R207" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" ht="29.25">
       <c r="A208" s="8">
         <v>205</v>
       </c>
@@ -5038,13 +5035,13 @@
         <v>25</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" ht="43.5">
       <c r="A209" s="8">
         <v>206</v>
       </c>
@@ -5052,13 +5049,13 @@
         <v>25</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" ht="43.5">
       <c r="A210" s="8">
         <v>207</v>
       </c>
@@ -5066,16 +5063,16 @@
         <v>25</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="R210" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" ht="43.5">
       <c r="A211" s="8">
         <v>208</v>
       </c>
@@ -5083,13 +5080,13 @@
         <v>25</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" ht="29.25">
       <c r="A212" s="8">
         <v>209</v>
       </c>
@@ -5097,13 +5094,13 @@
         <v>25</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" ht="29.25">
       <c r="A213" s="8">
         <v>210</v>
       </c>
@@ -5111,13 +5108,13 @@
         <v>25</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" ht="29.25">
       <c r="A214" s="8">
         <v>211</v>
       </c>
@@ -5125,13 +5122,13 @@
         <v>25</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" ht="43.5">
       <c r="A215" s="8">
         <v>212</v>
       </c>
@@ -5139,16 +5136,16 @@
         <v>25</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="R215" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" ht="29.25">
       <c r="A216" s="8">
         <v>213</v>
       </c>
@@ -5156,13 +5153,13 @@
         <v>25</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" ht="15">
       <c r="A217" s="8">
         <v>214</v>
       </c>
@@ -5170,13 +5167,13 @@
         <v>25</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" ht="29.25">
       <c r="A218" s="8">
         <v>215</v>
       </c>
@@ -5184,13 +5181,13 @@
         <v>25</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" ht="29.25">
       <c r="A219" s="9">
         <v>216</v>
       </c>
@@ -5198,13 +5195,13 @@
         <v>25</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" ht="29.25">
       <c r="A220" s="9">
         <v>217</v>
       </c>
@@ -5212,13 +5209,13 @@
         <v>25</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" ht="29.25">
       <c r="A221" s="9">
         <v>218</v>
       </c>
@@ -5226,16 +5223,16 @@
         <v>25</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="R221" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" ht="30.75">
       <c r="A222" s="9">
         <v>219</v>
       </c>
@@ -5243,13 +5240,13 @@
         <v>25</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" ht="29.25">
       <c r="A223" s="9">
         <v>220</v>
       </c>
@@ -5257,13 +5254,13 @@
         <v>25</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" ht="29.25">
       <c r="A224" s="9">
         <v>221</v>
       </c>
@@ -5271,15 +5268,15 @@
         <v>25</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="230" spans="18:18" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="230" spans="18:18">
       <c r="R230" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -5290,14 +5287,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDD0FC4969DCF4449136D2C873E795D1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c6f44795faba901663e8a9bf3a6322e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d2c32087-eb03-4a65-b505-380146e007a4" xmlns:ns4="2f381668-55bb-4cca-a2e9-7746dbcfba3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7caa3c07606457882248d14e3a3261f4" ns3:_="" ns4:_="">
     <xsd:import namespace="d2c32087-eb03-4a65-b505-380146e007a4"/>
@@ -5518,6 +5507,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5528,38 +5525,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8DC07DF-80B7-4F51-9B64-7871291DEDB3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8DC07DF-80B7-4F51-9B64-7871291DEDB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
-    <ds:schemaRef ds:uri="2f381668-55bb-4cca-a2e9-7746dbcfba3d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}"/>
 </file>
--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mavsuta-my.sharepoint.com/personal/anh7674_mavs_uta_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BC9751C-A6C4-4E21-8EB6-DDB8B1DF3622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0D52E4-04C9-42BB-BA42-1AC5434149D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="422">
   <si>
     <t>Tested By</t>
   </si>
@@ -1309,12 +1309,30 @@
   <si>
     <t>summary:</t>
   </si>
+  <si>
+    <t>UI011</t>
+  </si>
+  <si>
+    <t>UI012</t>
+  </si>
+  <si>
+    <t>UI013</t>
+  </si>
+  <si>
+    <t>UI014</t>
+  </si>
+  <si>
+    <t>UI015</t>
+  </si>
+  <si>
+    <t>UI016</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1747,6 +1765,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>381889</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>372271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CA7573-E112-928C-388C-1FAFFDCA2666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21040725" y="37909500"/>
+          <a:ext cx="6373114" cy="5706271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2069,11 +2131,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+    <sheetView tabSelected="1" topLeftCell="B78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S84" sqref="S84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" style="1" customWidth="1"/>
@@ -2084,12 +2146,12 @@
     <col min="19" max="19" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -2127,7 +2189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -2147,7 +2209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="43.15">
+    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2170,7 +2232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="28.9">
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -2184,7 +2246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="28.9">
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -2198,7 +2260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="28.9">
+    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -2212,7 +2274,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -2226,7 +2288,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="28.9">
+    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -2240,7 +2302,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="28.9">
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -2254,7 +2316,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="28.9">
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -2268,7 +2330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -2282,7 +2344,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="28.9">
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -2296,7 +2358,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>11</v>
       </c>
@@ -2310,7 +2372,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="28.9">
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>12</v>
       </c>
@@ -2324,7 +2386,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>13</v>
       </c>
@@ -2338,7 +2400,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.9">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>14</v>
       </c>
@@ -2352,7 +2414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.9">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>15</v>
       </c>
@@ -2366,7 +2428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.9">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -2380,7 +2442,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.9">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>17</v>
       </c>
@@ -2394,7 +2456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.9">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -2408,7 +2470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="43.15">
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>19</v>
       </c>
@@ -2422,7 +2484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43.15">
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>20</v>
       </c>
@@ -2436,7 +2498,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.9">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>21</v>
       </c>
@@ -2450,7 +2512,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.9">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>22</v>
       </c>
@@ -2464,7 +2526,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="43.15">
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>23</v>
       </c>
@@ -2478,7 +2540,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.9">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>24</v>
       </c>
@@ -2492,7 +2554,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.9">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>25</v>
       </c>
@@ -2506,7 +2568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="43.15">
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>26</v>
       </c>
@@ -2520,7 +2582,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.9">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>27</v>
       </c>
@@ -2534,7 +2596,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="43.15">
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>28</v>
       </c>
@@ -2548,7 +2610,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.9">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>29</v>
       </c>
@@ -2562,7 +2624,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.9">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>30</v>
       </c>
@@ -2576,7 +2638,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.9">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>31</v>
       </c>
@@ -2590,7 +2652,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.9">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>32</v>
       </c>
@@ -2604,7 +2666,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="43.15">
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>33</v>
       </c>
@@ -2618,7 +2680,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="43.15">
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>34</v>
       </c>
@@ -2632,7 +2694,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="57.6">
+    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>35</v>
       </c>
@@ -2646,7 +2708,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="28.9">
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>36</v>
       </c>
@@ -2660,7 +2722,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28.9">
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>37</v>
       </c>
@@ -2674,7 +2736,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.9">
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>38</v>
       </c>
@@ -2688,7 +2750,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>39</v>
       </c>
@@ -2702,7 +2764,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.9">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>40</v>
       </c>
@@ -2716,7 +2778,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="28.9">
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>41</v>
       </c>
@@ -2730,7 +2792,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.9">
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>42</v>
       </c>
@@ -2744,7 +2806,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28.9">
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>43</v>
       </c>
@@ -2758,7 +2820,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="57.6">
+    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>44</v>
       </c>
@@ -2772,7 +2834,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="43.15">
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>45</v>
       </c>
@@ -2786,7 +2848,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="28.9">
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>46</v>
       </c>
@@ -2800,7 +2862,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.9">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>47</v>
       </c>
@@ -2814,7 +2876,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="28.9">
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>48</v>
       </c>
@@ -2828,7 +2890,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="28.9">
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>49</v>
       </c>
@@ -2842,7 +2904,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="43.15">
+    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>50</v>
       </c>
@@ -2856,7 +2918,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="28.9">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>51</v>
       </c>
@@ -2870,7 +2932,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="28.9">
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>52</v>
       </c>
@@ -2884,7 +2946,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="28.9">
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>53</v>
       </c>
@@ -2898,7 +2960,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.9">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>54</v>
       </c>
@@ -2912,7 +2974,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="28.9">
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>55</v>
       </c>
@@ -2926,7 +2988,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="28.9">
+    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>56</v>
       </c>
@@ -2940,7 +3002,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="28.9">
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>57</v>
       </c>
@@ -2954,7 +3016,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="43.15">
+    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>58</v>
       </c>
@@ -2968,7 +3030,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="28.9">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>59</v>
       </c>
@@ -2982,7 +3044,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="28.9">
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>60</v>
       </c>
@@ -2996,7 +3058,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="28.9">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>61</v>
       </c>
@@ -3010,7 +3072,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="72">
+    <row r="65" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>62</v>
       </c>
@@ -3024,7 +3086,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="57.6">
+    <row r="66" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>63</v>
       </c>
@@ -3038,7 +3100,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="28.9">
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>64</v>
       </c>
@@ -3052,7 +3114,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="28.9">
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>65</v>
       </c>
@@ -3066,7 +3128,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="28.9">
+    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>66</v>
       </c>
@@ -3080,7 +3142,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="28.9">
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>67</v>
       </c>
@@ -3094,7 +3156,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="43.15">
+    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>68</v>
       </c>
@@ -3108,7 +3170,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="57.6">
+    <row r="72" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>69</v>
       </c>
@@ -3122,7 +3184,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="28.9">
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>70</v>
       </c>
@@ -3136,7 +3198,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="43.15">
+    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>71</v>
       </c>
@@ -3150,7 +3212,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>72</v>
       </c>
@@ -3164,7 +3226,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="43.15">
+    <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>73</v>
       </c>
@@ -3178,7 +3240,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="43.15">
+    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>74</v>
       </c>
@@ -3192,7 +3254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="28.9">
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>75</v>
       </c>
@@ -3206,7 +3268,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="28.9">
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>76</v>
       </c>
@@ -3220,7 +3282,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="28.9">
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>77</v>
       </c>
@@ -3234,7 +3296,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="28.9">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>78</v>
       </c>
@@ -3248,7 +3310,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="28.9">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>79</v>
       </c>
@@ -3262,7 +3324,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>80</v>
       </c>
@@ -3276,7 +3338,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="57.6">
+    <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>81</v>
       </c>
@@ -3289,8 +3351,11 @@
       <c r="D84" s="10" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="43.15">
+      <c r="E84" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>82</v>
       </c>
@@ -3303,8 +3368,11 @@
       <c r="D85" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="72">
+      <c r="E85" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>83</v>
       </c>
@@ -3317,8 +3385,11 @@
       <c r="D86" s="10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>84</v>
       </c>
@@ -3331,8 +3402,11 @@
       <c r="D87" s="10" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="28.9">
+      <c r="E87" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>85</v>
       </c>
@@ -3346,7 +3420,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="43.15">
+    <row r="89" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>86</v>
       </c>
@@ -3360,7 +3434,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="28.9">
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>87</v>
       </c>
@@ -3373,8 +3447,11 @@
       <c r="D90" s="10" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="28.9">
+      <c r="E90" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>88</v>
       </c>
@@ -3388,7 +3465,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="28.9">
+    <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>89</v>
       </c>
@@ -3401,8 +3478,11 @@
       <c r="D92" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="28.9">
+      <c r="E92" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>90</v>
       </c>
@@ -3416,7 +3496,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="28.9">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>91</v>
       </c>
@@ -3430,7 +3510,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="28.9">
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>92</v>
       </c>
@@ -3444,7 +3524,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="28.9">
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>93</v>
       </c>
@@ -3458,7 +3538,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="43.15">
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>94</v>
       </c>
@@ -3472,7 +3552,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="28.9">
+    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>95</v>
       </c>
@@ -3486,7 +3566,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="28.9">
+    <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>96</v>
       </c>
@@ -3500,7 +3580,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="28.9">
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>97</v>
       </c>
@@ -3514,7 +3594,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>98</v>
       </c>
@@ -3528,7 +3608,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="28.9">
+    <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>99</v>
       </c>
@@ -3542,7 +3622,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="57.6">
+    <row r="103" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="9">
         <v>100</v>
       </c>
@@ -3556,7 +3636,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="43.15">
+    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="9">
         <v>101</v>
       </c>
@@ -3570,7 +3650,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="28.9">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>102</v>
       </c>
@@ -3584,7 +3664,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="43.15">
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="9">
         <v>103</v>
       </c>
@@ -3598,7 +3678,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="28.9">
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>104</v>
       </c>
@@ -3612,7 +3692,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="86.45">
+    <row r="108" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
         <v>105</v>
       </c>
@@ -3626,7 +3706,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="28.9">
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
         <v>106</v>
       </c>
@@ -3640,7 +3720,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
         <v>107</v>
       </c>
@@ -3654,7 +3734,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="43.15">
+    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
         <v>108</v>
       </c>
@@ -3668,7 +3748,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="57.6">
+    <row r="112" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="9">
         <v>109</v>
       </c>
@@ -3682,7 +3762,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="28.9">
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>110</v>
       </c>
@@ -3696,7 +3776,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="9">
         <v>111</v>
       </c>
@@ -3710,7 +3790,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="43.15">
+    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="9">
         <v>112</v>
       </c>
@@ -3724,7 +3804,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="28.9">
+    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="9">
         <v>113</v>
       </c>
@@ -3738,7 +3818,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="43.15">
+    <row r="117" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
         <v>114</v>
       </c>
@@ -3752,7 +3832,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="43.15">
+    <row r="118" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
         <v>115</v>
       </c>
@@ -3766,7 +3846,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="28.9">
+    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
         <v>116</v>
       </c>
@@ -3780,7 +3860,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="43.15">
+    <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="9">
         <v>117</v>
       </c>
@@ -3794,7 +3874,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="43.15">
+    <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="9">
         <v>118</v>
       </c>
@@ -3808,7 +3888,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="43.15">
+    <row r="122" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="9">
         <v>119</v>
       </c>
@@ -3822,7 +3902,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="43.15">
+    <row r="123" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="9">
         <v>120</v>
       </c>
@@ -3836,7 +3916,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="43.15">
+    <row r="124" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="9">
         <v>121</v>
       </c>
@@ -3850,7 +3930,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="28.9">
+    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
         <v>122</v>
       </c>
@@ -3864,7 +3944,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="72">
+    <row r="126" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A126" s="9">
         <v>123</v>
       </c>
@@ -3878,7 +3958,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="86.45">
+    <row r="127" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>124</v>
       </c>
@@ -3892,7 +3972,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="57.6">
+    <row r="128" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
         <v>125</v>
       </c>
@@ -3906,7 +3986,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="72">
+    <row r="129" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>126</v>
       </c>
@@ -3920,7 +4000,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="43.15">
+    <row r="130" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>127</v>
       </c>
@@ -3934,7 +4014,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="28.9">
+    <row r="131" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="9">
         <v>128</v>
       </c>
@@ -3948,7 +4028,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="43.15">
+    <row r="132" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
         <v>129</v>
       </c>
@@ -3962,7 +4042,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="9">
         <v>130</v>
       </c>
@@ -3976,7 +4056,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="43.15">
+    <row r="134" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="9">
         <v>131</v>
       </c>
@@ -3990,7 +4070,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="43.15">
+    <row r="135" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="9">
         <v>132</v>
       </c>
@@ -4004,7 +4084,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="28.9">
+    <row r="136" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="9">
         <v>133</v>
       </c>
@@ -4018,7 +4098,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="43.15">
+    <row r="137" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="9">
         <v>134</v>
       </c>
@@ -4032,7 +4112,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="28.9">
+    <row r="138" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="9">
         <v>135</v>
       </c>
@@ -4046,7 +4126,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="57.6">
+    <row r="139" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="9">
         <v>136</v>
       </c>
@@ -4060,7 +4140,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="57.6">
+    <row r="140" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
         <v>137</v>
       </c>
@@ -4074,7 +4154,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="187.15">
+    <row r="141" spans="1:18" ht="195" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
         <v>138</v>
       </c>
@@ -4088,7 +4168,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="9">
         <v>139</v>
       </c>
@@ -4108,7 +4188,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="43.15">
+    <row r="143" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="9">
         <v>140</v>
       </c>
@@ -4125,7 +4205,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="28.9">
+    <row r="144" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="9">
         <v>141</v>
       </c>
@@ -4139,7 +4219,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="28.9">
+    <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
         <v>142</v>
       </c>
@@ -4153,7 +4233,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="28.9">
+    <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="9">
         <v>143</v>
       </c>
@@ -4167,7 +4247,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="28.9">
+    <row r="147" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
         <v>144</v>
       </c>
@@ -4181,7 +4261,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="28.9">
+    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="9">
         <v>145</v>
       </c>
@@ -4195,7 +4275,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
         <v>146</v>
       </c>
@@ -4209,7 +4289,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="28.9">
+    <row r="150" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="9">
         <v>147</v>
       </c>
@@ -4223,7 +4303,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="28.9">
+    <row r="151" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="9">
         <v>148</v>
       </c>
@@ -4237,7 +4317,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="72">
+    <row r="152" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A152" s="9">
         <v>149</v>
       </c>
@@ -4251,7 +4331,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="57.6">
+    <row r="153" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="9">
         <v>150</v>
       </c>
@@ -4265,7 +4345,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="28.9">
+    <row r="154" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="9">
         <v>151</v>
       </c>
@@ -4279,7 +4359,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="43.15">
+    <row r="155" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="9">
         <v>152</v>
       </c>
@@ -4293,7 +4373,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="43.15">
+    <row r="156" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="9">
         <v>153</v>
       </c>
@@ -4307,7 +4387,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="43.15">
+    <row r="157" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="9">
         <v>154</v>
       </c>
@@ -4321,7 +4401,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="43.15">
+    <row r="158" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="9">
         <v>155</v>
       </c>
@@ -4335,7 +4415,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="57.6">
+    <row r="159" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
         <v>156</v>
       </c>
@@ -4349,7 +4429,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="57.6">
+    <row r="160" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="9">
         <v>157</v>
       </c>
@@ -4363,7 +4443,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="43.15">
+    <row r="161" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="9">
         <v>158</v>
       </c>
@@ -4377,7 +4457,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="43.15">
+    <row r="162" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="9">
         <v>159</v>
       </c>
@@ -4391,7 +4471,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="43.15">
+    <row r="163" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" s="9">
         <v>160</v>
       </c>
@@ -4405,7 +4485,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="43.15">
+    <row r="164" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="9">
         <v>161</v>
       </c>
@@ -4419,7 +4499,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="28.9">
+    <row r="165" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="9">
         <v>162</v>
       </c>
@@ -4433,7 +4513,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="43.15">
+    <row r="166" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="9">
         <v>163</v>
       </c>
@@ -4447,7 +4527,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="43.15">
+    <row r="167" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="9">
         <v>164</v>
       </c>
@@ -4461,7 +4541,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="43.15">
+    <row r="168" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="9">
         <v>165</v>
       </c>
@@ -4475,7 +4555,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="28.9">
+    <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="9">
         <v>166</v>
       </c>
@@ -4489,7 +4569,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="43.15">
+    <row r="170" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>167</v>
       </c>
@@ -4503,7 +4583,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="28.9">
+    <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="9">
         <v>168</v>
       </c>
@@ -4517,7 +4597,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="28.9">
+    <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="9">
         <v>169</v>
       </c>
@@ -4531,7 +4611,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="9">
         <v>170</v>
       </c>
@@ -4545,7 +4625,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="28.9">
+    <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="9">
         <v>171</v>
       </c>
@@ -4559,7 +4639,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="28.9">
+    <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="9">
         <v>172</v>
       </c>
@@ -4573,7 +4653,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="28.9">
+    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="9">
         <v>173</v>
       </c>
@@ -4587,7 +4667,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="28.9">
+    <row r="177" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="9">
         <v>174</v>
       </c>
@@ -4601,7 +4681,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="28.9">
+    <row r="178" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="9">
         <v>175</v>
       </c>
@@ -4615,7 +4695,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="28.9">
+    <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="9">
         <v>176</v>
       </c>
@@ -4629,7 +4709,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="43.15">
+    <row r="180" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="9">
         <v>177</v>
       </c>
@@ -4643,7 +4723,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="28.9">
+    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="9">
         <v>178</v>
       </c>
@@ -4657,7 +4737,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="28.9">
+    <row r="182" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="9">
         <v>179</v>
       </c>
@@ -4671,7 +4751,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="28.9">
+    <row r="183" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="9">
         <v>180</v>
       </c>
@@ -4685,7 +4765,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="28.9">
+    <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="9">
         <v>181</v>
       </c>
@@ -4699,7 +4779,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="28.9">
+    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="9">
         <v>182</v>
       </c>
@@ -4713,7 +4793,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="9">
         <v>183</v>
       </c>
@@ -4727,7 +4807,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="28.9">
+    <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="9">
         <v>184</v>
       </c>
@@ -4741,7 +4821,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="28.9">
+    <row r="188" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="9">
         <v>185</v>
       </c>
@@ -4755,7 +4835,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="9">
         <v>186</v>
       </c>
@@ -4769,7 +4849,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="28.9">
+    <row r="190" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="9">
         <v>187</v>
       </c>
@@ -4783,7 +4863,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="9">
         <v>188</v>
       </c>
@@ -4797,7 +4877,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="9">
         <v>189</v>
       </c>
@@ -4811,7 +4891,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="28.9">
+    <row r="193" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="9">
         <v>190</v>
       </c>
@@ -4825,7 +4905,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="9">
         <v>191</v>
       </c>
@@ -4839,7 +4919,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="195" spans="1:18" ht="28.9">
+    <row r="195" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="9">
         <v>192</v>
       </c>
@@ -4856,7 +4936,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="28.9">
+    <row r="196" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="9">
         <v>193</v>
       </c>
@@ -4870,7 +4950,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="197" spans="1:18">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="9">
         <v>194</v>
       </c>
@@ -4884,7 +4964,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="28.9">
+    <row r="198" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="9">
         <v>195</v>
       </c>
@@ -4898,7 +4978,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="9">
         <v>196</v>
       </c>
@@ -4912,7 +4992,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="200" spans="1:18">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="9">
         <v>197</v>
       </c>
@@ -4926,7 +5006,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="201" spans="1:18">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="9">
         <v>198</v>
       </c>
@@ -4940,7 +5020,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="202" spans="1:18">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="9">
         <v>199</v>
       </c>
@@ -4954,7 +5034,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="203" spans="1:18">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="9">
         <v>200</v>
       </c>
@@ -4968,7 +5048,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="9">
         <v>201</v>
       </c>
@@ -4982,7 +5062,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="28.9">
+    <row r="205" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="9">
         <v>202</v>
       </c>
@@ -4996,7 +5076,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="206" spans="1:18">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="9">
         <v>203</v>
       </c>
@@ -5010,7 +5090,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="207" spans="1:18">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="9">
         <v>204</v>
       </c>
@@ -5027,7 +5107,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="29.25">
+    <row r="208" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
         <v>205</v>
       </c>
@@ -5041,7 +5121,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="43.5">
+    <row r="209" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
         <v>206</v>
       </c>
@@ -5055,7 +5135,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="43.5">
+    <row r="210" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>207</v>
       </c>
@@ -5072,7 +5152,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="43.5">
+    <row r="211" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>208</v>
       </c>
@@ -5086,7 +5166,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="29.25">
+    <row r="212" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>209</v>
       </c>
@@ -5100,7 +5180,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="213" spans="1:18" ht="29.25">
+    <row r="213" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>210</v>
       </c>
@@ -5114,7 +5194,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="29.25">
+    <row r="214" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
         <v>211</v>
       </c>
@@ -5128,7 +5208,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="43.5">
+    <row r="215" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>212</v>
       </c>
@@ -5145,7 +5225,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="29.25">
+    <row r="216" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>213</v>
       </c>
@@ -5159,7 +5239,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="15">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>214</v>
       </c>
@@ -5173,7 +5253,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="218" spans="1:18" ht="29.25">
+    <row r="218" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>215</v>
       </c>
@@ -5187,7 +5267,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="29.25">
+    <row r="219" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="9">
         <v>216</v>
       </c>
@@ -5201,7 +5281,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="29.25">
+    <row r="220" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="9">
         <v>217</v>
       </c>
@@ -5215,7 +5295,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="221" spans="1:18" ht="29.25">
+    <row r="221" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="9">
         <v>218</v>
       </c>
@@ -5232,7 +5312,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="30.75">
+    <row r="222" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="9">
         <v>219</v>
       </c>
@@ -5246,7 +5326,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="29.25">
+    <row r="223" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="9">
         <v>220</v>
       </c>
@@ -5260,7 +5340,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="224" spans="1:18" ht="29.25">
+    <row r="224" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="9">
         <v>221</v>
       </c>
@@ -5274,7 +5354,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="230" spans="18:18">
+    <row r="230" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R230" t="s">
         <v>415</v>
       </c>
@@ -5287,6 +5367,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDD0FC4969DCF4449136D2C873E795D1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c6f44795faba901663e8a9bf3a6322e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d2c32087-eb03-4a65-b505-380146e007a4" xmlns:ns4="2f381668-55bb-4cca-a2e9-7746dbcfba3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7caa3c07606457882248d14e3a3261f4" ns3:_="" ns4:_="">
     <xsd:import namespace="d2c32087-eb03-4a65-b505-380146e007a4"/>
@@ -5507,31 +5604,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8DC07DF-80B7-4F51-9B64-7871291DEDB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8DC07DF-80B7-4F51-9B64-7871291DEDB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
+    <ds:schemaRef ds:uri="2f381668-55bb-4cca-a2e9-7746dbcfba3d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtian/Documents/UTA/Spring 2025/CSE 3310/cse3310-sp25-002/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0D52E4-04C9-42BB-BA42-1AC5434149D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904C9C2F-7EE0-7544-BFC0-A5B13BBC8A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="430">
   <si>
     <t>Tested By</t>
   </si>
@@ -1327,12 +1327,36 @@
   <si>
     <t>UI016</t>
   </si>
+  <si>
+    <t>UI-JG-01</t>
+  </si>
+  <si>
+    <t>UI-JG-02</t>
+  </si>
+  <si>
+    <t>UI-JG-03</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>UI-JG-04</t>
+  </si>
+  <si>
+    <t>UI-JG-05</t>
+  </si>
+  <si>
+    <t>UI-JG-06</t>
+  </si>
+  <si>
+    <t>UI-JG-07</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1809,6 +1833,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>147674</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>498549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>371656</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>118139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237EAACE-AF7F-5A0E-4162-B64971FD277B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="24248139" y="21320642"/>
+          <a:ext cx="14577936" cy="7889357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2131,27 +2216,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S84" sqref="S84"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF76" sqref="AF76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -2189,7 +2274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="16">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -2209,7 +2294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="48">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2232,7 +2317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="16">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -2246,7 +2331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="16">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -2260,7 +2345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="32">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -2274,7 +2359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="16">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -2288,7 +2373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="32">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -2302,7 +2387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="32">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -2316,7 +2401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="32">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -2330,7 +2415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="16">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -2344,7 +2429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="16">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -2358,7 +2443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="16">
       <c r="A14" s="9">
         <v>11</v>
       </c>
@@ -2372,7 +2457,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="32">
       <c r="A15" s="9">
         <v>12</v>
       </c>
@@ -2386,7 +2471,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="16">
       <c r="A16" s="9">
         <v>13</v>
       </c>
@@ -2400,7 +2485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="32">
       <c r="A17" s="9">
         <v>14</v>
       </c>
@@ -2414,7 +2499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="32">
       <c r="A18" s="9">
         <v>15</v>
       </c>
@@ -2428,7 +2513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="32">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -2442,7 +2527,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="32">
       <c r="A20" s="9">
         <v>17</v>
       </c>
@@ -2456,7 +2541,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -2470,7 +2555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="32">
       <c r="A22" s="9">
         <v>19</v>
       </c>
@@ -2484,7 +2569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="48">
       <c r="A23" s="9">
         <v>20</v>
       </c>
@@ -2498,7 +2583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="32">
       <c r="A24" s="9">
         <v>21</v>
       </c>
@@ -2512,7 +2597,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="32">
       <c r="A25" s="9">
         <v>22</v>
       </c>
@@ -2526,7 +2611,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="48">
       <c r="A26" s="9">
         <v>23</v>
       </c>
@@ -2540,7 +2625,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="32">
       <c r="A27" s="9">
         <v>24</v>
       </c>
@@ -2554,7 +2639,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="32">
       <c r="A28" s="9">
         <v>25</v>
       </c>
@@ -2568,7 +2653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="48">
       <c r="A29" s="9">
         <v>26</v>
       </c>
@@ -2582,7 +2667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="32">
       <c r="A30" s="9">
         <v>27</v>
       </c>
@@ -2596,7 +2681,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="32">
       <c r="A31" s="9">
         <v>28</v>
       </c>
@@ -2610,7 +2695,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="32">
       <c r="A32" s="9">
         <v>29</v>
       </c>
@@ -2624,7 +2709,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="32">
       <c r="A33" s="9">
         <v>30</v>
       </c>
@@ -2638,7 +2723,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="32">
       <c r="A34" s="9">
         <v>31</v>
       </c>
@@ -2652,7 +2737,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="32">
       <c r="A35" s="9">
         <v>32</v>
       </c>
@@ -2666,7 +2751,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="48">
       <c r="A36" s="9">
         <v>33</v>
       </c>
@@ -2680,7 +2765,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="48">
       <c r="A37" s="9">
         <v>34</v>
       </c>
@@ -2694,7 +2779,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="64">
       <c r="A38" s="9">
         <v>35</v>
       </c>
@@ -2708,7 +2793,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="32">
       <c r="A39" s="9">
         <v>36</v>
       </c>
@@ -2722,7 +2807,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="32">
       <c r="A40" s="9">
         <v>37</v>
       </c>
@@ -2736,7 +2821,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="32">
       <c r="A41" s="9">
         <v>38</v>
       </c>
@@ -2750,7 +2835,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="16">
       <c r="A42" s="9">
         <v>39</v>
       </c>
@@ -2764,7 +2849,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="32">
       <c r="A43" s="9">
         <v>40</v>
       </c>
@@ -2778,7 +2863,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="32">
       <c r="A44" s="9">
         <v>41</v>
       </c>
@@ -2792,7 +2877,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="32">
       <c r="A45" s="9">
         <v>42</v>
       </c>
@@ -2806,7 +2891,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="32">
       <c r="A46" s="9">
         <v>43</v>
       </c>
@@ -2820,7 +2905,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="48">
       <c r="A47" s="9">
         <v>44</v>
       </c>
@@ -2834,7 +2919,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="32">
       <c r="A48" s="9">
         <v>45</v>
       </c>
@@ -2848,7 +2933,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="32">
       <c r="A49" s="9">
         <v>46</v>
       </c>
@@ -2862,7 +2947,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="32">
       <c r="A50" s="9">
         <v>47</v>
       </c>
@@ -2876,7 +2961,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="32">
       <c r="A51" s="9">
         <v>48</v>
       </c>
@@ -2890,7 +2975,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="32">
       <c r="A52" s="9">
         <v>49</v>
       </c>
@@ -2904,7 +2989,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="48">
       <c r="A53" s="9">
         <v>50</v>
       </c>
@@ -2917,8 +3002,11 @@
       <c r="D53" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="32">
       <c r="A54" s="9">
         <v>51</v>
       </c>
@@ -2931,8 +3019,11 @@
       <c r="D54" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16">
       <c r="A55" s="9">
         <v>52</v>
       </c>
@@ -2945,8 +3036,11 @@
       <c r="D55" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="32">
       <c r="A56" s="9">
         <v>53</v>
       </c>
@@ -2959,8 +3053,11 @@
       <c r="D56" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="32">
       <c r="A57" s="9">
         <v>54</v>
       </c>
@@ -2973,8 +3070,11 @@
       <c r="D57" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="32">
       <c r="A58" s="9">
         <v>55</v>
       </c>
@@ -2987,8 +3087,11 @@
       <c r="D58" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="32">
       <c r="A59" s="9">
         <v>56</v>
       </c>
@@ -3001,8 +3104,11 @@
       <c r="D59" s="10" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="32">
       <c r="A60" s="9">
         <v>57</v>
       </c>
@@ -3015,8 +3121,11 @@
       <c r="D60" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="32">
       <c r="A61" s="9">
         <v>58</v>
       </c>
@@ -3029,8 +3138,11 @@
       <c r="D61" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="32">
       <c r="A62" s="9">
         <v>59</v>
       </c>
@@ -3043,8 +3155,11 @@
       <c r="D62" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="32">
       <c r="A63" s="9">
         <v>60</v>
       </c>
@@ -3057,8 +3172,11 @@
       <c r="D63" s="10" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="32">
       <c r="A64" s="9">
         <v>61</v>
       </c>
@@ -3071,8 +3189,11 @@
       <c r="D64" s="10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="64">
       <c r="A65" s="9">
         <v>62</v>
       </c>
@@ -3085,8 +3206,11 @@
       <c r="D65" s="10" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="64">
       <c r="A66" s="9">
         <v>63</v>
       </c>
@@ -3099,8 +3223,11 @@
       <c r="D66" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="32">
       <c r="A67" s="9">
         <v>64</v>
       </c>
@@ -3113,8 +3240,11 @@
       <c r="D67" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="32">
       <c r="A68" s="9">
         <v>65</v>
       </c>
@@ -3127,8 +3257,11 @@
       <c r="D68" s="10" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="32">
       <c r="A69" s="9">
         <v>66</v>
       </c>
@@ -3141,8 +3274,11 @@
       <c r="D69" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="32">
       <c r="A70" s="9">
         <v>67</v>
       </c>
@@ -3155,8 +3291,11 @@
       <c r="D70" s="10" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="48">
       <c r="A71" s="9">
         <v>68</v>
       </c>
@@ -3169,8 +3308,11 @@
       <c r="D71" s="10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="64">
       <c r="A72" s="9">
         <v>69</v>
       </c>
@@ -3183,8 +3325,11 @@
       <c r="D72" s="10" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="32">
       <c r="A73" s="9">
         <v>70</v>
       </c>
@@ -3198,7 +3343,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="48">
       <c r="A74" s="9">
         <v>71</v>
       </c>
@@ -3212,7 +3357,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="16">
       <c r="A75" s="9">
         <v>72</v>
       </c>
@@ -3226,7 +3371,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="48">
       <c r="A76" s="9">
         <v>73</v>
       </c>
@@ -3240,7 +3385,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="48">
       <c r="A77" s="9">
         <v>74</v>
       </c>
@@ -3254,7 +3399,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="32">
       <c r="A78" s="9">
         <v>75</v>
       </c>
@@ -3268,7 +3413,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="32">
       <c r="A79" s="9">
         <v>76</v>
       </c>
@@ -3282,7 +3427,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="32">
       <c r="A80" s="9">
         <v>77</v>
       </c>
@@ -3296,7 +3441,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="32">
       <c r="A81" s="9">
         <v>78</v>
       </c>
@@ -3310,7 +3455,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="32">
       <c r="A82" s="9">
         <v>79</v>
       </c>
@@ -3324,7 +3469,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="16">
       <c r="A83" s="9">
         <v>80</v>
       </c>
@@ -3338,7 +3483,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="48">
       <c r="A84" s="9">
         <v>81</v>
       </c>
@@ -3355,7 +3500,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="48">
       <c r="A85" s="9">
         <v>82</v>
       </c>
@@ -3372,7 +3517,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="80">
       <c r="A86" s="9">
         <v>83</v>
       </c>
@@ -3389,7 +3534,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="16">
       <c r="A87" s="9">
         <v>84</v>
       </c>
@@ -3406,7 +3551,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="32">
       <c r="A88" s="9">
         <v>85</v>
       </c>
@@ -3420,7 +3565,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="48">
       <c r="A89" s="9">
         <v>86</v>
       </c>
@@ -3434,7 +3579,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="32">
       <c r="A90" s="9">
         <v>87</v>
       </c>
@@ -3451,7 +3596,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="16">
       <c r="A91" s="9">
         <v>88</v>
       </c>
@@ -3465,7 +3610,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="32">
       <c r="A92" s="9">
         <v>89</v>
       </c>
@@ -3482,7 +3627,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="32">
       <c r="A93" s="9">
         <v>90</v>
       </c>
@@ -3496,7 +3641,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="32">
       <c r="A94" s="9">
         <v>91</v>
       </c>
@@ -3510,7 +3655,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="32">
       <c r="A95" s="9">
         <v>92</v>
       </c>
@@ -3524,7 +3669,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="32">
       <c r="A96" s="9">
         <v>93</v>
       </c>
@@ -3538,7 +3683,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="32">
       <c r="A97" s="9">
         <v>94</v>
       </c>
@@ -3552,7 +3697,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="32">
       <c r="A98" s="9">
         <v>95</v>
       </c>
@@ -3566,7 +3711,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="32">
       <c r="A99" s="9">
         <v>96</v>
       </c>
@@ -3580,7 +3725,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="32">
       <c r="A100" s="9">
         <v>97</v>
       </c>
@@ -3594,7 +3739,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="16">
       <c r="A101" s="9">
         <v>98</v>
       </c>
@@ -3608,7 +3753,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="32">
       <c r="A102" s="9">
         <v>99</v>
       </c>
@@ -3622,7 +3767,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="48">
       <c r="A103" s="9">
         <v>100</v>
       </c>
@@ -3636,7 +3781,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="48">
       <c r="A104" s="9">
         <v>101</v>
       </c>
@@ -3650,7 +3795,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="32">
       <c r="A105" s="9">
         <v>102</v>
       </c>
@@ -3664,7 +3809,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="48">
       <c r="A106" s="9">
         <v>103</v>
       </c>
@@ -3678,7 +3823,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="32">
       <c r="A107" s="9">
         <v>104</v>
       </c>
@@ -3692,7 +3837,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="96">
       <c r="A108" s="9">
         <v>105</v>
       </c>
@@ -3706,7 +3851,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="32">
       <c r="A109" s="9">
         <v>106</v>
       </c>
@@ -3720,7 +3865,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="16">
       <c r="A110" s="9">
         <v>107</v>
       </c>
@@ -3734,7 +3879,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="32">
       <c r="A111" s="9">
         <v>108</v>
       </c>
@@ -3748,7 +3893,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="48">
       <c r="A112" s="9">
         <v>109</v>
       </c>
@@ -3762,7 +3907,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="32">
       <c r="A113" s="9">
         <v>110</v>
       </c>
@@ -3776,7 +3921,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="16">
       <c r="A114" s="9">
         <v>111</v>
       </c>
@@ -3790,7 +3935,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="32">
       <c r="A115" s="9">
         <v>112</v>
       </c>
@@ -3804,7 +3949,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="32">
       <c r="A116" s="9">
         <v>113</v>
       </c>
@@ -3818,7 +3963,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="48">
       <c r="A117" s="9">
         <v>114</v>
       </c>
@@ -3832,7 +3977,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="32">
       <c r="A118" s="9">
         <v>115</v>
       </c>
@@ -3846,7 +3991,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="32">
       <c r="A119" s="9">
         <v>116</v>
       </c>
@@ -3860,7 +4005,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="48">
       <c r="A120" s="9">
         <v>117</v>
       </c>
@@ -3874,7 +4019,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="48">
       <c r="A121" s="9">
         <v>118</v>
       </c>
@@ -3888,7 +4033,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="48">
       <c r="A122" s="9">
         <v>119</v>
       </c>
@@ -3902,7 +4047,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="32">
       <c r="A123" s="9">
         <v>120</v>
       </c>
@@ -3916,7 +4061,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="48">
       <c r="A124" s="9">
         <v>121</v>
       </c>
@@ -3930,7 +4075,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="32">
       <c r="A125" s="9">
         <v>122</v>
       </c>
@@ -3944,7 +4089,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="80">
       <c r="A126" s="9">
         <v>123</v>
       </c>
@@ -3958,7 +4103,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="80">
       <c r="A127" s="9">
         <v>124</v>
       </c>
@@ -3972,7 +4117,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="48">
       <c r="A128" s="9">
         <v>125</v>
       </c>
@@ -3986,7 +4131,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" ht="80">
       <c r="A129" s="9">
         <v>126</v>
       </c>
@@ -4000,7 +4145,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" ht="48">
       <c r="A130" s="9">
         <v>127</v>
       </c>
@@ -4014,7 +4159,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" ht="32">
       <c r="A131" s="9">
         <v>128</v>
       </c>
@@ -4028,7 +4173,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" ht="48">
       <c r="A132" s="9">
         <v>129</v>
       </c>
@@ -4042,7 +4187,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" ht="16">
       <c r="A133" s="9">
         <v>130</v>
       </c>
@@ -4056,7 +4201,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" ht="48">
       <c r="A134" s="9">
         <v>131</v>
       </c>
@@ -4070,7 +4215,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" ht="48">
       <c r="A135" s="9">
         <v>132</v>
       </c>
@@ -4084,7 +4229,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" ht="32">
       <c r="A136" s="9">
         <v>133</v>
       </c>
@@ -4098,7 +4243,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" ht="48">
       <c r="A137" s="9">
         <v>134</v>
       </c>
@@ -4112,7 +4257,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" ht="32">
       <c r="A138" s="9">
         <v>135</v>
       </c>
@@ -4126,7 +4271,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" ht="48">
       <c r="A139" s="9">
         <v>136</v>
       </c>
@@ -4140,7 +4285,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" ht="48">
       <c r="A140" s="9">
         <v>137</v>
       </c>
@@ -4154,7 +4299,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="195" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" ht="208">
       <c r="A141" s="9">
         <v>138</v>
       </c>
@@ -4168,7 +4313,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" ht="16">
       <c r="A142" s="9">
         <v>139</v>
       </c>
@@ -4188,7 +4333,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" ht="48">
       <c r="A143" s="9">
         <v>140</v>
       </c>
@@ -4205,7 +4350,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" ht="32">
       <c r="A144" s="9">
         <v>141</v>
       </c>
@@ -4219,7 +4364,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="16">
       <c r="A145" s="9">
         <v>142</v>
       </c>
@@ -4233,7 +4378,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="32">
       <c r="A146" s="9">
         <v>143</v>
       </c>
@@ -4247,7 +4392,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="32">
       <c r="A147" s="9">
         <v>144</v>
       </c>
@@ -4261,7 +4406,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="32">
       <c r="A148" s="9">
         <v>145</v>
       </c>
@@ -4275,7 +4420,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="16">
       <c r="A149" s="9">
         <v>146</v>
       </c>
@@ -4289,7 +4434,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="32">
       <c r="A150" s="9">
         <v>147</v>
       </c>
@@ -4303,7 +4448,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="32">
       <c r="A151" s="9">
         <v>148</v>
       </c>
@@ -4317,7 +4462,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="80">
       <c r="A152" s="9">
         <v>149</v>
       </c>
@@ -4331,7 +4476,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="48">
       <c r="A153" s="9">
         <v>150</v>
       </c>
@@ -4345,7 +4490,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="32">
       <c r="A154" s="9">
         <v>151</v>
       </c>
@@ -4359,7 +4504,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="48">
       <c r="A155" s="9">
         <v>152</v>
       </c>
@@ -4373,7 +4518,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="48">
       <c r="A156" s="9">
         <v>153</v>
       </c>
@@ -4387,7 +4532,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="32">
       <c r="A157" s="9">
         <v>154</v>
       </c>
@@ -4401,7 +4546,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="48">
       <c r="A158" s="9">
         <v>155</v>
       </c>
@@ -4415,7 +4560,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="48">
       <c r="A159" s="9">
         <v>156</v>
       </c>
@@ -4429,7 +4574,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="48">
       <c r="A160" s="9">
         <v>157</v>
       </c>
@@ -4443,7 +4588,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="48">
       <c r="A161" s="9">
         <v>158</v>
       </c>
@@ -4457,7 +4602,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="48">
       <c r="A162" s="9">
         <v>159</v>
       </c>
@@ -4471,7 +4616,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="48">
       <c r="A163" s="9">
         <v>160</v>
       </c>
@@ -4485,7 +4630,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="48">
       <c r="A164" s="9">
         <v>161</v>
       </c>
@@ -4499,7 +4644,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="32">
       <c r="A165" s="9">
         <v>162</v>
       </c>
@@ -4513,7 +4658,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="48">
       <c r="A166" s="9">
         <v>163</v>
       </c>
@@ -4527,7 +4672,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="48">
       <c r="A167" s="9">
         <v>164</v>
       </c>
@@ -4541,7 +4686,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="48">
       <c r="A168" s="9">
         <v>165</v>
       </c>
@@ -4555,7 +4700,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="32">
       <c r="A169" s="9">
         <v>166</v>
       </c>
@@ -4569,7 +4714,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="48">
       <c r="A170" s="9">
         <v>167</v>
       </c>
@@ -4583,7 +4728,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="32">
       <c r="A171" s="9">
         <v>168</v>
       </c>
@@ -4597,7 +4742,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="32">
       <c r="A172" s="9">
         <v>169</v>
       </c>
@@ -4611,7 +4756,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="16">
       <c r="A173" s="9">
         <v>170</v>
       </c>
@@ -4625,7 +4770,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="32">
       <c r="A174" s="9">
         <v>171</v>
       </c>
@@ -4639,7 +4784,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="32">
       <c r="A175" s="9">
         <v>172</v>
       </c>
@@ -4653,7 +4798,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="32">
       <c r="A176" s="9">
         <v>173</v>
       </c>
@@ -4667,7 +4812,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="32">
       <c r="A177" s="9">
         <v>174</v>
       </c>
@@ -4681,7 +4826,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="32">
       <c r="A178" s="9">
         <v>175</v>
       </c>
@@ -4695,7 +4840,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="32">
       <c r="A179" s="9">
         <v>176</v>
       </c>
@@ -4709,7 +4854,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="48">
       <c r="A180" s="9">
         <v>177</v>
       </c>
@@ -4723,7 +4868,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="32">
       <c r="A181" s="9">
         <v>178</v>
       </c>
@@ -4737,7 +4882,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="32">
       <c r="A182" s="9">
         <v>179</v>
       </c>
@@ -4751,7 +4896,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="32">
       <c r="A183" s="9">
         <v>180</v>
       </c>
@@ -4765,7 +4910,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="32">
       <c r="A184" s="9">
         <v>181</v>
       </c>
@@ -4779,7 +4924,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="32">
       <c r="A185" s="9">
         <v>182</v>
       </c>
@@ -4793,7 +4938,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="16">
       <c r="A186" s="9">
         <v>183</v>
       </c>
@@ -4807,7 +4952,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="32">
       <c r="A187" s="9">
         <v>184</v>
       </c>
@@ -4821,7 +4966,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="16">
       <c r="A188" s="9">
         <v>185</v>
       </c>
@@ -4835,7 +4980,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="16">
       <c r="A189" s="9">
         <v>186</v>
       </c>
@@ -4849,7 +4994,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="32">
       <c r="A190" s="9">
         <v>187</v>
       </c>
@@ -4863,7 +5008,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="16">
       <c r="A191" s="9">
         <v>188</v>
       </c>
@@ -4877,7 +5022,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="16">
       <c r="A192" s="9">
         <v>189</v>
       </c>
@@ -4891,7 +5036,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" ht="32">
       <c r="A193" s="9">
         <v>190</v>
       </c>
@@ -4905,7 +5050,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" ht="16">
       <c r="A194" s="9">
         <v>191</v>
       </c>
@@ -4919,7 +5064,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="195" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" ht="16">
       <c r="A195" s="9">
         <v>192</v>
       </c>
@@ -4936,7 +5081,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" ht="16">
       <c r="A196" s="9">
         <v>193</v>
       </c>
@@ -4950,7 +5095,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" ht="16">
       <c r="A197" s="9">
         <v>194</v>
       </c>
@@ -4964,7 +5109,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" ht="16">
       <c r="A198" s="9">
         <v>195</v>
       </c>
@@ -4978,7 +5123,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" ht="16">
       <c r="A199" s="9">
         <v>196</v>
       </c>
@@ -4992,7 +5137,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" ht="16">
       <c r="A200" s="9">
         <v>197</v>
       </c>
@@ -5006,7 +5151,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" ht="16">
       <c r="A201" s="9">
         <v>198</v>
       </c>
@@ -5020,7 +5165,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" ht="16">
       <c r="A202" s="9">
         <v>199</v>
       </c>
@@ -5034,7 +5179,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" ht="16">
       <c r="A203" s="9">
         <v>200</v>
       </c>
@@ -5048,7 +5193,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" ht="16">
       <c r="A204" s="9">
         <v>201</v>
       </c>
@@ -5062,7 +5207,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" ht="32">
       <c r="A205" s="9">
         <v>202</v>
       </c>
@@ -5076,7 +5221,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" ht="16">
       <c r="A206" s="9">
         <v>203</v>
       </c>
@@ -5090,7 +5235,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" ht="16">
       <c r="A207" s="9">
         <v>204</v>
       </c>
@@ -5107,7 +5252,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" ht="32">
       <c r="A208" s="8">
         <v>205</v>
       </c>
@@ -5121,7 +5266,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" ht="32">
       <c r="A209" s="8">
         <v>206</v>
       </c>
@@ -5135,7 +5280,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" ht="32">
       <c r="A210" s="8">
         <v>207</v>
       </c>
@@ -5152,7 +5297,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" ht="48">
       <c r="A211" s="8">
         <v>208</v>
       </c>
@@ -5166,7 +5311,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" ht="32">
       <c r="A212" s="8">
         <v>209</v>
       </c>
@@ -5180,7 +5325,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="213" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" ht="32">
       <c r="A213" s="8">
         <v>210</v>
       </c>
@@ -5194,7 +5339,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" ht="32">
       <c r="A214" s="8">
         <v>211</v>
       </c>
@@ -5208,7 +5353,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" ht="32">
       <c r="A215" s="8">
         <v>212</v>
       </c>
@@ -5225,7 +5370,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" ht="32">
       <c r="A216" s="8">
         <v>213</v>
       </c>
@@ -5239,7 +5384,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" ht="16">
       <c r="A217" s="8">
         <v>214</v>
       </c>
@@ -5253,7 +5398,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="218" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" ht="16">
       <c r="A218" s="8">
         <v>215</v>
       </c>
@@ -5267,7 +5412,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" ht="32">
       <c r="A219" s="9">
         <v>216</v>
       </c>
@@ -5281,7 +5426,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" ht="32">
       <c r="A220" s="9">
         <v>217</v>
       </c>
@@ -5295,7 +5440,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="221" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" ht="32">
       <c r="A221" s="9">
         <v>218</v>
       </c>
@@ -5312,7 +5457,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" ht="32">
       <c r="A222" s="9">
         <v>219</v>
       </c>
@@ -5326,7 +5471,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" ht="32">
       <c r="A223" s="9">
         <v>220</v>
       </c>
@@ -5340,7 +5485,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="224" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" ht="32">
       <c r="A224" s="9">
         <v>221</v>
       </c>
@@ -5354,7 +5499,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="230" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="18:18">
       <c r="R230" t="s">
         <v>415</v>
       </c>
@@ -5367,20 +5512,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5605,19 +5750,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtian/Documents/UTA/Spring 2025/CSE 3310/cse3310-sp25-002/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904C9C2F-7EE0-7544-BFC0-A5B13BBC8A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF1402B-DF28-EC4E-9381-E7DB09EA358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,43 +346,22 @@
     <t>BotI.java / isInsideBoard</t>
   </si>
   <si>
-    <t>The program shall display a waitlist of available players ready to play with their usernames and IDs in the order that the players joined.</t>
-  </si>
-  <si>
     <t>joingame/Waitlist.js/displayWaitlist()</t>
   </si>
   <si>
-    <t>The program shall display a button for a game against another user.</t>
-  </si>
-  <si>
     <t>webapp/index.html</t>
   </si>
   <si>
-    <t>The program shall display a button for a game against a bot.</t>
-  </si>
-  <si>
     <t>The program shall update the waitlist as players login and join/leave a game.</t>
   </si>
   <si>
     <t>joingame/Waitlist.js/add(), joingame/Waitlist.js/remove()</t>
   </si>
   <si>
-    <t>The program shall display a notification with updates to the waitlist.</t>
-  </si>
-  <si>
     <t>joingame/DisplayNotification.js/displayNotification()</t>
   </si>
   <si>
-    <t>The program will display a notification to the user when they are next to join a game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The program shall have display a button to spectate a game of 2 bots playing against each other. </t>
-  </si>
-  <si>
     <t>joingame/MatchMaker.js/requestSpectateBotVsBot()</t>
-  </si>
-  <si>
-    <t>The program will display players that choose to replay and new players at the bottom of the waitlist.</t>
   </si>
   <si>
     <t>The program will load usernames and IDs in waitlist and display them within 2 seconds of logging in/joining a game.</t>
@@ -1351,12 +1330,33 @@
   <si>
     <t>UI-JG-07</t>
   </si>
+  <si>
+    <t>The join game page shall display a waitlist of available players ready to play with their usernames and IDs in the order that the players joined under a section labeled 'Current Waitlist'.</t>
+  </si>
+  <si>
+    <t>The join game page shall display a button for a game against another user under a section labeled 'Choose a Game Mode'.</t>
+  </si>
+  <si>
+    <t>The join game page shall display a button for a game against a bot under a section labeled 'Choose a Game Mode'.</t>
+  </si>
+  <si>
+    <t>The join game page shall display a notification with updates to the waitlist under a section labeled 'Notifications'.</t>
+  </si>
+  <si>
+    <t>The join game page will display a notification indicating that the user is next to join a game under a section labeled 'Notifications'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The join game page shall have display a button to spectate a game of 2 bots playing against each other under a section labeled 'Choose a Game Mode'. </t>
+  </si>
+  <si>
+    <t>The join game page shall display new players and replaying players at the bottom (or start of the waitlist) under a section labeled 'Current Waitlist'.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1565,7 +1565,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>212</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
+      <xdr:rowOff>333376</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1612,7 +1612,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>2038350</xdr:colOff>
       <xdr:row>219</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1659,7 +1659,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>2400300</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1706,7 +1706,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1753,7 +1753,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>239</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1843,8 +1843,8 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>371656</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>118139</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>310564</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2216,11 +2216,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF76" sqref="AF76"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.33203125" style="1" customWidth="1"/>
@@ -2231,12 +2231,12 @@
     <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="16">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="48">
+    <row r="4" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="16">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="32">
+    <row r="7" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="16">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="32">
+    <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="32">
+    <row r="10" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="32">
+    <row r="11" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="16">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="16">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>11</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="32">
+    <row r="15" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>12</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="16">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>13</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="32">
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>14</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32">
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>15</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="32">
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="32">
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>17</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="32">
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>19</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="48">
+    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>20</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="32">
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>21</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="32">
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>22</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="48">
+    <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>23</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="32">
+    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>24</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="32">
+    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>25</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="48">
+    <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>26</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="32">
+    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>27</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="32">
+    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>28</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="32">
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>29</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="32">
+    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>30</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="32">
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>31</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="32">
+    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>32</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="48">
+    <row r="36" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>33</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="48">
+    <row r="37" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>34</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="64">
+    <row r="38" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>35</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="32">
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>36</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="32">
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>37</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="32">
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>38</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>39</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="32">
+    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>40</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="32">
+    <row r="44" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>41</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="32">
+    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>42</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="32">
+    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>43</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="48">
+    <row r="47" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>44</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="32">
+    <row r="48" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>45</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="32">
+    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>46</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="32">
+    <row r="50" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>47</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="32">
+    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>48</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="32">
+    <row r="52" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>49</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="48">
+    <row r="53" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>50</v>
       </c>
@@ -2997,16 +2997,16 @@
         <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>103</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="32">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>51</v>
       </c>
@@ -3014,16 +3014,16 @@
         <v>26</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>424</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="16">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>52</v>
       </c>
@@ -3031,16 +3031,16 @@
         <v>26</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>106</v>
+        <v>425</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="32">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>53</v>
       </c>
@@ -3048,16 +3048,16 @@
         <v>26</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="32">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>54</v>
       </c>
@@ -3065,16 +3065,16 @@
         <v>26</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>109</v>
+        <v>426</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="32">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>55</v>
       </c>
@@ -3082,16 +3082,16 @@
         <v>26</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>111</v>
+        <v>427</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="32">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>56</v>
       </c>
@@ -3099,16 +3099,16 @@
         <v>26</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>112</v>
+        <v>428</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="32">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>57</v>
       </c>
@@ -3116,16 +3116,16 @@
         <v>26</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>114</v>
+        <v>429</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="32">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>58</v>
       </c>
@@ -3133,16 +3133,16 @@
         <v>26</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="32">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>59</v>
       </c>
@@ -3150,16 +3150,16 @@
         <v>26</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="32">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>60</v>
       </c>
@@ -3167,16 +3167,16 @@
         <v>26</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="32">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>61</v>
       </c>
@@ -3184,16 +3184,16 @@
         <v>26</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="64">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>62</v>
       </c>
@@ -3201,16 +3201,16 @@
         <v>26</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="64">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>63</v>
       </c>
@@ -3218,16 +3218,16 @@
         <v>26</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="32">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>64</v>
       </c>
@@ -3235,16 +3235,16 @@
         <v>26</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="32">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>65</v>
       </c>
@@ -3252,16 +3252,16 @@
         <v>26</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="32">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>66</v>
       </c>
@@ -3269,16 +3269,16 @@
         <v>26</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="32">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>67</v>
       </c>
@@ -3286,16 +3286,16 @@
         <v>26</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="48">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>68</v>
       </c>
@@ -3303,16 +3303,16 @@
         <v>26</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="64">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>69</v>
       </c>
@@ -3320,16 +3320,16 @@
         <v>26</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="32">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>70</v>
       </c>
@@ -3337,13 +3337,13 @@
         <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>71</v>
       </c>
@@ -3351,13 +3351,13 @@
         <v>35</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="16">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>72</v>
       </c>
@@ -3365,13 +3365,13 @@
         <v>35</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>73</v>
       </c>
@@ -3379,13 +3379,13 @@
         <v>35</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="48">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>74</v>
       </c>
@@ -3393,13 +3393,13 @@
         <v>35</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="32">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>75</v>
       </c>
@@ -3407,13 +3407,13 @@
         <v>35</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="32">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>76</v>
       </c>
@@ -3421,13 +3421,13 @@
         <v>35</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="32">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>77</v>
       </c>
@@ -3435,13 +3435,13 @@
         <v>35</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="32">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>78</v>
       </c>
@@ -3449,13 +3449,13 @@
         <v>35</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="32">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>79</v>
       </c>
@@ -3463,13 +3463,13 @@
         <v>27</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="16">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>80</v>
       </c>
@@ -3477,13 +3477,13 @@
         <v>27</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="48">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>81</v>
       </c>
@@ -3491,16 +3491,16 @@
         <v>27</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="48">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>82</v>
       </c>
@@ -3508,16 +3508,16 @@
         <v>27</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="80">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>83</v>
       </c>
@@ -3525,16 +3525,16 @@
         <v>27</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="16">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>84</v>
       </c>
@@ -3542,16 +3542,16 @@
         <v>27</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="32">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>85</v>
       </c>
@@ -3559,13 +3559,13 @@
         <v>27</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="48">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>86</v>
       </c>
@@ -3573,13 +3573,13 @@
         <v>27</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="32">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>87</v>
       </c>
@@ -3587,16 +3587,16 @@
         <v>27</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="16">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>88</v>
       </c>
@@ -3604,13 +3604,13 @@
         <v>27</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="32">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>89</v>
       </c>
@@ -3618,16 +3618,16 @@
         <v>27</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="32">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>90</v>
       </c>
@@ -3635,13 +3635,13 @@
         <v>27</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="32">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>91</v>
       </c>
@@ -3649,13 +3649,13 @@
         <v>27</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="32">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>92</v>
       </c>
@@ -3663,13 +3663,13 @@
         <v>27</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="32">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>93</v>
       </c>
@@ -3677,13 +3677,13 @@
         <v>27</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="32">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>94</v>
       </c>
@@ -3691,13 +3691,13 @@
         <v>27</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="32">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>95</v>
       </c>
@@ -3705,13 +3705,13 @@
         <v>27</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="32">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>96</v>
       </c>
@@ -3719,13 +3719,13 @@
         <v>27</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="32">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>97</v>
       </c>
@@ -3733,13 +3733,13 @@
         <v>27</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="16">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>98</v>
       </c>
@@ -3747,13 +3747,13 @@
         <v>27</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="32">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>99</v>
       </c>
@@ -3761,13 +3761,13 @@
         <v>36</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="48">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>100</v>
       </c>
@@ -3775,13 +3775,13 @@
         <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="48">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>101</v>
       </c>
@@ -3789,13 +3789,13 @@
         <v>36</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="32">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>102</v>
       </c>
@@ -3803,13 +3803,13 @@
         <v>36</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="48">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>103</v>
       </c>
@@ -3817,13 +3817,13 @@
         <v>36</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="32">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>104</v>
       </c>
@@ -3831,13 +3831,13 @@
         <v>36</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="96">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
         <v>105</v>
       </c>
@@ -3845,13 +3845,13 @@
         <v>36</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="32">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>106</v>
       </c>
@@ -3859,13 +3859,13 @@
         <v>36</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="16">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
         <v>107</v>
       </c>
@@ -3873,13 +3873,13 @@
         <v>36</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="32">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>108</v>
       </c>
@@ -3887,13 +3887,13 @@
         <v>36</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="48">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>109</v>
       </c>
@@ -3901,13 +3901,13 @@
         <v>36</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="32">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>110</v>
       </c>
@@ -3915,13 +3915,13 @@
         <v>36</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="16">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>111</v>
       </c>
@@ -3929,13 +3929,13 @@
         <v>36</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="32">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>112</v>
       </c>
@@ -3943,13 +3943,13 @@
         <v>36</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="32">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
         <v>113</v>
       </c>
@@ -3957,13 +3957,13 @@
         <v>36</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="48">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>114</v>
       </c>
@@ -3971,13 +3971,13 @@
         <v>31</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="32">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
         <v>115</v>
       </c>
@@ -3985,13 +3985,13 @@
         <v>31</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="32">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>116</v>
       </c>
@@ -3999,13 +3999,13 @@
         <v>31</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="48">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
         <v>117</v>
       </c>
@@ -4013,13 +4013,13 @@
         <v>31</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="48">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
         <v>118</v>
       </c>
@@ -4027,13 +4027,13 @@
         <v>31</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="48">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>119</v>
       </c>
@@ -4041,13 +4041,13 @@
         <v>31</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="32">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
         <v>120</v>
       </c>
@@ -4055,13 +4055,13 @@
         <v>31</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="48">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
         <v>121</v>
       </c>
@@ -4069,13 +4069,13 @@
         <v>31</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="32">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>122</v>
       </c>
@@ -4083,13 +4083,13 @@
         <v>31</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="80">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
         <v>123</v>
       </c>
@@ -4097,13 +4097,13 @@
         <v>31</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="80">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A127" s="9">
         <v>124</v>
       </c>
@@ -4111,13 +4111,13 @@
         <v>31</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="48">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
         <v>125</v>
       </c>
@@ -4125,13 +4125,13 @@
         <v>31</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" ht="80">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
         <v>126</v>
       </c>
@@ -4139,13 +4139,13 @@
         <v>31</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" ht="48">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
         <v>127</v>
       </c>
@@ -4153,13 +4153,13 @@
         <v>31</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" ht="32">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" s="9">
         <v>128</v>
       </c>
@@ -4167,13 +4167,13 @@
         <v>30</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" ht="48">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A132" s="9">
         <v>129</v>
       </c>
@@ -4181,13 +4181,13 @@
         <v>30</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" ht="16">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
         <v>130</v>
       </c>
@@ -4195,13 +4195,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" ht="48">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A134" s="9">
         <v>131</v>
       </c>
@@ -4209,13 +4209,13 @@
         <v>30</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" ht="48">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
         <v>132</v>
       </c>
@@ -4223,13 +4223,13 @@
         <v>30</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" ht="32">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="9">
         <v>133</v>
       </c>
@@ -4237,13 +4237,13 @@
         <v>30</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="48">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A137" s="9">
         <v>134</v>
       </c>
@@ -4251,13 +4251,13 @@
         <v>30</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" ht="32">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="9">
         <v>135</v>
       </c>
@@ -4265,13 +4265,13 @@
         <v>30</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" ht="48">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" s="9">
         <v>136</v>
       </c>
@@ -4279,13 +4279,13 @@
         <v>30</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" ht="48">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A140" s="9">
         <v>137</v>
       </c>
@@ -4293,13 +4293,13 @@
         <v>30</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" ht="208">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" ht="208" x14ac:dyDescent="0.2">
       <c r="A141" s="9">
         <v>138</v>
       </c>
@@ -4307,13 +4307,13 @@
         <v>30</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" ht="16">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="9">
         <v>139</v>
       </c>
@@ -4321,19 +4321,19 @@
         <v>28</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="R142" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="48">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A143" s="9">
         <v>140</v>
       </c>
@@ -4341,16 +4341,16 @@
         <v>28</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="32">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="9">
         <v>141</v>
       </c>
@@ -4358,13 +4358,13 @@
         <v>28</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="9">
         <v>142</v>
       </c>
@@ -4372,13 +4372,13 @@
         <v>28</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="32">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="9">
         <v>143</v>
       </c>
@@ -4386,13 +4386,13 @@
         <v>28</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="32">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="9">
         <v>144</v>
       </c>
@@ -4400,13 +4400,13 @@
         <v>28</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="32">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="9">
         <v>145</v>
       </c>
@@ -4414,13 +4414,13 @@
         <v>28</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="16">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="9">
         <v>146</v>
       </c>
@@ -4428,13 +4428,13 @@
         <v>28</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="32">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="9">
         <v>147</v>
       </c>
@@ -4442,13 +4442,13 @@
         <v>28</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="32">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="9">
         <v>148</v>
       </c>
@@ -4456,13 +4456,13 @@
         <v>28</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="80">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A152" s="9">
         <v>149</v>
       </c>
@@ -4470,13 +4470,13 @@
         <v>29</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="48">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A153" s="9">
         <v>150</v>
       </c>
@@ -4484,13 +4484,13 @@
         <v>29</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="32">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="9">
         <v>151</v>
       </c>
@@ -4498,13 +4498,13 @@
         <v>29</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="48">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A155" s="9">
         <v>152</v>
       </c>
@@ -4512,13 +4512,13 @@
         <v>29</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="48">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A156" s="9">
         <v>153</v>
       </c>
@@ -4526,13 +4526,13 @@
         <v>29</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="32">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="9">
         <v>154</v>
       </c>
@@ -4540,13 +4540,13 @@
         <v>29</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="48">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A158" s="9">
         <v>155</v>
       </c>
@@ -4554,13 +4554,13 @@
         <v>29</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="48">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A159" s="9">
         <v>156</v>
       </c>
@@ -4568,13 +4568,13 @@
         <v>29</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="48">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A160" s="9">
         <v>157</v>
       </c>
@@ -4582,13 +4582,13 @@
         <v>29</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="48">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A161" s="9">
         <v>158</v>
       </c>
@@ -4596,13 +4596,13 @@
         <v>29</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="48">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A162" s="9">
         <v>159</v>
       </c>
@@ -4610,13 +4610,13 @@
         <v>29</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="48">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A163" s="9">
         <v>160</v>
       </c>
@@ -4624,13 +4624,13 @@
         <v>29</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="48">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A164" s="9">
         <v>161</v>
       </c>
@@ -4638,13 +4638,13 @@
         <v>29</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="32">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" s="9">
         <v>162</v>
       </c>
@@ -4652,13 +4652,13 @@
         <v>29</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="48">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A166" s="9">
         <v>163</v>
       </c>
@@ -4666,13 +4666,13 @@
         <v>29</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="48">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A167" s="9">
         <v>164</v>
       </c>
@@ -4680,13 +4680,13 @@
         <v>29</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="48">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A168" s="9">
         <v>165</v>
       </c>
@@ -4694,13 +4694,13 @@
         <v>29</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="32">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="9">
         <v>166</v>
       </c>
@@ -4708,13 +4708,13 @@
         <v>29</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="48">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A170" s="9">
         <v>167</v>
       </c>
@@ -4722,13 +4722,13 @@
         <v>29</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="32">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" s="9">
         <v>168</v>
       </c>
@@ -4736,13 +4736,13 @@
         <v>29</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="32">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="9">
         <v>169</v>
       </c>
@@ -4750,13 +4750,13 @@
         <v>32</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="16">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="9">
         <v>170</v>
       </c>
@@ -4764,13 +4764,13 @@
         <v>32</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="32">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="9">
         <v>171</v>
       </c>
@@ -4778,13 +4778,13 @@
         <v>32</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="32">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A175" s="9">
         <v>172</v>
       </c>
@@ -4792,13 +4792,13 @@
         <v>32</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="32">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="9">
         <v>173</v>
       </c>
@@ -4806,13 +4806,13 @@
         <v>32</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="32">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A177" s="9">
         <v>174</v>
       </c>
@@ -4820,13 +4820,13 @@
         <v>32</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="32">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="9">
         <v>175</v>
       </c>
@@ -4834,13 +4834,13 @@
         <v>32</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="32">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="9">
         <v>176</v>
       </c>
@@ -4848,13 +4848,13 @@
         <v>32</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="48">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A180" s="9">
         <v>177</v>
       </c>
@@ -4862,13 +4862,13 @@
         <v>32</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="32">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="9">
         <v>178</v>
       </c>
@@ -4876,13 +4876,13 @@
         <v>32</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="32">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="9">
         <v>179</v>
       </c>
@@ -4890,13 +4890,13 @@
         <v>32</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="32">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A183" s="9">
         <v>180</v>
       </c>
@@ -4904,13 +4904,13 @@
         <v>32</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="32">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="9">
         <v>181</v>
       </c>
@@ -4918,13 +4918,13 @@
         <v>32</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="32">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="9">
         <v>182</v>
       </c>
@@ -4932,13 +4932,13 @@
         <v>32</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="16">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="9">
         <v>183</v>
       </c>
@@ -4946,13 +4946,13 @@
         <v>32</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="32">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" s="9">
         <v>184</v>
       </c>
@@ -4960,13 +4960,13 @@
         <v>32</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="16">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="9">
         <v>185</v>
       </c>
@@ -4974,13 +4974,13 @@
         <v>32</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="16">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="9">
         <v>186</v>
       </c>
@@ -4988,13 +4988,13 @@
         <v>32</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="32">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="9">
         <v>187</v>
       </c>
@@ -5002,13 +5002,13 @@
         <v>32</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="16">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="9">
         <v>188</v>
       </c>
@@ -5016,13 +5016,13 @@
         <v>32</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="16">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="9">
         <v>189</v>
       </c>
@@ -5030,13 +5030,13 @@
         <v>32</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18" ht="32">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="9">
         <v>190</v>
       </c>
@@ -5044,13 +5044,13 @@
         <v>32</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18" ht="16">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="9">
         <v>191</v>
       </c>
@@ -5058,13 +5058,13 @@
         <v>32</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" ht="16">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="9">
         <v>192</v>
       </c>
@@ -5072,16 +5072,16 @@
         <v>32</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" ht="16">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="9">
         <v>193</v>
       </c>
@@ -5089,13 +5089,13 @@
         <v>32</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18" ht="16">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="9">
         <v>194</v>
       </c>
@@ -5103,13 +5103,13 @@
         <v>32</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18" ht="16">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="9">
         <v>195</v>
       </c>
@@ -5117,13 +5117,13 @@
         <v>32</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18" ht="16">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="9">
         <v>196</v>
       </c>
@@ -5131,13 +5131,13 @@
         <v>32</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18" ht="16">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="9">
         <v>197</v>
       </c>
@@ -5145,13 +5145,13 @@
         <v>32</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18" ht="16">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="9">
         <v>198</v>
       </c>
@@ -5159,13 +5159,13 @@
         <v>32</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18" ht="16">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="9">
         <v>199</v>
       </c>
@@ -5173,13 +5173,13 @@
         <v>32</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18" ht="16">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="9">
         <v>200</v>
       </c>
@@ -5187,13 +5187,13 @@
         <v>32</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18" ht="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="9">
         <v>201</v>
       </c>
@@ -5201,13 +5201,13 @@
         <v>32</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" ht="32">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="9">
         <v>202</v>
       </c>
@@ -5215,13 +5215,13 @@
         <v>32</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18" ht="16">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="9">
         <v>203</v>
       </c>
@@ -5229,13 +5229,13 @@
         <v>32</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="207" spans="1:18" ht="16">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="9">
         <v>204</v>
       </c>
@@ -5243,16 +5243,16 @@
         <v>32</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="R207" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18" ht="32">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" s="8">
         <v>205</v>
       </c>
@@ -5260,13 +5260,13 @@
         <v>25</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" ht="32">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A209" s="8">
         <v>206</v>
       </c>
@@ -5274,13 +5274,13 @@
         <v>25</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" ht="32">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="8">
         <v>207</v>
       </c>
@@ -5288,16 +5288,16 @@
         <v>25</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="R210" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" ht="48">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A211" s="8">
         <v>208</v>
       </c>
@@ -5305,13 +5305,13 @@
         <v>25</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18" ht="32">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="8">
         <v>209</v>
       </c>
@@ -5319,13 +5319,13 @@
         <v>25</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" ht="32">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A213" s="8">
         <v>210</v>
       </c>
@@ -5333,13 +5333,13 @@
         <v>25</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" ht="32">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="8">
         <v>211</v>
       </c>
@@ -5347,13 +5347,13 @@
         <v>25</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18" ht="32">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="8">
         <v>212</v>
       </c>
@@ -5361,16 +5361,16 @@
         <v>25</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="R215" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" ht="32">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A216" s="8">
         <v>213</v>
       </c>
@@ -5378,13 +5378,13 @@
         <v>25</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" ht="16">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="8">
         <v>214</v>
       </c>
@@ -5392,13 +5392,13 @@
         <v>25</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" ht="16">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="8">
         <v>215</v>
       </c>
@@ -5406,13 +5406,13 @@
         <v>25</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" ht="32">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="9">
         <v>216</v>
       </c>
@@ -5420,13 +5420,13 @@
         <v>25</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" ht="32">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="9">
         <v>217</v>
       </c>
@@ -5434,13 +5434,13 @@
         <v>25</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" ht="32">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" s="9">
         <v>218</v>
       </c>
@@ -5448,16 +5448,16 @@
         <v>25</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="R221" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" ht="32">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="9">
         <v>219</v>
       </c>
@@ -5465,13 +5465,13 @@
         <v>25</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" ht="32">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="9">
         <v>220</v>
       </c>
@@ -5479,13 +5479,13 @@
         <v>25</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" ht="32">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="9">
         <v>221</v>
       </c>
@@ -5493,15 +5493,15 @@
         <v>25</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="230" spans="18:18">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="230" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R230" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtian/Documents/UTA/Spring 2025/CSE 3310/cse3310-sp25-002/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlbea\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF1402B-DF28-EC4E-9381-E7DB09EA358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B11662E-824F-4BA4-A649-0246A6308B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,47 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="428">
   <si>
     <t>Tested By</t>
   </si>
   <si>
-    <t>group 1</t>
-  </si>
-  <si>
-    <t>group 2</t>
-  </si>
-  <si>
-    <t>group 3</t>
-  </si>
-  <si>
-    <t>group 4</t>
-  </si>
-  <si>
-    <t>group 5</t>
-  </si>
-  <si>
-    <t>group 6</t>
-  </si>
-  <si>
-    <t>group 7</t>
-  </si>
-  <si>
-    <t>group 8</t>
-  </si>
-  <si>
-    <t>group 9</t>
-  </si>
-  <si>
-    <t>group 10</t>
-  </si>
-  <si>
-    <t>group 11</t>
-  </si>
-  <si>
-    <t>group 12</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -93,20 +57,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The page shall show all
-available players in as a list
-on the Join Game page.</t>
-  </si>
-  <si>
-    <t>displayPlayers()</t>
-  </si>
-  <si>
-    <t>UI001</t>
-  </si>
-  <si>
-    <t>test 1, steps 10-20</t>
   </si>
   <si>
     <t>cut and paste the screenshot of each page in this part of the spreadsheet, please. use as much space is needed.</t>
@@ -1351,12 +1301,54 @@
   <si>
     <t>The join game page shall display new players and replaying players at the bottom (or start of the waitlist) under a section labeled 'Current Waitlist'.</t>
   </si>
+  <si>
+    <t>group 1 (Group 25)</t>
+  </si>
+  <si>
+    <t>group 2 (Group 26)</t>
+  </si>
+  <si>
+    <t>group 3 (Group 27)</t>
+  </si>
+  <si>
+    <t>group 4 (Group 28)</t>
+  </si>
+  <si>
+    <t>group 5 (Group 29)</t>
+  </si>
+  <si>
+    <t>group 6 (Group 30)</t>
+  </si>
+  <si>
+    <t>group 7 (Group 31)</t>
+  </si>
+  <si>
+    <t>group 8 (Group 32)</t>
+  </si>
+  <si>
+    <t>group 9 (Group 33)</t>
+  </si>
+  <si>
+    <t>group 10 (Group 34)</t>
+  </si>
+  <si>
+    <t>group 11 (Group 35)</t>
+  </si>
+  <si>
+    <t>group 12 (Group 36)</t>
+  </si>
+  <si>
+    <t>Not Testable</t>
+  </si>
+  <si>
+    <t>Duplicate Requirement (139)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1381,6 +1373,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1472,9 +1470,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
+      <xdr:colOff>311149</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>716794</xdr:rowOff>
+      <xdr:rowOff>716795</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1565,7 +1563,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>212</xdr:row>
-      <xdr:rowOff>333376</xdr:rowOff>
+      <xdr:rowOff>333377</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1659,7 +1657,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>2400300</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1704,9 +1702,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>171449</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1751,9 +1749,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>66674</xdr:colOff>
       <xdr:row>239</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1798,9 +1796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>381889</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>372271</xdr:rowOff>
+      <xdr:colOff>381888</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1842,9 +1840,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>371656</xdr:colOff>
+      <xdr:colOff>371655</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>310564</xdr:rowOff>
+      <xdr:rowOff>310563</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2216,3295 +2214,3644 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="F2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I2" t="s">
+        <v>417</v>
+      </c>
+      <c r="J2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K2" t="s">
+        <v>419</v>
+      </c>
+      <c r="L2" t="s">
+        <v>420</v>
+      </c>
+      <c r="M2" t="s">
+        <v>421</v>
+      </c>
+      <c r="N2" t="s">
+        <v>422</v>
+      </c>
+      <c r="O2" t="s">
+        <v>423</v>
+      </c>
+      <c r="P2" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="4" spans="1:19" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="D4" s="10"/>
+      <c r="S4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A5" s="9">
         <v>1</v>
-      </c>
-      <c r="B4" s="8">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>2</v>
       </c>
       <c r="B5" s="9">
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="9">
         <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="O6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="9">
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="9">
         <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="9">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="9">
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="9">
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="O11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="9">
         <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="O12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="9">
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="9">
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="9">
         <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="O15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="9">
         <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="O16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="9">
         <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="9">
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="O18" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="9">
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="O19" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="9">
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="O20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="9">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="O21" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="9">
         <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="O22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="9">
         <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="O23" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="9">
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="9">
         <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="9">
         <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="O26" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="9">
         <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O27" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="9">
         <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="O28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="9">
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="O29" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="9">
         <v>33</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="9">
         <v>33</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="O31" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="9">
         <v>33</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="O32" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="9">
         <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="O33" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="9">
         <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="9">
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="O35" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="9">
         <v>33</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="O36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="9">
         <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="O37" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A38" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="9">
         <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="O38" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="9">
         <v>33</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="O39" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="9">
         <v>33</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="9">
         <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="O41" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="9">
         <v>33</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="O42" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="9">
         <v>33</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="O43" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="9">
         <v>33</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="9">
         <v>33</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A46" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="9">
         <v>33</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="O46" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A47" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="9">
         <v>33</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="O47" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="9">
         <v>33</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="O48" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="9">
         <v>33</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="O49" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="9">
         <v>33</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="O50" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="9">
         <v>33</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="O51" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="9">
         <v>33</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A53" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="9">
         <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A54" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="9">
         <v>26</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A55" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="9">
         <v>26</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A56" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="9">
         <v>26</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A57" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="9">
         <v>26</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A58" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="9">
         <v>26</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A59" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="9">
         <v>26</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A60" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="9">
         <v>26</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A61" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="9">
         <v>26</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A62" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="9">
         <v>26</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+      <c r="O62" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A63" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="9">
         <v>26</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+      <c r="O63" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A64" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="9">
         <v>26</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+      <c r="O64" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A65" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="9">
         <v>26</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+      <c r="O65" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A66" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="9">
         <v>26</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+      <c r="O66" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A67" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="9">
         <v>26</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A68" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="9">
         <v>26</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="9">
         <v>26</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+      <c r="O69" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A70" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="9">
         <v>26</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+      <c r="O70" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A71" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" s="9">
         <v>26</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+      <c r="O71" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A72" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="9">
         <v>26</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+      <c r="O72" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A73" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="9">
         <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A74" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="9">
         <v>35</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="9">
         <v>35</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A76" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" s="9">
         <v>35</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A77" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="9">
         <v>35</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="O77" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A78" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="9">
         <v>35</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="O78" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A79" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="9">
         <v>35</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="O79" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A80" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" s="9">
         <v>35</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="O80" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A81" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" s="9">
         <v>35</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="O81" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A82" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82" s="9">
         <v>27</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="O82" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A83" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="9">
         <v>27</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A84" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="9">
         <v>27</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A85" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="9">
         <v>27</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A86" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="9">
         <v>27</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A87" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="9">
         <v>27</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A88" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" s="9">
         <v>27</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="O88" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A89" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" s="9">
         <v>27</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A90" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="9">
         <v>27</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A91" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" s="9">
         <v>27</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A92" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" s="9">
         <v>27</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A93" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" s="9">
         <v>27</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="O93" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A94" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" s="9">
         <v>27</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="O94" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A95" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95" s="9">
         <v>27</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A96" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="9">
         <v>27</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A97" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97" s="9">
         <v>27</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="O97" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A98" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" s="9">
         <v>27</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A99" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99" s="9">
         <v>27</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A100" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100" s="9">
         <v>27</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A101" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="9">
         <v>27</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="O101" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A102" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="9">
         <v>36</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="O102" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A103" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" s="9">
         <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A104" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B104" s="9">
         <v>36</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A105" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B105" s="9">
         <v>36</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A106" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B106" s="9">
         <v>36</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="O106" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A107" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B107" s="9">
         <v>36</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A108" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B108" s="9">
         <v>36</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A109" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109" s="9">
         <v>36</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A110" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B110" s="9">
         <v>36</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A111" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B111" s="9">
         <v>36</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A112" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" s="9">
         <v>36</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A113" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113" s="9">
         <v>36</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A114" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B114" s="9">
         <v>36</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A115" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B115" s="9">
         <v>36</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A116" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B116" s="9">
         <v>36</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="O116" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A117" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B117" s="9">
         <v>31</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A118" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B118" s="9">
         <v>31</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A119" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B119" s="9">
         <v>31</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A120" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B120" s="9">
         <v>31</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="O120" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A121" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B121" s="9">
         <v>31</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="O121" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A122" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B122" s="9">
         <v>31</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="O122" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A123" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B123" s="9">
         <v>31</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="O123" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A124" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B124" s="9">
         <v>31</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A125" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B125" s="9">
         <v>31</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="O125" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A126" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B126" s="9">
         <v>31</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="O126" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A127" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B127" s="9">
         <v>31</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A128" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B128" s="9">
         <v>31</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A129" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B129" s="9">
         <v>31</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="O129" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A130" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B130" s="9">
         <v>31</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A131" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B131" s="9">
         <v>30</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="O131" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A132" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B132" s="9">
         <v>30</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="O132" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A133" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B133" s="9">
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="O133" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A134" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B134" s="9">
         <v>30</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="O134" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A135" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B135" s="9">
         <v>30</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A136" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B136" s="9">
         <v>30</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A137" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B137" s="9">
         <v>30</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="O137" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A138" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B138" s="9">
         <v>30</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="O138" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A139" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B139" s="9">
         <v>30</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A140" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B140" s="9">
         <v>30</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" ht="208" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="O140" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A141" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" s="9">
         <v>30</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="O141" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A142" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B142" s="9">
         <v>28</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="R142" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A143" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B143" s="9">
         <v>28</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="O143" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A144" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144" s="9">
         <v>28</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A145" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B145" s="9">
         <v>28</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A146" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B146" s="9">
         <v>28</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A147" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B147" s="9">
         <v>28</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A148" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B148" s="9">
         <v>28</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="O148" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A149" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B149" s="9">
         <v>28</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="O149" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A150" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B150" s="9">
         <v>28</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A151" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B151" s="9">
         <v>28</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A152" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B152" s="9">
         <v>29</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="O152" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A153" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B153" s="9">
         <v>29</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="O153" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A154" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B154" s="9">
         <v>29</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A155" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B155" s="9">
         <v>29</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A156" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B156" s="9">
         <v>29</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="O156" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A157" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B157" s="9">
         <v>29</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="O157" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A158" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B158" s="9">
         <v>29</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="O158" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A159" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B159" s="9">
         <v>29</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="O159" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A160" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B160" s="9">
         <v>29</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="O160" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A161" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B161" s="9">
         <v>29</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="O161" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A162" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B162" s="9">
         <v>29</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A163" s="9">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B163" s="9">
         <v>29</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="O163" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A164" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B164" s="9">
         <v>29</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A165" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B165" s="9">
         <v>29</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A166" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B166" s="9">
         <v>29</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="O166" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A167" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B167" s="9">
         <v>29</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A168" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B168" s="9">
         <v>29</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A169" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B169" s="9">
         <v>29</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="O169" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A170" s="9">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B170" s="9">
         <v>29</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="O170" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A171" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B171" s="9">
         <v>29</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="O171" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A172" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B172" s="9">
         <v>32</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="O172" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A173" s="9">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B173" s="9">
         <v>32</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="O173" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A174" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B174" s="9">
         <v>32</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="O174" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A175" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B175" s="9">
         <v>32</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A176" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B176" s="9">
         <v>32</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A177" s="9">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B177" s="9">
         <v>32</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A178" s="9">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B178" s="9">
         <v>32</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A179" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B179" s="9">
         <v>32</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="O179" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A180" s="9">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B180" s="9">
         <v>32</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A181" s="9">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B181" s="9">
         <v>32</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A182" s="9">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B182" s="9">
         <v>32</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="O182" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A183" s="9">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B183" s="9">
         <v>32</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="O183" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A184" s="9">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B184" s="9">
         <v>32</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+      <c r="O184" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A185" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B185" s="9">
         <v>32</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="O185" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A186" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B186" s="9">
         <v>32</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="O186" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A187" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B187" s="9">
         <v>32</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+      <c r="O187" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A188" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B188" s="9">
         <v>32</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="O188" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A189" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B189" s="9">
         <v>32</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+      <c r="O189" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A190" s="9">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B190" s="9">
         <v>32</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="O190" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A191" s="9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B191" s="9">
         <v>32</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+      <c r="O191" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A192" s="9">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B192" s="9">
         <v>32</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="O192" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A193" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B193" s="9">
         <v>32</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="O193" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A194" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B194" s="9">
         <v>32</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="O194" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A195" s="9">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B195" s="9">
         <v>32</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A196" s="9">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B196" s="9">
         <v>32</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+      <c r="O196" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A197" s="9">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B197" s="9">
         <v>32</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+      <c r="O197" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A198" s="9">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B198" s="9">
         <v>32</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="O198" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A199" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B199" s="9">
         <v>32</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="O199" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A200" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B200" s="9">
         <v>32</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="O200" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A201" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B201" s="9">
         <v>32</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="O201" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A202" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B202" s="9">
         <v>32</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="O202" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A203" s="9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B203" s="9">
         <v>32</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="O203" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A204" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B204" s="9">
         <v>32</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A205" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B205" s="9">
         <v>32</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+      <c r="O205" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A206" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B206" s="9">
         <v>32</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="207" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+      <c r="O206" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A207" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B207" s="9">
         <v>32</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>372</v>
+        <v>356</v>
+      </c>
+      <c r="O207" t="s">
+        <v>426</v>
       </c>
       <c r="R207" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18" ht="32" x14ac:dyDescent="0.2">
-      <c r="A208" s="8">
-        <v>205</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A208" s="9">
+        <v>204</v>
       </c>
       <c r="B208" s="8">
         <v>25</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" ht="32" x14ac:dyDescent="0.2">
-      <c r="A209" s="8">
-        <v>206</v>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A209" s="9">
+        <v>205</v>
       </c>
       <c r="B209" s="8">
         <v>25</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" ht="32" x14ac:dyDescent="0.2">
-      <c r="A210" s="8">
-        <v>207</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A210" s="9">
+        <v>206</v>
       </c>
       <c r="B210" s="8">
         <v>25</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="R210" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" ht="48" x14ac:dyDescent="0.2">
-      <c r="A211" s="8">
-        <v>208</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A211" s="9">
+        <v>207</v>
       </c>
       <c r="B211" s="8">
         <v>25</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18" ht="32" x14ac:dyDescent="0.2">
-      <c r="A212" s="8">
-        <v>209</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A212" s="9">
+        <v>208</v>
       </c>
       <c r="B212" s="8">
         <v>25</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" ht="32" x14ac:dyDescent="0.2">
-      <c r="A213" s="8">
-        <v>210</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A213" s="9">
+        <v>209</v>
       </c>
       <c r="B213" s="8">
         <v>25</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" ht="32" x14ac:dyDescent="0.2">
-      <c r="A214" s="8">
-        <v>211</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A214" s="9">
+        <v>210</v>
       </c>
       <c r="B214" s="8">
         <v>25</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18" ht="32" x14ac:dyDescent="0.2">
-      <c r="A215" s="8">
-        <v>212</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A215" s="9">
+        <v>211</v>
       </c>
       <c r="B215" s="8">
         <v>25</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="R215" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" ht="32" x14ac:dyDescent="0.2">
-      <c r="A216" s="8">
-        <v>213</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A216" s="9">
+        <v>212</v>
       </c>
       <c r="B216" s="8">
         <v>25</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="8">
-        <v>214</v>
+        <v>376</v>
+      </c>
+      <c r="O216" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A217" s="9">
+        <v>213</v>
       </c>
       <c r="B217" s="8">
         <v>25</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A218" s="8">
-        <v>215</v>
+        <v>376</v>
+      </c>
+      <c r="O217" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A218" s="9">
+        <v>214</v>
       </c>
       <c r="B218" s="8">
         <v>25</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+      <c r="O218" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A219" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B219" s="9">
         <v>25</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A220" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B220" s="9">
         <v>25</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A221" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B221" s="9">
         <v>25</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="R221" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A222" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B222" s="9">
         <v>25</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A223" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B223" s="9">
         <v>25</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A224" s="9">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B224" s="9">
         <v>25</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="230" spans="18:18" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="230" spans="18:18" x14ac:dyDescent="0.45">
       <c r="R230" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5512,23 +5859,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDD0FC4969DCF4449136D2C873E795D1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c6f44795faba901663e8a9bf3a6322e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d2c32087-eb03-4a65-b505-380146e007a4" xmlns:ns4="2f381668-55bb-4cca-a2e9-7746dbcfba3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7caa3c07606457882248d14e3a3261f4" ns3:_="" ns4:_="">
     <xsd:import namespace="d2c32087-eb03-4a65-b505-380146e007a4"/>
@@ -5749,25 +6079,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8DC07DF-80B7-4F51-9B64-7871291DEDB3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5784,4 +6113,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlbea\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaitlynnhernandez/cse3310/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B11662E-824F-4BA4-A649-0246A6308B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D752495-C71D-8C45-B98B-495BBB835987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="429">
   <si>
     <t>Tested By</t>
   </si>
@@ -1342,6 +1342,9 @@
   </si>
   <si>
     <t>Duplicate Requirement (139)</t>
+  </si>
+  <si>
+    <t>Unable to Test</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1442,6 +1445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1796,7 +1800,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>381888</xdr:colOff>
+      <xdr:colOff>381889</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:to>
@@ -2214,30 +2218,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
         <v>414</v>
       </c>
@@ -2275,7 +2279,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -2295,7 +2299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="D4" s="10"/>
@@ -2303,7 +2307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -2316,11 +2320,14 @@
       <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="N5" t="s">
+        <v>428</v>
+      </c>
       <c r="O5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -2333,11 +2340,14 @@
       <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="N6" t="s">
+        <v>428</v>
+      </c>
       <c r="O6" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -2351,7 +2361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -2365,7 +2375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -2379,7 +2389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -2393,7 +2403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -2406,11 +2416,14 @@
       <c r="D11" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="N11" t="s">
+        <v>428</v>
+      </c>
       <c r="O11" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -2423,11 +2436,14 @@
       <c r="D12" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="N12" t="s">
+        <v>428</v>
+      </c>
       <c r="O12" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -2441,7 +2457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -2455,7 +2471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -2468,11 +2484,14 @@
       <c r="D15" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="N15" t="s">
+        <v>428</v>
+      </c>
       <c r="O15" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -2485,11 +2504,14 @@
       <c r="D16" s="10" t="s">
         <v>25</v>
       </c>
+      <c r="N16" t="s">
+        <v>428</v>
+      </c>
       <c r="O16" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -2502,11 +2524,14 @@
       <c r="D17" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="N17" t="s">
+        <v>428</v>
+      </c>
       <c r="O17" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -2519,11 +2544,14 @@
       <c r="D18" s="10" t="s">
         <v>25</v>
       </c>
+      <c r="N18" t="s">
+        <v>428</v>
+      </c>
       <c r="O18" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -2536,11 +2564,14 @@
       <c r="D19" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="N19" t="s">
+        <v>428</v>
+      </c>
       <c r="O19" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>16</v>
       </c>
@@ -2553,11 +2584,14 @@
       <c r="D20" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="N20" t="s">
+        <v>428</v>
+      </c>
       <c r="O20" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>17</v>
       </c>
@@ -2570,11 +2604,14 @@
       <c r="D21" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="N21" t="s">
+        <v>428</v>
+      </c>
       <c r="O21" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -2587,11 +2624,14 @@
       <c r="D22" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="N22" t="s">
+        <v>428</v>
+      </c>
       <c r="O22" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>19</v>
       </c>
@@ -2604,11 +2644,14 @@
       <c r="D23" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="N23" t="s">
+        <v>428</v>
+      </c>
       <c r="O23" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>20</v>
       </c>
@@ -2622,7 +2665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>21</v>
       </c>
@@ -2636,7 +2679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>22</v>
       </c>
@@ -2649,11 +2692,14 @@
       <c r="D26" s="10" t="s">
         <v>39</v>
       </c>
+      <c r="N26" t="s">
+        <v>428</v>
+      </c>
       <c r="O26" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>23</v>
       </c>
@@ -2666,11 +2712,14 @@
       <c r="D27" s="10" t="s">
         <v>41</v>
       </c>
+      <c r="N27" t="s">
+        <v>428</v>
+      </c>
       <c r="O27" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>24</v>
       </c>
@@ -2683,11 +2732,14 @@
       <c r="D28" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="N28" t="s">
+        <v>428</v>
+      </c>
       <c r="O28" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -2700,11 +2752,14 @@
       <c r="D29" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="N29" t="s">
+        <v>428</v>
+      </c>
       <c r="O29" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>26</v>
       </c>
@@ -2718,7 +2773,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>27</v>
       </c>
@@ -2731,11 +2786,14 @@
       <c r="D31" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="N31" t="s">
+        <v>428</v>
+      </c>
       <c r="O31" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>28</v>
       </c>
@@ -2748,11 +2806,14 @@
       <c r="D32" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="N32" t="s">
+        <v>428</v>
+      </c>
       <c r="O32" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -2765,11 +2826,14 @@
       <c r="D33" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="N33" t="s">
+        <v>428</v>
+      </c>
       <c r="O33" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -2783,7 +2847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -2796,11 +2860,14 @@
       <c r="D35" s="10" t="s">
         <v>53</v>
       </c>
+      <c r="N35" t="s">
+        <v>428</v>
+      </c>
       <c r="O35" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -2813,11 +2880,14 @@
       <c r="D36" s="10" t="s">
         <v>55</v>
       </c>
+      <c r="N36" t="s">
+        <v>428</v>
+      </c>
       <c r="O36" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -2830,11 +2900,14 @@
       <c r="D37" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="N37" t="s">
+        <v>428</v>
+      </c>
       <c r="O37" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -2847,11 +2920,14 @@
       <c r="D38" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="N38" t="s">
+        <v>428</v>
+      </c>
       <c r="O38" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -2864,11 +2940,14 @@
       <c r="D39" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="N39" t="s">
+        <v>428</v>
+      </c>
       <c r="O39" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -2882,7 +2961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>37</v>
       </c>
@@ -2895,11 +2974,14 @@
       <c r="D41" s="10" t="s">
         <v>63</v>
       </c>
+      <c r="N41" t="s">
+        <v>428</v>
+      </c>
       <c r="O41" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -2912,11 +2994,14 @@
       <c r="D42" s="10" t="s">
         <v>65</v>
       </c>
+      <c r="N42" t="s">
+        <v>428</v>
+      </c>
       <c r="O42" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -2929,11 +3014,14 @@
       <c r="D43" s="10" t="s">
         <v>67</v>
       </c>
+      <c r="N43" t="s">
+        <v>428</v>
+      </c>
       <c r="O43" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>40</v>
       </c>
@@ -2947,7 +3035,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>41</v>
       </c>
@@ -2961,7 +3049,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>42</v>
       </c>
@@ -2974,11 +3062,14 @@
       <c r="D46" s="10" t="s">
         <v>73</v>
       </c>
+      <c r="N46" t="s">
+        <v>428</v>
+      </c>
       <c r="O46" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>43</v>
       </c>
@@ -2991,11 +3082,14 @@
       <c r="D47" s="10" t="s">
         <v>75</v>
       </c>
+      <c r="N47" t="s">
+        <v>428</v>
+      </c>
       <c r="O47" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>44</v>
       </c>
@@ -3008,11 +3102,14 @@
       <c r="D48" s="10" t="s">
         <v>77</v>
       </c>
+      <c r="N48" t="s">
+        <v>428</v>
+      </c>
       <c r="O48" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>45</v>
       </c>
@@ -3025,11 +3122,14 @@
       <c r="D49" s="10" t="s">
         <v>79</v>
       </c>
+      <c r="N49" t="s">
+        <v>428</v>
+      </c>
       <c r="O49" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>46</v>
       </c>
@@ -3042,11 +3142,14 @@
       <c r="D50" s="10" t="s">
         <v>81</v>
       </c>
+      <c r="N50" t="s">
+        <v>428</v>
+      </c>
       <c r="O50" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>47</v>
       </c>
@@ -3059,11 +3162,14 @@
       <c r="D51" s="10" t="s">
         <v>83</v>
       </c>
+      <c r="N51" t="s">
+        <v>428</v>
+      </c>
       <c r="O51" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>48</v>
       </c>
@@ -3077,7 +3183,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>49</v>
       </c>
@@ -3094,7 +3200,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>50</v>
       </c>
@@ -3111,7 +3217,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>51</v>
       </c>
@@ -3128,7 +3234,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>52</v>
       </c>
@@ -3145,7 +3251,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>53</v>
       </c>
@@ -3162,7 +3268,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>54</v>
       </c>
@@ -3179,7 +3285,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>55</v>
       </c>
@@ -3196,7 +3302,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>56</v>
       </c>
@@ -3213,7 +3319,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>57</v>
       </c>
@@ -3230,7 +3336,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>58</v>
       </c>
@@ -3246,11 +3352,14 @@
       <c r="E62" s="1" t="s">
         <v>402</v>
       </c>
+      <c r="N62" t="s">
+        <v>428</v>
+      </c>
       <c r="O62" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>59</v>
       </c>
@@ -3266,11 +3375,14 @@
       <c r="E63" s="1" t="s">
         <v>402</v>
       </c>
+      <c r="N63" t="s">
+        <v>428</v>
+      </c>
       <c r="O63" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>60</v>
       </c>
@@ -3286,11 +3398,14 @@
       <c r="E64" s="1" t="s">
         <v>402</v>
       </c>
+      <c r="N64" t="s">
+        <v>428</v>
+      </c>
       <c r="O64" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>61</v>
       </c>
@@ -3306,11 +3421,14 @@
       <c r="E65" s="1" t="s">
         <v>402</v>
       </c>
+      <c r="N65" t="s">
+        <v>428</v>
+      </c>
       <c r="O65" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>62</v>
       </c>
@@ -3326,11 +3444,14 @@
       <c r="E66" s="1" t="s">
         <v>402</v>
       </c>
+      <c r="N66" t="s">
+        <v>428</v>
+      </c>
       <c r="O66" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>63</v>
       </c>
@@ -3347,7 +3468,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>64</v>
       </c>
@@ -3364,7 +3485,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>65</v>
       </c>
@@ -3380,11 +3501,14 @@
       <c r="E69" s="1" t="s">
         <v>402</v>
       </c>
+      <c r="N69" t="s">
+        <v>428</v>
+      </c>
       <c r="O69" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>66</v>
       </c>
@@ -3400,11 +3524,14 @@
       <c r="E70" s="1" t="s">
         <v>402</v>
       </c>
+      <c r="N70" t="s">
+        <v>428</v>
+      </c>
       <c r="O70" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>67</v>
       </c>
@@ -3420,11 +3547,14 @@
       <c r="E71" s="1" t="s">
         <v>402</v>
       </c>
+      <c r="N71" t="s">
+        <v>428</v>
+      </c>
       <c r="O71" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>68</v>
       </c>
@@ -3440,11 +3570,14 @@
       <c r="E72" s="1" t="s">
         <v>402</v>
       </c>
+      <c r="N72" t="s">
+        <v>428</v>
+      </c>
       <c r="O72" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>69</v>
       </c>
@@ -3458,7 +3591,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>70</v>
       </c>
@@ -3472,7 +3605,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>71</v>
       </c>
@@ -3486,7 +3619,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>72</v>
       </c>
@@ -3500,7 +3633,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>73</v>
       </c>
@@ -3513,11 +3646,14 @@
       <c r="D77" s="10" t="s">
         <v>121</v>
       </c>
+      <c r="N77" t="s">
+        <v>428</v>
+      </c>
       <c r="O77" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>74</v>
       </c>
@@ -3530,11 +3666,14 @@
       <c r="D78" s="10" t="s">
         <v>123</v>
       </c>
+      <c r="N78" t="s">
+        <v>428</v>
+      </c>
       <c r="O78" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>75</v>
       </c>
@@ -3547,11 +3686,14 @@
       <c r="D79" s="10" t="s">
         <v>125</v>
       </c>
+      <c r="N79" t="s">
+        <v>428</v>
+      </c>
       <c r="O79" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>76</v>
       </c>
@@ -3564,11 +3706,14 @@
       <c r="D80" s="10" t="s">
         <v>127</v>
       </c>
+      <c r="N80" t="s">
+        <v>428</v>
+      </c>
       <c r="O80" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>77</v>
       </c>
@@ -3581,11 +3726,14 @@
       <c r="D81" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="N81" t="s">
+        <v>428</v>
+      </c>
       <c r="O81" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>78</v>
       </c>
@@ -3598,11 +3746,14 @@
       <c r="D82" s="10" t="s">
         <v>131</v>
       </c>
+      <c r="N82" t="s">
+        <v>428</v>
+      </c>
       <c r="O82" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>79</v>
       </c>
@@ -3616,7 +3767,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>80</v>
       </c>
@@ -3633,7 +3784,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>81</v>
       </c>
@@ -3650,7 +3801,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>82</v>
       </c>
@@ -3667,7 +3818,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>83</v>
       </c>
@@ -3684,7 +3835,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>84</v>
       </c>
@@ -3697,11 +3848,14 @@
       <c r="D88" s="10" t="s">
         <v>143</v>
       </c>
+      <c r="N88" t="s">
+        <v>428</v>
+      </c>
       <c r="O88" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>85</v>
       </c>
@@ -3715,7 +3869,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>86</v>
       </c>
@@ -3732,7 +3886,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>87</v>
       </c>
@@ -3746,7 +3900,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>88</v>
       </c>
@@ -3763,7 +3917,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>89</v>
       </c>
@@ -3776,11 +3930,14 @@
       <c r="D93" s="10" t="s">
         <v>153</v>
       </c>
+      <c r="N93" t="s">
+        <v>428</v>
+      </c>
       <c r="O93" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>90</v>
       </c>
@@ -3793,11 +3950,14 @@
       <c r="D94" s="10" t="s">
         <v>155</v>
       </c>
+      <c r="N94" t="s">
+        <v>428</v>
+      </c>
       <c r="O94" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>91</v>
       </c>
@@ -3811,7 +3971,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>92</v>
       </c>
@@ -3825,7 +3985,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>93</v>
       </c>
@@ -3838,11 +3998,14 @@
       <c r="D97" s="10" t="s">
         <v>161</v>
       </c>
+      <c r="N97" t="s">
+        <v>428</v>
+      </c>
       <c r="O97" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>94</v>
       </c>
@@ -3856,7 +4019,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>95</v>
       </c>
@@ -3870,7 +4033,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>96</v>
       </c>
@@ -3884,7 +4047,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>97</v>
       </c>
@@ -3897,11 +4060,14 @@
       <c r="D101" s="10" t="s">
         <v>169</v>
       </c>
+      <c r="N101" t="s">
+        <v>428</v>
+      </c>
       <c r="O101" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>98</v>
       </c>
@@ -3914,11 +4080,14 @@
       <c r="D102" s="10" t="s">
         <v>171</v>
       </c>
+      <c r="N102" t="s">
+        <v>428</v>
+      </c>
       <c r="O102" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>99</v>
       </c>
@@ -3932,7 +4101,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>100</v>
       </c>
@@ -3946,7 +4115,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>101</v>
       </c>
@@ -3960,7 +4129,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>102</v>
       </c>
@@ -3973,11 +4142,14 @@
       <c r="D106" s="10" t="s">
         <v>171</v>
       </c>
+      <c r="N106" t="s">
+        <v>428</v>
+      </c>
       <c r="O106" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>103</v>
       </c>
@@ -3991,7 +4163,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
         <v>104</v>
       </c>
@@ -4005,7 +4177,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>105</v>
       </c>
@@ -4019,7 +4191,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
         <v>106</v>
       </c>
@@ -4033,7 +4205,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>107</v>
       </c>
@@ -4047,7 +4219,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>108</v>
       </c>
@@ -4061,7 +4233,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>109</v>
       </c>
@@ -4075,7 +4247,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>110</v>
       </c>
@@ -4089,7 +4261,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>111</v>
       </c>
@@ -4103,7 +4275,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
         <v>112</v>
       </c>
@@ -4116,11 +4288,14 @@
       <c r="D116" s="10" t="s">
         <v>191</v>
       </c>
+      <c r="N116" t="s">
+        <v>428</v>
+      </c>
       <c r="O116" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>113</v>
       </c>
@@ -4134,7 +4309,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
         <v>114</v>
       </c>
@@ -4148,7 +4323,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>115</v>
       </c>
@@ -4162,7 +4337,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
         <v>116</v>
       </c>
@@ -4175,11 +4350,14 @@
       <c r="D120" s="10" t="s">
         <v>197</v>
       </c>
+      <c r="N120" t="s">
+        <v>428</v>
+      </c>
       <c r="O120" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
         <v>117</v>
       </c>
@@ -4192,11 +4370,14 @@
       <c r="D121" s="10" t="s">
         <v>199</v>
       </c>
+      <c r="N121" t="s">
+        <v>428</v>
+      </c>
       <c r="O121" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>118</v>
       </c>
@@ -4209,11 +4390,14 @@
       <c r="D122" s="10" t="s">
         <v>201</v>
       </c>
+      <c r="N122" t="s">
+        <v>428</v>
+      </c>
       <c r="O122" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
         <v>119</v>
       </c>
@@ -4226,11 +4410,14 @@
       <c r="D123" s="10" t="s">
         <v>193</v>
       </c>
+      <c r="N123" t="s">
+        <v>428</v>
+      </c>
       <c r="O123" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
         <v>120</v>
       </c>
@@ -4244,7 +4431,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>121</v>
       </c>
@@ -4257,11 +4444,14 @@
       <c r="D125" s="10" t="s">
         <v>206</v>
       </c>
+      <c r="N125" t="s">
+        <v>428</v>
+      </c>
       <c r="O125" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
         <v>122</v>
       </c>
@@ -4274,11 +4464,14 @@
       <c r="D126" s="10" t="s">
         <v>197</v>
       </c>
+      <c r="N126" t="s">
+        <v>428</v>
+      </c>
       <c r="O126" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A127" s="9">
         <v>123</v>
       </c>
@@ -4292,7 +4485,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
         <v>124</v>
       </c>
@@ -4306,7 +4499,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
         <v>125</v>
       </c>
@@ -4319,11 +4512,14 @@
       <c r="D129" s="10" t="s">
         <v>212</v>
       </c>
+      <c r="N129" t="s">
+        <v>428</v>
+      </c>
       <c r="O129" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
         <v>126</v>
       </c>
@@ -4337,7 +4533,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" s="9">
         <v>127</v>
       </c>
@@ -4350,11 +4546,14 @@
       <c r="D131" s="11" t="s">
         <v>216</v>
       </c>
+      <c r="N131" t="s">
+        <v>428</v>
+      </c>
       <c r="O131" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A132" s="9">
         <v>128</v>
       </c>
@@ -4367,11 +4566,14 @@
       <c r="D132" s="11" t="s">
         <v>218</v>
       </c>
+      <c r="N132" t="s">
+        <v>428</v>
+      </c>
       <c r="O132" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
         <v>129</v>
       </c>
@@ -4384,11 +4586,14 @@
       <c r="D133" s="11" t="s">
         <v>220</v>
       </c>
+      <c r="N133" t="s">
+        <v>428</v>
+      </c>
       <c r="O133" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A134" s="9">
         <v>130</v>
       </c>
@@ -4401,11 +4606,14 @@
       <c r="D134" s="11" t="s">
         <v>222</v>
       </c>
+      <c r="N134" t="s">
+        <v>428</v>
+      </c>
       <c r="O134" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
         <v>131</v>
       </c>
@@ -4419,7 +4627,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="9">
         <v>132</v>
       </c>
@@ -4433,7 +4641,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A137" s="9">
         <v>133</v>
       </c>
@@ -4446,11 +4654,14 @@
       <c r="D137" s="11" t="s">
         <v>216</v>
       </c>
+      <c r="N137" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O137" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="9">
         <v>134</v>
       </c>
@@ -4463,11 +4674,14 @@
       <c r="D138" s="11" t="s">
         <v>216</v>
       </c>
+      <c r="N138" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O138" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" s="9">
         <v>135</v>
       </c>
@@ -4481,7 +4695,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A140" s="9">
         <v>136</v>
       </c>
@@ -4494,11 +4708,14 @@
       <c r="D140" s="11" t="s">
         <v>230</v>
       </c>
+      <c r="N140" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O140" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:18" ht="208" x14ac:dyDescent="0.2">
       <c r="A141" s="9">
         <v>137</v>
       </c>
@@ -4511,11 +4728,14 @@
       <c r="D141" s="11" t="s">
         <v>232</v>
       </c>
+      <c r="N141" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O141" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="9">
         <v>138</v>
       </c>
@@ -4535,7 +4755,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A143" s="9">
         <v>139</v>
       </c>
@@ -4551,11 +4771,14 @@
       <c r="E143" s="1" t="s">
         <v>239</v>
       </c>
+      <c r="N143" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O143" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="9">
         <v>140</v>
       </c>
@@ -4569,7 +4792,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="9">
         <v>141</v>
       </c>
@@ -4583,7 +4806,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="9">
         <v>142</v>
       </c>
@@ -4597,7 +4820,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="9">
         <v>143</v>
       </c>
@@ -4611,7 +4834,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="9">
         <v>144</v>
       </c>
@@ -4624,11 +4847,14 @@
       <c r="D148" s="10" t="s">
         <v>238</v>
       </c>
+      <c r="N148" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O148" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="9">
         <v>145</v>
       </c>
@@ -4641,11 +4867,14 @@
       <c r="D149" s="10" t="s">
         <v>234</v>
       </c>
+      <c r="N149" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O149" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="9">
         <v>146</v>
       </c>
@@ -4659,7 +4888,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="9">
         <v>147</v>
       </c>
@@ -4673,7 +4902,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A152" s="9">
         <v>148</v>
       </c>
@@ -4686,11 +4915,14 @@
       <c r="D152" s="12" t="s">
         <v>249</v>
       </c>
+      <c r="N152" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O152" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A153" s="9">
         <v>149</v>
       </c>
@@ -4703,11 +4935,14 @@
       <c r="D153" s="12" t="s">
         <v>251</v>
       </c>
+      <c r="N153" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O153" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="9">
         <v>150</v>
       </c>
@@ -4720,11 +4955,12 @@
       <c r="D154" s="12" t="s">
         <v>253</v>
       </c>
+      <c r="N154" s="1"/>
       <c r="O154" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A155" s="9">
         <v>151</v>
       </c>
@@ -4738,7 +4974,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A156" s="9">
         <v>152</v>
       </c>
@@ -4751,11 +4987,14 @@
       <c r="D156" s="12" t="s">
         <v>257</v>
       </c>
+      <c r="N156" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O156" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="9">
         <v>153</v>
       </c>
@@ -4768,11 +5007,14 @@
       <c r="D157" s="12" t="s">
         <v>259</v>
       </c>
+      <c r="N157" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O157" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A158" s="9">
         <v>154</v>
       </c>
@@ -4785,11 +5027,14 @@
       <c r="D158" s="12" t="s">
         <v>261</v>
       </c>
+      <c r="N158" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O158" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A159" s="9">
         <v>155</v>
       </c>
@@ -4802,11 +5047,14 @@
       <c r="D159" s="12" t="s">
         <v>263</v>
       </c>
+      <c r="N159" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O159" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A160" s="9">
         <v>156</v>
       </c>
@@ -4819,11 +5067,14 @@
       <c r="D160" s="12" t="s">
         <v>265</v>
       </c>
+      <c r="N160" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O160" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A161" s="9">
         <v>157</v>
       </c>
@@ -4836,11 +5087,14 @@
       <c r="D161" s="12" t="s">
         <v>267</v>
       </c>
+      <c r="N161" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O161" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A162" s="9">
         <v>158</v>
       </c>
@@ -4854,7 +5108,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A163" s="9">
         <v>159</v>
       </c>
@@ -4867,11 +5121,14 @@
       <c r="D163" s="12" t="s">
         <v>271</v>
       </c>
+      <c r="N163" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O163" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A164" s="9">
         <v>160</v>
       </c>
@@ -4885,7 +5142,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" s="9">
         <v>161</v>
       </c>
@@ -4899,7 +5156,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A166" s="9">
         <v>162</v>
       </c>
@@ -4912,11 +5169,14 @@
       <c r="D166" s="12" t="s">
         <v>277</v>
       </c>
+      <c r="N166" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O166" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A167" s="9">
         <v>163</v>
       </c>
@@ -4930,7 +5190,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A168" s="9">
         <v>164</v>
       </c>
@@ -4944,7 +5204,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="9">
         <v>165</v>
       </c>
@@ -4957,11 +5217,14 @@
       <c r="D169" s="12" t="s">
         <v>283</v>
       </c>
+      <c r="N169" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O169" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A170" s="9">
         <v>166</v>
       </c>
@@ -4974,11 +5237,14 @@
       <c r="D170" s="12" t="s">
         <v>283</v>
       </c>
+      <c r="N170" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O170" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" s="9">
         <v>167</v>
       </c>
@@ -4991,11 +5257,14 @@
       <c r="D171" s="12" t="s">
         <v>286</v>
       </c>
+      <c r="N171" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O171" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="9">
         <v>168</v>
       </c>
@@ -5008,11 +5277,14 @@
       <c r="D172" s="10" t="s">
         <v>288</v>
       </c>
+      <c r="N172" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O172" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="9">
         <v>169</v>
       </c>
@@ -5025,11 +5297,14 @@
       <c r="D173" s="10" t="s">
         <v>290</v>
       </c>
+      <c r="N173" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O173" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="9">
         <v>170</v>
       </c>
@@ -5042,11 +5317,14 @@
       <c r="D174" s="10" t="s">
         <v>292</v>
       </c>
+      <c r="N174" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O174" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A175" s="9">
         <v>171</v>
       </c>
@@ -5060,7 +5338,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="9">
         <v>172</v>
       </c>
@@ -5074,7 +5352,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A177" s="9">
         <v>173</v>
       </c>
@@ -5088,7 +5366,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="9">
         <v>174</v>
       </c>
@@ -5102,7 +5380,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="9">
         <v>175</v>
       </c>
@@ -5115,11 +5393,14 @@
       <c r="D179" s="10" t="s">
         <v>302</v>
       </c>
+      <c r="N179" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O179" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A180" s="9">
         <v>176</v>
       </c>
@@ -5133,7 +5414,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="9">
         <v>177</v>
       </c>
@@ -5147,7 +5428,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="9">
         <v>178</v>
       </c>
@@ -5160,11 +5441,14 @@
       <c r="D182" s="10" t="s">
         <v>308</v>
       </c>
+      <c r="N182" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O182" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A183" s="9">
         <v>179</v>
       </c>
@@ -5177,11 +5461,14 @@
       <c r="D183" s="10" t="s">
         <v>310</v>
       </c>
+      <c r="N183" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O183" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="9">
         <v>180</v>
       </c>
@@ -5194,11 +5481,14 @@
       <c r="D184" s="10" t="s">
         <v>312</v>
       </c>
+      <c r="N184" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O184" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="9">
         <v>181</v>
       </c>
@@ -5211,11 +5501,14 @@
       <c r="D185" s="10" t="s">
         <v>314</v>
       </c>
+      <c r="N185" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O185" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="9">
         <v>182</v>
       </c>
@@ -5228,11 +5521,14 @@
       <c r="D186" s="10" t="s">
         <v>316</v>
       </c>
+      <c r="N186" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O186" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" s="9">
         <v>183</v>
       </c>
@@ -5245,11 +5541,14 @@
       <c r="D187" s="10" t="s">
         <v>318</v>
       </c>
+      <c r="N187" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O187" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="9">
         <v>184</v>
       </c>
@@ -5262,11 +5561,14 @@
       <c r="D188" s="10" t="s">
         <v>320</v>
       </c>
+      <c r="N188" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O188" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="9">
         <v>185</v>
       </c>
@@ -5279,11 +5581,14 @@
       <c r="D189" s="10" t="s">
         <v>318</v>
       </c>
+      <c r="N189" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O189" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="9">
         <v>186</v>
       </c>
@@ -5296,11 +5601,14 @@
       <c r="D190" s="10" t="s">
         <v>300</v>
       </c>
+      <c r="N190" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O190" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="9">
         <v>187</v>
       </c>
@@ -5313,11 +5621,14 @@
       <c r="D191" s="10" t="s">
         <v>324</v>
       </c>
+      <c r="N191" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O191" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="9">
         <v>188</v>
       </c>
@@ -5330,11 +5641,14 @@
       <c r="D192" s="10" t="s">
         <v>326</v>
       </c>
+      <c r="N192" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O192" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="9">
         <v>189</v>
       </c>
@@ -5347,11 +5661,14 @@
       <c r="D193" s="10" t="s">
         <v>328</v>
       </c>
+      <c r="N193" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O193" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="9">
         <v>190</v>
       </c>
@@ -5364,11 +5681,14 @@
       <c r="D194" s="10" t="s">
         <v>330</v>
       </c>
+      <c r="N194" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O194" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="195" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="9">
         <v>191</v>
       </c>
@@ -5385,7 +5705,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="9">
         <v>192</v>
       </c>
@@ -5398,11 +5718,14 @@
       <c r="D196" s="10" t="s">
         <v>335</v>
       </c>
+      <c r="N196" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O196" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="9">
         <v>193</v>
       </c>
@@ -5415,11 +5738,14 @@
       <c r="D197" s="10" t="s">
         <v>337</v>
       </c>
+      <c r="N197" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O197" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="9">
         <v>194</v>
       </c>
@@ -5432,11 +5758,14 @@
       <c r="D198" s="10" t="s">
         <v>339</v>
       </c>
+      <c r="N198" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O198" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="9">
         <v>195</v>
       </c>
@@ -5449,11 +5778,14 @@
       <c r="D199" s="10" t="s">
         <v>341</v>
       </c>
+      <c r="N199" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O199" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="9">
         <v>196</v>
       </c>
@@ -5466,11 +5798,14 @@
       <c r="D200" s="10" t="s">
         <v>343</v>
       </c>
+      <c r="N200" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O200" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="9">
         <v>197</v>
       </c>
@@ -5483,11 +5818,14 @@
       <c r="D201" s="10" t="s">
         <v>345</v>
       </c>
+      <c r="N201" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O201" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="9">
         <v>198</v>
       </c>
@@ -5500,11 +5838,14 @@
       <c r="D202" s="10" t="s">
         <v>347</v>
       </c>
+      <c r="N202" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O202" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="9">
         <v>199</v>
       </c>
@@ -5517,11 +5858,14 @@
       <c r="D203" s="10" t="s">
         <v>349</v>
       </c>
+      <c r="N203" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O203" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="9">
         <v>200</v>
       </c>
@@ -5535,7 +5879,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="9">
         <v>201</v>
       </c>
@@ -5548,11 +5892,14 @@
       <c r="D205" s="10" t="s">
         <v>318</v>
       </c>
+      <c r="N205" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O205" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="9">
         <v>202</v>
       </c>
@@ -5565,11 +5912,14 @@
       <c r="D206" s="10" t="s">
         <v>354</v>
       </c>
+      <c r="N206" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O206" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="9">
         <v>203</v>
       </c>
@@ -5582,6 +5932,9 @@
       <c r="D207" s="10" t="s">
         <v>356</v>
       </c>
+      <c r="N207" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O207" t="s">
         <v>426</v>
       </c>
@@ -5589,7 +5942,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" s="9">
         <v>204</v>
       </c>
@@ -5603,7 +5956,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A209" s="9">
         <v>205</v>
       </c>
@@ -5617,7 +5970,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="9">
         <v>206</v>
       </c>
@@ -5634,7 +5987,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A211" s="9">
         <v>207</v>
       </c>
@@ -5648,7 +6001,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="9">
         <v>208</v>
       </c>
@@ -5662,7 +6015,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="213" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A213" s="9">
         <v>209</v>
       </c>
@@ -5676,7 +6029,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="9">
         <v>210</v>
       </c>
@@ -5690,7 +6043,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="9">
         <v>211</v>
       </c>
@@ -5707,7 +6060,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A216" s="9">
         <v>212</v>
       </c>
@@ -5720,11 +6073,14 @@
       <c r="D216" s="1" t="s">
         <v>376</v>
       </c>
+      <c r="N216" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O216" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="9">
         <v>213</v>
       </c>
@@ -5737,11 +6093,14 @@
       <c r="D217" s="1" t="s">
         <v>376</v>
       </c>
+      <c r="N217" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O217" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="9">
         <v>214</v>
       </c>
@@ -5754,11 +6113,14 @@
       <c r="D218" s="1" t="s">
         <v>379</v>
       </c>
+      <c r="N218" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="O218" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="9">
         <v>215</v>
       </c>
@@ -5772,7 +6134,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="9">
         <v>216</v>
       </c>
@@ -5786,7 +6148,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="221" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" s="9">
         <v>217</v>
       </c>
@@ -5803,7 +6165,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="9">
         <v>218</v>
       </c>
@@ -5817,7 +6179,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="9">
         <v>219</v>
       </c>
@@ -5831,7 +6193,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="224" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="9">
         <v>220</v>
       </c>
@@ -5845,7 +6207,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="230" spans="18:18" x14ac:dyDescent="0.45">
+    <row r="230" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R230" t="s">
         <v>392</v>
       </c>
@@ -6080,20 +6442,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6116,14 +6478,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6131,4 +6485,12 @@
     <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28822"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaitlynnhernandez/cse3310/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D752495-C71D-8C45-B98B-495BBB835987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC1A28AB-8015-4AC3-BA44-9A2378EC2313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,11 +36,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="436">
   <si>
     <t>Tested By</t>
   </si>
   <si>
+    <t>group 1 (Group 25)</t>
+  </si>
+  <si>
+    <t>group 2 (Group 26)</t>
+  </si>
+  <si>
+    <t>group 3 (Group 27)</t>
+  </si>
+  <si>
+    <t>group 4 (Group 28)</t>
+  </si>
+  <si>
+    <t>group 5 (Group 29)</t>
+  </si>
+  <si>
+    <t>group 6 (Group 30)</t>
+  </si>
+  <si>
+    <t>group 7 (Group 31)</t>
+  </si>
+  <si>
+    <t>group 8 (Group 32)</t>
+  </si>
+  <si>
+    <t>group 9 (Group 33)</t>
+  </si>
+  <si>
+    <t>group 10 (Group 34)</t>
+  </si>
+  <si>
+    <t>group 11 (Group 35)</t>
+  </si>
+  <si>
+    <t>group 12 (Group 36)</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -68,6 +104,12 @@
     <t>uta.cse3310.Bot.BotII.sendMove</t>
   </si>
   <si>
+    <t>Unable to Test</t>
+  </si>
+  <si>
+    <t>Not Testable</t>
+  </si>
+  <si>
     <t>Bot II shall receive the game board from the gamemanger</t>
   </si>
   <si>
@@ -296,22 +338,67 @@
     <t>BotI.java / isInsideBoard</t>
   </si>
   <si>
+    <t>The join game page shall display a waitlist of available players ready to play with their usernames and IDs in the order that the players joined under a section labeled 'Current Waitlist'.</t>
+  </si>
+  <si>
     <t>joingame/Waitlist.js/displayWaitlist()</t>
   </si>
   <si>
+    <t>UI-JG-01</t>
+  </si>
+  <si>
+    <t>The join game page shall display a button for a game against another user under a section labeled 'Choose a Game Mode'.</t>
+  </si>
+  <si>
     <t>webapp/index.html</t>
   </si>
   <si>
+    <t>UI-JG-02</t>
+  </si>
+  <si>
+    <t>The join game page shall display a button for a game against a bot under a section labeled 'Choose a Game Mode'.</t>
+  </si>
+  <si>
+    <t>UI-JG-03</t>
+  </si>
+  <si>
     <t>The program shall update the waitlist as players login and join/leave a game.</t>
   </si>
   <si>
     <t>joingame/Waitlist.js/add(), joingame/Waitlist.js/remove()</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>The join game page shall display a notification with updates to the waitlist under a section labeled 'Notifications'.</t>
+  </si>
+  <si>
     <t>joingame/DisplayNotification.js/displayNotification()</t>
   </si>
   <si>
+    <t>UI-JG-04</t>
+  </si>
+  <si>
+    <t>The join game page will display a notification indicating that the user is next to join a game under a section labeled 'Notifications'.</t>
+  </si>
+  <si>
+    <t>UI-JG-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The join game page shall have display a button to spectate a game of 2 bots playing against each other under a section labeled 'Choose a Game Mode'. </t>
+  </si>
+  <si>
     <t>joingame/MatchMaker.js/requestSpectateBotVsBot()</t>
+  </si>
+  <si>
+    <t>UI-JG-06</t>
+  </si>
+  <si>
+    <t>The join game page shall display new players and replaying players at the bottom (or start of the waitlist) under a section labeled 'Current Waitlist'.</t>
+  </si>
+  <si>
+    <t>UI-JG-07</t>
   </si>
   <si>
     <t>The program will load usernames and IDs in waitlist and display them within 2 seconds of logging in/joining a game.</t>
@@ -447,24 +534,36 @@
     <t>game_display_checkers.js/CheckersBoard.update_board_style(), game_display_checkers.js/CheckersBoard.create_checkers_board()</t>
   </si>
   <si>
+    <t>UI011</t>
+  </si>
+  <si>
     <t>Display checker pieces for both players. Regular and king pieces should be visually different, and valid moves must be highlighted when a piece is selected.</t>
   </si>
   <si>
     <t>game_display_checkers.js/CheckersBoard.update_board_style(), CSS styling in game_display_checkers.js/update_board_style()</t>
   </si>
   <si>
+    <t>UI012</t>
+  </si>
+  <si>
     <t>The game will allow selection of pieces and display valid move destinations by commuicating with other teams. Display feedback for illegal moves, captures, and multiple jump possibilities, as provided by other responsible teams to the game display team.</t>
   </si>
   <si>
     <t>game_display_checkers.js/CheckersBoard.handle_checkers_piece_click(), game_display_checkers.js/CheckersBoard.show_possible_moves()</t>
   </si>
   <si>
+    <t>UI013</t>
+  </si>
+  <si>
     <t>Display current player's turn, player names (ID).</t>
   </si>
   <si>
     <t>game_display_checkers.js/CheckersBoard.update_current_player(), game_id</t>
   </si>
   <si>
+    <t>UI014</t>
+  </si>
+  <si>
     <t>Implement method for other teams to send messages to the players.</t>
   </si>
   <si>
@@ -483,6 +582,9 @@
     <t>game_display_checkers.js/handle_resign(), game_display_checkers.js/offer_draw(), game_display_checkers.js/add_game_display_user_control_event_listener()</t>
   </si>
   <si>
+    <t>UI015</t>
+  </si>
+  <si>
     <t>Indicate who moves first.</t>
   </si>
   <si>
@@ -493,6 +595,9 @@
   </si>
   <si>
     <t>game_display_checkers.js/CheckersBoard.show_possible_moves(), game_display_checkers.js/return_allowed_moves(), game_display_checkers.js/is_valid_move()</t>
+  </si>
+  <si>
+    <t>UI016</t>
   </si>
   <si>
     <t>Send all player moves to the backend. Game display collects and formats movement data.</t>
@@ -807,6 +912,9 @@
   </si>
   <si>
     <t>getUserScore() in Summary.java</t>
+  </si>
+  <si>
+    <t>Duplicate Requirement (139)</t>
   </si>
   <si>
     <t>The client interface will be a single HTML page that dynamically shows/hides relevant sections depending on the current game state.</t>
@@ -1134,18 +1242,24 @@
     <t>Input box:</t>
   </si>
   <si>
-    <t>The login page must provide a text input field for the user to enter their username.</t>
+    <t xml:space="preserve">The login page must provide a text input field for the user to enter their username.          </t>
   </si>
   <si>
     <t>input-box in loginHander.js</t>
   </si>
   <si>
-    <t>Username must contain atleast 8 characters, 1 digit, and 1 special character. Message displays when wrong</t>
+    <t>UI-LG-001</t>
+  </si>
+  <si>
+    <t>Username must contain atleast 8 characters, 1 digit, and 1 special character. Message displays when requirements are not met with "Please match the required format"</t>
   </si>
   <si>
     <t xml:space="preserve">onkeyup </t>
   </si>
   <si>
+    <t>UI-LG-002</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Pattern to be used for the username requirements:  /^(?=.*\d)(?=.*[!@#$%^&amp;*])[A-Za-z\d!@#$%^&amp;*]{8,}$/</t>
   </si>
   <si>
@@ -1155,30 +1269,39 @@
     <t>Container:</t>
   </si>
   <si>
-    <t>There are constraints on special characters that can be used in username. If found any, give an error message with the instructions. It should display</t>
+    <t xml:space="preserve">There are constraints on special characters that can be used in username. If found any, give an error message with the instructions. </t>
   </si>
   <si>
     <t>onkeyup, sendUsername()</t>
   </si>
   <si>
-    <t xml:space="preserve">The login page shall display an alert if the username is invalid or missing upon form submission. </t>
+    <t>The login page shall display an alert if the username is invalid or missing upon form submission with the message "Please fill out this field".</t>
   </si>
   <si>
     <t>joinGame()</t>
   </si>
   <si>
+    <t>UI-LG-003</t>
+  </si>
+  <si>
     <t>The login page must have a button to "Join Game" once the user is done entering their username</t>
   </si>
   <si>
     <t>button, .button-container, joinGame()</t>
   </si>
   <si>
+    <t>UI-LG-004</t>
+  </si>
+  <si>
     <t>Button hover shall darken the button to provide visual feedback on hover.</t>
   </si>
   <si>
     <t>button:hoover</t>
   </si>
   <si>
+    <t>UI-LG-005</t>
+  </si>
+  <si>
     <t>Once the username is successfully submitted, the "join game" button should redirect the user to the game game.</t>
   </si>
   <si>
@@ -1203,9 +1326,6 @@
     <t>The login page shall validate the username in real time as the user types.</t>
   </si>
   <si>
-    <t>onekeyup</t>
-  </si>
-  <si>
     <t>The login page shall show validation rules when the input field is focused.</t>
   </si>
   <si>
@@ -1218,6 +1338,9 @@
     <t>uInput.onblur</t>
   </si>
   <si>
+    <t>UI-LG-006</t>
+  </si>
+  <si>
     <t>Instructions:</t>
   </si>
   <si>
@@ -1227,9 +1350,15 @@
     <t>onkeyup, .valid, .invalid</t>
   </si>
   <si>
+    <t>UI-LG-007</t>
+  </si>
+  <si>
     <t xml:space="preserve">The login page shall alert the user with "Joining Game" upon valid submission.	</t>
   </si>
   <si>
+    <t>UI-LG-008</t>
+  </si>
+  <si>
     <t>The username shall be unique, no duplicate usernames allowed.</t>
   </si>
   <si>
@@ -1237,121 +1366,13 @@
   </si>
   <si>
     <t>summary:</t>
-  </si>
-  <si>
-    <t>UI011</t>
-  </si>
-  <si>
-    <t>UI012</t>
-  </si>
-  <si>
-    <t>UI013</t>
-  </si>
-  <si>
-    <t>UI014</t>
-  </si>
-  <si>
-    <t>UI015</t>
-  </si>
-  <si>
-    <t>UI016</t>
-  </si>
-  <si>
-    <t>UI-JG-01</t>
-  </si>
-  <si>
-    <t>UI-JG-02</t>
-  </si>
-  <si>
-    <t>UI-JG-03</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>UI-JG-04</t>
-  </si>
-  <si>
-    <t>UI-JG-05</t>
-  </si>
-  <si>
-    <t>UI-JG-06</t>
-  </si>
-  <si>
-    <t>UI-JG-07</t>
-  </si>
-  <si>
-    <t>The join game page shall display a waitlist of available players ready to play with their usernames and IDs in the order that the players joined under a section labeled 'Current Waitlist'.</t>
-  </si>
-  <si>
-    <t>The join game page shall display a button for a game against another user under a section labeled 'Choose a Game Mode'.</t>
-  </si>
-  <si>
-    <t>The join game page shall display a button for a game against a bot under a section labeled 'Choose a Game Mode'.</t>
-  </si>
-  <si>
-    <t>The join game page shall display a notification with updates to the waitlist under a section labeled 'Notifications'.</t>
-  </si>
-  <si>
-    <t>The join game page will display a notification indicating that the user is next to join a game under a section labeled 'Notifications'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The join game page shall have display a button to spectate a game of 2 bots playing against each other under a section labeled 'Choose a Game Mode'. </t>
-  </si>
-  <si>
-    <t>The join game page shall display new players and replaying players at the bottom (or start of the waitlist) under a section labeled 'Current Waitlist'.</t>
-  </si>
-  <si>
-    <t>group 1 (Group 25)</t>
-  </si>
-  <si>
-    <t>group 2 (Group 26)</t>
-  </si>
-  <si>
-    <t>group 3 (Group 27)</t>
-  </si>
-  <si>
-    <t>group 4 (Group 28)</t>
-  </si>
-  <si>
-    <t>group 5 (Group 29)</t>
-  </si>
-  <si>
-    <t>group 6 (Group 30)</t>
-  </si>
-  <si>
-    <t>group 7 (Group 31)</t>
-  </si>
-  <si>
-    <t>group 8 (Group 32)</t>
-  </si>
-  <si>
-    <t>group 9 (Group 33)</t>
-  </si>
-  <si>
-    <t>group 10 (Group 34)</t>
-  </si>
-  <si>
-    <t>group 11 (Group 35)</t>
-  </si>
-  <si>
-    <t>group 12 (Group 36)</t>
-  </si>
-  <si>
-    <t>Not Testable</t>
-  </si>
-  <si>
-    <t>Duplicate Requirement (139)</t>
-  </si>
-  <si>
-    <t>Unable to Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1512,53 +1533,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>2152650</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5785B674-F998-28A6-981E-A20F59520686}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{49866792-F7A3-FFB5-F8EC-832A93D7D26D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20640675" y="88515825"/>
-          <a:ext cx="2152650" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>208</xdr:row>
       <xdr:rowOff>542925</xdr:rowOff>
@@ -1566,8 +1540,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>333377</xdr:rowOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>447677</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1586,7 +1560,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1613,8 +1587,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>2038350</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>333376</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1633,7 +1607,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1661,7 +1635,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>2400300</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1680,7 +1654,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1708,7 +1682,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1727,7 +1701,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1774,7 +1748,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1818,7 +1792,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1862,7 +1836,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1892,6 +1866,53 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01FBE728-714A-D1ED-92F6-6D7883976220}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{237EAACE-AF7F-5A0E-4162-B64971FD277B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26393775" y="92106750"/>
+          <a:ext cx="3829050" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2218,96 +2239,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="G205" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S207" sqref="S207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="F2" t="s">
-        <v>414</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>415</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>416</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>417</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>419</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>420</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s">
-        <v>421</v>
+        <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>422</v>
+        <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>423</v>
+        <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>424</v>
+        <v>11</v>
       </c>
       <c r="Q2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.95">
       <c r="A3" s="9" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="48" hidden="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="48" hidden="1">
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="D4" s="10"/>
       <c r="S4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.95">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -2315,19 +2336,19 @@
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.95">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -2335,19 +2356,19 @@
         <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="32.1">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -2355,13 +2376,13 @@
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.95">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -2369,13 +2390,13 @@
         <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="32.1">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -2383,13 +2404,13 @@
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="32.1">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -2397,13 +2418,13 @@
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="32.1">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -2411,19 +2432,19 @@
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N11" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.95">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -2431,19 +2452,19 @@
         <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N12" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.95">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -2451,13 +2472,13 @@
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.95">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -2465,13 +2486,13 @@
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="32.1">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -2479,19 +2500,19 @@
         <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N15" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O15" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.95">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -2499,19 +2520,19 @@
         <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O16" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="32.1">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -2519,19 +2540,19 @@
         <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="N17" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="32.1">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -2539,19 +2560,19 @@
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N18" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O18" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="32.1">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -2559,19 +2580,19 @@
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N19" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O19" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="32.1">
       <c r="A20" s="9">
         <v>16</v>
       </c>
@@ -2579,19 +2600,19 @@
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="N20" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O20" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.95">
       <c r="A21" s="9">
         <v>17</v>
       </c>
@@ -2599,19 +2620,19 @@
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N21" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O21" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="32.1">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -2619,19 +2640,19 @@
         <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N22" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O22" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="48">
       <c r="A23" s="9">
         <v>19</v>
       </c>
@@ -2639,19 +2660,19 @@
         <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N23" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="32.1">
       <c r="A24" s="9">
         <v>20</v>
       </c>
@@ -2659,13 +2680,13 @@
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="32.1">
       <c r="A25" s="9">
         <v>21</v>
       </c>
@@ -2673,13 +2694,13 @@
         <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="48">
       <c r="A26" s="9">
         <v>22</v>
       </c>
@@ -2687,19 +2708,19 @@
         <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="N26" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O26" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="32.1">
       <c r="A27" s="9">
         <v>23</v>
       </c>
@@ -2707,19 +2728,19 @@
         <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N27" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O27" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="32.1">
       <c r="A28" s="9">
         <v>24</v>
       </c>
@@ -2727,19 +2748,19 @@
         <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N28" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O28" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="48">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -2747,19 +2768,19 @@
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N29" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O29" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="32.1">
       <c r="A30" s="9">
         <v>26</v>
       </c>
@@ -2767,13 +2788,13 @@
         <v>33</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="32.1">
       <c r="A31" s="9">
         <v>27</v>
       </c>
@@ -2781,19 +2802,19 @@
         <v>33</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="N31" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O31" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="32.1">
       <c r="A32" s="9">
         <v>28</v>
       </c>
@@ -2801,19 +2822,19 @@
         <v>33</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="N32" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O32" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="32.1">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -2821,19 +2842,19 @@
         <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="N33" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O33" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="32.1">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -2841,13 +2862,13 @@
         <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="32.1">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -2855,19 +2876,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="N35" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O35" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="48">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -2875,19 +2896,19 @@
         <v>33</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="N36" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O36" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="48">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -2895,19 +2916,19 @@
         <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O37" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="63.95">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -2915,19 +2936,19 @@
         <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="N38" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O38" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="32.1">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -2935,19 +2956,19 @@
         <v>33</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="N39" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O39" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="32.1">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -2955,13 +2976,13 @@
         <v>33</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="32.1">
       <c r="A41" s="9">
         <v>37</v>
       </c>
@@ -2969,19 +2990,19 @@
         <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="N41" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O41" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.95">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -2989,19 +3010,19 @@
         <v>33</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="N42" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O42" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="32.1">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -3009,19 +3030,19 @@
         <v>33</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="N43" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O43" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="32.1">
       <c r="A44" s="9">
         <v>40</v>
       </c>
@@ -3029,13 +3050,13 @@
         <v>33</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="32.1">
       <c r="A45" s="9">
         <v>41</v>
       </c>
@@ -3043,13 +3064,13 @@
         <v>33</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="32.1">
       <c r="A46" s="9">
         <v>42</v>
       </c>
@@ -3057,19 +3078,19 @@
         <v>33</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="N46" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O46" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="48">
       <c r="A47" s="9">
         <v>43</v>
       </c>
@@ -3077,19 +3098,19 @@
         <v>33</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="N47" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O47" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="32.1">
       <c r="A48" s="9">
         <v>44</v>
       </c>
@@ -3097,19 +3118,19 @@
         <v>33</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="N48" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O48" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="32.1">
       <c r="A49" s="9">
         <v>45</v>
       </c>
@@ -3117,19 +3138,19 @@
         <v>33</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="N49" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O49" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="32.1">
       <c r="A50" s="9">
         <v>46</v>
       </c>
@@ -3137,19 +3158,19 @@
         <v>33</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="N50" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O50" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="32.1">
       <c r="A51" s="9">
         <v>47</v>
       </c>
@@ -3157,19 +3178,19 @@
         <v>33</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="N51" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O51" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="32.1">
       <c r="A52" s="9">
         <v>48</v>
       </c>
@@ -3177,13 +3198,13 @@
         <v>33</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="63.95">
       <c r="A53" s="9">
         <v>49</v>
       </c>
@@ -3191,16 +3212,16 @@
         <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>407</v>
+        <v>100</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="32.1">
       <c r="A54" s="9">
         <v>50</v>
       </c>
@@ -3208,16 +3229,16 @@
         <v>26</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>408</v>
+        <v>103</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="32.1">
       <c r="A55" s="9">
         <v>51</v>
       </c>
@@ -3225,16 +3246,16 @@
         <v>26</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>409</v>
+        <v>106</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="32.1">
       <c r="A56" s="9">
         <v>52</v>
       </c>
@@ -3242,16 +3263,16 @@
         <v>26</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="32.1">
       <c r="A57" s="9">
         <v>53</v>
       </c>
@@ -3259,16 +3280,16 @@
         <v>26</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>410</v>
+        <v>111</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="48">
       <c r="A58" s="9">
         <v>54</v>
       </c>
@@ -3276,16 +3297,16 @@
         <v>26</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>411</v>
+        <v>114</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="48">
       <c r="A59" s="9">
         <v>55</v>
       </c>
@@ -3293,16 +3314,16 @@
         <v>26</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>412</v>
+        <v>116</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="48">
       <c r="A60" s="9">
         <v>56</v>
       </c>
@@ -3310,16 +3331,16 @@
         <v>26</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>413</v>
+        <v>119</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="32.1">
       <c r="A61" s="9">
         <v>57</v>
       </c>
@@ -3327,16 +3348,16 @@
         <v>26</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="32.1">
       <c r="A62" s="9">
         <v>58</v>
       </c>
@@ -3344,22 +3365,22 @@
         <v>26</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>402</v>
+        <v>110</v>
       </c>
       <c r="N62" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O62" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="32.1">
       <c r="A63" s="9">
         <v>59</v>
       </c>
@@ -3367,22 +3388,22 @@
         <v>26</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>402</v>
+        <v>110</v>
       </c>
       <c r="N63" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O63" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="32.1">
       <c r="A64" s="9">
         <v>60</v>
       </c>
@@ -3390,22 +3411,22 @@
         <v>26</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>402</v>
+        <v>110</v>
       </c>
       <c r="N64" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O64" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="63.95">
       <c r="A65" s="9">
         <v>61</v>
       </c>
@@ -3413,22 +3434,22 @@
         <v>26</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>402</v>
+        <v>110</v>
       </c>
       <c r="N65" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O65" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="63.95">
       <c r="A66" s="9">
         <v>62</v>
       </c>
@@ -3436,22 +3457,22 @@
         <v>26</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>402</v>
+        <v>110</v>
       </c>
       <c r="N66" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O66" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="32.1">
       <c r="A67" s="9">
         <v>63</v>
       </c>
@@ -3459,16 +3480,16 @@
         <v>26</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="32.1">
       <c r="A68" s="9">
         <v>64</v>
       </c>
@@ -3476,16 +3497,16 @@
         <v>26</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="32.1">
       <c r="A69" s="9">
         <v>65</v>
       </c>
@@ -3493,22 +3514,22 @@
         <v>26</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>402</v>
+        <v>110</v>
       </c>
       <c r="N69" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O69" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="32.1">
       <c r="A70" s="9">
         <v>66</v>
       </c>
@@ -3516,22 +3537,22 @@
         <v>26</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>402</v>
+        <v>110</v>
       </c>
       <c r="N70" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O70" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="48">
       <c r="A71" s="9">
         <v>67</v>
       </c>
@@ -3539,22 +3560,22 @@
         <v>26</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D71" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="N71" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O71" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="63.95">
       <c r="A72" s="9">
         <v>68</v>
       </c>
@@ -3562,22 +3583,22 @@
         <v>26</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>402</v>
+        <v>110</v>
       </c>
       <c r="N72" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O72" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="32.1">
       <c r="A73" s="9">
         <v>69</v>
       </c>
@@ -3585,13 +3606,13 @@
         <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="48">
       <c r="A74" s="9">
         <v>70</v>
       </c>
@@ -3599,13 +3620,13 @@
         <v>35</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15.95">
       <c r="A75" s="9">
         <v>71</v>
       </c>
@@ -3613,13 +3634,13 @@
         <v>35</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="48">
       <c r="A76" s="9">
         <v>72</v>
       </c>
@@ -3627,13 +3648,13 @@
         <v>35</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="48">
       <c r="A77" s="9">
         <v>73</v>
       </c>
@@ -3641,19 +3662,19 @@
         <v>35</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="N77" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O77" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="32.1">
       <c r="A78" s="9">
         <v>74</v>
       </c>
@@ -3661,19 +3682,19 @@
         <v>35</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="N78" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O78" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="32.1">
       <c r="A79" s="9">
         <v>75</v>
       </c>
@@ -3681,19 +3702,19 @@
         <v>35</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="N79" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O79" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="32.1">
       <c r="A80" s="9">
         <v>76</v>
       </c>
@@ -3701,19 +3722,19 @@
         <v>35</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="N80" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O80" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="32.1">
       <c r="A81" s="9">
         <v>77</v>
       </c>
@@ -3721,19 +3742,19 @@
         <v>35</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="N81" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O81" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="32.1">
       <c r="A82" s="9">
         <v>78</v>
       </c>
@@ -3741,19 +3762,19 @@
         <v>27</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="N82" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O82" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="15.95">
       <c r="A83" s="9">
         <v>79</v>
       </c>
@@ -3761,13 +3782,13 @@
         <v>27</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="48">
       <c r="A84" s="9">
         <v>80</v>
       </c>
@@ -3775,16 +3796,16 @@
         <v>27</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="48">
       <c r="A85" s="9">
         <v>81</v>
       </c>
@@ -3792,16 +3813,16 @@
         <v>27</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="80.099999999999994">
       <c r="A86" s="9">
         <v>82</v>
       </c>
@@ -3809,16 +3830,16 @@
         <v>27</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="15.95">
       <c r="A87" s="9">
         <v>83</v>
       </c>
@@ -3826,16 +3847,16 @@
         <v>27</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="32.1">
       <c r="A88" s="9">
         <v>84</v>
       </c>
@@ -3843,19 +3864,19 @@
         <v>27</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="N88" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O88" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="48">
       <c r="A89" s="9">
         <v>85</v>
       </c>
@@ -3863,13 +3884,13 @@
         <v>27</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="32.1">
       <c r="A90" s="9">
         <v>86</v>
       </c>
@@ -3877,16 +3898,16 @@
         <v>27</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="15.95">
       <c r="A91" s="9">
         <v>87</v>
       </c>
@@ -3894,13 +3915,13 @@
         <v>27</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="32.1">
       <c r="A92" s="9">
         <v>88</v>
       </c>
@@ -3908,16 +3929,16 @@
         <v>27</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="32.1">
       <c r="A93" s="9">
         <v>89</v>
       </c>
@@ -3925,19 +3946,19 @@
         <v>27</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="N93" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O93" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="32.1">
       <c r="A94" s="9">
         <v>90</v>
       </c>
@@ -3945,19 +3966,19 @@
         <v>27</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="N94" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O94" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="32.1">
       <c r="A95" s="9">
         <v>91</v>
       </c>
@@ -3965,13 +3986,13 @@
         <v>27</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="32.1">
       <c r="A96" s="9">
         <v>92</v>
       </c>
@@ -3979,13 +4000,13 @@
         <v>27</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="32.1">
       <c r="A97" s="9">
         <v>93</v>
       </c>
@@ -3993,19 +4014,19 @@
         <v>27</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="N97" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O97" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="32.1">
       <c r="A98" s="9">
         <v>94</v>
       </c>
@@ -4013,13 +4034,13 @@
         <v>27</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="32.1">
       <c r="A99" s="9">
         <v>95</v>
       </c>
@@ -4027,13 +4048,13 @@
         <v>27</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="32.1">
       <c r="A100" s="9">
         <v>96</v>
       </c>
@@ -4041,13 +4062,13 @@
         <v>27</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="15.95">
       <c r="A101" s="9">
         <v>97</v>
       </c>
@@ -4055,19 +4076,19 @@
         <v>27</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="N101" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O101" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="32.1">
       <c r="A102" s="9">
         <v>98</v>
       </c>
@@ -4075,19 +4096,19 @@
         <v>36</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="N102" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O102" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="48">
       <c r="A103" s="9">
         <v>99</v>
       </c>
@@ -4095,13 +4116,13 @@
         <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="48">
       <c r="A104" s="9">
         <v>100</v>
       </c>
@@ -4109,13 +4130,13 @@
         <v>36</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="32.1">
       <c r="A105" s="9">
         <v>101</v>
       </c>
@@ -4123,13 +4144,13 @@
         <v>36</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="48">
       <c r="A106" s="9">
         <v>102</v>
       </c>
@@ -4137,19 +4158,19 @@
         <v>36</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="N106" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O106" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="32.1">
       <c r="A107" s="9">
         <v>103</v>
       </c>
@@ -4157,13 +4178,13 @@
         <v>36</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="96">
       <c r="A108" s="9">
         <v>104</v>
       </c>
@@ -4171,13 +4192,13 @@
         <v>36</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="32.1">
       <c r="A109" s="9">
         <v>105</v>
       </c>
@@ -4185,13 +4206,13 @@
         <v>36</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="15.95">
       <c r="A110" s="9">
         <v>106</v>
       </c>
@@ -4199,13 +4220,13 @@
         <v>36</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="32.1">
       <c r="A111" s="9">
         <v>107</v>
       </c>
@@ -4213,13 +4234,13 @@
         <v>36</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="48">
       <c r="A112" s="9">
         <v>108</v>
       </c>
@@ -4227,13 +4248,13 @@
         <v>36</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="32.1">
       <c r="A113" s="9">
         <v>109</v>
       </c>
@@ -4241,13 +4262,13 @@
         <v>36</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="15.95">
       <c r="A114" s="9">
         <v>110</v>
       </c>
@@ -4255,13 +4276,13 @@
         <v>36</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="32.1">
       <c r="A115" s="9">
         <v>111</v>
       </c>
@@ -4269,13 +4290,13 @@
         <v>36</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="32.1">
       <c r="A116" s="9">
         <v>112</v>
       </c>
@@ -4283,19 +4304,19 @@
         <v>36</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="N116" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O116" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="48">
       <c r="A117" s="9">
         <v>113</v>
       </c>
@@ -4303,13 +4324,13 @@
         <v>31</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="32.1">
       <c r="A118" s="9">
         <v>114</v>
       </c>
@@ -4317,13 +4338,13 @@
         <v>31</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="32.1">
       <c r="A119" s="9">
         <v>115</v>
       </c>
@@ -4331,13 +4352,13 @@
         <v>31</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="48">
       <c r="A120" s="9">
         <v>116</v>
       </c>
@@ -4345,19 +4366,19 @@
         <v>31</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="N120" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O120" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="48">
       <c r="A121" s="9">
         <v>117</v>
       </c>
@@ -4365,19 +4386,19 @@
         <v>31</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="N121" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O121" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="48">
       <c r="A122" s="9">
         <v>118</v>
       </c>
@@ -4385,19 +4406,19 @@
         <v>31</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="N122" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O122" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="32.1">
       <c r="A123" s="9">
         <v>119</v>
       </c>
@@ -4405,19 +4426,19 @@
         <v>31</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="N123" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O123" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="48">
       <c r="A124" s="9">
         <v>120</v>
       </c>
@@ -4425,13 +4446,13 @@
         <v>31</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="32.1">
       <c r="A125" s="9">
         <v>121</v>
       </c>
@@ -4439,19 +4460,19 @@
         <v>31</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="N125" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O125" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="80.099999999999994">
       <c r="A126" s="9">
         <v>122</v>
       </c>
@@ -4459,19 +4480,19 @@
         <v>31</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="N126" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O126" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="80.099999999999994">
       <c r="A127" s="9">
         <v>123</v>
       </c>
@@ -4479,13 +4500,13 @@
         <v>31</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="48">
       <c r="A128" s="9">
         <v>124</v>
       </c>
@@ -4493,13 +4514,13 @@
         <v>31</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" ht="80.099999999999994">
       <c r="A129" s="9">
         <v>125</v>
       </c>
@@ -4507,19 +4528,19 @@
         <v>31</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="N129" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O129" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="48">
       <c r="A130" s="9">
         <v>126</v>
       </c>
@@ -4527,13 +4548,13 @@
         <v>31</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" ht="32.1">
       <c r="A131" s="9">
         <v>127</v>
       </c>
@@ -4541,19 +4562,19 @@
         <v>30</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="N131" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O131" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" ht="48">
       <c r="A132" s="9">
         <v>128</v>
       </c>
@@ -4561,19 +4582,19 @@
         <v>30</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="N132" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O132" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" ht="15.95">
       <c r="A133" s="9">
         <v>129</v>
       </c>
@@ -4581,19 +4602,19 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="N133" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O133" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" ht="48">
       <c r="A134" s="9">
         <v>130</v>
       </c>
@@ -4601,19 +4622,19 @@
         <v>30</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="N134" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O134" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" ht="48">
       <c r="A135" s="9">
         <v>131</v>
       </c>
@@ -4621,13 +4642,13 @@
         <v>30</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" ht="32.1">
       <c r="A136" s="9">
         <v>132</v>
       </c>
@@ -4635,13 +4656,13 @@
         <v>30</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="48">
       <c r="A137" s="9">
         <v>133</v>
       </c>
@@ -4649,19 +4670,19 @@
         <v>30</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="N137" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O137" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="32.1">
       <c r="A138" s="9">
         <v>134</v>
       </c>
@@ -4669,19 +4690,19 @@
         <v>30</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="N138" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O138" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="48">
       <c r="A139" s="9">
         <v>135</v>
       </c>
@@ -4689,13 +4710,13 @@
         <v>30</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="48">
       <c r="A140" s="9">
         <v>136</v>
       </c>
@@ -4703,19 +4724,19 @@
         <v>30</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="N140" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O140" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" ht="208" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" ht="207.95">
       <c r="A141" s="9">
         <v>137</v>
       </c>
@@ -4723,19 +4744,19 @@
         <v>30</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="N141" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O141" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" ht="15.95">
       <c r="A142" s="9">
         <v>138</v>
       </c>
@@ -4743,19 +4764,19 @@
         <v>28</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="R142" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="48">
       <c r="A143" s="9">
         <v>139</v>
       </c>
@@ -4763,22 +4784,22 @@
         <v>28</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="N143" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O143" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="32.1">
       <c r="A144" s="9">
         <v>140</v>
       </c>
@@ -4786,13 +4807,13 @@
         <v>28</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="15.95">
       <c r="A145" s="9">
         <v>141</v>
       </c>
@@ -4800,13 +4821,13 @@
         <v>28</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="32.1">
       <c r="A146" s="9">
         <v>142</v>
       </c>
@@ -4814,13 +4835,13 @@
         <v>28</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="32.1">
       <c r="A147" s="9">
         <v>143</v>
       </c>
@@ -4828,13 +4849,13 @@
         <v>28</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="32.1">
       <c r="A148" s="9">
         <v>144</v>
       </c>
@@ -4842,19 +4863,19 @@
         <v>28</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="N148" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O148" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="15.95">
       <c r="A149" s="9">
         <v>145</v>
       </c>
@@ -4862,19 +4883,19 @@
         <v>28</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="N149" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O149" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="32.1">
       <c r="A150" s="9">
         <v>146</v>
       </c>
@@ -4882,13 +4903,13 @@
         <v>28</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="32.1">
       <c r="A151" s="9">
         <v>147</v>
       </c>
@@ -4896,13 +4917,13 @@
         <v>28</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="80.099999999999994">
       <c r="A152" s="9">
         <v>148</v>
       </c>
@@ -4910,19 +4931,19 @@
         <v>29</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="N152" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O152" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="48">
       <c r="A153" s="9">
         <v>149</v>
       </c>
@@ -4930,19 +4951,19 @@
         <v>29</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="N153" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O153" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="32.1">
       <c r="A154" s="9">
         <v>150</v>
       </c>
@@ -4950,17 +4971,17 @@
         <v>29</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="N154" s="1"/>
       <c r="O154" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="48">
       <c r="A155" s="9">
         <v>151</v>
       </c>
@@ -4968,13 +4989,13 @@
         <v>29</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="48">
       <c r="A156" s="9">
         <v>152</v>
       </c>
@@ -4982,19 +5003,19 @@
         <v>29</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="N156" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O156" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="32.1">
       <c r="A157" s="9">
         <v>153</v>
       </c>
@@ -5002,19 +5023,19 @@
         <v>29</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="N157" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O157" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="48">
       <c r="A158" s="9">
         <v>154</v>
       </c>
@@ -5022,19 +5043,19 @@
         <v>29</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="N158" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O158" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="48">
       <c r="A159" s="9">
         <v>155</v>
       </c>
@@ -5042,19 +5063,19 @@
         <v>29</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="N159" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O159" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="48">
       <c r="A160" s="9">
         <v>156</v>
       </c>
@@ -5062,19 +5083,19 @@
         <v>29</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="N160" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O160" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="48">
       <c r="A161" s="9">
         <v>157</v>
       </c>
@@ -5082,19 +5103,19 @@
         <v>29</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="N161" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O161" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="48">
       <c r="A162" s="9">
         <v>158</v>
       </c>
@@ -5102,13 +5123,13 @@
         <v>29</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="48">
       <c r="A163" s="9">
         <v>159</v>
       </c>
@@ -5116,19 +5137,19 @@
         <v>29</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="N163" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O163" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="48">
       <c r="A164" s="9">
         <v>160</v>
       </c>
@@ -5136,13 +5157,13 @@
         <v>29</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="32.1">
       <c r="A165" s="9">
         <v>161</v>
       </c>
@@ -5150,13 +5171,13 @@
         <v>29</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="48">
       <c r="A166" s="9">
         <v>162</v>
       </c>
@@ -5164,19 +5185,19 @@
         <v>29</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="N166" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O166" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="48">
       <c r="A167" s="9">
         <v>163</v>
       </c>
@@ -5184,13 +5205,13 @@
         <v>29</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="48">
       <c r="A168" s="9">
         <v>164</v>
       </c>
@@ -5198,13 +5219,13 @@
         <v>29</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="32.1">
       <c r="A169" s="9">
         <v>165</v>
       </c>
@@ -5212,19 +5233,19 @@
         <v>29</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="N169" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O169" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="48">
       <c r="A170" s="9">
         <v>166</v>
       </c>
@@ -5232,19 +5253,19 @@
         <v>29</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="N170" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O170" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="32.1">
       <c r="A171" s="9">
         <v>167</v>
       </c>
@@ -5252,19 +5273,19 @@
         <v>29</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="N171" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O171" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="32.1">
       <c r="A172" s="9">
         <v>168</v>
       </c>
@@ -5272,19 +5293,19 @@
         <v>32</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="N172" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O172" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="15.95">
       <c r="A173" s="9">
         <v>169</v>
       </c>
@@ -5292,19 +5313,19 @@
         <v>32</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="N173" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O173" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="32.1">
       <c r="A174" s="9">
         <v>170</v>
       </c>
@@ -5312,19 +5333,19 @@
         <v>32</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="N174" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O174" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="32.1">
       <c r="A175" s="9">
         <v>171</v>
       </c>
@@ -5332,13 +5353,13 @@
         <v>32</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="32.1">
       <c r="A176" s="9">
         <v>172</v>
       </c>
@@ -5346,13 +5367,13 @@
         <v>32</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="32.1">
       <c r="A177" s="9">
         <v>173</v>
       </c>
@@ -5360,13 +5381,13 @@
         <v>32</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="32.1">
       <c r="A178" s="9">
         <v>174</v>
       </c>
@@ -5374,13 +5395,13 @@
         <v>32</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="32.1">
       <c r="A179" s="9">
         <v>175</v>
       </c>
@@ -5388,19 +5409,19 @@
         <v>32</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="N179" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O179" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" ht="48">
       <c r="A180" s="9">
         <v>176</v>
       </c>
@@ -5408,13 +5429,13 @@
         <v>32</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="32.1">
       <c r="A181" s="9">
         <v>177</v>
       </c>
@@ -5422,13 +5443,13 @@
         <v>32</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" ht="32.1">
       <c r="A182" s="9">
         <v>178</v>
       </c>
@@ -5436,19 +5457,19 @@
         <v>32</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="N182" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O182" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" ht="32.1">
       <c r="A183" s="9">
         <v>179</v>
       </c>
@@ -5456,19 +5477,19 @@
         <v>32</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="N183" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O183" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" ht="32.1">
       <c r="A184" s="9">
         <v>180</v>
       </c>
@@ -5476,19 +5497,19 @@
         <v>32</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="N184" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O184" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="32.1">
       <c r="A185" s="9">
         <v>181</v>
       </c>
@@ -5496,19 +5517,19 @@
         <v>32</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="N185" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O185" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" ht="15.95">
       <c r="A186" s="9">
         <v>182</v>
       </c>
@@ -5516,19 +5537,19 @@
         <v>32</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="N186" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O186" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" ht="32.1">
       <c r="A187" s="9">
         <v>183</v>
       </c>
@@ -5536,19 +5557,19 @@
         <v>32</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="N187" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O187" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="15.95">
       <c r="A188" s="9">
         <v>184</v>
       </c>
@@ -5556,19 +5577,19 @@
         <v>32</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="N188" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O188" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" ht="15.95">
       <c r="A189" s="9">
         <v>185</v>
       </c>
@@ -5576,19 +5597,19 @@
         <v>32</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="N189" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O189" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" ht="32.1">
       <c r="A190" s="9">
         <v>186</v>
       </c>
@@ -5596,19 +5617,19 @@
         <v>32</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="N190" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O190" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" ht="15.95">
       <c r="A191" s="9">
         <v>187</v>
       </c>
@@ -5616,19 +5637,19 @@
         <v>32</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="N191" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O191" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" ht="15.95">
       <c r="A192" s="9">
         <v>188</v>
       </c>
@@ -5636,19 +5657,19 @@
         <v>32</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="N192" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O192" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" ht="32.1">
       <c r="A193" s="9">
         <v>189</v>
       </c>
@@ -5656,19 +5677,19 @@
         <v>32</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="N193" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O193" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" ht="15.95">
       <c r="A194" s="9">
         <v>190</v>
       </c>
@@ -5676,19 +5697,19 @@
         <v>32</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="N194" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O194" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" ht="15.95">
       <c r="A195" s="9">
         <v>191</v>
       </c>
@@ -5696,16 +5717,16 @@
         <v>32</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" ht="15.95">
       <c r="A196" s="9">
         <v>192</v>
       </c>
@@ -5713,19 +5734,19 @@
         <v>32</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="N196" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O196" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" ht="15.95">
       <c r="A197" s="9">
         <v>193</v>
       </c>
@@ -5733,19 +5754,19 @@
         <v>32</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="N197" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O197" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" ht="15.95">
       <c r="A198" s="9">
         <v>194</v>
       </c>
@@ -5753,19 +5774,19 @@
         <v>32</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="N198" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O198" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" ht="15.95">
       <c r="A199" s="9">
         <v>195</v>
       </c>
@@ -5773,19 +5794,19 @@
         <v>32</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="N199" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O199" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" ht="15.95">
       <c r="A200" s="9">
         <v>196</v>
       </c>
@@ -5793,19 +5814,19 @@
         <v>32</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="N200" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O200" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" ht="15.95">
       <c r="A201" s="9">
         <v>197</v>
       </c>
@@ -5813,19 +5834,19 @@
         <v>32</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="N201" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O201" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" ht="15.95">
       <c r="A202" s="9">
         <v>198</v>
       </c>
@@ -5833,19 +5854,19 @@
         <v>32</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="N202" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O202" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" ht="15.95">
       <c r="A203" s="9">
         <v>199</v>
       </c>
@@ -5853,19 +5874,19 @@
         <v>32</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="N203" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O203" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" ht="15.95">
       <c r="A204" s="9">
         <v>200</v>
       </c>
@@ -5873,13 +5894,13 @@
         <v>32</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" ht="32.1">
       <c r="A205" s="9">
         <v>201</v>
       </c>
@@ -5887,19 +5908,19 @@
         <v>32</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="N205" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O205" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" ht="15.95">
       <c r="A206" s="9">
         <v>202</v>
       </c>
@@ -5907,19 +5928,19 @@
         <v>32</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="N206" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O206" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="207" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" ht="15.95">
       <c r="A207" s="9">
         <v>203</v>
       </c>
@@ -5927,22 +5948,22 @@
         <v>32</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="N207" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O207" t="s">
-        <v>426</v>
+        <v>23</v>
       </c>
       <c r="R207" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" ht="29.25">
       <c r="A208" s="9">
         <v>204</v>
       </c>
@@ -5950,13 +5971,16 @@
         <v>25</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" ht="57.75">
       <c r="A209" s="9">
         <v>205</v>
       </c>
@@ -5964,13 +5988,16 @@
         <v>25</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" ht="43.5">
       <c r="A210" s="9">
         <v>206</v>
       </c>
@@ -5978,16 +6005,16 @@
         <v>25</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="R210" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" ht="43.5">
       <c r="A211" s="9">
         <v>207</v>
       </c>
@@ -5995,13 +6022,13 @@
         <v>25</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" ht="43.5">
       <c r="A212" s="9">
         <v>208</v>
       </c>
@@ -6009,13 +6036,16 @@
         <v>25</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" ht="29.25">
       <c r="A213" s="9">
         <v>209</v>
       </c>
@@ -6023,13 +6053,16 @@
         <v>25</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" ht="29.25">
       <c r="A214" s="9">
         <v>210</v>
       </c>
@@ -6037,13 +6070,16 @@
         <v>25</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" ht="43.5">
       <c r="A215" s="9">
         <v>211</v>
       </c>
@@ -6051,16 +6087,16 @@
         <v>25</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="R215" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" ht="32.1">
       <c r="A216" s="9">
         <v>212</v>
       </c>
@@ -6068,19 +6104,19 @@
         <v>25</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="N216" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O216" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" ht="15.95">
       <c r="A217" s="9">
         <v>213</v>
       </c>
@@ -6088,19 +6124,19 @@
         <v>25</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="N217" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O217" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" ht="15.95">
       <c r="A218" s="9">
         <v>214</v>
       </c>
@@ -6108,19 +6144,19 @@
         <v>25</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="N218" s="13" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="O218" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" ht="29.25">
       <c r="A219" s="9">
         <v>215</v>
       </c>
@@ -6128,13 +6164,13 @@
         <v>25</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" ht="32.1">
       <c r="A220" s="9">
         <v>216</v>
       </c>
@@ -6142,13 +6178,13 @@
         <v>25</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" ht="29.25">
       <c r="A221" s="9">
         <v>217</v>
       </c>
@@ -6156,16 +6192,19 @@
         <v>25</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>385</v>
+        <v>425</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="R221" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" ht="30.75">
       <c r="A222" s="9">
         <v>218</v>
       </c>
@@ -6173,13 +6212,16 @@
         <v>25</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" ht="29.25">
       <c r="A223" s="9">
         <v>219</v>
       </c>
@@ -6187,13 +6229,16 @@
         <v>25</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" ht="32.1">
       <c r="A224" s="9">
         <v>220</v>
       </c>
@@ -6201,15 +6246,15 @@
         <v>25</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="230" spans="18:18" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="230" spans="18:18">
       <c r="R230" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -6459,38 +6504,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8DC07DF-80B7-4F51-9B64-7871291DEDB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
-    <ds:schemaRef ds:uri="2f381668-55bb-4cca-a2e9-7746dbcfba3d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8DC07DF-80B7-4F51-9B64-7871291DEDB3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}"/>
 </file>
--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaitlynnhernandez/cse3310/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caden/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{983FA582-693B-4D20-AB32-8B8C052718DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492F2378-3EC3-0944-A59F-6875A8F5E85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="434">
   <si>
     <t>Tested By</t>
   </si>
@@ -1366,7 +1366,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1489,7 +1489,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>311149</xdr:colOff>
+      <xdr:colOff>311148</xdr:colOff>
       <xdr:row>151</xdr:row>
       <xdr:rowOff>716795</xdr:rowOff>
     </xdr:to>
@@ -1577,7 +1577,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>371655</xdr:colOff>
+      <xdr:colOff>371654</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>310563</xdr:rowOff>
     </xdr:to>
@@ -1685,7 +1685,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>285751</xdr:colOff>
       <xdr:row>213</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -1732,7 +1732,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>224</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -1779,7 +1779,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>438151</xdr:colOff>
       <xdr:row>224</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -2139,30 +2139,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B205" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F208" sqref="F208"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I154" sqref="I154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -2200,7 +2202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.95">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -2220,7 +2222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="48" hidden="1">
+    <row r="4" spans="1:19" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="D4" s="10"/>
@@ -2228,7 +2230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.95">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -2241,6 +2243,9 @@
       <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
       <c r="N5" t="s">
         <v>22</v>
       </c>
@@ -2248,7 +2253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.95">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -2261,6 +2266,9 @@
       <c r="D6" s="10" t="s">
         <v>25</v>
       </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
       <c r="N6" t="s">
         <v>22</v>
       </c>
@@ -2268,7 +2276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="32.1">
+    <row r="7" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -2282,7 +2290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.95">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -2296,7 +2304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="32.1">
+    <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -2310,7 +2318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="32.1">
+    <row r="10" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -2324,7 +2332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="32.1">
+    <row r="11" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -2337,6 +2345,9 @@
       <c r="D11" s="10" t="s">
         <v>25</v>
       </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
       <c r="N11" t="s">
         <v>22</v>
       </c>
@@ -2344,7 +2355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.95">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -2357,6 +2368,9 @@
       <c r="D12" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
       <c r="N12" t="s">
         <v>22</v>
       </c>
@@ -2364,7 +2378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.95">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -2378,7 +2392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.95">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -2392,7 +2406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="32.1">
+    <row r="15" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -2405,6 +2419,9 @@
       <c r="D15" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
       <c r="N15" t="s">
         <v>22</v>
       </c>
@@ -2412,7 +2429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.95">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -2425,6 +2442,9 @@
       <c r="D16" s="10" t="s">
         <v>39</v>
       </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
       <c r="N16" t="s">
         <v>22</v>
       </c>
@@ -2432,7 +2452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="32.1">
+    <row r="17" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -2445,6 +2465,9 @@
       <c r="D17" s="10" t="s">
         <v>41</v>
       </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
       <c r="N17" t="s">
         <v>22</v>
       </c>
@@ -2452,7 +2475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="32.1">
+    <row r="18" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -2465,6 +2488,9 @@
       <c r="D18" s="10" t="s">
         <v>39</v>
       </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
       <c r="N18" t="s">
         <v>22</v>
       </c>
@@ -2472,7 +2498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="32.1">
+    <row r="19" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -2485,6 +2511,9 @@
       <c r="D19" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
       <c r="N19" t="s">
         <v>22</v>
       </c>
@@ -2492,7 +2521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="32.1">
+    <row r="20" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>16</v>
       </c>
@@ -2505,6 +2534,9 @@
       <c r="D20" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
       <c r="N20" t="s">
         <v>22</v>
       </c>
@@ -2512,7 +2544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.95">
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>17</v>
       </c>
@@ -2525,6 +2557,9 @@
       <c r="D21" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
       <c r="N21" t="s">
         <v>22</v>
       </c>
@@ -2532,7 +2567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="32.1">
+    <row r="22" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -2545,6 +2580,9 @@
       <c r="D22" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
       <c r="N22" t="s">
         <v>22</v>
       </c>
@@ -2552,7 +2590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="48">
+    <row r="23" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>19</v>
       </c>
@@ -2565,6 +2603,9 @@
       <c r="D23" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
       <c r="N23" t="s">
         <v>22</v>
       </c>
@@ -2572,7 +2613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="32.1">
+    <row r="24" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>20</v>
       </c>
@@ -2586,7 +2627,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="32.1">
+    <row r="25" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>21</v>
       </c>
@@ -2600,7 +2641,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="48">
+    <row r="26" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>22</v>
       </c>
@@ -2613,6 +2654,9 @@
       <c r="D26" s="10" t="s">
         <v>53</v>
       </c>
+      <c r="I26" t="s">
+        <v>22</v>
+      </c>
       <c r="N26" t="s">
         <v>22</v>
       </c>
@@ -2620,7 +2664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="32.1">
+    <row r="27" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>23</v>
       </c>
@@ -2633,6 +2677,9 @@
       <c r="D27" s="10" t="s">
         <v>55</v>
       </c>
+      <c r="I27" t="s">
+        <v>22</v>
+      </c>
       <c r="N27" t="s">
         <v>22</v>
       </c>
@@ -2640,7 +2687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="32.1">
+    <row r="28" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>24</v>
       </c>
@@ -2653,6 +2700,9 @@
       <c r="D28" s="10" t="s">
         <v>25</v>
       </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
       <c r="N28" t="s">
         <v>22</v>
       </c>
@@ -2660,7 +2710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="48">
+    <row r="29" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -2673,6 +2723,9 @@
       <c r="D29" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
       <c r="N29" t="s">
         <v>22</v>
       </c>
@@ -2680,7 +2733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="32.1">
+    <row r="30" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>26</v>
       </c>
@@ -2694,7 +2747,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="32.1">
+    <row r="31" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>27</v>
       </c>
@@ -2707,6 +2760,9 @@
       <c r="D31" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="I31" t="s">
+        <v>22</v>
+      </c>
       <c r="N31" t="s">
         <v>22</v>
       </c>
@@ -2714,7 +2770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="32.1">
+    <row r="32" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>28</v>
       </c>
@@ -2727,6 +2783,9 @@
       <c r="D32" s="10" t="s">
         <v>62</v>
       </c>
+      <c r="I32" t="s">
+        <v>22</v>
+      </c>
       <c r="N32" t="s">
         <v>22</v>
       </c>
@@ -2734,7 +2793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="32.1">
+    <row r="33" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -2747,6 +2806,9 @@
       <c r="D33" s="10" t="s">
         <v>64</v>
       </c>
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
       <c r="N33" t="s">
         <v>22</v>
       </c>
@@ -2754,7 +2816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="32.1">
+    <row r="34" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -2768,7 +2830,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="32.1">
+    <row r="35" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -2781,6 +2843,9 @@
       <c r="D35" s="10" t="s">
         <v>67</v>
       </c>
+      <c r="I35" t="s">
+        <v>22</v>
+      </c>
       <c r="N35" t="s">
         <v>22</v>
       </c>
@@ -2788,7 +2853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="48">
+    <row r="36" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -2801,6 +2866,9 @@
       <c r="D36" s="10" t="s">
         <v>69</v>
       </c>
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
       <c r="N36" t="s">
         <v>22</v>
       </c>
@@ -2808,7 +2876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="48">
+    <row r="37" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -2821,6 +2889,9 @@
       <c r="D37" s="10" t="s">
         <v>71</v>
       </c>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
       <c r="N37" t="s">
         <v>22</v>
       </c>
@@ -2828,7 +2899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="63.95">
+    <row r="38" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -2841,6 +2912,9 @@
       <c r="D38" s="10" t="s">
         <v>73</v>
       </c>
+      <c r="I38" t="s">
+        <v>22</v>
+      </c>
       <c r="N38" t="s">
         <v>22</v>
       </c>
@@ -2848,7 +2922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="32.1">
+    <row r="39" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -2861,6 +2935,9 @@
       <c r="D39" s="10" t="s">
         <v>62</v>
       </c>
+      <c r="I39" t="s">
+        <v>22</v>
+      </c>
       <c r="N39" t="s">
         <v>22</v>
       </c>
@@ -2868,7 +2945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="32.1">
+    <row r="40" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -2882,7 +2959,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="32.1">
+    <row r="41" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>37</v>
       </c>
@@ -2895,6 +2972,9 @@
       <c r="D41" s="10" t="s">
         <v>77</v>
       </c>
+      <c r="I41" t="s">
+        <v>22</v>
+      </c>
       <c r="N41" t="s">
         <v>22</v>
       </c>
@@ -2902,7 +2982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.95">
+    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -2915,6 +2995,9 @@
       <c r="D42" s="10" t="s">
         <v>79</v>
       </c>
+      <c r="I42" t="s">
+        <v>22</v>
+      </c>
       <c r="N42" t="s">
         <v>22</v>
       </c>
@@ -2922,7 +3005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="32.1">
+    <row r="43" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -2935,6 +3018,9 @@
       <c r="D43" s="10" t="s">
         <v>81</v>
       </c>
+      <c r="I43" t="s">
+        <v>22</v>
+      </c>
       <c r="N43" t="s">
         <v>22</v>
       </c>
@@ -2942,7 +3028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="32.1">
+    <row r="44" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>40</v>
       </c>
@@ -2956,7 +3042,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="32.1">
+    <row r="45" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>41</v>
       </c>
@@ -2970,7 +3056,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="32.1">
+    <row r="46" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>42</v>
       </c>
@@ -2983,6 +3069,9 @@
       <c r="D46" s="10" t="s">
         <v>87</v>
       </c>
+      <c r="I46" t="s">
+        <v>22</v>
+      </c>
       <c r="N46" t="s">
         <v>22</v>
       </c>
@@ -2990,7 +3079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="48">
+    <row r="47" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>43</v>
       </c>
@@ -3003,6 +3092,9 @@
       <c r="D47" s="10" t="s">
         <v>89</v>
       </c>
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
       <c r="N47" t="s">
         <v>22</v>
       </c>
@@ -3010,7 +3102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="32.1">
+    <row r="48" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>44</v>
       </c>
@@ -3023,6 +3115,9 @@
       <c r="D48" s="10" t="s">
         <v>91</v>
       </c>
+      <c r="I48" t="s">
+        <v>22</v>
+      </c>
       <c r="N48" t="s">
         <v>22</v>
       </c>
@@ -3030,7 +3125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="32.1">
+    <row r="49" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>45</v>
       </c>
@@ -3043,6 +3138,9 @@
       <c r="D49" s="10" t="s">
         <v>93</v>
       </c>
+      <c r="I49" t="s">
+        <v>22</v>
+      </c>
       <c r="N49" t="s">
         <v>22</v>
       </c>
@@ -3050,7 +3148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="32.1">
+    <row r="50" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>46</v>
       </c>
@@ -3063,6 +3161,9 @@
       <c r="D50" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="I50" t="s">
+        <v>22</v>
+      </c>
       <c r="N50" t="s">
         <v>22</v>
       </c>
@@ -3070,7 +3171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="32.1">
+    <row r="51" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>47</v>
       </c>
@@ -3083,6 +3184,9 @@
       <c r="D51" s="10" t="s">
         <v>97</v>
       </c>
+      <c r="I51" t="s">
+        <v>22</v>
+      </c>
       <c r="N51" t="s">
         <v>22</v>
       </c>
@@ -3090,7 +3194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="32.1">
+    <row r="52" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>48</v>
       </c>
@@ -3104,7 +3208,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="63.95">
+    <row r="53" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>49</v>
       </c>
@@ -3121,7 +3225,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="32.1">
+    <row r="54" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>50</v>
       </c>
@@ -3138,7 +3242,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="32.1">
+    <row r="55" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>51</v>
       </c>
@@ -3155,7 +3259,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="32.1">
+    <row r="56" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>52</v>
       </c>
@@ -3172,7 +3276,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="32.1">
+    <row r="57" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>53</v>
       </c>
@@ -3189,7 +3293,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="48">
+    <row r="58" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>54</v>
       </c>
@@ -3206,7 +3310,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="48">
+    <row r="59" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>55</v>
       </c>
@@ -3223,7 +3327,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="48">
+    <row r="60" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>56</v>
       </c>
@@ -3240,7 +3344,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="32.1">
+    <row r="61" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>57</v>
       </c>
@@ -3257,7 +3361,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="32.1">
+    <row r="62" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>58</v>
       </c>
@@ -3273,6 +3377,9 @@
       <c r="E62" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="I62" t="s">
+        <v>22</v>
+      </c>
       <c r="N62" t="s">
         <v>22</v>
       </c>
@@ -3280,7 +3387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="32.1">
+    <row r="63" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>59</v>
       </c>
@@ -3296,6 +3403,9 @@
       <c r="E63" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="I63" t="s">
+        <v>22</v>
+      </c>
       <c r="N63" t="s">
         <v>22</v>
       </c>
@@ -3303,7 +3413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="32.1">
+    <row r="64" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>60</v>
       </c>
@@ -3319,6 +3429,9 @@
       <c r="E64" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="I64" t="s">
+        <v>22</v>
+      </c>
       <c r="N64" t="s">
         <v>22</v>
       </c>
@@ -3326,7 +3439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="63.95">
+    <row r="65" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>61</v>
       </c>
@@ -3342,6 +3455,9 @@
       <c r="E65" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="I65" t="s">
+        <v>22</v>
+      </c>
       <c r="N65" t="s">
         <v>22</v>
       </c>
@@ -3349,7 +3465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="63.95">
+    <row r="66" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>62</v>
       </c>
@@ -3365,6 +3481,9 @@
       <c r="E66" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="I66" t="s">
+        <v>22</v>
+      </c>
       <c r="N66" t="s">
         <v>22</v>
       </c>
@@ -3372,7 +3491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="32.1">
+    <row r="67" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>63</v>
       </c>
@@ -3389,7 +3508,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="32.1">
+    <row r="68" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>64</v>
       </c>
@@ -3406,7 +3525,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="32.1">
+    <row r="69" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>65</v>
       </c>
@@ -3422,6 +3541,9 @@
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="I69" t="s">
+        <v>22</v>
+      </c>
       <c r="N69" t="s">
         <v>22</v>
       </c>
@@ -3429,7 +3551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="32.1">
+    <row r="70" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>66</v>
       </c>
@@ -3445,6 +3567,9 @@
       <c r="E70" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="I70" t="s">
+        <v>22</v>
+      </c>
       <c r="N70" t="s">
         <v>22</v>
       </c>
@@ -3452,7 +3577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="48">
+    <row r="71" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>67</v>
       </c>
@@ -3468,6 +3593,9 @@
       <c r="E71" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="I71" t="s">
+        <v>22</v>
+      </c>
       <c r="N71" t="s">
         <v>22</v>
       </c>
@@ -3475,7 +3603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="63.95">
+    <row r="72" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>68</v>
       </c>
@@ -3491,6 +3619,9 @@
       <c r="E72" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
       <c r="N72" t="s">
         <v>22</v>
       </c>
@@ -3498,7 +3629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="32.1">
+    <row r="73" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>69</v>
       </c>
@@ -3512,7 +3643,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="48">
+    <row r="74" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>70</v>
       </c>
@@ -3526,7 +3657,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15.95">
+    <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>71</v>
       </c>
@@ -3540,7 +3671,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="48">
+    <row r="76" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>72</v>
       </c>
@@ -3554,7 +3685,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="48">
+    <row r="77" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>73</v>
       </c>
@@ -3567,6 +3698,9 @@
       <c r="D77" s="10" t="s">
         <v>150</v>
       </c>
+      <c r="I77" t="s">
+        <v>22</v>
+      </c>
       <c r="N77" t="s">
         <v>22</v>
       </c>
@@ -3574,7 +3708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="32.1">
+    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>74</v>
       </c>
@@ -3587,6 +3721,9 @@
       <c r="D78" s="10" t="s">
         <v>152</v>
       </c>
+      <c r="I78" t="s">
+        <v>22</v>
+      </c>
       <c r="N78" t="s">
         <v>22</v>
       </c>
@@ -3594,7 +3731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="32.1">
+    <row r="79" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>75</v>
       </c>
@@ -3607,6 +3744,9 @@
       <c r="D79" s="10" t="s">
         <v>154</v>
       </c>
+      <c r="I79" t="s">
+        <v>22</v>
+      </c>
       <c r="N79" t="s">
         <v>22</v>
       </c>
@@ -3614,7 +3754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="32.1">
+    <row r="80" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>76</v>
       </c>
@@ -3627,6 +3767,9 @@
       <c r="D80" s="10" t="s">
         <v>156</v>
       </c>
+      <c r="I80" t="s">
+        <v>22</v>
+      </c>
       <c r="N80" t="s">
         <v>22</v>
       </c>
@@ -3634,7 +3777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="32.1">
+    <row r="81" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>77</v>
       </c>
@@ -3647,6 +3790,9 @@
       <c r="D81" s="10" t="s">
         <v>158</v>
       </c>
+      <c r="I81" t="s">
+        <v>22</v>
+      </c>
       <c r="N81" t="s">
         <v>22</v>
       </c>
@@ -3654,7 +3800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="32.1">
+    <row r="82" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>78</v>
       </c>
@@ -3667,6 +3813,9 @@
       <c r="D82" s="10" t="s">
         <v>160</v>
       </c>
+      <c r="I82" t="s">
+        <v>22</v>
+      </c>
       <c r="N82" t="s">
         <v>22</v>
       </c>
@@ -3674,7 +3823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15.95">
+    <row r="83" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>79</v>
       </c>
@@ -3688,7 +3837,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="48">
+    <row r="84" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>80</v>
       </c>
@@ -3705,7 +3854,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="48">
+    <row r="85" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>81</v>
       </c>
@@ -3722,7 +3871,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="80.099999999999994">
+    <row r="86" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>82</v>
       </c>
@@ -3739,7 +3888,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15.95">
+    <row r="87" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>83</v>
       </c>
@@ -3756,7 +3905,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="32.1">
+    <row r="88" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>84</v>
       </c>
@@ -3769,6 +3918,9 @@
       <c r="D88" s="10" t="s">
         <v>176</v>
       </c>
+      <c r="I88" t="s">
+        <v>22</v>
+      </c>
       <c r="N88" t="s">
         <v>22</v>
       </c>
@@ -3776,7 +3928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="48">
+    <row r="89" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>85</v>
       </c>
@@ -3790,7 +3942,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="32.1">
+    <row r="90" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>86</v>
       </c>
@@ -3807,7 +3959,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15.95">
+    <row r="91" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>87</v>
       </c>
@@ -3821,7 +3973,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="32.1">
+    <row r="92" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>88</v>
       </c>
@@ -3838,7 +3990,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="32.1">
+    <row r="93" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>89</v>
       </c>
@@ -3851,6 +4003,9 @@
       <c r="D93" s="10" t="s">
         <v>188</v>
       </c>
+      <c r="I93" t="s">
+        <v>22</v>
+      </c>
       <c r="N93" t="s">
         <v>22</v>
       </c>
@@ -3858,7 +4013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="32.1">
+    <row r="94" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>90</v>
       </c>
@@ -3871,6 +4026,9 @@
       <c r="D94" s="10" t="s">
         <v>190</v>
       </c>
+      <c r="I94" t="s">
+        <v>22</v>
+      </c>
       <c r="N94" t="s">
         <v>22</v>
       </c>
@@ -3878,7 +4036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="32.1">
+    <row r="95" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>91</v>
       </c>
@@ -3892,7 +4050,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="32.1">
+    <row r="96" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>92</v>
       </c>
@@ -3906,7 +4064,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="32.1">
+    <row r="97" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>93</v>
       </c>
@@ -3919,6 +4077,9 @@
       <c r="D97" s="10" t="s">
         <v>196</v>
       </c>
+      <c r="I97" t="s">
+        <v>22</v>
+      </c>
       <c r="N97" t="s">
         <v>22</v>
       </c>
@@ -3926,7 +4087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="32.1">
+    <row r="98" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>94</v>
       </c>
@@ -3940,7 +4101,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="32.1">
+    <row r="99" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>95</v>
       </c>
@@ -3954,7 +4115,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="32.1">
+    <row r="100" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>96</v>
       </c>
@@ -3968,7 +4129,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="15.95">
+    <row r="101" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>97</v>
       </c>
@@ -3981,6 +4142,9 @@
       <c r="D101" s="10" t="s">
         <v>204</v>
       </c>
+      <c r="I101" t="s">
+        <v>22</v>
+      </c>
       <c r="N101" t="s">
         <v>22</v>
       </c>
@@ -3988,7 +4152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="32.1">
+    <row r="102" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>98</v>
       </c>
@@ -4001,6 +4165,9 @@
       <c r="D102" s="10" t="s">
         <v>206</v>
       </c>
+      <c r="I102" t="s">
+        <v>22</v>
+      </c>
       <c r="N102" t="s">
         <v>22</v>
       </c>
@@ -4008,7 +4175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="48">
+    <row r="103" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>99</v>
       </c>
@@ -4022,7 +4189,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="48">
+    <row r="104" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>100</v>
       </c>
@@ -4036,7 +4203,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="32.1">
+    <row r="105" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>101</v>
       </c>
@@ -4050,7 +4217,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="48">
+    <row r="106" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>102</v>
       </c>
@@ -4063,6 +4230,9 @@
       <c r="D106" s="10" t="s">
         <v>206</v>
       </c>
+      <c r="I106" t="s">
+        <v>22</v>
+      </c>
       <c r="N106" t="s">
         <v>22</v>
       </c>
@@ -4070,7 +4240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="32.1">
+    <row r="107" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>103</v>
       </c>
@@ -4084,7 +4254,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="96">
+    <row r="108" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
         <v>104</v>
       </c>
@@ -4098,7 +4268,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="32.1">
+    <row r="109" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>105</v>
       </c>
@@ -4112,7 +4282,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="15.95">
+    <row r="110" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
         <v>106</v>
       </c>
@@ -4126,7 +4296,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="32.1">
+    <row r="111" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>107</v>
       </c>
@@ -4140,7 +4310,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="48">
+    <row r="112" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>108</v>
       </c>
@@ -4154,7 +4324,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="32.1">
+    <row r="113" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>109</v>
       </c>
@@ -4168,7 +4338,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="15.95">
+    <row r="114" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>110</v>
       </c>
@@ -4182,7 +4352,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="32.1">
+    <row r="115" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>111</v>
       </c>
@@ -4196,7 +4366,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="32.1">
+    <row r="116" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
         <v>112</v>
       </c>
@@ -4209,6 +4379,9 @@
       <c r="D116" s="10" t="s">
         <v>226</v>
       </c>
+      <c r="I116" t="s">
+        <v>22</v>
+      </c>
       <c r="N116" t="s">
         <v>22</v>
       </c>
@@ -4216,7 +4389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="48">
+    <row r="117" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>113</v>
       </c>
@@ -4230,7 +4403,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="32.1">
+    <row r="118" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
         <v>114</v>
       </c>
@@ -4244,7 +4417,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="32.1">
+    <row r="119" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>115</v>
       </c>
@@ -4258,7 +4431,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="48">
+    <row r="120" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
         <v>116</v>
       </c>
@@ -4271,6 +4444,9 @@
       <c r="D120" s="10" t="s">
         <v>232</v>
       </c>
+      <c r="I120" t="s">
+        <v>22</v>
+      </c>
       <c r="N120" t="s">
         <v>22</v>
       </c>
@@ -4278,7 +4454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="48">
+    <row r="121" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
         <v>117</v>
       </c>
@@ -4291,6 +4467,9 @@
       <c r="D121" s="10" t="s">
         <v>234</v>
       </c>
+      <c r="I121" t="s">
+        <v>22</v>
+      </c>
       <c r="N121" t="s">
         <v>22</v>
       </c>
@@ -4298,7 +4477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="48">
+    <row r="122" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>118</v>
       </c>
@@ -4311,6 +4490,9 @@
       <c r="D122" s="10" t="s">
         <v>236</v>
       </c>
+      <c r="I122" t="s">
+        <v>22</v>
+      </c>
       <c r="N122" t="s">
         <v>22</v>
       </c>
@@ -4318,7 +4500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="32.1">
+    <row r="123" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
         <v>119</v>
       </c>
@@ -4331,6 +4513,9 @@
       <c r="D123" s="10" t="s">
         <v>228</v>
       </c>
+      <c r="I123" t="s">
+        <v>22</v>
+      </c>
       <c r="N123" t="s">
         <v>22</v>
       </c>
@@ -4338,7 +4523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="48">
+    <row r="124" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
         <v>120</v>
       </c>
@@ -4352,7 +4537,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="32.1">
+    <row r="125" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>121</v>
       </c>
@@ -4365,6 +4550,9 @@
       <c r="D125" s="10" t="s">
         <v>241</v>
       </c>
+      <c r="I125" t="s">
+        <v>22</v>
+      </c>
       <c r="N125" t="s">
         <v>22</v>
       </c>
@@ -4372,7 +4560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="80.099999999999994">
+    <row r="126" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
         <v>122</v>
       </c>
@@ -4385,6 +4573,9 @@
       <c r="D126" s="10" t="s">
         <v>232</v>
       </c>
+      <c r="I126" t="s">
+        <v>22</v>
+      </c>
       <c r="N126" t="s">
         <v>22</v>
       </c>
@@ -4392,7 +4583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="80.099999999999994">
+    <row r="127" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A127" s="9">
         <v>123</v>
       </c>
@@ -4406,7 +4597,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="48">
+    <row r="128" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
         <v>124</v>
       </c>
@@ -4420,7 +4611,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="80.099999999999994">
+    <row r="129" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
         <v>125</v>
       </c>
@@ -4433,6 +4624,9 @@
       <c r="D129" s="10" t="s">
         <v>247</v>
       </c>
+      <c r="I129" t="s">
+        <v>22</v>
+      </c>
       <c r="N129" t="s">
         <v>22</v>
       </c>
@@ -4440,7 +4634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="48">
+    <row r="130" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
         <v>126</v>
       </c>
@@ -4454,7 +4648,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="32.1">
+    <row r="131" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" s="9">
         <v>127</v>
       </c>
@@ -4467,6 +4661,9 @@
       <c r="D131" s="11" t="s">
         <v>251</v>
       </c>
+      <c r="I131" t="s">
+        <v>22</v>
+      </c>
       <c r="N131" t="s">
         <v>22</v>
       </c>
@@ -4474,7 +4671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="48">
+    <row r="132" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A132" s="9">
         <v>128</v>
       </c>
@@ -4487,6 +4684,9 @@
       <c r="D132" s="11" t="s">
         <v>253</v>
       </c>
+      <c r="I132" t="s">
+        <v>22</v>
+      </c>
       <c r="N132" t="s">
         <v>22</v>
       </c>
@@ -4494,7 +4694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="15.95">
+    <row r="133" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
         <v>129</v>
       </c>
@@ -4507,6 +4707,9 @@
       <c r="D133" s="11" t="s">
         <v>255</v>
       </c>
+      <c r="I133" t="s">
+        <v>22</v>
+      </c>
       <c r="N133" t="s">
         <v>22</v>
       </c>
@@ -4514,7 +4717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="48">
+    <row r="134" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A134" s="9">
         <v>130</v>
       </c>
@@ -4527,6 +4730,9 @@
       <c r="D134" s="11" t="s">
         <v>257</v>
       </c>
+      <c r="I134" t="s">
+        <v>22</v>
+      </c>
       <c r="N134" t="s">
         <v>22</v>
       </c>
@@ -4534,7 +4740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="48">
+    <row r="135" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
         <v>131</v>
       </c>
@@ -4548,7 +4754,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="32.1">
+    <row r="136" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="9">
         <v>132</v>
       </c>
@@ -4562,7 +4768,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="48">
+    <row r="137" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A137" s="9">
         <v>133</v>
       </c>
@@ -4575,6 +4781,9 @@
       <c r="D137" s="11" t="s">
         <v>251</v>
       </c>
+      <c r="I137" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N137" s="13" t="s">
         <v>22</v>
       </c>
@@ -4582,7 +4791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="32.1">
+    <row r="138" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="9">
         <v>134</v>
       </c>
@@ -4595,6 +4804,9 @@
       <c r="D138" s="11" t="s">
         <v>251</v>
       </c>
+      <c r="I138" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N138" s="13" t="s">
         <v>22</v>
       </c>
@@ -4602,7 +4814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="48">
+    <row r="139" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" s="9">
         <v>135</v>
       </c>
@@ -4616,7 +4828,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="48">
+    <row r="140" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A140" s="9">
         <v>136</v>
       </c>
@@ -4629,6 +4841,9 @@
       <c r="D140" s="11" t="s">
         <v>265</v>
       </c>
+      <c r="I140" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N140" s="13" t="s">
         <v>22</v>
       </c>
@@ -4636,7 +4851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="207.95">
+    <row r="141" spans="1:18" ht="208" x14ac:dyDescent="0.2">
       <c r="A141" s="9">
         <v>137</v>
       </c>
@@ -4649,6 +4864,9 @@
       <c r="D141" s="11" t="s">
         <v>267</v>
       </c>
+      <c r="I141" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N141" s="13" t="s">
         <v>22</v>
       </c>
@@ -4656,7 +4874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="15.95">
+    <row r="142" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="9">
         <v>138</v>
       </c>
@@ -4676,7 +4894,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="48">
+    <row r="143" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A143" s="9">
         <v>139</v>
       </c>
@@ -4692,6 +4910,9 @@
       <c r="E143" s="1" t="s">
         <v>274</v>
       </c>
+      <c r="I143" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N143" s="13" t="s">
         <v>22</v>
       </c>
@@ -4699,7 +4920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="32.1">
+    <row r="144" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="9">
         <v>140</v>
       </c>
@@ -4713,7 +4934,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="15.95">
+    <row r="145" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="9">
         <v>141</v>
       </c>
@@ -4727,7 +4948,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="32.1">
+    <row r="146" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="9">
         <v>142</v>
       </c>
@@ -4741,7 +4962,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="32.1">
+    <row r="147" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="9">
         <v>143</v>
       </c>
@@ -4755,7 +4976,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="32.1">
+    <row r="148" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="9">
         <v>144</v>
       </c>
@@ -4768,6 +4989,9 @@
       <c r="D148" s="10" t="s">
         <v>273</v>
       </c>
+      <c r="I148" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N148" s="13" t="s">
         <v>22</v>
       </c>
@@ -4775,7 +4999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="15.95">
+    <row r="149" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="9">
         <v>145</v>
       </c>
@@ -4788,6 +5012,9 @@
       <c r="D149" s="10" t="s">
         <v>269</v>
       </c>
+      <c r="I149" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N149" s="13" t="s">
         <v>22</v>
       </c>
@@ -4795,7 +5022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="32.1">
+    <row r="150" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="9">
         <v>146</v>
       </c>
@@ -4809,7 +5036,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="32.1">
+    <row r="151" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="9">
         <v>147</v>
       </c>
@@ -4823,7 +5050,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="80.099999999999994">
+    <row r="152" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A152" s="9">
         <v>148</v>
       </c>
@@ -4836,6 +5063,9 @@
       <c r="D152" s="12" t="s">
         <v>284</v>
       </c>
+      <c r="I152" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N152" s="13" t="s">
         <v>22</v>
       </c>
@@ -4843,7 +5073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="48">
+    <row r="153" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A153" s="9">
         <v>149</v>
       </c>
@@ -4856,6 +5086,9 @@
       <c r="D153" s="12" t="s">
         <v>286</v>
       </c>
+      <c r="I153" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N153" s="13" t="s">
         <v>22</v>
       </c>
@@ -4863,7 +5096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="32.1">
+    <row r="154" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="9">
         <v>150</v>
       </c>
@@ -4875,13 +5108,16 @@
       </c>
       <c r="D154" s="12" t="s">
         <v>288</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="N154" s="1"/>
       <c r="O154" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="48">
+    <row r="155" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A155" s="9">
         <v>151</v>
       </c>
@@ -4895,7 +5131,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="48">
+    <row r="156" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A156" s="9">
         <v>152</v>
       </c>
@@ -4908,6 +5144,9 @@
       <c r="D156" s="12" t="s">
         <v>293</v>
       </c>
+      <c r="I156" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N156" s="13" t="s">
         <v>22</v>
       </c>
@@ -4915,7 +5154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="32.1">
+    <row r="157" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="9">
         <v>153</v>
       </c>
@@ -4928,6 +5167,9 @@
       <c r="D157" s="12" t="s">
         <v>295</v>
       </c>
+      <c r="I157" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N157" s="13" t="s">
         <v>22</v>
       </c>
@@ -4935,7 +5177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="48">
+    <row r="158" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A158" s="9">
         <v>154</v>
       </c>
@@ -4948,6 +5190,9 @@
       <c r="D158" s="12" t="s">
         <v>297</v>
       </c>
+      <c r="I158" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N158" s="13" t="s">
         <v>22</v>
       </c>
@@ -4955,7 +5200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="48">
+    <row r="159" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A159" s="9">
         <v>155</v>
       </c>
@@ -4968,6 +5213,9 @@
       <c r="D159" s="12" t="s">
         <v>299</v>
       </c>
+      <c r="I159" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N159" s="13" t="s">
         <v>22</v>
       </c>
@@ -4975,7 +5223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="48">
+    <row r="160" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A160" s="9">
         <v>156</v>
       </c>
@@ -4988,6 +5236,9 @@
       <c r="D160" s="12" t="s">
         <v>301</v>
       </c>
+      <c r="I160" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N160" s="13" t="s">
         <v>22</v>
       </c>
@@ -4995,7 +5246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="48">
+    <row r="161" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A161" s="9">
         <v>157</v>
       </c>
@@ -5008,6 +5259,9 @@
       <c r="D161" s="12" t="s">
         <v>303</v>
       </c>
+      <c r="I161" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N161" s="13" t="s">
         <v>22</v>
       </c>
@@ -5015,7 +5269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="48">
+    <row r="162" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A162" s="9">
         <v>158</v>
       </c>
@@ -5029,7 +5283,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="48">
+    <row r="163" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A163" s="9">
         <v>159</v>
       </c>
@@ -5042,6 +5296,9 @@
       <c r="D163" s="12" t="s">
         <v>307</v>
       </c>
+      <c r="I163" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N163" s="13" t="s">
         <v>22</v>
       </c>
@@ -5049,7 +5306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="48">
+    <row r="164" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A164" s="9">
         <v>160</v>
       </c>
@@ -5063,7 +5320,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="32.1">
+    <row r="165" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" s="9">
         <v>161</v>
       </c>
@@ -5077,7 +5334,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="48">
+    <row r="166" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A166" s="9">
         <v>162</v>
       </c>
@@ -5090,6 +5347,9 @@
       <c r="D166" s="12" t="s">
         <v>313</v>
       </c>
+      <c r="I166" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N166" s="13" t="s">
         <v>22</v>
       </c>
@@ -5097,7 +5357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="48">
+    <row r="167" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A167" s="9">
         <v>163</v>
       </c>
@@ -5111,7 +5371,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="48">
+    <row r="168" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A168" s="9">
         <v>164</v>
       </c>
@@ -5125,7 +5385,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="32.1">
+    <row r="169" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="9">
         <v>165</v>
       </c>
@@ -5138,6 +5398,9 @@
       <c r="D169" s="12" t="s">
         <v>319</v>
       </c>
+      <c r="I169" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N169" s="13" t="s">
         <v>22</v>
       </c>
@@ -5145,7 +5408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="48">
+    <row r="170" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A170" s="9">
         <v>166</v>
       </c>
@@ -5158,6 +5421,9 @@
       <c r="D170" s="12" t="s">
         <v>319</v>
       </c>
+      <c r="I170" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N170" s="13" t="s">
         <v>22</v>
       </c>
@@ -5165,7 +5431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="32.1">
+    <row r="171" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" s="9">
         <v>167</v>
       </c>
@@ -5178,6 +5444,9 @@
       <c r="D171" s="12" t="s">
         <v>322</v>
       </c>
+      <c r="I171" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N171" s="13" t="s">
         <v>22</v>
       </c>
@@ -5185,7 +5454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="32.1">
+    <row r="172" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="9">
         <v>168</v>
       </c>
@@ -5198,6 +5467,9 @@
       <c r="D172" s="10" t="s">
         <v>324</v>
       </c>
+      <c r="I172" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N172" s="13" t="s">
         <v>22</v>
       </c>
@@ -5205,7 +5477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="15.95">
+    <row r="173" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="9">
         <v>169</v>
       </c>
@@ -5218,6 +5490,9 @@
       <c r="D173" s="10" t="s">
         <v>326</v>
       </c>
+      <c r="I173" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N173" s="13" t="s">
         <v>22</v>
       </c>
@@ -5225,7 +5500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="32.1">
+    <row r="174" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="9">
         <v>170</v>
       </c>
@@ -5238,6 +5513,9 @@
       <c r="D174" s="10" t="s">
         <v>328</v>
       </c>
+      <c r="I174" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N174" s="13" t="s">
         <v>22</v>
       </c>
@@ -5245,7 +5523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="32.1">
+    <row r="175" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A175" s="9">
         <v>171</v>
       </c>
@@ -5259,7 +5537,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="32.1">
+    <row r="176" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="9">
         <v>172</v>
       </c>
@@ -5273,7 +5551,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="32.1">
+    <row r="177" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A177" s="9">
         <v>173</v>
       </c>
@@ -5287,7 +5565,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="32.1">
+    <row r="178" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="9">
         <v>174</v>
       </c>
@@ -5301,7 +5579,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="32.1">
+    <row r="179" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="9">
         <v>175</v>
       </c>
@@ -5314,6 +5592,9 @@
       <c r="D179" s="10" t="s">
         <v>338</v>
       </c>
+      <c r="I179" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N179" s="13" t="s">
         <v>22</v>
       </c>
@@ -5321,7 +5602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="48">
+    <row r="180" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A180" s="9">
         <v>176</v>
       </c>
@@ -5335,7 +5616,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="32.1">
+    <row r="181" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="9">
         <v>177</v>
       </c>
@@ -5349,7 +5630,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="32.1">
+    <row r="182" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="9">
         <v>178</v>
       </c>
@@ -5362,6 +5643,9 @@
       <c r="D182" s="10" t="s">
         <v>344</v>
       </c>
+      <c r="I182" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N182" s="13" t="s">
         <v>22</v>
       </c>
@@ -5369,7 +5653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="32.1">
+    <row r="183" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A183" s="9">
         <v>179</v>
       </c>
@@ -5382,6 +5666,9 @@
       <c r="D183" s="10" t="s">
         <v>346</v>
       </c>
+      <c r="I183" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N183" s="13" t="s">
         <v>22</v>
       </c>
@@ -5389,7 +5676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="32.1">
+    <row r="184" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="9">
         <v>180</v>
       </c>
@@ -5402,6 +5689,9 @@
       <c r="D184" s="10" t="s">
         <v>348</v>
       </c>
+      <c r="I184" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N184" s="13" t="s">
         <v>22</v>
       </c>
@@ -5409,7 +5699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="32.1">
+    <row r="185" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="9">
         <v>181</v>
       </c>
@@ -5422,6 +5712,9 @@
       <c r="D185" s="10" t="s">
         <v>350</v>
       </c>
+      <c r="I185" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N185" s="13" t="s">
         <v>22</v>
       </c>
@@ -5429,7 +5722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="15.95">
+    <row r="186" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="9">
         <v>182</v>
       </c>
@@ -5442,6 +5735,9 @@
       <c r="D186" s="10" t="s">
         <v>352</v>
       </c>
+      <c r="I186" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N186" s="13" t="s">
         <v>22</v>
       </c>
@@ -5449,7 +5745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="32.1">
+    <row r="187" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" s="9">
         <v>183</v>
       </c>
@@ -5462,6 +5758,9 @@
       <c r="D187" s="10" t="s">
         <v>354</v>
       </c>
+      <c r="I187" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N187" s="13" t="s">
         <v>22</v>
       </c>
@@ -5469,7 +5768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="15.95">
+    <row r="188" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="9">
         <v>184</v>
       </c>
@@ -5482,6 +5781,9 @@
       <c r="D188" s="10" t="s">
         <v>356</v>
       </c>
+      <c r="I188" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N188" s="13" t="s">
         <v>22</v>
       </c>
@@ -5489,7 +5791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="15.95">
+    <row r="189" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="9">
         <v>185</v>
       </c>
@@ -5502,6 +5804,9 @@
       <c r="D189" s="10" t="s">
         <v>354</v>
       </c>
+      <c r="I189" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N189" s="13" t="s">
         <v>22</v>
       </c>
@@ -5509,7 +5814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="32.1">
+    <row r="190" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="9">
         <v>186</v>
       </c>
@@ -5522,6 +5827,9 @@
       <c r="D190" s="10" t="s">
         <v>336</v>
       </c>
+      <c r="I190" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N190" s="13" t="s">
         <v>22</v>
       </c>
@@ -5529,7 +5837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="15.95">
+    <row r="191" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="9">
         <v>187</v>
       </c>
@@ -5542,6 +5850,9 @@
       <c r="D191" s="10" t="s">
         <v>360</v>
       </c>
+      <c r="I191" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N191" s="13" t="s">
         <v>22</v>
       </c>
@@ -5549,7 +5860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="15.95">
+    <row r="192" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="9">
         <v>188</v>
       </c>
@@ -5562,6 +5873,9 @@
       <c r="D192" s="10" t="s">
         <v>362</v>
       </c>
+      <c r="I192" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N192" s="13" t="s">
         <v>22</v>
       </c>
@@ -5569,7 +5883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="32.1">
+    <row r="193" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="9">
         <v>189</v>
       </c>
@@ -5582,6 +5896,9 @@
       <c r="D193" s="10" t="s">
         <v>364</v>
       </c>
+      <c r="I193" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N193" s="13" t="s">
         <v>22</v>
       </c>
@@ -5589,7 +5906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="15.95">
+    <row r="194" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="9">
         <v>190</v>
       </c>
@@ -5602,6 +5919,9 @@
       <c r="D194" s="10" t="s">
         <v>366</v>
       </c>
+      <c r="I194" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N194" s="13" t="s">
         <v>22</v>
       </c>
@@ -5609,7 +5929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="15.95">
+    <row r="195" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="9">
         <v>191</v>
       </c>
@@ -5626,7 +5946,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="15.95">
+    <row r="196" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="9">
         <v>192</v>
       </c>
@@ -5639,6 +5959,9 @@
       <c r="D196" s="10" t="s">
         <v>371</v>
       </c>
+      <c r="I196" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N196" s="13" t="s">
         <v>22</v>
       </c>
@@ -5646,7 +5969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="15.95">
+    <row r="197" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="9">
         <v>193</v>
       </c>
@@ -5659,6 +5982,9 @@
       <c r="D197" s="10" t="s">
         <v>373</v>
       </c>
+      <c r="I197" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N197" s="13" t="s">
         <v>22</v>
       </c>
@@ -5666,7 +5992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="15.95">
+    <row r="198" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="9">
         <v>194</v>
       </c>
@@ -5679,6 +6005,9 @@
       <c r="D198" s="10" t="s">
         <v>375</v>
       </c>
+      <c r="I198" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N198" s="13" t="s">
         <v>22</v>
       </c>
@@ -5686,7 +6015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="15.95">
+    <row r="199" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="9">
         <v>195</v>
       </c>
@@ -5699,6 +6028,9 @@
       <c r="D199" s="10" t="s">
         <v>377</v>
       </c>
+      <c r="I199" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N199" s="13" t="s">
         <v>22</v>
       </c>
@@ -5706,7 +6038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="15.95">
+    <row r="200" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="9">
         <v>196</v>
       </c>
@@ -5719,6 +6051,9 @@
       <c r="D200" s="10" t="s">
         <v>379</v>
       </c>
+      <c r="I200" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N200" s="13" t="s">
         <v>22</v>
       </c>
@@ -5726,7 +6061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="15.95">
+    <row r="201" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="9">
         <v>197</v>
       </c>
@@ -5739,6 +6074,9 @@
       <c r="D201" s="10" t="s">
         <v>381</v>
       </c>
+      <c r="I201" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N201" s="13" t="s">
         <v>22</v>
       </c>
@@ -5746,7 +6084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="15.95">
+    <row r="202" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="9">
         <v>198</v>
       </c>
@@ -5759,6 +6097,9 @@
       <c r="D202" s="10" t="s">
         <v>383</v>
       </c>
+      <c r="I202" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N202" s="13" t="s">
         <v>22</v>
       </c>
@@ -5766,7 +6107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="15.95">
+    <row r="203" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="9">
         <v>199</v>
       </c>
@@ -5779,6 +6120,9 @@
       <c r="D203" s="10" t="s">
         <v>385</v>
       </c>
+      <c r="I203" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N203" s="13" t="s">
         <v>22</v>
       </c>
@@ -5786,7 +6130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="15.95">
+    <row r="204" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="9">
         <v>200</v>
       </c>
@@ -5800,7 +6144,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="32.1">
+    <row r="205" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="9">
         <v>201</v>
       </c>
@@ -5813,6 +6157,9 @@
       <c r="D205" s="10" t="s">
         <v>354</v>
       </c>
+      <c r="I205" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N205" s="13" t="s">
         <v>22</v>
       </c>
@@ -5820,7 +6167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="15.95">
+    <row r="206" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="9">
         <v>202</v>
       </c>
@@ -5833,6 +6180,9 @@
       <c r="D206" s="10" t="s">
         <v>390</v>
       </c>
+      <c r="I206" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N206" s="13" t="s">
         <v>22</v>
       </c>
@@ -5840,7 +6190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="15.95">
+    <row r="207" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="9">
         <v>203</v>
       </c>
@@ -5853,6 +6203,9 @@
       <c r="D207" s="10" t="s">
         <v>392</v>
       </c>
+      <c r="I207" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N207" s="13" t="s">
         <v>22</v>
       </c>
@@ -5860,7 +6213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="29.25">
+    <row r="208" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" s="9">
         <v>204</v>
       </c>
@@ -5877,7 +6230,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="57.75">
+    <row r="209" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A209" s="9">
         <v>205</v>
       </c>
@@ -5894,7 +6247,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="43.5">
+    <row r="210" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="9">
         <v>206</v>
       </c>
@@ -5908,7 +6261,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="43.5">
+    <row r="211" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A211" s="9">
         <v>207</v>
       </c>
@@ -5922,7 +6275,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="43.5">
+    <row r="212" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A212" s="9">
         <v>208</v>
       </c>
@@ -5939,7 +6292,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="29.25">
+    <row r="213" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A213" s="9">
         <v>209</v>
       </c>
@@ -5956,7 +6309,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="29.25">
+    <row r="214" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="9">
         <v>210</v>
       </c>
@@ -5973,7 +6326,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="43.5">
+    <row r="215" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="9">
         <v>211</v>
       </c>
@@ -5987,7 +6340,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="32.1">
+    <row r="216" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A216" s="9">
         <v>212</v>
       </c>
@@ -6000,6 +6353,9 @@
       <c r="D216" s="1" t="s">
         <v>414</v>
       </c>
+      <c r="I216" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N216" s="13" t="s">
         <v>22</v>
       </c>
@@ -6007,7 +6363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="15.95">
+    <row r="217" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="9">
         <v>213</v>
       </c>
@@ -6020,6 +6376,9 @@
       <c r="D217" s="1" t="s">
         <v>414</v>
       </c>
+      <c r="I217" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N217" s="13" t="s">
         <v>22</v>
       </c>
@@ -6027,7 +6386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="15.95">
+    <row r="218" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="9">
         <v>214</v>
       </c>
@@ -6040,6 +6399,9 @@
       <c r="D218" s="1" t="s">
         <v>417</v>
       </c>
+      <c r="I218" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="N218" s="13" t="s">
         <v>22</v>
       </c>
@@ -6047,7 +6409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="29.25">
+    <row r="219" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="9">
         <v>215</v>
       </c>
@@ -6061,7 +6423,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="32.1">
+    <row r="220" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="9">
         <v>216</v>
       </c>
@@ -6075,7 +6437,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="29.25">
+    <row r="221" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" s="9">
         <v>217</v>
       </c>
@@ -6092,7 +6454,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="30.75">
+    <row r="222" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="9">
         <v>218</v>
       </c>
@@ -6109,7 +6471,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="43.5">
+    <row r="223" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="9">
         <v>219</v>
       </c>
@@ -6126,7 +6488,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="32.1">
+    <row r="224" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="9">
         <v>220</v>
       </c>
@@ -6140,7 +6502,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="29.25">
+    <row r="225" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>221</v>
       </c>
@@ -6166,6 +6528,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDD0FC4969DCF4449136D2C873E795D1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c6f44795faba901663e8a9bf3a6322e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d2c32087-eb03-4a65-b505-380146e007a4" xmlns:ns4="2f381668-55bb-4cca-a2e9-7746dbcfba3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7caa3c07606457882248d14e3a3261f4" ns3:_="" ns4:_="">
     <xsd:import namespace="d2c32087-eb03-4a65-b505-380146e007a4"/>
@@ -6386,14 +6756,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6404,13 +6766,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8DC07DF-80B7-4F51-9B64-7871291DEDB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8DC07DF-80B7-4F51-9B64-7871291DEDB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
+    <ds:schemaRef ds:uri="2f381668-55bb-4cca-a2e9-7746dbcfba3d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caden/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtian/Documents/UTA/Spring 2025/CSE 3310/cse3310-sp25-002/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492F2378-3EC3-0944-A59F-6875A8F5E85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDE4DA8-6DF4-0644-8552-0450DFC5B980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="446">
   <si>
     <t>Tested By</t>
   </si>
   <si>
     <t>group 1 (Group 25)</t>
-  </si>
-  <si>
-    <t>group 2 (Group 26)</t>
   </si>
   <si>
     <t>group 3 (Group 27)</t>
@@ -1360,6 +1357,45 @@
   </si>
   <si>
     <t>UI-LG-009</t>
+  </si>
+  <si>
+    <t>group 2 (Group 26) - Join Game</t>
+  </si>
+  <si>
+    <t>Unable to test</t>
+  </si>
+  <si>
+    <t>Partially testable - may be observed by playing several games but full verfication would require code inspection</t>
+  </si>
+  <si>
+    <t>Unable to test - move evaluation is likely internal</t>
+  </si>
+  <si>
+    <t>Req might be too unclear to test.</t>
+  </si>
+  <si>
+    <t>Req might be too unclear as "fixed strategy" is not fully defined/</t>
+  </si>
+  <si>
+    <t>Req might be too unclear to test as "aggressively" is subjective.</t>
+  </si>
+  <si>
+    <t>Req might be too unclear to test. "Cautiously" is not precisely defined.</t>
+  </si>
+  <si>
+    <t>Unable to tsst</t>
+  </si>
+  <si>
+    <t>Will need multiple games to verify</t>
+  </si>
+  <si>
+    <t>Req. might be too unlcear to test. What is the state of the board?</t>
+  </si>
+  <si>
+    <t>Depends if the active game count is displayed</t>
+  </si>
+  <si>
+    <t>Req. might be too unlcear to test.What does if needed mean?</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1461,6 +1497,7 @@
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1489,7 +1526,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>311148</xdr:colOff>
+      <xdr:colOff>311149</xdr:colOff>
       <xdr:row>151</xdr:row>
       <xdr:rowOff>716795</xdr:rowOff>
     </xdr:to>
@@ -1535,7 +1572,7 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>381889</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>1950</xdr:rowOff>
+      <xdr:rowOff>1951</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1685,7 +1722,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>213</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -1732,7 +1769,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>224</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -1779,7 +1816,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>224</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -2139,18 +2176,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I154" sqref="I154"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="64" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G182" sqref="G182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -2168,66 +2205,70 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>10</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>11</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:19" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="D4" s="10"/>
+      <c r="G4" s="14" t="s">
+        <v>434</v>
+      </c>
       <c r="S4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -2238,22 +2279,25 @@
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
+      <c r="G5" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -2261,19 +2305,22 @@
         <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>25</v>
+      <c r="G6" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="32" x14ac:dyDescent="0.2">
@@ -2284,11 +2331,12 @@
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
@@ -2298,11 +2346,12 @@
         <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
@@ -2312,11 +2361,12 @@
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
@@ -2326,11 +2376,12 @@
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
@@ -2340,22 +2391,25 @@
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -2363,19 +2417,22 @@
         <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -2386,11 +2443,12 @@
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
@@ -2400,11 +2458,12 @@
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
@@ -2414,19 +2473,22 @@
         <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -2437,19 +2499,22 @@
         <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>39</v>
+      <c r="G16" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2460,19 +2525,22 @@
         <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>41</v>
+      <c r="G17" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2483,19 +2551,22 @@
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2506,19 +2577,22 @@
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>44</v>
+      <c r="G19" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2529,19 +2603,22 @@
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -2552,19 +2629,22 @@
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2575,19 +2655,22 @@
         <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -2598,19 +2681,22 @@
         <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2621,10 +2707,13 @@
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>50</v>
+      <c r="G24" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2635,10 +2724,13 @@
         <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -2649,19 +2741,22 @@
         <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>53</v>
+      <c r="G26" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2672,19 +2767,22 @@
         <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>55</v>
+      <c r="G27" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2695,19 +2793,22 @@
         <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -2718,22 +2819,25 @@
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>26</v>
       </c>
@@ -2741,10 +2845,13 @@
         <v>33</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>59</v>
+      <c r="G30" s="2" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2755,19 +2862,22 @@
         <v>33</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2778,19 +2888,22 @@
         <v>33</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>62</v>
+      <c r="G32" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2801,19 +2914,22 @@
         <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>64</v>
+      <c r="G33" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2824,11 +2940,12 @@
         <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>64</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
@@ -2838,19 +2955,22 @@
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>67</v>
+      <c r="G35" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -2861,19 +2981,22 @@
         <v>33</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>69</v>
+      <c r="G36" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -2884,19 +3007,22 @@
         <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>71</v>
+      <c r="G37" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="64" x14ac:dyDescent="0.2">
@@ -2907,19 +3033,22 @@
         <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>73</v>
+      <c r="G38" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2930,19 +3059,22 @@
         <v>33</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2953,11 +3085,12 @@
         <v>33</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>59</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
@@ -2967,19 +3100,22 @@
         <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>77</v>
+      <c r="G41" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -2990,22 +3126,25 @@
         <v>33</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>79</v>
+      <c r="G42" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -3013,22 +3152,25 @@
         <v>33</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>81</v>
+      <c r="G43" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>40</v>
       </c>
@@ -3036,10 +3178,13 @@
         <v>33</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>83</v>
+      <c r="G44" s="2" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -3050,11 +3195,12 @@
         <v>33</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
@@ -3064,19 +3210,22 @@
         <v>33</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>87</v>
+      <c r="G46" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -3087,19 +3236,22 @@
         <v>33</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>89</v>
+      <c r="G47" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -3110,19 +3262,22 @@
         <v>33</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>91</v>
+      <c r="G48" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -3133,19 +3288,22 @@
         <v>33</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>93</v>
+      <c r="G49" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -3156,19 +3314,22 @@
         <v>33</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>95</v>
+      <c r="G50" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -3179,19 +3340,22 @@
         <v>33</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>97</v>
+      <c r="G51" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -3202,11 +3366,12 @@
         <v>33</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>99</v>
-      </c>
+      <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
@@ -3216,14 +3381,15 @@
         <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="E53" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
@@ -3233,14 +3399,15 @@
         <v>26</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="E54" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
@@ -3250,14 +3417,15 @@
         <v>26</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
@@ -3267,14 +3435,15 @@
         <v>26</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="E56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
@@ -3284,14 +3453,15 @@
         <v>26</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="E57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
@@ -3301,14 +3471,15 @@
         <v>26</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
@@ -3318,14 +3489,15 @@
         <v>26</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="E59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
@@ -3335,14 +3507,15 @@
         <v>26</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
@@ -3352,14 +3525,15 @@
         <v>26</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
@@ -3369,22 +3543,25 @@
         <v>26</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -3395,22 +3572,23 @@
         <v>26</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="10" t="s">
-        <v>124</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G63" s="2"/>
       <c r="I63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -3421,22 +3599,25 @@
         <v>26</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="64" x14ac:dyDescent="0.2">
@@ -3447,22 +3628,25 @@
         <v>26</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="64" x14ac:dyDescent="0.2">
@@ -3473,22 +3657,25 @@
         <v>26</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>130</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -3499,14 +3686,15 @@
         <v>26</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="E67" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
@@ -3516,14 +3704,15 @@
         <v>26</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D68" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
@@ -3533,22 +3722,25 @@
         <v>26</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="E69" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -3559,22 +3751,25 @@
         <v>26</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="E70" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -3585,22 +3780,25 @@
         <v>26</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="10" t="s">
-        <v>140</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="64" x14ac:dyDescent="0.2">
@@ -3611,22 +3809,25 @@
         <v>26</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -3637,11 +3838,12 @@
         <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D73" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
@@ -3651,11 +3853,12 @@
         <v>35</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D74" s="10" t="s">
-        <v>145</v>
-      </c>
+      <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
@@ -3665,11 +3868,12 @@
         <v>35</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>143</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
@@ -3679,11 +3883,12 @@
         <v>35</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D76" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
@@ -3693,19 +3898,22 @@
         <v>35</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D77" s="10" t="s">
-        <v>150</v>
+      <c r="G77" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -3716,19 +3924,22 @@
         <v>35</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D78" s="10" t="s">
-        <v>152</v>
+      <c r="G78" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -3739,19 +3950,22 @@
         <v>35</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D79" s="10" t="s">
-        <v>154</v>
+      <c r="G79" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -3762,19 +3976,22 @@
         <v>35</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D80" s="10" t="s">
-        <v>156</v>
+      <c r="G80" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -3785,19 +4002,22 @@
         <v>35</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D81" s="10" t="s">
-        <v>158</v>
+      <c r="G81" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -3808,19 +4028,22 @@
         <v>27</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D82" s="10" t="s">
-        <v>160</v>
+      <c r="G82" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -3831,11 +4054,12 @@
         <v>27</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D83" s="10" t="s">
-        <v>162</v>
-      </c>
+      <c r="G83" s="2"/>
     </row>
     <row r="84" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
@@ -3845,14 +4069,15 @@
         <v>27</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="E84" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="G84" s="2"/>
     </row>
     <row r="85" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
@@ -3862,14 +4087,15 @@
         <v>27</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="E85" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="G85" s="2"/>
     </row>
     <row r="86" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
@@ -3879,14 +4105,15 @@
         <v>27</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="E86" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>171</v>
-      </c>
+      <c r="G86" s="2"/>
     </row>
     <row r="87" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
@@ -3896,14 +4123,15 @@
         <v>27</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="E87" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="G87" s="2"/>
     </row>
     <row r="88" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
@@ -3913,19 +4141,22 @@
         <v>27</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D88" s="10" t="s">
-        <v>176</v>
+      <c r="G88" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -3936,11 +4167,12 @@
         <v>27</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D89" s="10" t="s">
-        <v>178</v>
-      </c>
+      <c r="G89" s="2"/>
     </row>
     <row r="90" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
@@ -3950,14 +4182,15 @@
         <v>27</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="E90" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="G90" s="2"/>
     </row>
     <row r="91" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
@@ -3967,11 +4200,12 @@
         <v>27</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D91" s="10" t="s">
-        <v>183</v>
-      </c>
+      <c r="G91" s="2"/>
     </row>
     <row r="92" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
@@ -3981,14 +4215,15 @@
         <v>27</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="E92" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="G92" s="2"/>
     </row>
     <row r="93" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
@@ -3998,19 +4233,22 @@
         <v>27</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D93" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D93" s="10" t="s">
-        <v>188</v>
+      <c r="G93" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -4021,19 +4259,22 @@
         <v>27</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D94" s="10" t="s">
-        <v>190</v>
+      <c r="G94" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -4044,11 +4285,12 @@
         <v>27</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D95" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="G95" s="2"/>
     </row>
     <row r="96" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
@@ -4058,11 +4300,12 @@
         <v>27</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D96" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="G96" s="2"/>
     </row>
     <row r="97" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
@@ -4072,19 +4315,22 @@
         <v>27</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D97" s="10" t="s">
-        <v>196</v>
+      <c r="G97" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -4095,11 +4341,12 @@
         <v>27</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D98" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D98" s="10" t="s">
-        <v>198</v>
-      </c>
+      <c r="G98" s="2"/>
     </row>
     <row r="99" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
@@ -4109,11 +4356,12 @@
         <v>27</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D99" s="10" t="s">
-        <v>200</v>
-      </c>
+      <c r="G99" s="2"/>
     </row>
     <row r="100" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
@@ -4123,11 +4371,12 @@
         <v>27</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D100" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D100" s="10" t="s">
-        <v>202</v>
-      </c>
+      <c r="G100" s="2"/>
     </row>
     <row r="101" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
@@ -4137,19 +4386,22 @@
         <v>27</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D101" s="10" t="s">
-        <v>204</v>
+      <c r="G101" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -4160,19 +4412,22 @@
         <v>36</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D102" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D102" s="10" t="s">
-        <v>206</v>
+      <c r="G102" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -4183,11 +4438,12 @@
         <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D103" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D103" s="10" t="s">
-        <v>208</v>
-      </c>
+      <c r="G103" s="2"/>
     </row>
     <row r="104" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
@@ -4197,11 +4453,12 @@
         <v>36</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>208</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G104" s="2"/>
     </row>
     <row r="105" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
@@ -4211,11 +4468,12 @@
         <v>36</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D105" s="10" t="s">
-        <v>211</v>
-      </c>
+      <c r="G105" s="2"/>
     </row>
     <row r="106" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
@@ -4225,19 +4483,22 @@
         <v>36</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -4248,11 +4509,12 @@
         <v>36</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D107" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D107" s="10" t="s">
-        <v>214</v>
-      </c>
+      <c r="G107" s="2"/>
     </row>
     <row r="108" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
@@ -4262,11 +4524,12 @@
         <v>36</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>208</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G108" s="2"/>
     </row>
     <row r="109" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
@@ -4276,11 +4539,12 @@
         <v>36</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D109" s="10" t="s">
-        <v>217</v>
-      </c>
+      <c r="G109" s="2"/>
     </row>
     <row r="110" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
@@ -4290,11 +4554,12 @@
         <v>36</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>206</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G110" s="2"/>
     </row>
     <row r="111" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
@@ -4304,11 +4569,12 @@
         <v>36</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>208</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G111" s="2"/>
     </row>
     <row r="112" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
@@ -4318,11 +4584,12 @@
         <v>36</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>208</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G112" s="2"/>
     </row>
     <row r="113" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
@@ -4332,11 +4599,12 @@
         <v>36</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>208</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G113" s="2"/>
     </row>
     <row r="114" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
@@ -4346,11 +4614,12 @@
         <v>36</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>208</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G114" s="2"/>
     </row>
     <row r="115" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
@@ -4360,11 +4629,12 @@
         <v>36</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D115" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D115" s="10" t="s">
-        <v>224</v>
-      </c>
+      <c r="G115" s="2"/>
     </row>
     <row r="116" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
@@ -4374,19 +4644,22 @@
         <v>36</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D116" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D116" s="10" t="s">
-        <v>226</v>
+      <c r="G116" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -4397,11 +4670,12 @@
         <v>31</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D117" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D117" s="10" t="s">
-        <v>228</v>
-      </c>
+      <c r="G117" s="2"/>
     </row>
     <row r="118" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
@@ -4411,11 +4685,12 @@
         <v>31</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>228</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G118" s="2"/>
     </row>
     <row r="119" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
@@ -4425,11 +4700,12 @@
         <v>31</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>228</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G119" s="2"/>
     </row>
     <row r="120" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
@@ -4439,19 +4715,22 @@
         <v>31</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D120" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D120" s="10" t="s">
-        <v>232</v>
+      <c r="G120" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -4462,19 +4741,22 @@
         <v>31</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D121" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D121" s="10" t="s">
-        <v>234</v>
+      <c r="G121" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -4485,19 +4767,22 @@
         <v>31</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D122" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D122" s="10" t="s">
-        <v>236</v>
+      <c r="G122" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -4508,19 +4793,22 @@
         <v>31</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -4531,10 +4819,13 @@
         <v>31</v>
       </c>
       <c r="C124" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D124" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D124" s="10" t="s">
-        <v>239</v>
+      <c r="G124" s="2" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -4545,19 +4836,22 @@
         <v>31</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D125" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="D125" s="10" t="s">
-        <v>241</v>
+      <c r="G125" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="80" x14ac:dyDescent="0.2">
@@ -4568,19 +4862,22 @@
         <v>31</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="80" x14ac:dyDescent="0.2">
@@ -4591,11 +4888,12 @@
         <v>31</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>232</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G127" s="2"/>
     </row>
     <row r="128" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
@@ -4605,10 +4903,13 @@
         <v>31</v>
       </c>
       <c r="C128" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D128" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D128" s="10" t="s">
-        <v>245</v>
+      <c r="G128" s="2" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="129" spans="1:18" ht="80" x14ac:dyDescent="0.2">
@@ -4619,19 +4920,22 @@
         <v>31</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D129" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D129" s="10" t="s">
-        <v>247</v>
+      <c r="G129" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I129" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N129" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:18" ht="48" x14ac:dyDescent="0.2">
@@ -4642,11 +4946,12 @@
         <v>31</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D130" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D130" s="10" t="s">
-        <v>249</v>
-      </c>
+      <c r="G130" s="2"/>
     </row>
     <row r="131" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" s="9">
@@ -4656,19 +4961,22 @@
         <v>30</v>
       </c>
       <c r="C131" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D131" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D131" s="11" t="s">
-        <v>251</v>
+      <c r="G131" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O131" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:18" ht="48" x14ac:dyDescent="0.2">
@@ -4679,19 +4987,22 @@
         <v>30</v>
       </c>
       <c r="C132" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D132" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D132" s="11" t="s">
-        <v>253</v>
+      <c r="G132" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I132" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N132" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:18" ht="16" x14ac:dyDescent="0.2">
@@ -4702,19 +5013,22 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D133" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D133" s="11" t="s">
-        <v>255</v>
+      <c r="G133" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="I133" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N133" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:18" ht="48" x14ac:dyDescent="0.2">
@@ -4725,19 +5039,22 @@
         <v>30</v>
       </c>
       <c r="C134" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D134" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D134" s="11" t="s">
-        <v>257</v>
+      <c r="G134" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="I134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:18" ht="48" x14ac:dyDescent="0.2">
@@ -4748,11 +5065,12 @@
         <v>30</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="G135" s="2"/>
     </row>
     <row r="136" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="9">
@@ -4762,11 +5080,12 @@
         <v>30</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="G136" s="2"/>
     </row>
     <row r="137" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A137" s="9">
@@ -4776,19 +5095,22 @@
         <v>30</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I137" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N137" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O137" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="32" x14ac:dyDescent="0.2">
@@ -4799,19 +5121,22 @@
         <v>30</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I138" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N138" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:18" ht="48" x14ac:dyDescent="0.2">
@@ -4822,11 +5147,12 @@
         <v>30</v>
       </c>
       <c r="C139" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D139" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D139" s="11" t="s">
-        <v>263</v>
-      </c>
+      <c r="G139" s="2"/>
     </row>
     <row r="140" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A140" s="9">
@@ -4836,19 +5162,22 @@
         <v>30</v>
       </c>
       <c r="C140" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D140" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D140" s="11" t="s">
-        <v>265</v>
+      <c r="G140" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I140" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N140" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O140" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:18" ht="208" x14ac:dyDescent="0.2">
@@ -4859,19 +5188,22 @@
         <v>30</v>
       </c>
       <c r="C141" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D141" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="D141" s="11" t="s">
-        <v>267</v>
+      <c r="G141" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I141" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N141" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O141" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:18" ht="16" x14ac:dyDescent="0.2">
@@ -4882,16 +5214,17 @@
         <v>28</v>
       </c>
       <c r="C142" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D142" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="E142" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="G142" s="2"/>
+      <c r="R142" t="s">
         <v>270</v>
-      </c>
-      <c r="R142" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="143" spans="1:18" ht="48" x14ac:dyDescent="0.2">
@@ -4902,22 +5235,25 @@
         <v>28</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D143" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="E143" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>274</v>
+      <c r="G143" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I143" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N143" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O143" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:18" ht="32" x14ac:dyDescent="0.2">
@@ -4928,11 +5264,12 @@
         <v>28</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>269</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G144" s="2"/>
     </row>
     <row r="145" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="9">
@@ -4942,11 +5279,12 @@
         <v>28</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>273</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="G145" s="2"/>
     </row>
     <row r="146" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="9">
@@ -4956,11 +5294,12 @@
         <v>28</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>269</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G146" s="2"/>
     </row>
     <row r="147" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="9">
@@ -4970,11 +5309,12 @@
         <v>28</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>273</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="G147" s="2"/>
     </row>
     <row r="148" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="9">
@@ -4984,19 +5324,22 @@
         <v>28</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="I148" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N148" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -5007,19 +5350,22 @@
         <v>28</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="I149" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N149" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -5030,11 +5376,12 @@
         <v>28</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>273</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="G150" s="2"/>
     </row>
     <row r="151" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="9">
@@ -5044,11 +5391,12 @@
         <v>28</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>269</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G151" s="2"/>
     </row>
     <row r="152" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A152" s="9">
@@ -5058,19 +5406,22 @@
         <v>29</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D152" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="D152" s="12" t="s">
-        <v>284</v>
+      <c r="G152" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N152" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O152" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -5081,19 +5432,22 @@
         <v>29</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D153" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D153" s="12" t="s">
-        <v>286</v>
+      <c r="G153" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N153" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O153" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -5104,17 +5458,18 @@
         <v>29</v>
       </c>
       <c r="C154" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D154" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="D154" s="12" t="s">
+      <c r="G154" s="2"/>
+      <c r="I154" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="N154" s="1"/>
       <c r="O154" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -5125,11 +5480,12 @@
         <v>29</v>
       </c>
       <c r="C155" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D155" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="D155" s="12" t="s">
-        <v>291</v>
-      </c>
+      <c r="G155" s="2"/>
     </row>
     <row r="156" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A156" s="9">
@@ -5139,19 +5495,22 @@
         <v>29</v>
       </c>
       <c r="C156" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D156" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="D156" s="12" t="s">
-        <v>293</v>
+      <c r="G156" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I156" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N156" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O156" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -5162,19 +5521,22 @@
         <v>29</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D157" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="D157" s="12" t="s">
-        <v>295</v>
+      <c r="G157" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I157" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N157" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O157" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -5185,19 +5547,22 @@
         <v>29</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D158" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="D158" s="12" t="s">
-        <v>297</v>
+      <c r="G158" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I158" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N158" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -5208,19 +5573,22 @@
         <v>29</v>
       </c>
       <c r="C159" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D159" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="D159" s="12" t="s">
-        <v>299</v>
+      <c r="G159" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I159" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N159" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -5231,19 +5599,22 @@
         <v>29</v>
       </c>
       <c r="C160" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D160" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="D160" s="12" t="s">
-        <v>301</v>
+      <c r="G160" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I160" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N160" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O160" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -5254,19 +5625,22 @@
         <v>29</v>
       </c>
       <c r="C161" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D161" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="D161" s="12" t="s">
-        <v>303</v>
+      <c r="G161" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I161" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N161" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -5277,11 +5651,12 @@
         <v>29</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D162" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="D162" s="12" t="s">
-        <v>305</v>
-      </c>
+      <c r="G162" s="2"/>
     </row>
     <row r="163" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A163" s="9">
@@ -5291,19 +5666,22 @@
         <v>29</v>
       </c>
       <c r="C163" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D163" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D163" s="12" t="s">
-        <v>307</v>
+      <c r="G163" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I163" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N163" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O163" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -5314,11 +5692,12 @@
         <v>29</v>
       </c>
       <c r="C164" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D164" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="D164" s="12" t="s">
-        <v>309</v>
-      </c>
+      <c r="G164" s="2"/>
     </row>
     <row r="165" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" s="9">
@@ -5328,11 +5707,12 @@
         <v>29</v>
       </c>
       <c r="C165" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D165" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="D165" s="12" t="s">
-        <v>311</v>
-      </c>
+      <c r="G165" s="2"/>
     </row>
     <row r="166" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A166" s="9">
@@ -5342,19 +5722,22 @@
         <v>29</v>
       </c>
       <c r="C166" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D166" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="D166" s="12" t="s">
-        <v>313</v>
+      <c r="G166" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I166" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N166" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O166" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -5365,10 +5748,13 @@
         <v>29</v>
       </c>
       <c r="C167" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D167" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D167" s="12" t="s">
-        <v>315</v>
+      <c r="G167" s="2" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="168" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -5379,11 +5765,12 @@
         <v>29</v>
       </c>
       <c r="C168" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D168" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="D168" s="12" t="s">
-        <v>317</v>
-      </c>
+      <c r="G168" s="2"/>
     </row>
     <row r="169" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="9">
@@ -5393,19 +5780,22 @@
         <v>29</v>
       </c>
       <c r="C169" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D169" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="D169" s="12" t="s">
-        <v>319</v>
+      <c r="G169" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N169" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -5416,19 +5806,22 @@
         <v>29</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I170" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N170" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -5439,19 +5832,22 @@
         <v>29</v>
       </c>
       <c r="C171" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D171" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="D171" s="12" t="s">
-        <v>322</v>
+      <c r="G171" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I171" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N171" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O171" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -5462,19 +5858,22 @@
         <v>32</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D172" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="D172" s="10" t="s">
-        <v>324</v>
+      <c r="G172" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N172" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O172" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -5485,19 +5884,22 @@
         <v>32</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D173" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="D173" s="10" t="s">
-        <v>326</v>
+      <c r="G173" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I173" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N173" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O173" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -5508,19 +5910,22 @@
         <v>32</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D174" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D174" s="10" t="s">
-        <v>328</v>
+      <c r="G174" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I174" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N174" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O174" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="175" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -5531,11 +5936,12 @@
         <v>32</v>
       </c>
       <c r="C175" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D175" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D175" s="10" t="s">
-        <v>330</v>
-      </c>
+      <c r="G175" s="2"/>
     </row>
     <row r="176" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="9">
@@ -5545,11 +5951,12 @@
         <v>32</v>
       </c>
       <c r="C176" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D176" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="D176" s="10" t="s">
-        <v>332</v>
-      </c>
+      <c r="G176" s="2"/>
     </row>
     <row r="177" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A177" s="9">
@@ -5559,10 +5966,13 @@
         <v>32</v>
       </c>
       <c r="C177" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D177" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="D177" s="10" t="s">
-        <v>334</v>
+      <c r="G177" s="2" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="178" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -5573,11 +5983,12 @@
         <v>32</v>
       </c>
       <c r="C178" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D178" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D178" s="10" t="s">
-        <v>336</v>
-      </c>
+      <c r="G178" s="2"/>
     </row>
     <row r="179" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="9">
@@ -5587,19 +5998,22 @@
         <v>32</v>
       </c>
       <c r="C179" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D179" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="D179" s="10" t="s">
-        <v>338</v>
+      <c r="G179" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I179" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N179" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O179" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -5610,11 +6024,12 @@
         <v>32</v>
       </c>
       <c r="C180" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D180" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="D180" s="10" t="s">
-        <v>340</v>
-      </c>
+      <c r="G180" s="2"/>
     </row>
     <row r="181" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="9">
@@ -5624,11 +6039,12 @@
         <v>32</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D181" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="D181" s="10" t="s">
-        <v>342</v>
-      </c>
+      <c r="G181" s="2"/>
     </row>
     <row r="182" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="9">
@@ -5638,19 +6054,20 @@
         <v>32</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D182" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="D182" s="10" t="s">
-        <v>344</v>
-      </c>
+      <c r="G182" s="2"/>
       <c r="I182" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N182" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O182" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -5661,19 +6078,22 @@
         <v>32</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D183" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="D183" s="10" t="s">
-        <v>346</v>
+      <c r="G183" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I183" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N183" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O183" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -5684,19 +6104,22 @@
         <v>32</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D184" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="D184" s="10" t="s">
-        <v>348</v>
+      <c r="G184" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I184" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N184" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O184" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -5707,19 +6130,22 @@
         <v>32</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D185" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="D185" s="10" t="s">
-        <v>350</v>
+      <c r="G185" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I185" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N185" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O185" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -5730,19 +6156,22 @@
         <v>32</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D186" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="D186" s="10" t="s">
-        <v>352</v>
+      <c r="G186" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I186" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N186" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O186" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -5753,19 +6182,22 @@
         <v>32</v>
       </c>
       <c r="C187" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D187" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="D187" s="10" t="s">
-        <v>354</v>
+      <c r="G187" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I187" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N187" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O187" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -5776,19 +6208,22 @@
         <v>32</v>
       </c>
       <c r="C188" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D188" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="D188" s="10" t="s">
-        <v>356</v>
+      <c r="G188" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I188" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N188" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O188" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -5799,19 +6234,22 @@
         <v>32</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I189" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N189" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O189" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -5822,19 +6260,22 @@
         <v>32</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I190" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N190" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O190" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -5845,19 +6286,22 @@
         <v>32</v>
       </c>
       <c r="C191" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D191" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D191" s="10" t="s">
-        <v>360</v>
+      <c r="G191" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I191" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N191" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O191" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -5868,19 +6312,22 @@
         <v>32</v>
       </c>
       <c r="C192" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D192" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="D192" s="10" t="s">
-        <v>362</v>
+      <c r="G192" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I192" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N192" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O192" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -5891,19 +6338,22 @@
         <v>32</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D193" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D193" s="10" t="s">
-        <v>364</v>
+      <c r="G193" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I193" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N193" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O193" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -5914,19 +6364,22 @@
         <v>32</v>
       </c>
       <c r="C194" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D194" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="D194" s="10" t="s">
-        <v>366</v>
+      <c r="G194" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I194" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N194" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O194" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -5937,14 +6390,15 @@
         <v>32</v>
       </c>
       <c r="C195" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D195" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D195" s="10" t="s">
+      <c r="E195" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>369</v>
-      </c>
+      <c r="G195" s="2"/>
     </row>
     <row r="196" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="9">
@@ -5954,19 +6408,22 @@
         <v>32</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D196" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="D196" s="10" t="s">
-        <v>371</v>
+      <c r="G196" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I196" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N196" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O196" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -5977,19 +6434,22 @@
         <v>32</v>
       </c>
       <c r="C197" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D197" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="D197" s="10" t="s">
-        <v>373</v>
+      <c r="G197" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I197" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N197" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O197" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -6000,22 +6460,25 @@
         <v>32</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D198" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="D198" s="10" t="s">
-        <v>375</v>
+      <c r="G198" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I198" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N198" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O198" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A199" s="9">
         <v>195</v>
       </c>
@@ -6023,19 +6486,22 @@
         <v>32</v>
       </c>
       <c r="C199" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D199" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="D199" s="10" t="s">
-        <v>377</v>
+      <c r="G199" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="I199" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N199" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O199" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -6046,19 +6512,22 @@
         <v>32</v>
       </c>
       <c r="C200" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D200" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D200" s="10" t="s">
-        <v>379</v>
+      <c r="G200" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I200" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N200" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O200" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -6069,22 +6538,25 @@
         <v>32</v>
       </c>
       <c r="C201" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D201" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="D201" s="10" t="s">
-        <v>381</v>
+      <c r="G201" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I201" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N201" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O201" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A202" s="9">
         <v>198</v>
       </c>
@@ -6092,22 +6564,25 @@
         <v>32</v>
       </c>
       <c r="C202" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D202" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="D202" s="10" t="s">
-        <v>383</v>
+      <c r="G202" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="I202" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N202" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O202" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A203" s="9">
         <v>199</v>
       </c>
@@ -6115,19 +6590,22 @@
         <v>32</v>
       </c>
       <c r="C203" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D203" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="D203" s="10" t="s">
-        <v>385</v>
+      <c r="G203" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="I203" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N203" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O203" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -6138,11 +6616,12 @@
         <v>32</v>
       </c>
       <c r="C204" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D204" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="D204" s="10" t="s">
-        <v>387</v>
-      </c>
+      <c r="G204" s="2"/>
     </row>
     <row r="205" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="9">
@@ -6152,19 +6631,22 @@
         <v>32</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I205" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N205" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O205" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -6175,19 +6657,22 @@
         <v>32</v>
       </c>
       <c r="C206" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D206" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="D206" s="10" t="s">
-        <v>390</v>
+      <c r="G206" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I206" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N206" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O206" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -6198,19 +6683,22 @@
         <v>32</v>
       </c>
       <c r="C207" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D207" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D207" s="10" t="s">
-        <v>392</v>
+      <c r="G207" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I207" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N207" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O207" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -6221,14 +6709,15 @@
         <v>25</v>
       </c>
       <c r="C208" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="E208" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E208" s="1" t="s">
-        <v>395</v>
-      </c>
+      <c r="G208" s="2"/>
     </row>
     <row r="209" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A209" s="9">
@@ -6238,14 +6727,15 @@
         <v>25</v>
       </c>
       <c r="C209" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E209" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="G209" s="2"/>
     </row>
     <row r="210" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="9">
@@ -6255,11 +6745,12 @@
         <v>25</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="G210" s="2"/>
     </row>
     <row r="211" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A211" s="9">
@@ -6269,11 +6760,12 @@
         <v>25</v>
       </c>
       <c r="C211" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>402</v>
-      </c>
+      <c r="G211" s="2"/>
     </row>
     <row r="212" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A212" s="9">
@@ -6283,14 +6775,15 @@
         <v>25</v>
       </c>
       <c r="C212" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E212" s="1" t="s">
-        <v>405</v>
-      </c>
+      <c r="G212" s="2"/>
     </row>
     <row r="213" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A213" s="9">
@@ -6300,14 +6793,15 @@
         <v>25</v>
       </c>
       <c r="C213" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="E213" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E213" s="1" t="s">
-        <v>408</v>
-      </c>
+      <c r="G213" s="2"/>
     </row>
     <row r="214" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="9">
@@ -6317,14 +6811,15 @@
         <v>25</v>
       </c>
       <c r="C214" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="E214" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E214" s="1" t="s">
-        <v>411</v>
-      </c>
+      <c r="G214" s="2"/>
     </row>
     <row r="215" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="9">
@@ -6334,11 +6829,12 @@
         <v>25</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>404</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G215" s="2"/>
     </row>
     <row r="216" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A216" s="9">
@@ -6348,19 +6844,22 @@
         <v>25</v>
       </c>
       <c r="C216" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>414</v>
+      <c r="G216" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I216" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N216" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O216" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -6371,19 +6870,22 @@
         <v>25</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I217" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N217" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O217" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -6394,19 +6896,22 @@
         <v>25</v>
       </c>
       <c r="C218" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>417</v>
+      <c r="G218" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="I218" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N218" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O218" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -6417,11 +6922,12 @@
         <v>25</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>400</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="G219" s="2"/>
     </row>
     <row r="220" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="9">
@@ -6431,11 +6937,12 @@
         <v>25</v>
       </c>
       <c r="C220" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>420</v>
-      </c>
+      <c r="G220" s="2"/>
     </row>
     <row r="221" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" s="9">
@@ -6445,14 +6952,15 @@
         <v>25</v>
       </c>
       <c r="C221" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="E221" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E221" s="1" t="s">
-        <v>423</v>
-      </c>
+      <c r="G221" s="2"/>
     </row>
     <row r="222" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="9">
@@ -6462,14 +6970,15 @@
         <v>25</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E222" s="1" t="s">
-        <v>426</v>
-      </c>
+      <c r="G222" s="2"/>
     </row>
     <row r="223" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="9">
@@ -6479,14 +6988,15 @@
         <v>25</v>
       </c>
       <c r="C223" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E223" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>428</v>
-      </c>
+      <c r="G223" s="2"/>
     </row>
     <row r="224" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="9">
@@ -6496,13 +7006,14 @@
         <v>25</v>
       </c>
       <c r="C224" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D224" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D224" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="G224" s="2"/>
+    </row>
+    <row r="225" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>221</v>
       </c>
@@ -6510,14 +7021,15 @@
         <v>25</v>
       </c>
       <c r="C225" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D225" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="E225" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E225" s="1" t="s">
-        <v>433</v>
-      </c>
+      <c r="G225" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6528,14 +7040,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDD0FC4969DCF4449136D2C873E795D1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c6f44795faba901663e8a9bf3a6322e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d2c32087-eb03-4a65-b505-380146e007a4" xmlns:ns4="2f381668-55bb-4cca-a2e9-7746dbcfba3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7caa3c07606457882248d14e3a3261f4" ns3:_="" ns4:_="">
     <xsd:import namespace="d2c32087-eb03-4a65-b505-380146e007a4"/>
@@ -6756,6 +7260,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6766,16 +7278,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8DC07DF-80B7-4F51-9B64-7871291DEDB3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6794,6 +7296,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}">
   <ds:schemaRefs>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtian/Documents/UTA/Spring 2025/CSE 3310/cse3310-sp25-002/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDE4DA8-6DF4-0644-8552-0450DFC5B980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A9E6EF-DC70-4C29-817F-88BA2FE883EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="447">
   <si>
     <t>Tested By</t>
   </si>
@@ -1396,6 +1396,9 @@
   </si>
   <si>
     <t>Req. might be too unlcear to test.What does if needed mean?</t>
+  </si>
+  <si>
+    <t>Untestable</t>
   </si>
 </sst>
 </file>
@@ -1677,7 +1680,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>213</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1771,7 +1774,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>224</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1818,7 +1821,7 @@
       <xdr:col>31</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>224</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2176,32 +2179,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="64" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G182" sqref="G182"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -2260,7 +2263,7 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:19" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="D4" s="10"/>
@@ -2271,7 +2274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -2290,6 +2293,9 @@
       <c r="I5" t="s">
         <v>21</v>
       </c>
+      <c r="L5" t="s">
+        <v>446</v>
+      </c>
       <c r="N5" t="s">
         <v>21</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -2316,6 +2322,9 @@
       <c r="I6" t="s">
         <v>21</v>
       </c>
+      <c r="L6" t="s">
+        <v>446</v>
+      </c>
       <c r="N6" t="s">
         <v>21</v>
       </c>
@@ -2323,7 +2332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -2338,7 +2347,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -2353,7 +2362,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -2368,7 +2377,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -2383,7 +2392,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -2402,6 +2411,9 @@
       <c r="I11" t="s">
         <v>21</v>
       </c>
+      <c r="L11" t="s">
+        <v>446</v>
+      </c>
       <c r="N11" t="s">
         <v>21</v>
       </c>
@@ -2409,7 +2421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -2428,6 +2440,9 @@
       <c r="I12" t="s">
         <v>21</v>
       </c>
+      <c r="L12" t="s">
+        <v>446</v>
+      </c>
       <c r="N12" t="s">
         <v>21</v>
       </c>
@@ -2435,7 +2450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -2450,7 +2465,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -2465,7 +2480,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -2484,6 +2499,9 @@
       <c r="I15" t="s">
         <v>21</v>
       </c>
+      <c r="L15" t="s">
+        <v>446</v>
+      </c>
       <c r="N15" t="s">
         <v>21</v>
       </c>
@@ -2491,7 +2509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -2510,6 +2528,9 @@
       <c r="I16" t="s">
         <v>21</v>
       </c>
+      <c r="L16" t="s">
+        <v>446</v>
+      </c>
       <c r="N16" t="s">
         <v>21</v>
       </c>
@@ -2517,7 +2538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -2536,6 +2557,9 @@
       <c r="I17" t="s">
         <v>21</v>
       </c>
+      <c r="L17" t="s">
+        <v>446</v>
+      </c>
       <c r="N17" t="s">
         <v>21</v>
       </c>
@@ -2543,7 +2567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -2562,6 +2586,9 @@
       <c r="I18" t="s">
         <v>21</v>
       </c>
+      <c r="L18" t="s">
+        <v>446</v>
+      </c>
       <c r="N18" t="s">
         <v>21</v>
       </c>
@@ -2569,7 +2596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -2588,6 +2615,9 @@
       <c r="I19" t="s">
         <v>21</v>
       </c>
+      <c r="L19" t="s">
+        <v>446</v>
+      </c>
       <c r="N19" t="s">
         <v>21</v>
       </c>
@@ -2595,7 +2625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>16</v>
       </c>
@@ -2614,6 +2644,9 @@
       <c r="I20" t="s">
         <v>21</v>
       </c>
+      <c r="L20" t="s">
+        <v>446</v>
+      </c>
       <c r="N20" t="s">
         <v>21</v>
       </c>
@@ -2621,7 +2654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>17</v>
       </c>
@@ -2640,6 +2673,9 @@
       <c r="I21" t="s">
         <v>21</v>
       </c>
+      <c r="L21" t="s">
+        <v>446</v>
+      </c>
       <c r="N21" t="s">
         <v>21</v>
       </c>
@@ -2647,7 +2683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -2666,6 +2702,9 @@
       <c r="I22" t="s">
         <v>21</v>
       </c>
+      <c r="L22" t="s">
+        <v>446</v>
+      </c>
       <c r="N22" t="s">
         <v>21</v>
       </c>
@@ -2673,7 +2712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>19</v>
       </c>
@@ -2692,6 +2731,9 @@
       <c r="I23" t="s">
         <v>21</v>
       </c>
+      <c r="L23" t="s">
+        <v>446</v>
+      </c>
       <c r="N23" t="s">
         <v>21</v>
       </c>
@@ -2699,7 +2741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>20</v>
       </c>
@@ -2716,7 +2758,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>21</v>
       </c>
@@ -2733,7 +2775,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>22</v>
       </c>
@@ -2752,6 +2794,9 @@
       <c r="I26" t="s">
         <v>21</v>
       </c>
+      <c r="L26" t="s">
+        <v>446</v>
+      </c>
       <c r="N26" t="s">
         <v>21</v>
       </c>
@@ -2759,7 +2804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>23</v>
       </c>
@@ -2778,6 +2823,9 @@
       <c r="I27" t="s">
         <v>21</v>
       </c>
+      <c r="L27" t="s">
+        <v>446</v>
+      </c>
       <c r="N27" t="s">
         <v>21</v>
       </c>
@@ -2785,7 +2833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>24</v>
       </c>
@@ -2804,6 +2852,9 @@
       <c r="I28" t="s">
         <v>21</v>
       </c>
+      <c r="L28" t="s">
+        <v>446</v>
+      </c>
       <c r="N28" t="s">
         <v>21</v>
       </c>
@@ -2811,7 +2862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -2830,6 +2881,9 @@
       <c r="I29" t="s">
         <v>21</v>
       </c>
+      <c r="L29" t="s">
+        <v>446</v>
+      </c>
       <c r="N29" t="s">
         <v>21</v>
       </c>
@@ -2837,7 +2891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>26</v>
       </c>
@@ -2854,7 +2908,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>27</v>
       </c>
@@ -2873,6 +2927,9 @@
       <c r="I31" t="s">
         <v>21</v>
       </c>
+      <c r="L31" t="s">
+        <v>446</v>
+      </c>
       <c r="N31" t="s">
         <v>21</v>
       </c>
@@ -2880,7 +2937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>28</v>
       </c>
@@ -2899,6 +2956,9 @@
       <c r="I32" t="s">
         <v>21</v>
       </c>
+      <c r="L32" t="s">
+        <v>446</v>
+      </c>
       <c r="N32" t="s">
         <v>21</v>
       </c>
@@ -2906,7 +2966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -2925,6 +2985,9 @@
       <c r="I33" t="s">
         <v>21</v>
       </c>
+      <c r="L33" t="s">
+        <v>446</v>
+      </c>
       <c r="N33" t="s">
         <v>21</v>
       </c>
@@ -2932,7 +2995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -2947,7 +3010,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -2966,6 +3029,9 @@
       <c r="I35" t="s">
         <v>21</v>
       </c>
+      <c r="L35" t="s">
+        <v>446</v>
+      </c>
       <c r="N35" t="s">
         <v>21</v>
       </c>
@@ -2973,7 +3039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -2992,6 +3058,9 @@
       <c r="I36" t="s">
         <v>21</v>
       </c>
+      <c r="L36" t="s">
+        <v>446</v>
+      </c>
       <c r="N36" t="s">
         <v>21</v>
       </c>
@@ -2999,7 +3068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -3018,6 +3087,9 @@
       <c r="I37" t="s">
         <v>21</v>
       </c>
+      <c r="L37" t="s">
+        <v>446</v>
+      </c>
       <c r="N37" t="s">
         <v>21</v>
       </c>
@@ -3025,7 +3097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -3044,6 +3116,9 @@
       <c r="I38" t="s">
         <v>21</v>
       </c>
+      <c r="L38" t="s">
+        <v>446</v>
+      </c>
       <c r="N38" t="s">
         <v>21</v>
       </c>
@@ -3051,7 +3126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -3070,6 +3145,9 @@
       <c r="I39" t="s">
         <v>21</v>
       </c>
+      <c r="L39" t="s">
+        <v>446</v>
+      </c>
       <c r="N39" t="s">
         <v>21</v>
       </c>
@@ -3077,7 +3155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -3092,7 +3170,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="9">
         <v>37</v>
       </c>
@@ -3111,6 +3189,9 @@
       <c r="I41" t="s">
         <v>21</v>
       </c>
+      <c r="L41" t="s">
+        <v>446</v>
+      </c>
       <c r="N41" t="s">
         <v>21</v>
       </c>
@@ -3118,7 +3199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -3137,6 +3218,9 @@
       <c r="I42" t="s">
         <v>21</v>
       </c>
+      <c r="L42" t="s">
+        <v>446</v>
+      </c>
       <c r="N42" t="s">
         <v>21</v>
       </c>
@@ -3144,7 +3228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -3163,6 +3247,9 @@
       <c r="I43" t="s">
         <v>21</v>
       </c>
+      <c r="L43" t="s">
+        <v>446</v>
+      </c>
       <c r="N43" t="s">
         <v>21</v>
       </c>
@@ -3170,7 +3257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="9">
         <v>40</v>
       </c>
@@ -3187,7 +3274,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="9">
         <v>41</v>
       </c>
@@ -3202,7 +3289,7 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="9">
         <v>42</v>
       </c>
@@ -3221,6 +3308,9 @@
       <c r="I46" t="s">
         <v>21</v>
       </c>
+      <c r="L46" t="s">
+        <v>446</v>
+      </c>
       <c r="N46" t="s">
         <v>21</v>
       </c>
@@ -3228,7 +3318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="9">
         <v>43</v>
       </c>
@@ -3247,6 +3337,9 @@
       <c r="I47" t="s">
         <v>21</v>
       </c>
+      <c r="L47" t="s">
+        <v>446</v>
+      </c>
       <c r="N47" t="s">
         <v>21</v>
       </c>
@@ -3254,7 +3347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="9">
         <v>44</v>
       </c>
@@ -3273,6 +3366,9 @@
       <c r="I48" t="s">
         <v>21</v>
       </c>
+      <c r="L48" t="s">
+        <v>446</v>
+      </c>
       <c r="N48" t="s">
         <v>21</v>
       </c>
@@ -3280,7 +3376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
         <v>45</v>
       </c>
@@ -3299,6 +3395,9 @@
       <c r="I49" t="s">
         <v>21</v>
       </c>
+      <c r="L49" t="s">
+        <v>446</v>
+      </c>
       <c r="N49" t="s">
         <v>21</v>
       </c>
@@ -3306,7 +3405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="9">
         <v>46</v>
       </c>
@@ -3325,6 +3424,9 @@
       <c r="I50" t="s">
         <v>21</v>
       </c>
+      <c r="L50" t="s">
+        <v>446</v>
+      </c>
       <c r="N50" t="s">
         <v>21</v>
       </c>
@@ -3332,7 +3434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="9">
         <v>47</v>
       </c>
@@ -3351,6 +3453,9 @@
       <c r="I51" t="s">
         <v>21</v>
       </c>
+      <c r="L51" t="s">
+        <v>446</v>
+      </c>
       <c r="N51" t="s">
         <v>21</v>
       </c>
@@ -3358,7 +3463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="9">
         <v>48</v>
       </c>
@@ -3373,7 +3478,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="9">
         <v>49</v>
       </c>
@@ -3391,7 +3496,7 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="9">
         <v>50</v>
       </c>
@@ -3409,7 +3514,7 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="9">
         <v>51</v>
       </c>
@@ -3427,7 +3532,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="9">
         <v>52</v>
       </c>
@@ -3445,7 +3550,7 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="9">
         <v>53</v>
       </c>
@@ -3463,7 +3568,7 @@
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
         <v>54</v>
       </c>
@@ -3481,7 +3586,7 @@
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="9">
         <v>55</v>
       </c>
@@ -3499,7 +3604,7 @@
       </c>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="9">
         <v>56</v>
       </c>
@@ -3517,7 +3622,7 @@
       </c>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="9">
         <v>57</v>
       </c>
@@ -3535,7 +3640,7 @@
       </c>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="9">
         <v>58</v>
       </c>
@@ -3557,6 +3662,9 @@
       <c r="I62" t="s">
         <v>21</v>
       </c>
+      <c r="L62" t="s">
+        <v>446</v>
+      </c>
       <c r="N62" t="s">
         <v>21</v>
       </c>
@@ -3564,7 +3672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="9">
         <v>59</v>
       </c>
@@ -3584,6 +3692,9 @@
       <c r="I63" t="s">
         <v>21</v>
       </c>
+      <c r="L63" t="s">
+        <v>446</v>
+      </c>
       <c r="N63" t="s">
         <v>21</v>
       </c>
@@ -3591,7 +3702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="9">
         <v>60</v>
       </c>
@@ -3613,6 +3724,9 @@
       <c r="I64" t="s">
         <v>21</v>
       </c>
+      <c r="L64" t="s">
+        <v>446</v>
+      </c>
       <c r="N64" t="s">
         <v>21</v>
       </c>
@@ -3620,7 +3734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
         <v>61</v>
       </c>
@@ -3642,6 +3756,9 @@
       <c r="I65" t="s">
         <v>21</v>
       </c>
+      <c r="L65" t="s">
+        <v>446</v>
+      </c>
       <c r="N65" t="s">
         <v>21</v>
       </c>
@@ -3649,7 +3766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A66" s="9">
         <v>62</v>
       </c>
@@ -3671,6 +3788,9 @@
       <c r="I66" t="s">
         <v>21</v>
       </c>
+      <c r="L66" t="s">
+        <v>446</v>
+      </c>
       <c r="N66" t="s">
         <v>21</v>
       </c>
@@ -3678,7 +3798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="9">
         <v>63</v>
       </c>
@@ -3696,7 +3816,7 @@
       </c>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="9">
         <v>64</v>
       </c>
@@ -3714,7 +3834,7 @@
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="9">
         <v>65</v>
       </c>
@@ -3736,6 +3856,9 @@
       <c r="I69" t="s">
         <v>21</v>
       </c>
+      <c r="L69" t="s">
+        <v>446</v>
+      </c>
       <c r="N69" t="s">
         <v>21</v>
       </c>
@@ -3743,7 +3866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="9">
         <v>66</v>
       </c>
@@ -3765,6 +3888,9 @@
       <c r="I70" t="s">
         <v>21</v>
       </c>
+      <c r="L70" t="s">
+        <v>446</v>
+      </c>
       <c r="N70" t="s">
         <v>21</v>
       </c>
@@ -3772,7 +3898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="9">
         <v>67</v>
       </c>
@@ -3794,6 +3920,9 @@
       <c r="I71" t="s">
         <v>21</v>
       </c>
+      <c r="L71" t="s">
+        <v>446</v>
+      </c>
       <c r="N71" t="s">
         <v>21</v>
       </c>
@@ -3801,7 +3930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A72" s="9">
         <v>68</v>
       </c>
@@ -3823,6 +3952,9 @@
       <c r="I72" t="s">
         <v>21</v>
       </c>
+      <c r="L72" t="s">
+        <v>446</v>
+      </c>
       <c r="N72" t="s">
         <v>21</v>
       </c>
@@ -3830,7 +3962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="9">
         <v>69</v>
       </c>
@@ -3845,7 +3977,7 @@
       </c>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="9">
         <v>70</v>
       </c>
@@ -3860,7 +3992,7 @@
       </c>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="9">
         <v>71</v>
       </c>
@@ -3875,7 +4007,7 @@
       </c>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="9">
         <v>72</v>
       </c>
@@ -3890,7 +4022,7 @@
       </c>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="9">
         <v>73</v>
       </c>
@@ -3909,6 +4041,9 @@
       <c r="I77" t="s">
         <v>21</v>
       </c>
+      <c r="L77" t="s">
+        <v>446</v>
+      </c>
       <c r="N77" t="s">
         <v>21</v>
       </c>
@@ -3916,7 +4051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="9">
         <v>74</v>
       </c>
@@ -3935,6 +4070,9 @@
       <c r="I78" t="s">
         <v>21</v>
       </c>
+      <c r="L78" t="s">
+        <v>446</v>
+      </c>
       <c r="N78" t="s">
         <v>21</v>
       </c>
@@ -3942,7 +4080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="9">
         <v>75</v>
       </c>
@@ -3961,6 +4099,9 @@
       <c r="I79" t="s">
         <v>21</v>
       </c>
+      <c r="L79" t="s">
+        <v>446</v>
+      </c>
       <c r="N79" t="s">
         <v>21</v>
       </c>
@@ -3968,7 +4109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="9">
         <v>76</v>
       </c>
@@ -3987,6 +4128,9 @@
       <c r="I80" t="s">
         <v>21</v>
       </c>
+      <c r="L80" t="s">
+        <v>446</v>
+      </c>
       <c r="N80" t="s">
         <v>21</v>
       </c>
@@ -3994,7 +4138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="9">
         <v>77</v>
       </c>
@@ -4013,6 +4157,9 @@
       <c r="I81" t="s">
         <v>21</v>
       </c>
+      <c r="L81" t="s">
+        <v>446</v>
+      </c>
       <c r="N81" t="s">
         <v>21</v>
       </c>
@@ -4020,7 +4167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="9">
         <v>78</v>
       </c>
@@ -4039,6 +4186,9 @@
       <c r="I82" t="s">
         <v>21</v>
       </c>
+      <c r="L82" t="s">
+        <v>446</v>
+      </c>
       <c r="N82" t="s">
         <v>21</v>
       </c>
@@ -4046,7 +4196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="9">
         <v>79</v>
       </c>
@@ -4061,7 +4211,7 @@
       </c>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="9">
         <v>80</v>
       </c>
@@ -4079,7 +4229,7 @@
       </c>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="9">
         <v>81</v>
       </c>
@@ -4097,7 +4247,7 @@
       </c>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A86" s="9">
         <v>82</v>
       </c>
@@ -4115,7 +4265,7 @@
       </c>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="9">
         <v>83</v>
       </c>
@@ -4133,7 +4283,7 @@
       </c>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="9">
         <v>84</v>
       </c>
@@ -4152,6 +4302,9 @@
       <c r="I88" t="s">
         <v>21</v>
       </c>
+      <c r="L88" t="s">
+        <v>446</v>
+      </c>
       <c r="N88" t="s">
         <v>21</v>
       </c>
@@ -4159,7 +4312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="9">
         <v>85</v>
       </c>
@@ -4174,7 +4327,7 @@
       </c>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="9">
         <v>86</v>
       </c>
@@ -4192,7 +4345,7 @@
       </c>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="9">
         <v>87</v>
       </c>
@@ -4207,7 +4360,7 @@
       </c>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="9">
         <v>88</v>
       </c>
@@ -4225,7 +4378,7 @@
       </c>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="9">
         <v>89</v>
       </c>
@@ -4244,6 +4397,9 @@
       <c r="I93" t="s">
         <v>21</v>
       </c>
+      <c r="L93" t="s">
+        <v>446</v>
+      </c>
       <c r="N93" t="s">
         <v>21</v>
       </c>
@@ -4251,7 +4407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="9">
         <v>90</v>
       </c>
@@ -4270,6 +4426,9 @@
       <c r="I94" t="s">
         <v>21</v>
       </c>
+      <c r="L94" t="s">
+        <v>446</v>
+      </c>
       <c r="N94" t="s">
         <v>21</v>
       </c>
@@ -4277,7 +4436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="9">
         <v>91</v>
       </c>
@@ -4292,7 +4451,7 @@
       </c>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="9">
         <v>92</v>
       </c>
@@ -4307,7 +4466,7 @@
       </c>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="9">
         <v>93</v>
       </c>
@@ -4326,6 +4485,9 @@
       <c r="I97" t="s">
         <v>21</v>
       </c>
+      <c r="L97" t="s">
+        <v>446</v>
+      </c>
       <c r="N97" t="s">
         <v>21</v>
       </c>
@@ -4333,7 +4495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="9">
         <v>94</v>
       </c>
@@ -4348,7 +4510,7 @@
       </c>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="9">
         <v>95</v>
       </c>
@@ -4363,7 +4525,7 @@
       </c>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="9">
         <v>96</v>
       </c>
@@ -4378,7 +4540,7 @@
       </c>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="9">
         <v>97</v>
       </c>
@@ -4397,6 +4559,9 @@
       <c r="I101" t="s">
         <v>21</v>
       </c>
+      <c r="L101" t="s">
+        <v>446</v>
+      </c>
       <c r="N101" t="s">
         <v>21</v>
       </c>
@@ -4404,7 +4569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="9">
         <v>98</v>
       </c>
@@ -4423,6 +4588,9 @@
       <c r="I102" t="s">
         <v>21</v>
       </c>
+      <c r="L102" t="s">
+        <v>446</v>
+      </c>
       <c r="N102" t="s">
         <v>21</v>
       </c>
@@ -4430,7 +4598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" s="9">
         <v>99</v>
       </c>
@@ -4445,7 +4613,7 @@
       </c>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="9">
         <v>100</v>
       </c>
@@ -4460,7 +4628,7 @@
       </c>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="9">
         <v>101</v>
       </c>
@@ -4475,7 +4643,7 @@
       </c>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="9">
         <v>102</v>
       </c>
@@ -4494,6 +4662,9 @@
       <c r="I106" t="s">
         <v>21</v>
       </c>
+      <c r="L106" t="s">
+        <v>446</v>
+      </c>
       <c r="N106" t="s">
         <v>21</v>
       </c>
@@ -4501,7 +4672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="9">
         <v>103</v>
       </c>
@@ -4516,7 +4687,7 @@
       </c>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A108" s="9">
         <v>104</v>
       </c>
@@ -4531,7 +4702,7 @@
       </c>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="9">
         <v>105</v>
       </c>
@@ -4546,7 +4717,7 @@
       </c>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="9">
         <v>106</v>
       </c>
@@ -4561,7 +4732,7 @@
       </c>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="9">
         <v>107</v>
       </c>
@@ -4576,7 +4747,7 @@
       </c>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A112" s="9">
         <v>108</v>
       </c>
@@ -4591,7 +4762,7 @@
       </c>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="9">
         <v>109</v>
       </c>
@@ -4606,7 +4777,7 @@
       </c>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="9">
         <v>110</v>
       </c>
@@ -4621,7 +4792,7 @@
       </c>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="9">
         <v>111</v>
       </c>
@@ -4636,7 +4807,7 @@
       </c>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="9">
         <v>112</v>
       </c>
@@ -4655,6 +4826,9 @@
       <c r="I116" t="s">
         <v>21</v>
       </c>
+      <c r="L116" t="s">
+        <v>446</v>
+      </c>
       <c r="N116" t="s">
         <v>21</v>
       </c>
@@ -4662,7 +4836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="9">
         <v>113</v>
       </c>
@@ -4677,7 +4851,7 @@
       </c>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="9">
         <v>114</v>
       </c>
@@ -4692,7 +4866,7 @@
       </c>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="9">
         <v>115</v>
       </c>
@@ -4707,7 +4881,7 @@
       </c>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="9">
         <v>116</v>
       </c>
@@ -4726,6 +4900,9 @@
       <c r="I120" t="s">
         <v>21</v>
       </c>
+      <c r="L120" t="s">
+        <v>446</v>
+      </c>
       <c r="N120" t="s">
         <v>21</v>
       </c>
@@ -4733,7 +4910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="9">
         <v>117</v>
       </c>
@@ -4752,6 +4929,9 @@
       <c r="I121" t="s">
         <v>21</v>
       </c>
+      <c r="L121" t="s">
+        <v>446</v>
+      </c>
       <c r="N121" t="s">
         <v>21</v>
       </c>
@@ -4759,7 +4939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="9">
         <v>118</v>
       </c>
@@ -4778,6 +4958,9 @@
       <c r="I122" t="s">
         <v>21</v>
       </c>
+      <c r="L122" t="s">
+        <v>446</v>
+      </c>
       <c r="N122" t="s">
         <v>21</v>
       </c>
@@ -4785,7 +4968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="9">
         <v>119</v>
       </c>
@@ -4804,6 +4987,9 @@
       <c r="I123" t="s">
         <v>21</v>
       </c>
+      <c r="L123" t="s">
+        <v>446</v>
+      </c>
       <c r="N123" t="s">
         <v>21</v>
       </c>
@@ -4811,7 +4997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="9">
         <v>120</v>
       </c>
@@ -4828,7 +5014,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="9">
         <v>121</v>
       </c>
@@ -4847,6 +5033,9 @@
       <c r="I125" t="s">
         <v>21</v>
       </c>
+      <c r="L125" t="s">
+        <v>446</v>
+      </c>
       <c r="N125" t="s">
         <v>21</v>
       </c>
@@ -4854,7 +5043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A126" s="9">
         <v>122</v>
       </c>
@@ -4873,6 +5062,9 @@
       <c r="I126" t="s">
         <v>21</v>
       </c>
+      <c r="L126" t="s">
+        <v>446</v>
+      </c>
       <c r="N126" t="s">
         <v>21</v>
       </c>
@@ -4880,7 +5072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A127" s="9">
         <v>123</v>
       </c>
@@ -4895,7 +5087,7 @@
       </c>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="9">
         <v>124</v>
       </c>
@@ -4912,7 +5104,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A129" s="9">
         <v>125</v>
       </c>
@@ -4931,6 +5123,9 @@
       <c r="I129" t="s">
         <v>21</v>
       </c>
+      <c r="L129" t="s">
+        <v>446</v>
+      </c>
       <c r="N129" t="s">
         <v>21</v>
       </c>
@@ -4938,7 +5133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="9">
         <v>126</v>
       </c>
@@ -4953,7 +5148,7 @@
       </c>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="9">
         <v>127</v>
       </c>
@@ -4972,6 +5167,9 @@
       <c r="I131" t="s">
         <v>21</v>
       </c>
+      <c r="L131" t="s">
+        <v>446</v>
+      </c>
       <c r="N131" t="s">
         <v>21</v>
       </c>
@@ -4979,7 +5177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A132" s="9">
         <v>128</v>
       </c>
@@ -4998,6 +5196,9 @@
       <c r="I132" t="s">
         <v>21</v>
       </c>
+      <c r="L132" t="s">
+        <v>446</v>
+      </c>
       <c r="N132" t="s">
         <v>21</v>
       </c>
@@ -5005,7 +5206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" s="9">
         <v>129</v>
       </c>
@@ -5024,6 +5225,9 @@
       <c r="I133" t="s">
         <v>21</v>
       </c>
+      <c r="L133" t="s">
+        <v>446</v>
+      </c>
       <c r="N133" t="s">
         <v>21</v>
       </c>
@@ -5031,7 +5235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A134" s="9">
         <v>130</v>
       </c>
@@ -5050,6 +5254,9 @@
       <c r="I134" t="s">
         <v>21</v>
       </c>
+      <c r="L134" t="s">
+        <v>446</v>
+      </c>
       <c r="N134" t="s">
         <v>21</v>
       </c>
@@ -5057,7 +5264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A135" s="9">
         <v>131</v>
       </c>
@@ -5072,7 +5279,7 @@
       </c>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="9">
         <v>132</v>
       </c>
@@ -5087,7 +5294,7 @@
       </c>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A137" s="9">
         <v>133</v>
       </c>
@@ -5106,6 +5313,9 @@
       <c r="I137" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L137" t="s">
+        <v>446</v>
+      </c>
       <c r="N137" s="13" t="s">
         <v>21</v>
       </c>
@@ -5113,7 +5323,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="9">
         <v>134</v>
       </c>
@@ -5132,6 +5342,9 @@
       <c r="I138" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L138" t="s">
+        <v>446</v>
+      </c>
       <c r="N138" s="13" t="s">
         <v>21</v>
       </c>
@@ -5139,7 +5352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A139" s="9">
         <v>135</v>
       </c>
@@ -5154,7 +5367,7 @@
       </c>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A140" s="9">
         <v>136</v>
       </c>
@@ -5173,6 +5386,9 @@
       <c r="I140" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L140" t="s">
+        <v>446</v>
+      </c>
       <c r="N140" s="13" t="s">
         <v>21</v>
       </c>
@@ -5180,7 +5396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="208" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A141" s="9">
         <v>137</v>
       </c>
@@ -5199,6 +5415,9 @@
       <c r="I141" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L141" t="s">
+        <v>446</v>
+      </c>
       <c r="N141" s="13" t="s">
         <v>21</v>
       </c>
@@ -5206,7 +5425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142" s="9">
         <v>138</v>
       </c>
@@ -5227,7 +5446,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A143" s="9">
         <v>139</v>
       </c>
@@ -5249,6 +5468,9 @@
       <c r="I143" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L143" t="s">
+        <v>446</v>
+      </c>
       <c r="N143" s="13" t="s">
         <v>21</v>
       </c>
@@ -5256,7 +5478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="9">
         <v>140</v>
       </c>
@@ -5271,7 +5493,7 @@
       </c>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="9">
         <v>141</v>
       </c>
@@ -5286,7 +5508,7 @@
       </c>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="9">
         <v>142</v>
       </c>
@@ -5301,7 +5523,7 @@
       </c>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="9">
         <v>143</v>
       </c>
@@ -5316,7 +5538,7 @@
       </c>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="9">
         <v>144</v>
       </c>
@@ -5335,6 +5557,9 @@
       <c r="I148" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L148" t="s">
+        <v>446</v>
+      </c>
       <c r="N148" s="13" t="s">
         <v>21</v>
       </c>
@@ -5342,7 +5567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" s="9">
         <v>145</v>
       </c>
@@ -5361,6 +5586,9 @@
       <c r="I149" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L149" t="s">
+        <v>446</v>
+      </c>
       <c r="N149" s="13" t="s">
         <v>21</v>
       </c>
@@ -5368,7 +5596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="9">
         <v>146</v>
       </c>
@@ -5383,7 +5611,7 @@
       </c>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="9">
         <v>147</v>
       </c>
@@ -5398,7 +5626,7 @@
       </c>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A152" s="9">
         <v>148</v>
       </c>
@@ -5417,6 +5645,9 @@
       <c r="I152" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L152" t="s">
+        <v>446</v>
+      </c>
       <c r="N152" s="13" t="s">
         <v>21</v>
       </c>
@@ -5424,7 +5655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A153" s="9">
         <v>149</v>
       </c>
@@ -5443,6 +5674,9 @@
       <c r="I153" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L153" t="s">
+        <v>446</v>
+      </c>
       <c r="N153" s="13" t="s">
         <v>21</v>
       </c>
@@ -5450,7 +5684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" s="9">
         <v>150</v>
       </c>
@@ -5467,12 +5701,15 @@
       <c r="I154" s="1" t="s">
         <v>288</v>
       </c>
+      <c r="L154" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="N154" s="1"/>
       <c r="O154" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A155" s="9">
         <v>151</v>
       </c>
@@ -5487,7 +5724,7 @@
       </c>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A156" s="9">
         <v>152</v>
       </c>
@@ -5506,6 +5743,9 @@
       <c r="I156" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L156" t="s">
+        <v>446</v>
+      </c>
       <c r="N156" s="13" t="s">
         <v>21</v>
       </c>
@@ -5513,7 +5753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="9">
         <v>153</v>
       </c>
@@ -5532,6 +5772,9 @@
       <c r="I157" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L157" t="s">
+        <v>446</v>
+      </c>
       <c r="N157" s="13" t="s">
         <v>21</v>
       </c>
@@ -5539,7 +5782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A158" s="9">
         <v>154</v>
       </c>
@@ -5558,6 +5801,9 @@
       <c r="I158" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L158" t="s">
+        <v>446</v>
+      </c>
       <c r="N158" s="13" t="s">
         <v>21</v>
       </c>
@@ -5565,7 +5811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A159" s="9">
         <v>155</v>
       </c>
@@ -5584,6 +5830,9 @@
       <c r="I159" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L159" t="s">
+        <v>446</v>
+      </c>
       <c r="N159" s="13" t="s">
         <v>21</v>
       </c>
@@ -5591,7 +5840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A160" s="9">
         <v>156</v>
       </c>
@@ -5610,6 +5859,9 @@
       <c r="I160" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L160" t="s">
+        <v>446</v>
+      </c>
       <c r="N160" s="13" t="s">
         <v>21</v>
       </c>
@@ -5617,7 +5869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A161" s="9">
         <v>157</v>
       </c>
@@ -5636,6 +5888,9 @@
       <c r="I161" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L161" t="s">
+        <v>446</v>
+      </c>
       <c r="N161" s="13" t="s">
         <v>21</v>
       </c>
@@ -5643,7 +5898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A162" s="9">
         <v>158</v>
       </c>
@@ -5658,7 +5913,7 @@
       </c>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A163" s="9">
         <v>159</v>
       </c>
@@ -5677,6 +5932,9 @@
       <c r="I163" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L163" t="s">
+        <v>446</v>
+      </c>
       <c r="N163" s="13" t="s">
         <v>21</v>
       </c>
@@ -5684,7 +5942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A164" s="9">
         <v>160</v>
       </c>
@@ -5699,7 +5957,7 @@
       </c>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="9">
         <v>161</v>
       </c>
@@ -5714,7 +5972,7 @@
       </c>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A166" s="9">
         <v>162</v>
       </c>
@@ -5733,6 +5991,9 @@
       <c r="I166" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L166" t="s">
+        <v>446</v>
+      </c>
       <c r="N166" s="13" t="s">
         <v>21</v>
       </c>
@@ -5740,7 +6001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A167" s="9">
         <v>163</v>
       </c>
@@ -5757,7 +6018,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A168" s="9">
         <v>164</v>
       </c>
@@ -5772,7 +6033,7 @@
       </c>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="9">
         <v>165</v>
       </c>
@@ -5791,6 +6052,9 @@
       <c r="I169" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L169" t="s">
+        <v>446</v>
+      </c>
       <c r="N169" s="13" t="s">
         <v>21</v>
       </c>
@@ -5798,7 +6062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A170" s="9">
         <v>166</v>
       </c>
@@ -5817,6 +6081,9 @@
       <c r="I170" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L170" t="s">
+        <v>446</v>
+      </c>
       <c r="N170" s="13" t="s">
         <v>21</v>
       </c>
@@ -5824,7 +6091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="9">
         <v>167</v>
       </c>
@@ -5843,6 +6110,9 @@
       <c r="I171" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L171" t="s">
+        <v>446</v>
+      </c>
       <c r="N171" s="13" t="s">
         <v>21</v>
       </c>
@@ -5850,7 +6120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="9">
         <v>168</v>
       </c>
@@ -5869,6 +6139,9 @@
       <c r="I172" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L172" t="s">
+        <v>446</v>
+      </c>
       <c r="N172" s="13" t="s">
         <v>21</v>
       </c>
@@ -5876,7 +6149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" s="9">
         <v>169</v>
       </c>
@@ -5895,6 +6168,9 @@
       <c r="I173" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L173" t="s">
+        <v>446</v>
+      </c>
       <c r="N173" s="13" t="s">
         <v>21</v>
       </c>
@@ -5902,7 +6178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="9">
         <v>170</v>
       </c>
@@ -5921,6 +6197,9 @@
       <c r="I174" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L174" t="s">
+        <v>446</v>
+      </c>
       <c r="N174" s="13" t="s">
         <v>21</v>
       </c>
@@ -5928,7 +6207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="9">
         <v>171</v>
       </c>
@@ -5943,7 +6222,7 @@
       </c>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="9">
         <v>172</v>
       </c>
@@ -5958,7 +6237,7 @@
       </c>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="9">
         <v>173</v>
       </c>
@@ -5975,7 +6254,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="9">
         <v>174</v>
       </c>
@@ -5990,7 +6269,7 @@
       </c>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" s="9">
         <v>175</v>
       </c>
@@ -6009,6 +6288,9 @@
       <c r="I179" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L179" t="s">
+        <v>446</v>
+      </c>
       <c r="N179" s="13" t="s">
         <v>21</v>
       </c>
@@ -6016,7 +6298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A180" s="9">
         <v>176</v>
       </c>
@@ -6031,7 +6313,7 @@
       </c>
       <c r="G180" s="2"/>
     </row>
-    <row r="181" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="9">
         <v>177</v>
       </c>
@@ -6046,7 +6328,7 @@
       </c>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="9">
         <v>178</v>
       </c>
@@ -6063,6 +6345,9 @@
       <c r="I182" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L182" t="s">
+        <v>446</v>
+      </c>
       <c r="N182" s="13" t="s">
         <v>21</v>
       </c>
@@ -6070,7 +6355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="9">
         <v>179</v>
       </c>
@@ -6089,6 +6374,9 @@
       <c r="I183" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L183" t="s">
+        <v>446</v>
+      </c>
       <c r="N183" s="13" t="s">
         <v>21</v>
       </c>
@@ -6096,7 +6384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A184" s="9">
         <v>180</v>
       </c>
@@ -6115,6 +6403,9 @@
       <c r="I184" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L184" t="s">
+        <v>446</v>
+      </c>
       <c r="N184" s="13" t="s">
         <v>21</v>
       </c>
@@ -6122,7 +6413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" s="9">
         <v>181</v>
       </c>
@@ -6141,6 +6432,9 @@
       <c r="I185" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L185" t="s">
+        <v>446</v>
+      </c>
       <c r="N185" s="13" t="s">
         <v>21</v>
       </c>
@@ -6148,7 +6442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" s="9">
         <v>182</v>
       </c>
@@ -6167,6 +6461,9 @@
       <c r="I186" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L186" t="s">
+        <v>446</v>
+      </c>
       <c r="N186" s="13" t="s">
         <v>21</v>
       </c>
@@ -6174,7 +6471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="9">
         <v>183</v>
       </c>
@@ -6193,6 +6490,9 @@
       <c r="I187" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L187" t="s">
+        <v>446</v>
+      </c>
       <c r="N187" s="13" t="s">
         <v>21</v>
       </c>
@@ -6200,7 +6500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" s="9">
         <v>184</v>
       </c>
@@ -6219,6 +6519,9 @@
       <c r="I188" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L188" t="s">
+        <v>446</v>
+      </c>
       <c r="N188" s="13" t="s">
         <v>21</v>
       </c>
@@ -6226,7 +6529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" s="9">
         <v>185</v>
       </c>
@@ -6245,6 +6548,9 @@
       <c r="I189" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L189" t="s">
+        <v>446</v>
+      </c>
       <c r="N189" s="13" t="s">
         <v>21</v>
       </c>
@@ -6252,7 +6558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="9">
         <v>186</v>
       </c>
@@ -6271,6 +6577,9 @@
       <c r="I190" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L190" t="s">
+        <v>446</v>
+      </c>
       <c r="N190" s="13" t="s">
         <v>21</v>
       </c>
@@ -6278,7 +6587,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" s="9">
         <v>187</v>
       </c>
@@ -6297,6 +6606,9 @@
       <c r="I191" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L191" t="s">
+        <v>446</v>
+      </c>
       <c r="N191" s="13" t="s">
         <v>21</v>
       </c>
@@ -6304,7 +6616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" s="9">
         <v>188</v>
       </c>
@@ -6323,6 +6635,9 @@
       <c r="I192" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L192" t="s">
+        <v>446</v>
+      </c>
       <c r="N192" s="13" t="s">
         <v>21</v>
       </c>
@@ -6330,7 +6645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" s="9">
         <v>189</v>
       </c>
@@ -6349,6 +6664,9 @@
       <c r="I193" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L193" t="s">
+        <v>446</v>
+      </c>
       <c r="N193" s="13" t="s">
         <v>21</v>
       </c>
@@ -6356,7 +6674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" s="9">
         <v>190</v>
       </c>
@@ -6375,6 +6693,9 @@
       <c r="I194" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L194" t="s">
+        <v>446</v>
+      </c>
       <c r="N194" s="13" t="s">
         <v>21</v>
       </c>
@@ -6382,7 +6703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" s="9">
         <v>191</v>
       </c>
@@ -6400,7 +6721,7 @@
       </c>
       <c r="G195" s="2"/>
     </row>
-    <row r="196" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="9">
         <v>192</v>
       </c>
@@ -6419,6 +6740,9 @@
       <c r="I196" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L196" t="s">
+        <v>446</v>
+      </c>
       <c r="N196" s="13" t="s">
         <v>21</v>
       </c>
@@ -6426,7 +6750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" s="9">
         <v>193</v>
       </c>
@@ -6445,6 +6769,9 @@
       <c r="I197" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L197" t="s">
+        <v>446</v>
+      </c>
       <c r="N197" s="13" t="s">
         <v>21</v>
       </c>
@@ -6452,7 +6779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="9">
         <v>194</v>
       </c>
@@ -6471,6 +6798,9 @@
       <c r="I198" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L198" t="s">
+        <v>446</v>
+      </c>
       <c r="N198" s="13" t="s">
         <v>21</v>
       </c>
@@ -6478,7 +6808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A199" s="9">
         <v>195</v>
       </c>
@@ -6497,6 +6827,9 @@
       <c r="I199" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L199" t="s">
+        <v>446</v>
+      </c>
       <c r="N199" s="13" t="s">
         <v>21</v>
       </c>
@@ -6504,7 +6837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" s="9">
         <v>196</v>
       </c>
@@ -6523,6 +6856,9 @@
       <c r="I200" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L200" t="s">
+        <v>446</v>
+      </c>
       <c r="N200" s="13" t="s">
         <v>21</v>
       </c>
@@ -6530,7 +6866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" s="9">
         <v>197</v>
       </c>
@@ -6549,6 +6885,9 @@
       <c r="I201" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L201" t="s">
+        <v>446</v>
+      </c>
       <c r="N201" s="13" t="s">
         <v>21</v>
       </c>
@@ -6556,7 +6895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A202" s="9">
         <v>198</v>
       </c>
@@ -6575,6 +6914,9 @@
       <c r="I202" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L202" t="s">
+        <v>446</v>
+      </c>
       <c r="N202" s="13" t="s">
         <v>21</v>
       </c>
@@ -6582,7 +6924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A203" s="9">
         <v>199</v>
       </c>
@@ -6601,6 +6943,9 @@
       <c r="I203" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L203" t="s">
+        <v>446</v>
+      </c>
       <c r="N203" s="13" t="s">
         <v>21</v>
       </c>
@@ -6608,7 +6953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204" s="9">
         <v>200</v>
       </c>
@@ -6623,7 +6968,7 @@
       </c>
       <c r="G204" s="2"/>
     </row>
-    <row r="205" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" s="9">
         <v>201</v>
       </c>
@@ -6642,6 +6987,9 @@
       <c r="I205" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L205" t="s">
+        <v>446</v>
+      </c>
       <c r="N205" s="13" t="s">
         <v>21</v>
       </c>
@@ -6649,7 +6997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206" s="9">
         <v>202</v>
       </c>
@@ -6668,6 +7016,9 @@
       <c r="I206" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L206" t="s">
+        <v>446</v>
+      </c>
       <c r="N206" s="13" t="s">
         <v>21</v>
       </c>
@@ -6675,7 +7026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207" s="9">
         <v>203</v>
       </c>
@@ -6694,6 +7045,9 @@
       <c r="I207" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L207" t="s">
+        <v>446</v>
+      </c>
       <c r="N207" s="13" t="s">
         <v>21</v>
       </c>
@@ -6701,7 +7055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="9">
         <v>204</v>
       </c>
@@ -6719,7 +7073,7 @@
       </c>
       <c r="G208" s="2"/>
     </row>
-    <row r="209" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A209" s="9">
         <v>205</v>
       </c>
@@ -6737,7 +7091,7 @@
       </c>
       <c r="G209" s="2"/>
     </row>
-    <row r="210" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="9">
         <v>206</v>
       </c>
@@ -6752,7 +7106,7 @@
       </c>
       <c r="G210" s="2"/>
     </row>
-    <row r="211" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A211" s="9">
         <v>207</v>
       </c>
@@ -6767,7 +7121,7 @@
       </c>
       <c r="G211" s="2"/>
     </row>
-    <row r="212" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A212" s="9">
         <v>208</v>
       </c>
@@ -6785,7 +7139,7 @@
       </c>
       <c r="G212" s="2"/>
     </row>
-    <row r="213" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="9">
         <v>209</v>
       </c>
@@ -6803,7 +7157,7 @@
       </c>
       <c r="G213" s="2"/>
     </row>
-    <row r="214" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="9">
         <v>210</v>
       </c>
@@ -6821,7 +7175,7 @@
       </c>
       <c r="G214" s="2"/>
     </row>
-    <row r="215" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" s="9">
         <v>211</v>
       </c>
@@ -6836,7 +7190,7 @@
       </c>
       <c r="G215" s="2"/>
     </row>
-    <row r="216" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="9">
         <v>212</v>
       </c>
@@ -6855,6 +7209,9 @@
       <c r="I216" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L216" t="s">
+        <v>446</v>
+      </c>
       <c r="N216" s="13" t="s">
         <v>21</v>
       </c>
@@ -6862,7 +7219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217" s="9">
         <v>213</v>
       </c>
@@ -6881,6 +7238,9 @@
       <c r="I217" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L217" t="s">
+        <v>446</v>
+      </c>
       <c r="N217" s="13" t="s">
         <v>21</v>
       </c>
@@ -6888,7 +7248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218" s="9">
         <v>214</v>
       </c>
@@ -6907,6 +7267,9 @@
       <c r="I218" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="L218" t="s">
+        <v>446</v>
+      </c>
       <c r="N218" s="13" t="s">
         <v>21</v>
       </c>
@@ -6914,7 +7277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" s="9">
         <v>215</v>
       </c>
@@ -6929,7 +7292,7 @@
       </c>
       <c r="G219" s="2"/>
     </row>
-    <row r="220" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="9">
         <v>216</v>
       </c>
@@ -6944,7 +7307,7 @@
       </c>
       <c r="G220" s="2"/>
     </row>
-    <row r="221" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A221" s="9">
         <v>217</v>
       </c>
@@ -6962,7 +7325,7 @@
       </c>
       <c r="G221" s="2"/>
     </row>
-    <row r="222" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A222" s="9">
         <v>218</v>
       </c>
@@ -6980,7 +7343,7 @@
       </c>
       <c r="G222" s="2"/>
     </row>
-    <row r="223" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="9">
         <v>219</v>
       </c>
@@ -6998,7 +7361,7 @@
       </c>
       <c r="G223" s="2"/>
     </row>
-    <row r="224" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" s="9">
         <v>220</v>
       </c>
@@ -7013,7 +7376,7 @@
       </c>
       <c r="G224" s="2"/>
     </row>
-    <row r="225" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>221</v>
       </c>
@@ -7040,6 +7403,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDD0FC4969DCF4449136D2C873E795D1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c6f44795faba901663e8a9bf3a6322e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d2c32087-eb03-4a65-b505-380146e007a4" xmlns:ns4="2f381668-55bb-4cca-a2e9-7746dbcfba3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7caa3c07606457882248d14e3a3261f4" ns3:_="" ns4:_="">
     <xsd:import namespace="d2c32087-eb03-4a65-b505-380146e007a4"/>
@@ -7260,24 +7640,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d2c32087-eb03-4a65-b505-380146e007a4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8DC07DF-80B7-4F51-9B64-7871291DEDB3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7294,22 +7675,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE93FEC-ED14-4C1A-BA6D-EE805B8918BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d2c32087-eb03-4a65-b505-380146e007a4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A69940-CFF9-46AC-A70F-7FC482219FC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlbea\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtian/Documents/UTA/Spring 2025/CSE 3310/cse3310-sp25-002/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD55C36E-489D-4573-984E-E737B1D4404E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4E598F-CAEE-6340-8908-6586B2667468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="483">
   <si>
     <t>Tested By</t>
   </si>
@@ -389,9 +389,6 @@
   </si>
   <si>
     <t>The web interface of the Join Game component will be written in HTML5.</t>
-  </si>
-  <si>
-    <t>The program will be compatible with the web browsers Chrome, Firefox, and Safari.</t>
   </si>
   <si>
     <t>joingame</t>
@@ -1487,6 +1484,13 @@
   </si>
   <si>
     <t>Test 3: steps 4-8</t>
+  </si>
+  <si>
+    <t>The program will be compatible with the web browsers Chrome and Firefox.</t>
+  </si>
+  <si>
+    <t>Test 1 Step 3
+Note: This requirement was modified to exclude Safari as this is not on Fedora.</t>
   </si>
 </sst>
 </file>
@@ -1885,33 +1889,33 @@
   </sheetPr>
   <dimension ref="A1:S230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F99" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.46484375" style="2" customWidth="1"/>
-    <col min="16" max="17" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="2" customWidth="1"/>
+    <col min="16" max="17" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -1949,7 +1953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1969,7 +1973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="D4" s="4"/>
@@ -1977,7 +1981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1997,7 +2001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -2017,7 +2021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -2034,7 +2038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -2048,10 +2052,10 @@
         <v>29</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -2065,10 +2069,10 @@
         <v>31</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -2082,10 +2086,10 @@
         <v>31</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -2105,7 +2109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -2139,10 +2143,10 @@
         <v>25</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -2156,10 +2160,10 @@
         <v>31</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -2179,7 +2183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -2199,7 +2203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -2219,7 +2223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2239,7 +2243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2259,7 +2263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2279,7 +2283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2299,7 +2303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2319,7 +2323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2339,7 +2343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2356,7 +2360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2373,7 +2377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2393,7 +2397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2413,7 +2417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2433,7 +2437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2453,7 +2457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2467,10 +2471,10 @@
         <v>59</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2490,7 +2494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2510,7 +2514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2530,7 +2534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2544,10 +2548,10 @@
         <v>64</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2567,7 +2571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2587,7 +2591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2607,7 +2611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2627,7 +2631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2647,7 +2651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2661,10 +2665,10 @@
         <v>59</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2684,7 +2688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2704,7 +2708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2724,7 +2728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2741,7 +2745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -2755,10 +2759,10 @@
         <v>85</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -2778,7 +2782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -2798,7 +2802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>44</v>
       </c>
@@ -2818,7 +2822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>45</v>
       </c>
@@ -2838,7 +2842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>46</v>
       </c>
@@ -2858,7 +2862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>47</v>
       </c>
@@ -2878,7 +2882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>48</v>
       </c>
@@ -2892,10 +2896,10 @@
         <v>99</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>49</v>
       </c>
@@ -2912,10 +2916,10 @@
         <v>102</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>50</v>
       </c>
@@ -2932,10 +2936,10 @@
         <v>105</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>51</v>
       </c>
@@ -2952,10 +2956,10 @@
         <v>107</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>52</v>
       </c>
@@ -2972,10 +2976,10 @@
         <v>110</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>53</v>
       </c>
@@ -2992,10 +2996,10 @@
         <v>113</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>54</v>
       </c>
@@ -3012,10 +3016,10 @@
         <v>115</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>55</v>
       </c>
@@ -3032,10 +3036,10 @@
         <v>118</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>56</v>
       </c>
@@ -3052,10 +3056,10 @@
         <v>120</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>57</v>
       </c>
@@ -3072,10 +3076,10 @@
         <v>110</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>58</v>
       </c>
@@ -3098,7 +3102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>59</v>
       </c>
@@ -3106,14 +3110,17 @@
         <v>26</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G63" s="2" t="s">
+        <v>482</v>
+      </c>
       <c r="N63" t="s">
         <v>22</v>
       </c>
@@ -3121,7 +3128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>60</v>
       </c>
@@ -3129,10 +3136,10 @@
         <v>26</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>110</v>
@@ -3144,7 +3151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>61</v>
       </c>
@@ -3152,10 +3159,10 @@
         <v>26</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>110</v>
@@ -3167,7 +3174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>62</v>
       </c>
@@ -3175,10 +3182,10 @@
         <v>26</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>110</v>
@@ -3190,7 +3197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>63</v>
       </c>
@@ -3198,19 +3205,19 @@
         <v>26</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>110</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>64</v>
       </c>
@@ -3218,19 +3225,19 @@
         <v>26</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>110</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>65</v>
       </c>
@@ -3238,10 +3245,10 @@
         <v>26</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>110</v>
@@ -3253,7 +3260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>66</v>
       </c>
@@ -3261,10 +3268,10 @@
         <v>26</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>110</v>
@@ -3276,7 +3283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>67</v>
       </c>
@@ -3284,10 +3291,10 @@
         <v>26</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>110</v>
@@ -3299,7 +3306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>68</v>
       </c>
@@ -3307,7 +3314,7 @@
         <v>26</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>117</v>
@@ -3322,7 +3329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>69</v>
       </c>
@@ -3330,16 +3337,16 @@
         <v>35</v>
       </c>
       <c r="C73" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="O73" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>70</v>
       </c>
@@ -3347,16 +3354,16 @@
         <v>35</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="O74" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>71</v>
       </c>
@@ -3364,16 +3371,16 @@
         <v>35</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>72</v>
       </c>
@@ -3381,16 +3388,16 @@
         <v>35</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="O76" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>73</v>
       </c>
@@ -3398,11 +3405,11 @@
         <v>35</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="N77" t="s">
         <v>22</v>
       </c>
@@ -3410,7 +3417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>74</v>
       </c>
@@ -3418,11 +3425,11 @@
         <v>35</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="N78" t="s">
         <v>22</v>
       </c>
@@ -3430,7 +3437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>75</v>
       </c>
@@ -3438,11 +3445,11 @@
         <v>35</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="N79" t="s">
         <v>22</v>
       </c>
@@ -3450,7 +3457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>76</v>
       </c>
@@ -3458,11 +3465,11 @@
         <v>35</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="N80" t="s">
         <v>22</v>
       </c>
@@ -3470,7 +3477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>77</v>
       </c>
@@ -3478,11 +3485,11 @@
         <v>35</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="N81" t="s">
         <v>22</v>
       </c>
@@ -3490,7 +3497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>78</v>
       </c>
@@ -3498,11 +3505,11 @@
         <v>27</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="N82" t="s">
         <v>22</v>
       </c>
@@ -3510,7 +3517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>79</v>
       </c>
@@ -3518,16 +3525,16 @@
         <v>27</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="O83" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>80</v>
       </c>
@@ -3535,19 +3542,19 @@
         <v>27</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="O84" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>81</v>
       </c>
@@ -3555,19 +3562,19 @@
         <v>27</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="O85" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>82</v>
       </c>
@@ -3575,19 +3582,19 @@
         <v>27</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="E86" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="O86" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>83</v>
       </c>
@@ -3595,19 +3602,19 @@
         <v>27</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="O87" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>84</v>
       </c>
@@ -3615,11 +3622,11 @@
         <v>27</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="N88" t="s">
         <v>22</v>
       </c>
@@ -3627,7 +3634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>85</v>
       </c>
@@ -3635,16 +3642,16 @@
         <v>27</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="O89" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>86</v>
       </c>
@@ -3652,19 +3659,19 @@
         <v>27</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="O90" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>87</v>
       </c>
@@ -3672,16 +3679,16 @@
         <v>27</v>
       </c>
       <c r="C91" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="O91" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>88</v>
       </c>
@@ -3689,19 +3696,19 @@
         <v>27</v>
       </c>
       <c r="C92" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="E92" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="O92" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>89</v>
       </c>
@@ -3709,11 +3716,11 @@
         <v>27</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="N93" t="s">
         <v>22</v>
       </c>
@@ -3721,7 +3728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>90</v>
       </c>
@@ -3729,11 +3736,11 @@
         <v>27</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="N94" t="s">
         <v>22</v>
       </c>
@@ -3741,7 +3748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>91</v>
       </c>
@@ -3749,16 +3756,16 @@
         <v>27</v>
       </c>
       <c r="C95" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="O95" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>92</v>
       </c>
@@ -3766,16 +3773,16 @@
         <v>27</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="O96" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>93</v>
       </c>
@@ -3783,11 +3790,11 @@
         <v>27</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="N97" t="s">
         <v>22</v>
       </c>
@@ -3795,7 +3802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>94</v>
       </c>
@@ -3803,16 +3810,16 @@
         <v>27</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="O98" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>95</v>
       </c>
@@ -3820,16 +3827,16 @@
         <v>27</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="O99" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>96</v>
       </c>
@@ -3837,16 +3844,16 @@
         <v>27</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="O100" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>97</v>
       </c>
@@ -3854,11 +3861,11 @@
         <v>27</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="N101" t="s">
         <v>22</v>
       </c>
@@ -3866,7 +3873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>98</v>
       </c>
@@ -3874,11 +3881,11 @@
         <v>36</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="N102" t="s">
         <v>22</v>
       </c>
@@ -3886,7 +3893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>99</v>
       </c>
@@ -3894,16 +3901,16 @@
         <v>36</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="O103" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>100</v>
       </c>
@@ -3911,16 +3918,16 @@
         <v>36</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>101</v>
       </c>
@@ -3928,16 +3935,16 @@
         <v>36</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="O105" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>102</v>
       </c>
@@ -3945,10 +3952,10 @@
         <v>36</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N106" t="s">
         <v>22</v>
@@ -3957,7 +3964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>103</v>
       </c>
@@ -3965,16 +3972,16 @@
         <v>36</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="O107" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="85.5" x14ac:dyDescent="0.45">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>104</v>
       </c>
@@ -3982,16 +3989,16 @@
         <v>36</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>105</v>
       </c>
@@ -3999,16 +4006,16 @@
         <v>36</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="O109" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>106</v>
       </c>
@@ -4016,16 +4023,16 @@
         <v>36</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>107</v>
       </c>
@@ -4033,16 +4040,16 @@
         <v>36</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>108</v>
       </c>
@@ -4050,16 +4057,16 @@
         <v>36</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>109</v>
       </c>
@@ -4067,16 +4074,16 @@
         <v>36</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>110</v>
       </c>
@@ -4084,16 +4091,16 @@
         <v>36</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>111</v>
       </c>
@@ -4101,16 +4108,16 @@
         <v>36</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="O115" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>112</v>
       </c>
@@ -4118,11 +4125,11 @@
         <v>36</v>
       </c>
       <c r="C116" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>226</v>
-      </c>
       <c r="N116" t="s">
         <v>22</v>
       </c>
@@ -4130,7 +4137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>113</v>
       </c>
@@ -4138,16 +4145,16 @@
         <v>31</v>
       </c>
       <c r="C117" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="O117" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>114</v>
       </c>
@@ -4155,16 +4162,16 @@
         <v>31</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>115</v>
       </c>
@@ -4172,16 +4179,16 @@
         <v>31</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>116</v>
       </c>
@@ -4189,11 +4196,11 @@
         <v>31</v>
       </c>
       <c r="C120" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="N120" t="s">
         <v>22</v>
       </c>
@@ -4201,7 +4208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>117</v>
       </c>
@@ -4209,11 +4216,11 @@
         <v>31</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N121" t="s">
         <v>22</v>
       </c>
@@ -4221,7 +4228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>118</v>
       </c>
@@ -4229,11 +4236,11 @@
         <v>31</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="N122" t="s">
         <v>22</v>
       </c>
@@ -4241,7 +4248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>119</v>
       </c>
@@ -4249,10 +4256,10 @@
         <v>31</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N123" t="s">
         <v>22</v>
@@ -4261,7 +4268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>120</v>
       </c>
@@ -4269,16 +4276,16 @@
         <v>31</v>
       </c>
       <c r="C124" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="O124" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>121</v>
       </c>
@@ -4286,11 +4293,11 @@
         <v>31</v>
       </c>
       <c r="C125" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="N125" t="s">
         <v>22</v>
       </c>
@@ -4298,7 +4305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>122</v>
       </c>
@@ -4306,10 +4313,10 @@
         <v>31</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N126" t="s">
         <v>22</v>
@@ -4318,7 +4325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>123</v>
       </c>
@@ -4326,16 +4333,16 @@
         <v>31</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O127" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>124</v>
       </c>
@@ -4343,16 +4350,16 @@
         <v>31</v>
       </c>
       <c r="C128" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D128" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="O128" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>125</v>
       </c>
@@ -4360,11 +4367,11 @@
         <v>31</v>
       </c>
       <c r="C129" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="N129" t="s">
         <v>22</v>
       </c>
@@ -4372,7 +4379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>126</v>
       </c>
@@ -4380,16 +4387,16 @@
         <v>31</v>
       </c>
       <c r="C130" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D130" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>249</v>
-      </c>
       <c r="O130" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>127</v>
       </c>
@@ -4397,11 +4404,11 @@
         <v>30</v>
       </c>
       <c r="C131" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D131" s="6" t="s">
-        <v>251</v>
-      </c>
       <c r="N131" t="s">
         <v>22</v>
       </c>
@@ -4409,7 +4416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>128</v>
       </c>
@@ -4417,11 +4424,11 @@
         <v>30</v>
       </c>
       <c r="C132" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D132" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="N132" t="s">
         <v>22</v>
       </c>
@@ -4429,7 +4436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>129</v>
       </c>
@@ -4437,11 +4444,11 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D133" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="N133" t="s">
         <v>22</v>
       </c>
@@ -4449,7 +4456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>130</v>
       </c>
@@ -4457,11 +4464,11 @@
         <v>30</v>
       </c>
       <c r="C134" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D134" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="N134" t="s">
         <v>22</v>
       </c>
@@ -4469,7 +4476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>131</v>
       </c>
@@ -4477,16 +4484,16 @@
         <v>30</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>132</v>
       </c>
@@ -4494,16 +4501,16 @@
         <v>30</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>133</v>
       </c>
@@ -4511,10 +4518,10 @@
         <v>30</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N137" s="8" t="s">
         <v>22</v>
@@ -4523,7 +4530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>134</v>
       </c>
@@ -4531,10 +4538,10 @@
         <v>30</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N138" s="8" t="s">
         <v>22</v>
@@ -4543,7 +4550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="57" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>135</v>
       </c>
@@ -4551,16 +4558,16 @@
         <v>30</v>
       </c>
       <c r="C139" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D139" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D139" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="O139" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" ht="57" x14ac:dyDescent="0.45">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>136</v>
       </c>
@@ -4568,11 +4575,11 @@
         <v>30</v>
       </c>
       <c r="C140" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D140" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D140" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="N140" s="8" t="s">
         <v>22</v>
       </c>
@@ -4580,7 +4587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:18" ht="208" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>137</v>
       </c>
@@ -4588,11 +4595,11 @@
         <v>30</v>
       </c>
       <c r="C141" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D141" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D141" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="N141" s="8" t="s">
         <v>22</v>
       </c>
@@ -4600,7 +4607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>138</v>
       </c>
@@ -4608,22 +4615,22 @@
         <v>28</v>
       </c>
       <c r="C142" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D142" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="E142" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E142" s="4" t="s">
+      <c r="O142" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="R142" t="s">
         <v>270</v>
       </c>
-      <c r="O142" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="R142" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="143" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>139</v>
       </c>
@@ -4631,14 +4638,14 @@
         <v>28</v>
       </c>
       <c r="C143" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D143" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="E143" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E143" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="N143" s="8" t="s">
         <v>22</v>
       </c>
@@ -4646,7 +4653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>140</v>
       </c>
@@ -4654,16 +4661,16 @@
         <v>28</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>141</v>
       </c>
@@ -4671,16 +4678,16 @@
         <v>28</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>142</v>
       </c>
@@ -4688,16 +4695,16 @@
         <v>28</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>143</v>
       </c>
@@ -4705,16 +4712,16 @@
         <v>28</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>144</v>
       </c>
@@ -4722,10 +4729,10 @@
         <v>28</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N148" s="8" t="s">
         <v>22</v>
@@ -4734,7 +4741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>145</v>
       </c>
@@ -4742,10 +4749,10 @@
         <v>28</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N149" s="8" t="s">
         <v>22</v>
@@ -4754,7 +4761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>146</v>
       </c>
@@ -4762,16 +4769,16 @@
         <v>28</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>147</v>
       </c>
@@ -4779,16 +4786,16 @@
         <v>28</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>148</v>
       </c>
@@ -4796,11 +4803,11 @@
         <v>29</v>
       </c>
       <c r="C152" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D152" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="N152" s="8" t="s">
         <v>22</v>
       </c>
@@ -4808,7 +4815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>149</v>
       </c>
@@ -4816,11 +4823,11 @@
         <v>29</v>
       </c>
       <c r="C153" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D153" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="N153" s="8" t="s">
         <v>22</v>
       </c>
@@ -4828,7 +4835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>150</v>
       </c>
@@ -4836,17 +4843,17 @@
         <v>29</v>
       </c>
       <c r="C154" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="N154" s="4"/>
       <c r="O154" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>151</v>
       </c>
@@ -4854,16 +4861,16 @@
         <v>29</v>
       </c>
       <c r="C155" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D155" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="O155" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>152</v>
       </c>
@@ -4871,11 +4878,11 @@
         <v>29</v>
       </c>
       <c r="C156" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="N156" s="8" t="s">
         <v>22</v>
       </c>
@@ -4883,7 +4890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>153</v>
       </c>
@@ -4891,11 +4898,11 @@
         <v>29</v>
       </c>
       <c r="C157" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D157" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="N157" s="8" t="s">
         <v>22</v>
       </c>
@@ -4903,7 +4910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>154</v>
       </c>
@@ -4911,11 +4918,11 @@
         <v>29</v>
       </c>
       <c r="C158" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D158" s="4" t="s">
-        <v>297</v>
-      </c>
       <c r="N158" s="8" t="s">
         <v>22</v>
       </c>
@@ -4923,7 +4930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>155</v>
       </c>
@@ -4931,11 +4938,11 @@
         <v>29</v>
       </c>
       <c r="C159" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D159" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>299</v>
-      </c>
       <c r="N159" s="8" t="s">
         <v>22</v>
       </c>
@@ -4943,7 +4950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>156</v>
       </c>
@@ -4951,11 +4958,11 @@
         <v>29</v>
       </c>
       <c r="C160" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D160" s="4" t="s">
-        <v>301</v>
-      </c>
       <c r="N160" s="8" t="s">
         <v>22</v>
       </c>
@@ -4963,7 +4970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>157</v>
       </c>
@@ -4971,11 +4978,11 @@
         <v>29</v>
       </c>
       <c r="C161" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D161" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="N161" s="8" t="s">
         <v>22</v>
       </c>
@@ -4983,7 +4990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>158</v>
       </c>
@@ -4991,16 +4998,16 @@
         <v>29</v>
       </c>
       <c r="C162" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D162" s="4" t="s">
-        <v>305</v>
-      </c>
       <c r="O162" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>159</v>
       </c>
@@ -5008,11 +5015,11 @@
         <v>29</v>
       </c>
       <c r="C163" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D163" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="N163" s="8" t="s">
         <v>22</v>
       </c>
@@ -5020,7 +5027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>160</v>
       </c>
@@ -5028,16 +5035,16 @@
         <v>29</v>
       </c>
       <c r="C164" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D164" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="O164" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>161</v>
       </c>
@@ -5045,16 +5052,16 @@
         <v>29</v>
       </c>
       <c r="C165" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D165" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D165" s="4" t="s">
-        <v>311</v>
-      </c>
       <c r="O165" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>162</v>
       </c>
@@ -5062,11 +5069,11 @@
         <v>29</v>
       </c>
       <c r="C166" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D166" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>313</v>
-      </c>
       <c r="N166" s="8" t="s">
         <v>22</v>
       </c>
@@ -5074,7 +5081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>163</v>
       </c>
@@ -5082,16 +5089,16 @@
         <v>29</v>
       </c>
       <c r="C167" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D167" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D167" s="4" t="s">
-        <v>315</v>
-      </c>
       <c r="O167" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>164</v>
       </c>
@@ -5099,16 +5106,16 @@
         <v>29</v>
       </c>
       <c r="C168" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D168" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D168" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="O168" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>165</v>
       </c>
@@ -5116,11 +5123,11 @@
         <v>29</v>
       </c>
       <c r="C169" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D169" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D169" s="4" t="s">
-        <v>319</v>
-      </c>
       <c r="N169" s="8" t="s">
         <v>22</v>
       </c>
@@ -5128,7 +5135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>166</v>
       </c>
@@ -5136,10 +5143,10 @@
         <v>29</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N170" s="8" t="s">
         <v>22</v>
@@ -5148,7 +5155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>167</v>
       </c>
@@ -5156,11 +5163,11 @@
         <v>29</v>
       </c>
       <c r="C171" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D171" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D171" s="4" t="s">
-        <v>322</v>
-      </c>
       <c r="N171" s="8" t="s">
         <v>22</v>
       </c>
@@ -5168,7 +5175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>168</v>
       </c>
@@ -5176,11 +5183,11 @@
         <v>32</v>
       </c>
       <c r="C172" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D172" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D172" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="N172" s="8" t="s">
         <v>22</v>
       </c>
@@ -5188,7 +5195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>169</v>
       </c>
@@ -5196,11 +5203,11 @@
         <v>32</v>
       </c>
       <c r="C173" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D173" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D173" s="4" t="s">
-        <v>326</v>
-      </c>
       <c r="N173" s="8" t="s">
         <v>22</v>
       </c>
@@ -5208,7 +5215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>170</v>
       </c>
@@ -5216,11 +5223,11 @@
         <v>32</v>
       </c>
       <c r="C174" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D174" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D174" s="4" t="s">
-        <v>328</v>
-      </c>
       <c r="N174" s="8" t="s">
         <v>22</v>
       </c>
@@ -5228,7 +5235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>171</v>
       </c>
@@ -5236,16 +5243,16 @@
         <v>32</v>
       </c>
       <c r="C175" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D175" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D175" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="O175" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>172</v>
       </c>
@@ -5253,16 +5260,16 @@
         <v>32</v>
       </c>
       <c r="C176" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D176" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D176" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="O176" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>173</v>
       </c>
@@ -5270,16 +5277,16 @@
         <v>32</v>
       </c>
       <c r="C177" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D177" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D177" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="O177" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>174</v>
       </c>
@@ -5287,16 +5294,16 @@
         <v>32</v>
       </c>
       <c r="C178" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D178" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D178" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="O178" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>175</v>
       </c>
@@ -5304,11 +5311,11 @@
         <v>32</v>
       </c>
       <c r="C179" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D179" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D179" s="4" t="s">
-        <v>338</v>
-      </c>
       <c r="N179" s="8" t="s">
         <v>22</v>
       </c>
@@ -5316,7 +5323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>176</v>
       </c>
@@ -5324,16 +5331,16 @@
         <v>32</v>
       </c>
       <c r="C180" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D180" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D180" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="O180" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>177</v>
       </c>
@@ -5341,13 +5348,13 @@
         <v>32</v>
       </c>
       <c r="C181" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D181" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D181" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="182" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>178</v>
       </c>
@@ -5355,11 +5362,11 @@
         <v>32</v>
       </c>
       <c r="C182" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D182" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D182" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="N182" s="8" t="s">
         <v>22</v>
       </c>
@@ -5367,7 +5374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>179</v>
       </c>
@@ -5375,11 +5382,11 @@
         <v>32</v>
       </c>
       <c r="C183" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D183" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D183" s="4" t="s">
-        <v>346</v>
-      </c>
       <c r="N183" s="8" t="s">
         <v>22</v>
       </c>
@@ -5387,7 +5394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>180</v>
       </c>
@@ -5395,11 +5402,11 @@
         <v>32</v>
       </c>
       <c r="C184" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D184" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D184" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="N184" s="8" t="s">
         <v>22</v>
       </c>
@@ -5407,7 +5414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>181</v>
       </c>
@@ -5415,11 +5422,11 @@
         <v>32</v>
       </c>
       <c r="C185" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D185" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D185" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="N185" s="8" t="s">
         <v>22</v>
       </c>
@@ -5427,7 +5434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>182</v>
       </c>
@@ -5435,11 +5442,11 @@
         <v>32</v>
       </c>
       <c r="C186" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D186" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D186" s="4" t="s">
-        <v>352</v>
-      </c>
       <c r="N186" s="8" t="s">
         <v>22</v>
       </c>
@@ -5447,7 +5454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>183</v>
       </c>
@@ -5455,11 +5462,11 @@
         <v>32</v>
       </c>
       <c r="C187" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D187" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D187" s="4" t="s">
-        <v>354</v>
-      </c>
       <c r="N187" s="8" t="s">
         <v>22</v>
       </c>
@@ -5467,7 +5474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>184</v>
       </c>
@@ -5475,11 +5482,11 @@
         <v>32</v>
       </c>
       <c r="C188" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D188" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D188" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="N188" s="8" t="s">
         <v>22</v>
       </c>
@@ -5487,7 +5494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>185</v>
       </c>
@@ -5495,10 +5502,10 @@
         <v>32</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N189" s="8" t="s">
         <v>22</v>
@@ -5507,7 +5514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>186</v>
       </c>
@@ -5515,10 +5522,10 @@
         <v>32</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N190" s="8" t="s">
         <v>22</v>
@@ -5527,7 +5534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>187</v>
       </c>
@@ -5535,11 +5542,11 @@
         <v>32</v>
       </c>
       <c r="C191" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D191" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D191" s="4" t="s">
-        <v>360</v>
-      </c>
       <c r="N191" s="8" t="s">
         <v>22</v>
       </c>
@@ -5547,7 +5554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>188</v>
       </c>
@@ -5555,11 +5562,11 @@
         <v>32</v>
       </c>
       <c r="C192" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D192" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D192" s="4" t="s">
-        <v>362</v>
-      </c>
       <c r="N192" s="8" t="s">
         <v>22</v>
       </c>
@@ -5567,7 +5574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>189</v>
       </c>
@@ -5575,11 +5582,11 @@
         <v>32</v>
       </c>
       <c r="C193" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D193" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D193" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="N193" s="8" t="s">
         <v>22</v>
       </c>
@@ -5587,7 +5594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>190</v>
       </c>
@@ -5595,11 +5602,11 @@
         <v>32</v>
       </c>
       <c r="C194" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D194" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D194" s="4" t="s">
-        <v>366</v>
-      </c>
       <c r="N194" s="8" t="s">
         <v>22</v>
       </c>
@@ -5607,7 +5614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>191</v>
       </c>
@@ -5615,19 +5622,19 @@
         <v>32</v>
       </c>
       <c r="C195" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D195" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D195" s="4" t="s">
+      <c r="E195" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E195" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="O195" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>192</v>
       </c>
@@ -5635,11 +5642,11 @@
         <v>32</v>
       </c>
       <c r="C196" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D196" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D196" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="N196" s="8" t="s">
         <v>22</v>
       </c>
@@ -5647,7 +5654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>193</v>
       </c>
@@ -5655,11 +5662,11 @@
         <v>32</v>
       </c>
       <c r="C197" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D197" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D197" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="N197" s="8" t="s">
         <v>22</v>
       </c>
@@ -5667,7 +5674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>194</v>
       </c>
@@ -5675,11 +5682,11 @@
         <v>32</v>
       </c>
       <c r="C198" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D198" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D198" s="4" t="s">
-        <v>375</v>
-      </c>
       <c r="N198" s="8" t="s">
         <v>22</v>
       </c>
@@ -5687,7 +5694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>195</v>
       </c>
@@ -5695,11 +5702,11 @@
         <v>32</v>
       </c>
       <c r="C199" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D199" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D199" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="N199" s="8" t="s">
         <v>22</v>
       </c>
@@ -5707,7 +5714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>196</v>
       </c>
@@ -5715,11 +5722,11 @@
         <v>32</v>
       </c>
       <c r="C200" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D200" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="N200" s="8" t="s">
         <v>22</v>
       </c>
@@ -5727,7 +5734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>197</v>
       </c>
@@ -5735,11 +5742,11 @@
         <v>32</v>
       </c>
       <c r="C201" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D201" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D201" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="N201" s="8" t="s">
         <v>22</v>
       </c>
@@ -5747,7 +5754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>198</v>
       </c>
@@ -5755,11 +5762,11 @@
         <v>32</v>
       </c>
       <c r="C202" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D202" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D202" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="N202" s="8" t="s">
         <v>22</v>
       </c>
@@ -5767,7 +5774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>199</v>
       </c>
@@ -5775,11 +5782,11 @@
         <v>32</v>
       </c>
       <c r="C203" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D203" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D203" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="N203" s="8" t="s">
         <v>22</v>
       </c>
@@ -5787,7 +5794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>200</v>
       </c>
@@ -5795,16 +5802,16 @@
         <v>32</v>
       </c>
       <c r="C204" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D204" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D204" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="O204" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>201</v>
       </c>
@@ -5812,10 +5819,10 @@
         <v>32</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N205" s="8" t="s">
         <v>22</v>
@@ -5824,7 +5831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>202</v>
       </c>
@@ -5832,11 +5839,11 @@
         <v>32</v>
       </c>
       <c r="C206" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D206" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D206" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="N206" s="8" t="s">
         <v>22</v>
       </c>
@@ -5844,7 +5851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>203</v>
       </c>
@@ -5852,22 +5859,22 @@
         <v>32</v>
       </c>
       <c r="C207" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D207" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D207" s="4" t="s">
+      <c r="N207" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O207" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R207" t="s">
         <v>392</v>
       </c>
-      <c r="N207" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O207" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R207" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="208" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>204</v>
       </c>
@@ -5875,19 +5882,19 @@
         <v>25</v>
       </c>
       <c r="C208" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D208" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D208" s="4" t="s">
+      <c r="E208" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="E208" s="4" t="s">
-        <v>396</v>
-      </c>
       <c r="O208" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>205</v>
       </c>
@@ -5895,19 +5902,19 @@
         <v>25</v>
       </c>
       <c r="C209" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D209" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="E209" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="E209" s="4" t="s">
-        <v>399</v>
-      </c>
       <c r="O209" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>206</v>
       </c>
@@ -5915,19 +5922,19 @@
         <v>25</v>
       </c>
       <c r="C210" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D210" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D210" s="4" t="s">
+      <c r="O210" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R210" t="s">
         <v>401</v>
       </c>
-      <c r="O210" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R210" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="211" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>207</v>
       </c>
@@ -5935,16 +5942,16 @@
         <v>25</v>
       </c>
       <c r="C211" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D211" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="D211" s="4" t="s">
-        <v>404</v>
-      </c>
       <c r="O211" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>208</v>
       </c>
@@ -5952,19 +5959,19 @@
         <v>25</v>
       </c>
       <c r="C212" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D212" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D212" s="4" t="s">
+      <c r="E212" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E212" s="4" t="s">
-        <v>407</v>
-      </c>
       <c r="O212" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>209</v>
       </c>
@@ -5972,19 +5979,19 @@
         <v>25</v>
       </c>
       <c r="C213" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D213" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D213" s="4" t="s">
+      <c r="E213" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="E213" s="4" t="s">
-        <v>410</v>
-      </c>
       <c r="O213" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>210</v>
       </c>
@@ -5992,19 +5999,19 @@
         <v>25</v>
       </c>
       <c r="C214" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D214" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D214" s="4" t="s">
+      <c r="E214" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="E214" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="O214" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>211</v>
       </c>
@@ -6012,19 +6019,19 @@
         <v>25</v>
       </c>
       <c r="C215" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="O215" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="R215" t="s">
         <v>414</v>
       </c>
-      <c r="D215" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="O215" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="R215" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="216" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>212</v>
       </c>
@@ -6032,11 +6039,11 @@
         <v>25</v>
       </c>
       <c r="C216" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D216" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D216" s="4" t="s">
-        <v>417</v>
-      </c>
       <c r="N216" s="8" t="s">
         <v>22</v>
       </c>
@@ -6044,7 +6051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>213</v>
       </c>
@@ -6052,10 +6059,10 @@
         <v>25</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N217" s="8" t="s">
         <v>22</v>
@@ -6064,7 +6071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>214</v>
       </c>
@@ -6072,11 +6079,11 @@
         <v>25</v>
       </c>
       <c r="C218" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D218" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D218" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="N218" s="8" t="s">
         <v>22</v>
       </c>
@@ -6084,7 +6091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>215</v>
       </c>
@@ -6092,16 +6099,16 @@
         <v>25</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O219" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>216</v>
       </c>
@@ -6109,16 +6116,16 @@
         <v>25</v>
       </c>
       <c r="C220" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D220" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D220" s="4" t="s">
-        <v>423</v>
-      </c>
       <c r="O220" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>217</v>
       </c>
@@ -6126,22 +6133,22 @@
         <v>25</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D221" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E221" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="E221" s="4" t="s">
+      <c r="O221" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="R221" t="s">
         <v>425</v>
       </c>
-      <c r="O221" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="R221" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="222" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>218</v>
       </c>
@@ -6149,19 +6156,19 @@
         <v>25</v>
       </c>
       <c r="C222" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D222" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D222" s="4" t="s">
+      <c r="E222" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="E222" s="4" t="s">
-        <v>429</v>
-      </c>
       <c r="O222" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>219</v>
       </c>
@@ -6169,19 +6176,19 @@
         <v>25</v>
       </c>
       <c r="C223" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E223" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D223" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>431</v>
-      </c>
       <c r="O223" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>220</v>
       </c>
@@ -6189,23 +6196,23 @@
         <v>25</v>
       </c>
       <c r="C224" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D224" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="D224" s="4" t="s">
+      <c r="O224" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="225" spans="18:18" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" spans="18:18" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" spans="18:18" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" spans="18:18" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" spans="18:18" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="18:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R230" t="s">
         <v>433</v>
-      </c>
-      <c r="O224" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="225" spans="18:18" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="226" spans="18:18" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="227" spans="18:18" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="228" spans="18:18" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="229" spans="18:18" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="230" spans="18:18" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R230" t="s">
-        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtian/Documents/UTA/Spring 2025/CSE 3310/cse3310-sp25-002/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4E598F-CAEE-6340-8908-6586B2667468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE62D027-D264-5849-B536-2AF57E552421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="484">
   <si>
     <t>Tested By</t>
   </si>
@@ -1491,6 +1491,9 @@
   <si>
     <t>Test 1 Step 3
 Note: This requirement was modified to exclude Safari as this is not on Fedora.</t>
+  </si>
+  <si>
+    <t>Test 1: Step 4</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1581,6 +1584,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1889,8 +1895,8 @@
   </sheetPr>
   <dimension ref="A1:S230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H217" sqref="H217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5890,6 +5896,9 @@
       <c r="E208" s="4" t="s">
         <v>395</v>
       </c>
+      <c r="G208" s="9" t="s">
+        <v>483</v>
+      </c>
       <c r="O208" s="2" t="s">
         <v>446</v>
       </c>
@@ -5986,6 +5995,9 @@
       </c>
       <c r="E213" s="4" t="s">
         <v>409</v>
+      </c>
+      <c r="G213" s="9" t="s">
+        <v>483</v>
       </c>
       <c r="O213" s="2" t="s">
         <v>448</v>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtian/Documents/UTA/Spring 2025/CSE 3310/cse3310-sp25-002/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE62D027-D264-5849-B536-2AF57E552421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCADCF5-3AAF-9148-972A-34551A7ECBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="497">
   <si>
     <t>Tested By</t>
   </si>
@@ -1489,11 +1489,49 @@
     <t>The program will be compatible with the web browsers Chrome and Firefox.</t>
   </si>
   <si>
-    <t>Test 1 Step 3
-Note: This requirement was modified to exclude Safari as this is not on Fedora.</t>
-  </si>
-  <si>
     <t>Test 1: Step 4</t>
+  </si>
+  <si>
+    <t>Unable to test</t>
+  </si>
+  <si>
+    <t>Partially testable - may be observed by playing several games but full verfication would require code inspection</t>
+  </si>
+  <si>
+    <t>Unable to test - move evaluation is likely internal</t>
+  </si>
+  <si>
+    <t>Req might be too unclear to test.</t>
+  </si>
+  <si>
+    <t>Req might be too unclear as "fixed strategy" is not fully defined/</t>
+  </si>
+  <si>
+    <t>Req might be too unclear to test as "aggressively" is subjective.</t>
+  </si>
+  <si>
+    <t>Req might be too unclear to test. "Cautiously" is not precisely defined.</t>
+  </si>
+  <si>
+    <t>Test 1: Step 3</t>
+  </si>
+  <si>
+    <t>Note: This requirement was modified to remove Safari as this is not on Fedora.</t>
+  </si>
+  <si>
+    <t>Unable to tsst</t>
+  </si>
+  <si>
+    <t>Will need multiple games to verify</t>
+  </si>
+  <si>
+    <t>Req. might be too unlcear to test. What is the state of the board?</t>
+  </si>
+  <si>
+    <t>Depends if the active game count is displayed</t>
+  </si>
+  <si>
+    <t>Req. might be too unlcear to test.What does if needed mean?</t>
   </si>
 </sst>
 </file>
@@ -1561,7 +1599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1584,9 +1622,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1895,8 +1930,8 @@
   </sheetPr>
   <dimension ref="A1:S230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H217" sqref="H217"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2000,6 +2035,9 @@
       <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N5" t="s">
         <v>22</v>
       </c>
@@ -2020,6 +2058,9 @@
       <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N6" t="s">
         <v>22</v>
       </c>
@@ -2027,7 +2068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -2039,6 +2080,9 @@
       </c>
       <c r="D7" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>23</v>
@@ -2057,6 +2101,7 @@
       <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="G8" s="2"/>
       <c r="O8" s="2" t="s">
         <v>479</v>
       </c>
@@ -2074,6 +2119,7 @@
       <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G9" s="2"/>
       <c r="O9" s="2" t="s">
         <v>479</v>
       </c>
@@ -2091,6 +2137,7 @@
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G10" s="2"/>
       <c r="O10" s="2" t="s">
         <v>479</v>
       </c>
@@ -2108,6 +2155,9 @@
       <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N11" t="s">
         <v>22</v>
       </c>
@@ -2128,6 +2178,9 @@
       <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G12" s="2" t="s">
+        <v>485</v>
+      </c>
       <c r="N12" t="s">
         <v>22</v>
       </c>
@@ -2148,6 +2201,7 @@
       <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="G13" s="2"/>
       <c r="O13" s="2" t="s">
         <v>480</v>
       </c>
@@ -2165,6 +2219,7 @@
       <c r="D14" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G14" s="2"/>
       <c r="O14" s="2" t="s">
         <v>479</v>
       </c>
@@ -2182,6 +2237,9 @@
       <c r="D15" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G15" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N15" t="s">
         <v>22</v>
       </c>
@@ -2202,6 +2260,9 @@
       <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="G16" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N16" t="s">
         <v>22</v>
       </c>
@@ -2222,6 +2283,9 @@
       <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="G17" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N17" t="s">
         <v>22</v>
       </c>
@@ -2242,6 +2306,9 @@
       <c r="D18" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="G18" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N18" t="s">
         <v>22</v>
       </c>
@@ -2262,6 +2329,9 @@
       <c r="D19" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="G19" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N19" t="s">
         <v>22</v>
       </c>
@@ -2282,6 +2352,9 @@
       <c r="D20" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G20" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N20" t="s">
         <v>22</v>
       </c>
@@ -2302,6 +2375,9 @@
       <c r="D21" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G21" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N21" t="s">
         <v>22</v>
       </c>
@@ -2322,6 +2398,9 @@
       <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="G22" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N22" t="s">
         <v>22</v>
       </c>
@@ -2342,6 +2421,9 @@
       <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="G23" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N23" t="s">
         <v>22</v>
       </c>
@@ -2362,6 +2444,9 @@
       <c r="D24" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="G24" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="O24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2379,6 +2464,9 @@
       <c r="D25" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="G25" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="O25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2396,6 +2484,9 @@
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="G26" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N26" t="s">
         <v>22</v>
       </c>
@@ -2415,6 +2506,9 @@
       </c>
       <c r="D27" s="4" t="s">
         <v>55</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="N27" t="s">
         <v>22</v>
@@ -2436,6 +2530,9 @@
       <c r="D28" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="G28" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N28" t="s">
         <v>22</v>
       </c>
@@ -2456,6 +2553,9 @@
       <c r="D29" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G29" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N29" t="s">
         <v>22</v>
       </c>
@@ -2463,7 +2563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2475,6 +2575,9 @@
       </c>
       <c r="D30" s="4" t="s">
         <v>59</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>479</v>
@@ -2493,6 +2596,9 @@
       <c r="D31" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="G31" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N31" t="s">
         <v>22</v>
       </c>
@@ -2513,6 +2619,9 @@
       <c r="D32" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="G32" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N32" t="s">
         <v>22</v>
       </c>
@@ -2533,6 +2642,9 @@
       <c r="D33" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="G33" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N33" t="s">
         <v>22</v>
       </c>
@@ -2553,6 +2665,7 @@
       <c r="D34" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="G34" s="2"/>
       <c r="O34" s="2" t="s">
         <v>479</v>
       </c>
@@ -2570,6 +2683,9 @@
       <c r="D35" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="G35" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N35" t="s">
         <v>22</v>
       </c>
@@ -2590,6 +2706,9 @@
       <c r="D36" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="G36" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N36" t="s">
         <v>22</v>
       </c>
@@ -2610,6 +2729,9 @@
       <c r="D37" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="G37" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N37" t="s">
         <v>22</v>
       </c>
@@ -2630,6 +2752,9 @@
       <c r="D38" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="G38" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N38" t="s">
         <v>22</v>
       </c>
@@ -2650,6 +2775,9 @@
       <c r="D39" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="G39" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N39" t="s">
         <v>22</v>
       </c>
@@ -2670,6 +2798,7 @@
       <c r="D40" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="G40" s="2"/>
       <c r="O40" s="2" t="s">
         <v>479</v>
       </c>
@@ -2687,6 +2816,9 @@
       <c r="D41" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="G41" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N41" t="s">
         <v>22</v>
       </c>
@@ -2707,6 +2839,9 @@
       <c r="D42" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="G42" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N42" t="s">
         <v>22</v>
       </c>
@@ -2714,7 +2849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2727,6 +2862,9 @@
       <c r="D43" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="G43" s="2" t="s">
+        <v>488</v>
+      </c>
       <c r="N43" t="s">
         <v>22</v>
       </c>
@@ -2734,7 +2872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2746,6 +2884,9 @@
       </c>
       <c r="D44" s="4" t="s">
         <v>83</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>23</v>
@@ -2764,6 +2905,7 @@
       <c r="D45" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="G45" s="2"/>
       <c r="O45" s="2" t="s">
         <v>479</v>
       </c>
@@ -2781,6 +2923,9 @@
       <c r="D46" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="G46" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N46" t="s">
         <v>22</v>
       </c>
@@ -2801,6 +2946,9 @@
       <c r="D47" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="G47" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N47" t="s">
         <v>22</v>
       </c>
@@ -2821,6 +2969,9 @@
       <c r="D48" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="G48" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N48" t="s">
         <v>22</v>
       </c>
@@ -2841,6 +2992,9 @@
       <c r="D49" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="G49" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N49" t="s">
         <v>22</v>
       </c>
@@ -2861,6 +3015,9 @@
       <c r="D50" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="G50" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N50" t="s">
         <v>22</v>
       </c>
@@ -2881,6 +3038,9 @@
       <c r="D51" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="G51" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N51" t="s">
         <v>22</v>
       </c>
@@ -2901,6 +3061,7 @@
       <c r="D52" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="G52" s="2"/>
       <c r="O52" s="2" t="s">
         <v>479</v>
       </c>
@@ -2921,6 +3082,7 @@
       <c r="E53" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="G53" s="2"/>
       <c r="O53" s="2" t="s">
         <v>451</v>
       </c>
@@ -2941,6 +3103,7 @@
       <c r="E54" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="G54" s="2"/>
       <c r="O54" s="2" t="s">
         <v>452</v>
       </c>
@@ -2961,6 +3124,7 @@
       <c r="E55" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="G55" s="2"/>
       <c r="O55" s="2" t="s">
         <v>452</v>
       </c>
@@ -2981,6 +3145,7 @@
       <c r="E56" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G56" s="2"/>
       <c r="O56" s="2" t="s">
         <v>451</v>
       </c>
@@ -3001,6 +3166,7 @@
       <c r="E57" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="G57" s="2"/>
       <c r="O57" s="2" t="s">
         <v>451</v>
       </c>
@@ -3021,6 +3187,7 @@
       <c r="E58" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="G58" s="2"/>
       <c r="O58" s="2" t="s">
         <v>443</v>
       </c>
@@ -3041,6 +3208,7 @@
       <c r="E59" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="G59" s="2"/>
       <c r="O59" s="2" t="s">
         <v>437</v>
       </c>
@@ -3061,6 +3229,7 @@
       <c r="E60" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="G60" s="2"/>
       <c r="O60" s="2" t="s">
         <v>451</v>
       </c>
@@ -3081,6 +3250,7 @@
       <c r="E61" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G61" s="2"/>
       <c r="O61" s="2" t="s">
         <v>451</v>
       </c>
@@ -3101,6 +3271,9 @@
       <c r="E62" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G62" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N62" t="s">
         <v>22</v>
       </c>
@@ -3108,7 +3281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>59</v>
       </c>
@@ -3125,7 +3298,7 @@
         <v>110</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="N63" t="s">
         <v>22</v>
@@ -3150,6 +3323,7 @@
       <c r="E64" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G64" s="2"/>
       <c r="N64" t="s">
         <v>22</v>
       </c>
@@ -3157,7 +3331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>61</v>
       </c>
@@ -3172,6 +3346,9 @@
       </c>
       <c r="E65" s="4" t="s">
         <v>110</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>491</v>
       </c>
       <c r="N65" t="s">
         <v>22</v>
@@ -3196,6 +3373,9 @@
       <c r="E66" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G66" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N66" t="s">
         <v>22</v>
       </c>
@@ -3219,6 +3399,9 @@
       <c r="E67" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G67" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O67" s="2" t="s">
         <v>434</v>
       </c>
@@ -3239,6 +3422,9 @@
       <c r="E68" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G68" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O68" s="2" t="s">
         <v>453</v>
       </c>
@@ -3259,6 +3445,7 @@
       <c r="E69" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G69" s="2"/>
       <c r="N69" t="s">
         <v>22</v>
       </c>
@@ -3282,6 +3469,7 @@
       <c r="E70" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G70" s="2"/>
       <c r="N70" t="s">
         <v>22</v>
       </c>
@@ -3305,6 +3493,9 @@
       <c r="E71" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G71" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N71" t="s">
         <v>22</v>
       </c>
@@ -3328,6 +3519,9 @@
       <c r="E72" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G72" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N72" t="s">
         <v>22</v>
       </c>
@@ -3348,6 +3542,9 @@
       <c r="D73" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="G73" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O73" s="2" t="s">
         <v>454</v>
       </c>
@@ -3365,6 +3562,9 @@
       <c r="D74" s="4" t="s">
         <v>144</v>
       </c>
+      <c r="G74" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O74" s="2" t="s">
         <v>23</v>
       </c>
@@ -3382,6 +3582,7 @@
       <c r="D75" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="G75" s="2"/>
       <c r="O75" s="2" t="s">
         <v>456</v>
       </c>
@@ -3399,6 +3600,7 @@
       <c r="D76" s="4" t="s">
         <v>147</v>
       </c>
+      <c r="G76" s="2"/>
       <c r="O76" s="2" t="s">
         <v>455</v>
       </c>
@@ -3416,6 +3618,7 @@
       <c r="D77" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="G77" s="2"/>
       <c r="N77" t="s">
         <v>22</v>
       </c>
@@ -3436,6 +3639,7 @@
       <c r="D78" s="4" t="s">
         <v>151</v>
       </c>
+      <c r="G78" s="2"/>
       <c r="N78" t="s">
         <v>22</v>
       </c>
@@ -3456,6 +3660,9 @@
       <c r="D79" s="4" t="s">
         <v>153</v>
       </c>
+      <c r="G79" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N79" t="s">
         <v>22</v>
       </c>
@@ -3476,6 +3683,9 @@
       <c r="D80" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="G80" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N80" t="s">
         <v>22</v>
       </c>
@@ -3496,6 +3706,9 @@
       <c r="D81" s="4" t="s">
         <v>157</v>
       </c>
+      <c r="G81" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N81" t="s">
         <v>22</v>
       </c>
@@ -3516,6 +3729,9 @@
       <c r="D82" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="G82" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N82" t="s">
         <v>22</v>
       </c>
@@ -3536,6 +3752,9 @@
       <c r="D83" s="4" t="s">
         <v>161</v>
       </c>
+      <c r="G83" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O83" s="2" t="s">
         <v>455</v>
       </c>
@@ -3556,6 +3775,9 @@
       <c r="E84" s="4" t="s">
         <v>164</v>
       </c>
+      <c r="G84" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O84" s="2" t="s">
         <v>458</v>
       </c>
@@ -3576,6 +3798,7 @@
       <c r="E85" s="4" t="s">
         <v>167</v>
       </c>
+      <c r="G85" s="2"/>
       <c r="O85" s="2" t="s">
         <v>457</v>
       </c>
@@ -3596,6 +3819,7 @@
       <c r="E86" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="G86" s="2"/>
       <c r="O86" s="2" t="s">
         <v>459</v>
       </c>
@@ -3616,6 +3840,7 @@
       <c r="E87" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="G87" s="2"/>
       <c r="O87" s="2" t="s">
         <v>460</v>
       </c>
@@ -3633,6 +3858,7 @@
       <c r="D88" s="4" t="s">
         <v>175</v>
       </c>
+      <c r="G88" s="2"/>
       <c r="N88" t="s">
         <v>22</v>
       </c>
@@ -3653,6 +3879,7 @@
       <c r="D89" s="4" t="s">
         <v>177</v>
       </c>
+      <c r="G89" s="2"/>
       <c r="O89" s="2" t="s">
         <v>435</v>
       </c>
@@ -3673,6 +3900,9 @@
       <c r="E90" s="4" t="s">
         <v>180</v>
       </c>
+      <c r="G90" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O90" s="2" t="s">
         <v>436</v>
       </c>
@@ -3690,6 +3920,7 @@
       <c r="D91" s="4" t="s">
         <v>182</v>
       </c>
+      <c r="G91" s="2"/>
       <c r="O91" s="2" t="s">
         <v>437</v>
       </c>
@@ -3710,6 +3941,7 @@
       <c r="E92" s="4" t="s">
         <v>185</v>
       </c>
+      <c r="G92" s="2"/>
       <c r="O92" s="2" t="s">
         <v>438</v>
       </c>
@@ -3727,6 +3959,7 @@
       <c r="D93" s="4" t="s">
         <v>187</v>
       </c>
+      <c r="G93" s="2"/>
       <c r="N93" t="s">
         <v>22</v>
       </c>
@@ -3747,6 +3980,7 @@
       <c r="D94" s="4" t="s">
         <v>189</v>
       </c>
+      <c r="G94" s="2"/>
       <c r="N94" t="s">
         <v>22</v>
       </c>
@@ -3767,6 +4001,9 @@
       <c r="D95" s="4" t="s">
         <v>191</v>
       </c>
+      <c r="G95" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O95" s="2" t="s">
         <v>457</v>
       </c>
@@ -3784,6 +4021,9 @@
       <c r="D96" s="4" t="s">
         <v>193</v>
       </c>
+      <c r="G96" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O96" s="2" t="s">
         <v>439</v>
       </c>
@@ -3801,6 +4041,7 @@
       <c r="D97" s="4" t="s">
         <v>195</v>
       </c>
+      <c r="G97" s="2"/>
       <c r="N97" t="s">
         <v>22</v>
       </c>
@@ -3821,6 +4062,7 @@
       <c r="D98" s="4" t="s">
         <v>197</v>
       </c>
+      <c r="G98" s="2"/>
       <c r="O98" s="2" t="s">
         <v>440</v>
       </c>
@@ -3838,6 +4080,9 @@
       <c r="D99" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="G99" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O99" s="2" t="s">
         <v>441</v>
       </c>
@@ -3855,6 +4100,7 @@
       <c r="D100" s="4" t="s">
         <v>201</v>
       </c>
+      <c r="G100" s="2"/>
       <c r="O100" s="2" t="s">
         <v>441</v>
       </c>
@@ -3872,6 +4118,7 @@
       <c r="D101" s="4" t="s">
         <v>203</v>
       </c>
+      <c r="G101" s="2"/>
       <c r="N101" t="s">
         <v>22</v>
       </c>
@@ -3892,6 +4139,7 @@
       <c r="D102" s="4" t="s">
         <v>205</v>
       </c>
+      <c r="G102" s="2"/>
       <c r="N102" t="s">
         <v>22</v>
       </c>
@@ -3912,6 +4160,9 @@
       <c r="D103" s="4" t="s">
         <v>207</v>
       </c>
+      <c r="G103" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O103" s="2" t="s">
         <v>442</v>
       </c>
@@ -3929,6 +4180,9 @@
       <c r="D104" s="4" t="s">
         <v>207</v>
       </c>
+      <c r="G104" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O104" s="2" t="s">
         <v>461</v>
       </c>
@@ -3946,6 +4200,7 @@
       <c r="D105" s="4" t="s">
         <v>210</v>
       </c>
+      <c r="G105" s="2"/>
       <c r="O105" s="2" t="s">
         <v>461</v>
       </c>
@@ -3963,6 +4218,7 @@
       <c r="D106" s="4" t="s">
         <v>205</v>
       </c>
+      <c r="G106" s="2"/>
       <c r="N106" t="s">
         <v>22</v>
       </c>
@@ -3983,6 +4239,7 @@
       <c r="D107" s="4" t="s">
         <v>213</v>
       </c>
+      <c r="G107" s="2"/>
       <c r="O107" s="2" t="s">
         <v>462</v>
       </c>
@@ -4000,6 +4257,9 @@
       <c r="D108" s="4" t="s">
         <v>207</v>
       </c>
+      <c r="G108" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O108" s="2" t="s">
         <v>463</v>
       </c>
@@ -4017,6 +4277,7 @@
       <c r="D109" s="4" t="s">
         <v>216</v>
       </c>
+      <c r="G109" s="2"/>
       <c r="O109" s="2" t="s">
         <v>23</v>
       </c>
@@ -4034,6 +4295,7 @@
       <c r="D110" s="4" t="s">
         <v>205</v>
       </c>
+      <c r="G110" s="2"/>
       <c r="O110" s="2" t="s">
         <v>443</v>
       </c>
@@ -4051,6 +4313,7 @@
       <c r="D111" s="4" t="s">
         <v>207</v>
       </c>
+      <c r="G111" s="2"/>
       <c r="O111" s="2" t="s">
         <v>464</v>
       </c>
@@ -4068,6 +4331,7 @@
       <c r="D112" s="4" t="s">
         <v>207</v>
       </c>
+      <c r="G112" s="2"/>
       <c r="O112" s="2" t="s">
         <v>463</v>
       </c>
@@ -4085,6 +4349,7 @@
       <c r="D113" s="4" t="s">
         <v>207</v>
       </c>
+      <c r="G113" s="2"/>
       <c r="O113" s="2" t="s">
         <v>23</v>
       </c>
@@ -4102,6 +4367,7 @@
       <c r="D114" s="4" t="s">
         <v>207</v>
       </c>
+      <c r="G114" s="2"/>
       <c r="O114" s="2" t="s">
         <v>465</v>
       </c>
@@ -4119,6 +4385,7 @@
       <c r="D115" s="4" t="s">
         <v>223</v>
       </c>
+      <c r="G115" s="2"/>
       <c r="O115" s="2" t="s">
         <v>466</v>
       </c>
@@ -4136,6 +4403,7 @@
       <c r="D116" s="4" t="s">
         <v>225</v>
       </c>
+      <c r="G116" s="2"/>
       <c r="N116" t="s">
         <v>22</v>
       </c>
@@ -4156,6 +4424,7 @@
       <c r="D117" s="4" t="s">
         <v>227</v>
       </c>
+      <c r="G117" s="2"/>
       <c r="O117" s="2" t="s">
         <v>467</v>
       </c>
@@ -4173,6 +4442,9 @@
       <c r="D118" s="4" t="s">
         <v>227</v>
       </c>
+      <c r="G118" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O118" s="2" t="s">
         <v>444</v>
       </c>
@@ -4190,6 +4462,7 @@
       <c r="D119" s="4" t="s">
         <v>227</v>
       </c>
+      <c r="G119" s="2"/>
       <c r="O119" s="2" t="s">
         <v>468</v>
       </c>
@@ -4207,6 +4480,7 @@
       <c r="D120" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="G120" s="2"/>
       <c r="N120" t="s">
         <v>22</v>
       </c>
@@ -4227,6 +4501,7 @@
       <c r="D121" s="4" t="s">
         <v>233</v>
       </c>
+      <c r="G121" s="2"/>
       <c r="N121" t="s">
         <v>22</v>
       </c>
@@ -4247,6 +4522,9 @@
       <c r="D122" s="4" t="s">
         <v>235</v>
       </c>
+      <c r="G122" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N122" t="s">
         <v>22</v>
       </c>
@@ -4267,6 +4545,9 @@
       <c r="D123" s="4" t="s">
         <v>227</v>
       </c>
+      <c r="G123" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N123" t="s">
         <v>22</v>
       </c>
@@ -4287,6 +4568,9 @@
       <c r="D124" s="4" t="s">
         <v>238</v>
       </c>
+      <c r="G124" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O124" s="2" t="s">
         <v>23</v>
       </c>
@@ -4304,6 +4588,9 @@
       <c r="D125" s="4" t="s">
         <v>240</v>
       </c>
+      <c r="G125" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N125" t="s">
         <v>22</v>
       </c>
@@ -4324,6 +4611,9 @@
       <c r="D126" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="G126" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N126" t="s">
         <v>22</v>
       </c>
@@ -4344,6 +4634,9 @@
       <c r="D127" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="G127" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O127" s="2" t="s">
         <v>23</v>
       </c>
@@ -4361,6 +4654,9 @@
       <c r="D128" s="4" t="s">
         <v>244</v>
       </c>
+      <c r="G128" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O128" s="2" t="s">
         <v>23</v>
       </c>
@@ -4378,6 +4674,7 @@
       <c r="D129" s="4" t="s">
         <v>246</v>
       </c>
+      <c r="G129" s="2"/>
       <c r="N129" t="s">
         <v>22</v>
       </c>
@@ -4398,6 +4695,9 @@
       <c r="D130" s="4" t="s">
         <v>248</v>
       </c>
+      <c r="G130" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O130" s="2" t="s">
         <v>469</v>
       </c>
@@ -4415,6 +4715,9 @@
       <c r="D131" s="6" t="s">
         <v>250</v>
       </c>
+      <c r="G131" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N131" t="s">
         <v>22</v>
       </c>
@@ -4435,6 +4738,7 @@
       <c r="D132" s="6" t="s">
         <v>252</v>
       </c>
+      <c r="G132" s="2"/>
       <c r="N132" t="s">
         <v>22</v>
       </c>
@@ -4455,6 +4759,9 @@
       <c r="D133" s="6" t="s">
         <v>254</v>
       </c>
+      <c r="G133" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N133" t="s">
         <v>22</v>
       </c>
@@ -4475,6 +4782,9 @@
       <c r="D134" s="6" t="s">
         <v>256</v>
       </c>
+      <c r="G134" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N134" t="s">
         <v>22</v>
       </c>
@@ -4495,6 +4805,9 @@
       <c r="D135" s="6" t="s">
         <v>252</v>
       </c>
+      <c r="G135" s="2" t="s">
+        <v>492</v>
+      </c>
       <c r="O135" s="2" t="s">
         <v>456</v>
       </c>
@@ -4512,6 +4825,9 @@
       <c r="D136" s="6" t="s">
         <v>252</v>
       </c>
+      <c r="G136" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="O136" s="2" t="s">
         <v>470</v>
       </c>
@@ -4529,6 +4845,7 @@
       <c r="D137" s="6" t="s">
         <v>250</v>
       </c>
+      <c r="G137" s="2"/>
       <c r="N137" s="8" t="s">
         <v>22</v>
       </c>
@@ -4549,6 +4866,7 @@
       <c r="D138" s="6" t="s">
         <v>250</v>
       </c>
+      <c r="G138" s="2"/>
       <c r="N138" s="8" t="s">
         <v>22</v>
       </c>
@@ -4569,6 +4887,9 @@
       <c r="D139" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="G139" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O139" s="2" t="s">
         <v>439</v>
       </c>
@@ -4586,6 +4907,9 @@
       <c r="D140" s="6" t="s">
         <v>264</v>
       </c>
+      <c r="G140" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N140" s="8" t="s">
         <v>22</v>
       </c>
@@ -4606,6 +4930,7 @@
       <c r="D141" s="6" t="s">
         <v>266</v>
       </c>
+      <c r="G141" s="2"/>
       <c r="N141" s="8" t="s">
         <v>22</v>
       </c>
@@ -4629,6 +4954,9 @@
       <c r="E142" s="4" t="s">
         <v>269</v>
       </c>
+      <c r="G142" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O142" s="2" t="s">
         <v>470</v>
       </c>
@@ -4652,6 +4980,9 @@
       <c r="E143" s="4" t="s">
         <v>273</v>
       </c>
+      <c r="G143" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N143" s="8" t="s">
         <v>22</v>
       </c>
@@ -4672,6 +5003,7 @@
       <c r="D144" s="4" t="s">
         <v>268</v>
       </c>
+      <c r="G144" s="2"/>
       <c r="O144" s="2" t="s">
         <v>470</v>
       </c>
@@ -4689,6 +5021,9 @@
       <c r="D145" s="4" t="s">
         <v>272</v>
       </c>
+      <c r="G145" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O145" s="2" t="s">
         <v>470</v>
       </c>
@@ -4706,6 +5041,7 @@
       <c r="D146" s="4" t="s">
         <v>268</v>
       </c>
+      <c r="G146" s="2"/>
       <c r="O146" s="2" t="s">
         <v>470</v>
       </c>
@@ -4723,6 +5059,7 @@
       <c r="D147" s="4" t="s">
         <v>272</v>
       </c>
+      <c r="G147" s="2"/>
       <c r="O147" s="2" t="s">
         <v>470</v>
       </c>
@@ -4740,6 +5077,7 @@
       <c r="D148" s="4" t="s">
         <v>272</v>
       </c>
+      <c r="G148" s="2"/>
       <c r="N148" s="8" t="s">
         <v>22</v>
       </c>
@@ -4760,6 +5098,7 @@
       <c r="D149" s="4" t="s">
         <v>268</v>
       </c>
+      <c r="G149" s="2"/>
       <c r="N149" s="8" t="s">
         <v>22</v>
       </c>
@@ -4780,6 +5119,9 @@
       <c r="D150" s="4" t="s">
         <v>272</v>
       </c>
+      <c r="G150" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O150" s="2" t="s">
         <v>470</v>
       </c>
@@ -4797,6 +5139,9 @@
       <c r="D151" s="4" t="s">
         <v>268</v>
       </c>
+      <c r="G151" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O151" s="2" t="s">
         <v>471</v>
       </c>
@@ -4814,6 +5159,7 @@
       <c r="D152" s="4" t="s">
         <v>283</v>
       </c>
+      <c r="G152" s="2"/>
       <c r="N152" s="8" t="s">
         <v>22</v>
       </c>
@@ -4834,6 +5180,7 @@
       <c r="D153" s="4" t="s">
         <v>285</v>
       </c>
+      <c r="G153" s="2"/>
       <c r="N153" s="8" t="s">
         <v>22</v>
       </c>
@@ -4854,6 +5201,9 @@
       <c r="D154" s="4" t="s">
         <v>287</v>
       </c>
+      <c r="G154" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N154" s="4"/>
       <c r="O154" s="4" t="s">
         <v>288</v>
@@ -4872,6 +5222,9 @@
       <c r="D155" s="4" t="s">
         <v>290</v>
       </c>
+      <c r="G155" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O155" s="2" t="s">
         <v>472</v>
       </c>
@@ -4889,6 +5242,7 @@
       <c r="D156" s="4" t="s">
         <v>292</v>
       </c>
+      <c r="G156" s="2"/>
       <c r="N156" s="8" t="s">
         <v>22</v>
       </c>
@@ -4909,6 +5263,7 @@
       <c r="D157" s="4" t="s">
         <v>294</v>
       </c>
+      <c r="G157" s="2"/>
       <c r="N157" s="8" t="s">
         <v>22</v>
       </c>
@@ -4929,6 +5284,9 @@
       <c r="D158" s="4" t="s">
         <v>296</v>
       </c>
+      <c r="G158" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N158" s="8" t="s">
         <v>22</v>
       </c>
@@ -4949,6 +5307,9 @@
       <c r="D159" s="4" t="s">
         <v>298</v>
       </c>
+      <c r="G159" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N159" s="8" t="s">
         <v>22</v>
       </c>
@@ -4969,6 +5330,9 @@
       <c r="D160" s="4" t="s">
         <v>300</v>
       </c>
+      <c r="G160" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N160" s="8" t="s">
         <v>22</v>
       </c>
@@ -4989,6 +5353,9 @@
       <c r="D161" s="4" t="s">
         <v>302</v>
       </c>
+      <c r="G161" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N161" s="8" t="s">
         <v>22</v>
       </c>
@@ -5009,6 +5376,9 @@
       <c r="D162" s="4" t="s">
         <v>304</v>
       </c>
+      <c r="G162" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O162" s="2" t="s">
         <v>473</v>
       </c>
@@ -5026,6 +5396,9 @@
       <c r="D163" s="4" t="s">
         <v>306</v>
       </c>
+      <c r="G163" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N163" s="8" t="s">
         <v>22</v>
       </c>
@@ -5046,6 +5419,7 @@
       <c r="D164" s="4" t="s">
         <v>308</v>
       </c>
+      <c r="G164" s="2"/>
       <c r="O164" s="2" t="s">
         <v>23</v>
       </c>
@@ -5063,6 +5437,9 @@
       <c r="D165" s="4" t="s">
         <v>310</v>
       </c>
+      <c r="G165" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O165" s="2" t="s">
         <v>23</v>
       </c>
@@ -5080,6 +5457,7 @@
       <c r="D166" s="4" t="s">
         <v>312</v>
       </c>
+      <c r="G166" s="2"/>
       <c r="N166" s="8" t="s">
         <v>22</v>
       </c>
@@ -5100,6 +5478,7 @@
       <c r="D167" s="4" t="s">
         <v>314</v>
       </c>
+      <c r="G167" s="2"/>
       <c r="O167" s="2" t="s">
         <v>23</v>
       </c>
@@ -5117,6 +5496,9 @@
       <c r="D168" s="4" t="s">
         <v>316</v>
       </c>
+      <c r="G168" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O168" s="2" t="s">
         <v>23</v>
       </c>
@@ -5134,6 +5516,9 @@
       <c r="D169" s="4" t="s">
         <v>318</v>
       </c>
+      <c r="G169" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N169" s="8" t="s">
         <v>22</v>
       </c>
@@ -5154,6 +5539,7 @@
       <c r="D170" s="4" t="s">
         <v>318</v>
       </c>
+      <c r="G170" s="2"/>
       <c r="N170" s="8" t="s">
         <v>22</v>
       </c>
@@ -5174,6 +5560,9 @@
       <c r="D171" s="4" t="s">
         <v>321</v>
       </c>
+      <c r="G171" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N171" s="8" t="s">
         <v>22</v>
       </c>
@@ -5194,6 +5583,9 @@
       <c r="D172" s="4" t="s">
         <v>323</v>
       </c>
+      <c r="G172" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N172" s="8" t="s">
         <v>22</v>
       </c>
@@ -5214,6 +5606,9 @@
       <c r="D173" s="4" t="s">
         <v>325</v>
       </c>
+      <c r="G173" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N173" s="8" t="s">
         <v>22</v>
       </c>
@@ -5234,6 +5629,9 @@
       <c r="D174" s="4" t="s">
         <v>327</v>
       </c>
+      <c r="G174" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N174" s="8" t="s">
         <v>22</v>
       </c>
@@ -5254,6 +5652,9 @@
       <c r="D175" s="4" t="s">
         <v>329</v>
       </c>
+      <c r="G175" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O175" s="2" t="s">
         <v>474</v>
       </c>
@@ -5271,6 +5672,9 @@
       <c r="D176" s="4" t="s">
         <v>331</v>
       </c>
+      <c r="G176" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O176" s="2" t="s">
         <v>474</v>
       </c>
@@ -5288,6 +5692,7 @@
       <c r="D177" s="4" t="s">
         <v>333</v>
       </c>
+      <c r="G177" s="2"/>
       <c r="O177" s="2" t="s">
         <v>474</v>
       </c>
@@ -5305,6 +5710,7 @@
       <c r="D178" s="4" t="s">
         <v>335</v>
       </c>
+      <c r="G178" s="2"/>
       <c r="O178" s="2" t="s">
         <v>23</v>
       </c>
@@ -5322,6 +5728,9 @@
       <c r="D179" s="4" t="s">
         <v>337</v>
       </c>
+      <c r="G179" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N179" s="8" t="s">
         <v>22</v>
       </c>
@@ -5342,6 +5751,7 @@
       <c r="D180" s="4" t="s">
         <v>339</v>
       </c>
+      <c r="G180" s="2"/>
       <c r="O180" s="2" t="s">
         <v>474</v>
       </c>
@@ -5359,6 +5769,9 @@
       <c r="D181" s="4" t="s">
         <v>341</v>
       </c>
+      <c r="G181" s="2" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="182" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
@@ -5373,6 +5786,7 @@
       <c r="D182" s="4" t="s">
         <v>343</v>
       </c>
+      <c r="G182" s="2"/>
       <c r="N182" s="8" t="s">
         <v>22</v>
       </c>
@@ -5393,6 +5807,7 @@
       <c r="D183" s="4" t="s">
         <v>345</v>
       </c>
+      <c r="G183" s="2"/>
       <c r="N183" s="8" t="s">
         <v>22</v>
       </c>
@@ -5413,6 +5828,7 @@
       <c r="D184" s="4" t="s">
         <v>347</v>
       </c>
+      <c r="G184" s="2"/>
       <c r="N184" s="8" t="s">
         <v>22</v>
       </c>
@@ -5433,6 +5849,9 @@
       <c r="D185" s="4" t="s">
         <v>349</v>
       </c>
+      <c r="G185" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N185" s="8" t="s">
         <v>22</v>
       </c>
@@ -5453,6 +5872,9 @@
       <c r="D186" s="4" t="s">
         <v>351</v>
       </c>
+      <c r="G186" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N186" s="8" t="s">
         <v>22</v>
       </c>
@@ -5473,6 +5895,9 @@
       <c r="D187" s="4" t="s">
         <v>353</v>
       </c>
+      <c r="G187" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N187" s="8" t="s">
         <v>22</v>
       </c>
@@ -5493,6 +5918,9 @@
       <c r="D188" s="4" t="s">
         <v>355</v>
       </c>
+      <c r="G188" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N188" s="8" t="s">
         <v>22</v>
       </c>
@@ -5513,6 +5941,9 @@
       <c r="D189" s="4" t="s">
         <v>353</v>
       </c>
+      <c r="G189" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N189" s="8" t="s">
         <v>22</v>
       </c>
@@ -5533,6 +5964,9 @@
       <c r="D190" s="4" t="s">
         <v>335</v>
       </c>
+      <c r="G190" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N190" s="8" t="s">
         <v>22</v>
       </c>
@@ -5553,6 +5987,9 @@
       <c r="D191" s="4" t="s">
         <v>359</v>
       </c>
+      <c r="G191" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N191" s="8" t="s">
         <v>22</v>
       </c>
@@ -5573,6 +6010,9 @@
       <c r="D192" s="4" t="s">
         <v>361</v>
       </c>
+      <c r="G192" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N192" s="8" t="s">
         <v>22</v>
       </c>
@@ -5593,6 +6033,9 @@
       <c r="D193" s="4" t="s">
         <v>363</v>
       </c>
+      <c r="G193" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N193" s="8" t="s">
         <v>22</v>
       </c>
@@ -5613,6 +6056,9 @@
       <c r="D194" s="4" t="s">
         <v>365</v>
       </c>
+      <c r="G194" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N194" s="8" t="s">
         <v>22</v>
       </c>
@@ -5636,6 +6082,9 @@
       <c r="E195" s="4" t="s">
         <v>368</v>
       </c>
+      <c r="G195" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O195" s="2" t="s">
         <v>475</v>
       </c>
@@ -5653,6 +6102,9 @@
       <c r="D196" s="4" t="s">
         <v>370</v>
       </c>
+      <c r="G196" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N196" s="8" t="s">
         <v>22</v>
       </c>
@@ -5673,6 +6125,7 @@
       <c r="D197" s="4" t="s">
         <v>372</v>
       </c>
+      <c r="G197" s="2"/>
       <c r="N197" s="8" t="s">
         <v>22</v>
       </c>
@@ -5693,6 +6146,9 @@
       <c r="D198" s="4" t="s">
         <v>374</v>
       </c>
+      <c r="G198" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N198" s="8" t="s">
         <v>22</v>
       </c>
@@ -5713,6 +6169,9 @@
       <c r="D199" s="4" t="s">
         <v>376</v>
       </c>
+      <c r="G199" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N199" s="8" t="s">
         <v>22</v>
       </c>
@@ -5733,6 +6192,9 @@
       <c r="D200" s="4" t="s">
         <v>378</v>
       </c>
+      <c r="G200" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N200" s="8" t="s">
         <v>22</v>
       </c>
@@ -5740,7 +6202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>197</v>
       </c>
@@ -5752,6 +6214,9 @@
       </c>
       <c r="D201" s="4" t="s">
         <v>380</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="N201" s="8" t="s">
         <v>22</v>
@@ -5773,6 +6238,9 @@
       <c r="D202" s="4" t="s">
         <v>382</v>
       </c>
+      <c r="G202" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N202" s="8" t="s">
         <v>22</v>
       </c>
@@ -5793,6 +6261,9 @@
       <c r="D203" s="4" t="s">
         <v>384</v>
       </c>
+      <c r="G203" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N203" s="8" t="s">
         <v>22</v>
       </c>
@@ -5800,7 +6271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>200</v>
       </c>
@@ -5813,11 +6284,14 @@
       <c r="D204" s="4" t="s">
         <v>386</v>
       </c>
+      <c r="G204" s="2" t="s">
+        <v>495</v>
+      </c>
       <c r="O204" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>201</v>
       </c>
@@ -5829,6 +6303,9 @@
       </c>
       <c r="D205" s="4" t="s">
         <v>353</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="N205" s="8" t="s">
         <v>22</v>
@@ -5850,6 +6327,7 @@
       <c r="D206" s="4" t="s">
         <v>389</v>
       </c>
+      <c r="G206" s="2"/>
       <c r="N206" s="8" t="s">
         <v>22</v>
       </c>
@@ -5870,6 +6348,9 @@
       <c r="D207" s="4" t="s">
         <v>391</v>
       </c>
+      <c r="G207" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N207" s="8" t="s">
         <v>22</v>
       </c>
@@ -5896,7 +6377,7 @@
       <c r="E208" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="G208" s="9" t="s">
+      <c r="G208" s="4" t="s">
         <v>483</v>
       </c>
       <c r="O208" s="2" t="s">
@@ -5919,6 +6400,9 @@
       <c r="E209" s="4" t="s">
         <v>398</v>
       </c>
+      <c r="G209" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O209" s="2" t="s">
         <v>447</v>
       </c>
@@ -5936,6 +6420,9 @@
       <c r="D210" s="4" t="s">
         <v>400</v>
       </c>
+      <c r="G210" s="2" t="s">
+        <v>482</v>
+      </c>
       <c r="O210" s="2" t="s">
         <v>23</v>
       </c>
@@ -5956,6 +6443,7 @@
       <c r="D211" s="4" t="s">
         <v>403</v>
       </c>
+      <c r="G211" s="2"/>
       <c r="O211" s="2" t="s">
         <v>445</v>
       </c>
@@ -5976,6 +6464,7 @@
       <c r="E212" s="4" t="s">
         <v>406</v>
       </c>
+      <c r="G212" s="2"/>
       <c r="O212" s="2" t="s">
         <v>447</v>
       </c>
@@ -5996,9 +6485,7 @@
       <c r="E213" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="G213" s="9" t="s">
-        <v>483</v>
-      </c>
+      <c r="G213" s="4"/>
       <c r="O213" s="2" t="s">
         <v>448</v>
       </c>
@@ -6019,6 +6506,7 @@
       <c r="E214" s="4" t="s">
         <v>412</v>
       </c>
+      <c r="G214" s="2"/>
       <c r="O214" s="2" t="s">
         <v>448</v>
       </c>
@@ -6036,6 +6524,9 @@
       <c r="D215" s="4" t="s">
         <v>405</v>
       </c>
+      <c r="G215" s="2" t="s">
+        <v>482</v>
+      </c>
       <c r="O215" s="2" t="s">
         <v>447</v>
       </c>
@@ -6056,6 +6547,7 @@
       <c r="D216" s="4" t="s">
         <v>416</v>
       </c>
+      <c r="G216" s="2"/>
       <c r="N216" s="8" t="s">
         <v>22</v>
       </c>
@@ -6076,6 +6568,7 @@
       <c r="D217" s="4" t="s">
         <v>416</v>
       </c>
+      <c r="G217" s="2"/>
       <c r="N217" s="8" t="s">
         <v>22</v>
       </c>
@@ -6096,6 +6589,9 @@
       <c r="D218" s="4" t="s">
         <v>419</v>
       </c>
+      <c r="G218" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="N218" s="8" t="s">
         <v>22</v>
       </c>
@@ -6116,6 +6612,9 @@
       <c r="D219" s="4" t="s">
         <v>400</v>
       </c>
+      <c r="G219" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O219" s="2" t="s">
         <v>449</v>
       </c>
@@ -6133,6 +6632,9 @@
       <c r="D220" s="4" t="s">
         <v>422</v>
       </c>
+      <c r="G220" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="O220" s="2" t="s">
         <v>450</v>
       </c>
@@ -6153,6 +6655,7 @@
       <c r="E221" s="4" t="s">
         <v>424</v>
       </c>
+      <c r="G221" s="2"/>
       <c r="O221" s="2" t="s">
         <v>445</v>
       </c>
@@ -6176,6 +6679,7 @@
       <c r="E222" s="4" t="s">
         <v>428</v>
       </c>
+      <c r="G222" s="2"/>
       <c r="O222" s="2" t="s">
         <v>448</v>
       </c>
@@ -6196,6 +6700,7 @@
       <c r="E223" s="4" t="s">
         <v>430</v>
       </c>
+      <c r="G223" s="2"/>
       <c r="O223" s="2" t="s">
         <v>477</v>
       </c>
@@ -6213,6 +6718,7 @@
       <c r="D224" s="4" t="s">
         <v>432</v>
       </c>
+      <c r="G224" s="2"/>
       <c r="O224" s="2" t="s">
         <v>439</v>
       </c>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtian/Documents/UTA/Spring 2025/CSE 3310/cse3310-sp25-002/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCADCF5-3AAF-9148-972A-34551A7ECBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA529746-D51B-2C42-B1A7-21667C82A392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="484">
   <si>
     <t>Tested By</t>
   </si>
@@ -1489,49 +1489,11 @@
     <t>The program will be compatible with the web browsers Chrome and Firefox.</t>
   </si>
   <si>
+    <t>Test 1 Step 3
+Note: This requirement was modified to exclude Safari as this is not on Fedora.</t>
+  </si>
+  <si>
     <t>Test 1: Step 4</t>
-  </si>
-  <si>
-    <t>Unable to test</t>
-  </si>
-  <si>
-    <t>Partially testable - may be observed by playing several games but full verfication would require code inspection</t>
-  </si>
-  <si>
-    <t>Unable to test - move evaluation is likely internal</t>
-  </si>
-  <si>
-    <t>Req might be too unclear to test.</t>
-  </si>
-  <si>
-    <t>Req might be too unclear as "fixed strategy" is not fully defined/</t>
-  </si>
-  <si>
-    <t>Req might be too unclear to test as "aggressively" is subjective.</t>
-  </si>
-  <si>
-    <t>Req might be too unclear to test. "Cautiously" is not precisely defined.</t>
-  </si>
-  <si>
-    <t>Test 1: Step 3</t>
-  </si>
-  <si>
-    <t>Note: This requirement was modified to remove Safari as this is not on Fedora.</t>
-  </si>
-  <si>
-    <t>Unable to tsst</t>
-  </si>
-  <si>
-    <t>Will need multiple games to verify</t>
-  </si>
-  <si>
-    <t>Req. might be too unlcear to test. What is the state of the board?</t>
-  </si>
-  <si>
-    <t>Depends if the active game count is displayed</t>
-  </si>
-  <si>
-    <t>Req. might be too unlcear to test.What does if needed mean?</t>
   </si>
 </sst>
 </file>
@@ -1930,8 +1892,8 @@
   </sheetPr>
   <dimension ref="A1:S230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G212" sqref="G212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2035,9 +1997,6 @@
       <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N5" t="s">
         <v>22</v>
       </c>
@@ -2058,9 +2017,6 @@
       <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N6" t="s">
         <v>22</v>
       </c>
@@ -2068,7 +2024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="112" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -2080,9 +2036,6 @@
       </c>
       <c r="D7" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>23</v>
@@ -2101,7 +2054,6 @@
       <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="2"/>
       <c r="O8" s="2" t="s">
         <v>479</v>
       </c>
@@ -2119,7 +2071,6 @@
       <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="2"/>
       <c r="O9" s="2" t="s">
         <v>479</v>
       </c>
@@ -2137,7 +2088,6 @@
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="2"/>
       <c r="O10" s="2" t="s">
         <v>479</v>
       </c>
@@ -2155,9 +2105,6 @@
       <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N11" t="s">
         <v>22</v>
       </c>
@@ -2178,9 +2125,6 @@
       <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="N12" t="s">
         <v>22</v>
       </c>
@@ -2201,7 +2145,6 @@
       <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="2"/>
       <c r="O13" s="2" t="s">
         <v>480</v>
       </c>
@@ -2219,7 +2162,6 @@
       <c r="D14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="2"/>
       <c r="O14" s="2" t="s">
         <v>479</v>
       </c>
@@ -2237,9 +2179,6 @@
       <c r="D15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N15" t="s">
         <v>22</v>
       </c>
@@ -2260,9 +2199,6 @@
       <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N16" t="s">
         <v>22</v>
       </c>
@@ -2283,9 +2219,6 @@
       <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N17" t="s">
         <v>22</v>
       </c>
@@ -2306,9 +2239,6 @@
       <c r="D18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N18" t="s">
         <v>22</v>
       </c>
@@ -2329,9 +2259,6 @@
       <c r="D19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N19" t="s">
         <v>22</v>
       </c>
@@ -2352,9 +2279,6 @@
       <c r="D20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N20" t="s">
         <v>22</v>
       </c>
@@ -2375,9 +2299,6 @@
       <c r="D21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N21" t="s">
         <v>22</v>
       </c>
@@ -2398,9 +2319,6 @@
       <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N22" t="s">
         <v>22</v>
       </c>
@@ -2421,9 +2339,6 @@
       <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N23" t="s">
         <v>22</v>
       </c>
@@ -2444,9 +2359,6 @@
       <c r="D24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="O24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2464,9 +2376,6 @@
       <c r="D25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="O25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2484,9 +2393,6 @@
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N26" t="s">
         <v>22</v>
       </c>
@@ -2506,9 +2412,6 @@
       </c>
       <c r="D27" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="N27" t="s">
         <v>22</v>
@@ -2530,9 +2433,6 @@
       <c r="D28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N28" t="s">
         <v>22</v>
       </c>
@@ -2553,9 +2453,6 @@
       <c r="D29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N29" t="s">
         <v>22</v>
       </c>
@@ -2563,7 +2460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2575,9 +2472,6 @@
       </c>
       <c r="D30" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>479</v>
@@ -2596,9 +2490,6 @@
       <c r="D31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N31" t="s">
         <v>22</v>
       </c>
@@ -2619,9 +2510,6 @@
       <c r="D32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N32" t="s">
         <v>22</v>
       </c>
@@ -2642,9 +2530,6 @@
       <c r="D33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N33" t="s">
         <v>22</v>
       </c>
@@ -2665,7 +2550,6 @@
       <c r="D34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="2"/>
       <c r="O34" s="2" t="s">
         <v>479</v>
       </c>
@@ -2683,9 +2567,6 @@
       <c r="D35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N35" t="s">
         <v>22</v>
       </c>
@@ -2706,9 +2587,6 @@
       <c r="D36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N36" t="s">
         <v>22</v>
       </c>
@@ -2729,9 +2607,6 @@
       <c r="D37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N37" t="s">
         <v>22</v>
       </c>
@@ -2752,9 +2627,6 @@
       <c r="D38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N38" t="s">
         <v>22</v>
       </c>
@@ -2775,9 +2647,6 @@
       <c r="D39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N39" t="s">
         <v>22</v>
       </c>
@@ -2798,7 +2667,6 @@
       <c r="D40" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G40" s="2"/>
       <c r="O40" s="2" t="s">
         <v>479</v>
       </c>
@@ -2816,9 +2684,6 @@
       <c r="D41" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N41" t="s">
         <v>22</v>
       </c>
@@ -2839,9 +2704,6 @@
       <c r="D42" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N42" t="s">
         <v>22</v>
       </c>
@@ -2849,7 +2711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2862,9 +2724,6 @@
       <c r="D43" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="N43" t="s">
         <v>22</v>
       </c>
@@ -2872,7 +2731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2884,9 +2743,6 @@
       </c>
       <c r="D44" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>23</v>
@@ -2905,7 +2761,6 @@
       <c r="D45" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G45" s="2"/>
       <c r="O45" s="2" t="s">
         <v>479</v>
       </c>
@@ -2923,9 +2778,6 @@
       <c r="D46" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N46" t="s">
         <v>22</v>
       </c>
@@ -2946,9 +2798,6 @@
       <c r="D47" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N47" t="s">
         <v>22</v>
       </c>
@@ -2969,9 +2818,6 @@
       <c r="D48" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N48" t="s">
         <v>22</v>
       </c>
@@ -2992,9 +2838,6 @@
       <c r="D49" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N49" t="s">
         <v>22</v>
       </c>
@@ -3015,9 +2858,6 @@
       <c r="D50" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N50" t="s">
         <v>22</v>
       </c>
@@ -3038,9 +2878,6 @@
       <c r="D51" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N51" t="s">
         <v>22</v>
       </c>
@@ -3061,7 +2898,6 @@
       <c r="D52" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G52" s="2"/>
       <c r="O52" s="2" t="s">
         <v>479</v>
       </c>
@@ -3082,7 +2918,6 @@
       <c r="E53" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G53" s="2"/>
       <c r="O53" s="2" t="s">
         <v>451</v>
       </c>
@@ -3103,7 +2938,6 @@
       <c r="E54" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G54" s="2"/>
       <c r="O54" s="2" t="s">
         <v>452</v>
       </c>
@@ -3124,7 +2958,6 @@
       <c r="E55" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G55" s="2"/>
       <c r="O55" s="2" t="s">
         <v>452</v>
       </c>
@@ -3145,7 +2978,6 @@
       <c r="E56" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G56" s="2"/>
       <c r="O56" s="2" t="s">
         <v>451</v>
       </c>
@@ -3166,7 +2998,6 @@
       <c r="E57" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G57" s="2"/>
       <c r="O57" s="2" t="s">
         <v>451</v>
       </c>
@@ -3187,7 +3018,6 @@
       <c r="E58" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G58" s="2"/>
       <c r="O58" s="2" t="s">
         <v>443</v>
       </c>
@@ -3208,7 +3038,6 @@
       <c r="E59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G59" s="2"/>
       <c r="O59" s="2" t="s">
         <v>437</v>
       </c>
@@ -3229,7 +3058,6 @@
       <c r="E60" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G60" s="2"/>
       <c r="O60" s="2" t="s">
         <v>451</v>
       </c>
@@ -3250,7 +3078,6 @@
       <c r="E61" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G61" s="2"/>
       <c r="O61" s="2" t="s">
         <v>451</v>
       </c>
@@ -3271,9 +3098,6 @@
       <c r="E62" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N62" t="s">
         <v>22</v>
       </c>
@@ -3281,7 +3105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>59</v>
       </c>
@@ -3298,7 +3122,7 @@
         <v>110</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="N63" t="s">
         <v>22</v>
@@ -3323,7 +3147,6 @@
       <c r="E64" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G64" s="2"/>
       <c r="N64" t="s">
         <v>22</v>
       </c>
@@ -3331,7 +3154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>61</v>
       </c>
@@ -3346,9 +3169,6 @@
       </c>
       <c r="E65" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="N65" t="s">
         <v>22</v>
@@ -3373,9 +3193,6 @@
       <c r="E66" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N66" t="s">
         <v>22</v>
       </c>
@@ -3399,9 +3216,6 @@
       <c r="E67" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O67" s="2" t="s">
         <v>434</v>
       </c>
@@ -3422,9 +3236,6 @@
       <c r="E68" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O68" s="2" t="s">
         <v>453</v>
       </c>
@@ -3445,7 +3256,6 @@
       <c r="E69" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G69" s="2"/>
       <c r="N69" t="s">
         <v>22</v>
       </c>
@@ -3469,7 +3279,6 @@
       <c r="E70" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G70" s="2"/>
       <c r="N70" t="s">
         <v>22</v>
       </c>
@@ -3493,9 +3302,6 @@
       <c r="E71" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N71" t="s">
         <v>22</v>
       </c>
@@ -3519,9 +3325,6 @@
       <c r="E72" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N72" t="s">
         <v>22</v>
       </c>
@@ -3542,9 +3345,6 @@
       <c r="D73" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O73" s="2" t="s">
         <v>454</v>
       </c>
@@ -3562,9 +3362,6 @@
       <c r="D74" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O74" s="2" t="s">
         <v>23</v>
       </c>
@@ -3582,7 +3379,6 @@
       <c r="D75" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G75" s="2"/>
       <c r="O75" s="2" t="s">
         <v>456</v>
       </c>
@@ -3600,7 +3396,6 @@
       <c r="D76" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G76" s="2"/>
       <c r="O76" s="2" t="s">
         <v>455</v>
       </c>
@@ -3618,7 +3413,6 @@
       <c r="D77" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G77" s="2"/>
       <c r="N77" t="s">
         <v>22</v>
       </c>
@@ -3639,7 +3433,6 @@
       <c r="D78" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G78" s="2"/>
       <c r="N78" t="s">
         <v>22</v>
       </c>
@@ -3660,9 +3453,6 @@
       <c r="D79" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N79" t="s">
         <v>22</v>
       </c>
@@ -3683,9 +3473,6 @@
       <c r="D80" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N80" t="s">
         <v>22</v>
       </c>
@@ -3706,9 +3493,6 @@
       <c r="D81" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N81" t="s">
         <v>22</v>
       </c>
@@ -3729,9 +3513,6 @@
       <c r="D82" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N82" t="s">
         <v>22</v>
       </c>
@@ -3752,9 +3533,6 @@
       <c r="D83" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O83" s="2" t="s">
         <v>455</v>
       </c>
@@ -3775,9 +3553,6 @@
       <c r="E84" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O84" s="2" t="s">
         <v>458</v>
       </c>
@@ -3798,7 +3573,6 @@
       <c r="E85" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G85" s="2"/>
       <c r="O85" s="2" t="s">
         <v>457</v>
       </c>
@@ -3819,7 +3593,6 @@
       <c r="E86" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G86" s="2"/>
       <c r="O86" s="2" t="s">
         <v>459</v>
       </c>
@@ -3840,7 +3613,6 @@
       <c r="E87" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G87" s="2"/>
       <c r="O87" s="2" t="s">
         <v>460</v>
       </c>
@@ -3858,7 +3630,6 @@
       <c r="D88" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G88" s="2"/>
       <c r="N88" t="s">
         <v>22</v>
       </c>
@@ -3879,7 +3650,6 @@
       <c r="D89" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G89" s="2"/>
       <c r="O89" s="2" t="s">
         <v>435</v>
       </c>
@@ -3900,9 +3670,6 @@
       <c r="E90" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O90" s="2" t="s">
         <v>436</v>
       </c>
@@ -3920,7 +3687,6 @@
       <c r="D91" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G91" s="2"/>
       <c r="O91" s="2" t="s">
         <v>437</v>
       </c>
@@ -3941,7 +3707,6 @@
       <c r="E92" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G92" s="2"/>
       <c r="O92" s="2" t="s">
         <v>438</v>
       </c>
@@ -3959,7 +3724,6 @@
       <c r="D93" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G93" s="2"/>
       <c r="N93" t="s">
         <v>22</v>
       </c>
@@ -3980,7 +3744,6 @@
       <c r="D94" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G94" s="2"/>
       <c r="N94" t="s">
         <v>22</v>
       </c>
@@ -4001,9 +3764,6 @@
       <c r="D95" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O95" s="2" t="s">
         <v>457</v>
       </c>
@@ -4021,9 +3781,6 @@
       <c r="D96" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O96" s="2" t="s">
         <v>439</v>
       </c>
@@ -4041,7 +3798,6 @@
       <c r="D97" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G97" s="2"/>
       <c r="N97" t="s">
         <v>22</v>
       </c>
@@ -4062,7 +3818,6 @@
       <c r="D98" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G98" s="2"/>
       <c r="O98" s="2" t="s">
         <v>440</v>
       </c>
@@ -4080,9 +3835,6 @@
       <c r="D99" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O99" s="2" t="s">
         <v>441</v>
       </c>
@@ -4100,7 +3852,6 @@
       <c r="D100" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G100" s="2"/>
       <c r="O100" s="2" t="s">
         <v>441</v>
       </c>
@@ -4118,7 +3869,6 @@
       <c r="D101" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G101" s="2"/>
       <c r="N101" t="s">
         <v>22</v>
       </c>
@@ -4139,7 +3889,6 @@
       <c r="D102" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G102" s="2"/>
       <c r="N102" t="s">
         <v>22</v>
       </c>
@@ -4160,9 +3909,6 @@
       <c r="D103" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O103" s="2" t="s">
         <v>442</v>
       </c>
@@ -4180,9 +3926,6 @@
       <c r="D104" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O104" s="2" t="s">
         <v>461</v>
       </c>
@@ -4200,7 +3943,6 @@
       <c r="D105" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G105" s="2"/>
       <c r="O105" s="2" t="s">
         <v>461</v>
       </c>
@@ -4218,7 +3960,6 @@
       <c r="D106" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G106" s="2"/>
       <c r="N106" t="s">
         <v>22</v>
       </c>
@@ -4239,7 +3980,6 @@
       <c r="D107" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="G107" s="2"/>
       <c r="O107" s="2" t="s">
         <v>462</v>
       </c>
@@ -4257,9 +3997,6 @@
       <c r="D108" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O108" s="2" t="s">
         <v>463</v>
       </c>
@@ -4277,7 +4014,6 @@
       <c r="D109" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G109" s="2"/>
       <c r="O109" s="2" t="s">
         <v>23</v>
       </c>
@@ -4295,7 +4031,6 @@
       <c r="D110" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G110" s="2"/>
       <c r="O110" s="2" t="s">
         <v>443</v>
       </c>
@@ -4313,7 +4048,6 @@
       <c r="D111" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G111" s="2"/>
       <c r="O111" s="2" t="s">
         <v>464</v>
       </c>
@@ -4331,7 +4065,6 @@
       <c r="D112" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G112" s="2"/>
       <c r="O112" s="2" t="s">
         <v>463</v>
       </c>
@@ -4349,7 +4082,6 @@
       <c r="D113" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G113" s="2"/>
       <c r="O113" s="2" t="s">
         <v>23</v>
       </c>
@@ -4367,7 +4099,6 @@
       <c r="D114" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G114" s="2"/>
       <c r="O114" s="2" t="s">
         <v>465</v>
       </c>
@@ -4385,7 +4116,6 @@
       <c r="D115" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G115" s="2"/>
       <c r="O115" s="2" t="s">
         <v>466</v>
       </c>
@@ -4403,7 +4133,6 @@
       <c r="D116" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G116" s="2"/>
       <c r="N116" t="s">
         <v>22</v>
       </c>
@@ -4424,7 +4153,6 @@
       <c r="D117" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G117" s="2"/>
       <c r="O117" s="2" t="s">
         <v>467</v>
       </c>
@@ -4442,9 +4170,6 @@
       <c r="D118" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G118" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O118" s="2" t="s">
         <v>444</v>
       </c>
@@ -4462,7 +4187,6 @@
       <c r="D119" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G119" s="2"/>
       <c r="O119" s="2" t="s">
         <v>468</v>
       </c>
@@ -4480,7 +4204,6 @@
       <c r="D120" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G120" s="2"/>
       <c r="N120" t="s">
         <v>22</v>
       </c>
@@ -4501,7 +4224,6 @@
       <c r="D121" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G121" s="2"/>
       <c r="N121" t="s">
         <v>22</v>
       </c>
@@ -4522,9 +4244,6 @@
       <c r="D122" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N122" t="s">
         <v>22</v>
       </c>
@@ -4545,9 +4264,6 @@
       <c r="D123" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G123" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N123" t="s">
         <v>22</v>
       </c>
@@ -4568,9 +4284,6 @@
       <c r="D124" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G124" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O124" s="2" t="s">
         <v>23</v>
       </c>
@@ -4588,9 +4301,6 @@
       <c r="D125" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G125" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N125" t="s">
         <v>22</v>
       </c>
@@ -4611,9 +4321,6 @@
       <c r="D126" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G126" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N126" t="s">
         <v>22</v>
       </c>
@@ -4634,9 +4341,6 @@
       <c r="D127" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G127" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O127" s="2" t="s">
         <v>23</v>
       </c>
@@ -4654,9 +4358,6 @@
       <c r="D128" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="G128" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O128" s="2" t="s">
         <v>23</v>
       </c>
@@ -4674,7 +4375,6 @@
       <c r="D129" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G129" s="2"/>
       <c r="N129" t="s">
         <v>22</v>
       </c>
@@ -4695,9 +4395,6 @@
       <c r="D130" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G130" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O130" s="2" t="s">
         <v>469</v>
       </c>
@@ -4715,9 +4412,6 @@
       <c r="D131" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="G131" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N131" t="s">
         <v>22</v>
       </c>
@@ -4738,7 +4432,6 @@
       <c r="D132" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="G132" s="2"/>
       <c r="N132" t="s">
         <v>22</v>
       </c>
@@ -4759,9 +4452,6 @@
       <c r="D133" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="G133" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N133" t="s">
         <v>22</v>
       </c>
@@ -4782,9 +4472,6 @@
       <c r="D134" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="G134" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N134" t="s">
         <v>22</v>
       </c>
@@ -4805,9 +4492,6 @@
       <c r="D135" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="G135" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="O135" s="2" t="s">
         <v>456</v>
       </c>
@@ -4825,9 +4509,6 @@
       <c r="D136" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="G136" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="O136" s="2" t="s">
         <v>470</v>
       </c>
@@ -4845,7 +4526,6 @@
       <c r="D137" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="G137" s="2"/>
       <c r="N137" s="8" t="s">
         <v>22</v>
       </c>
@@ -4866,7 +4546,6 @@
       <c r="D138" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="G138" s="2"/>
       <c r="N138" s="8" t="s">
         <v>22</v>
       </c>
@@ -4887,9 +4566,6 @@
       <c r="D139" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G139" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O139" s="2" t="s">
         <v>439</v>
       </c>
@@ -4907,9 +4583,6 @@
       <c r="D140" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="G140" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N140" s="8" t="s">
         <v>22</v>
       </c>
@@ -4930,7 +4603,6 @@
       <c r="D141" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="G141" s="2"/>
       <c r="N141" s="8" t="s">
         <v>22</v>
       </c>
@@ -4954,9 +4626,6 @@
       <c r="E142" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G142" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O142" s="2" t="s">
         <v>470</v>
       </c>
@@ -4980,9 +4649,6 @@
       <c r="E143" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="G143" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N143" s="8" t="s">
         <v>22</v>
       </c>
@@ -5003,7 +4669,6 @@
       <c r="D144" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G144" s="2"/>
       <c r="O144" s="2" t="s">
         <v>470</v>
       </c>
@@ -5021,9 +4686,6 @@
       <c r="D145" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G145" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O145" s="2" t="s">
         <v>470</v>
       </c>
@@ -5041,7 +4703,6 @@
       <c r="D146" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G146" s="2"/>
       <c r="O146" s="2" t="s">
         <v>470</v>
       </c>
@@ -5059,7 +4720,6 @@
       <c r="D147" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G147" s="2"/>
       <c r="O147" s="2" t="s">
         <v>470</v>
       </c>
@@ -5077,7 +4737,6 @@
       <c r="D148" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G148" s="2"/>
       <c r="N148" s="8" t="s">
         <v>22</v>
       </c>
@@ -5098,7 +4757,6 @@
       <c r="D149" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G149" s="2"/>
       <c r="N149" s="8" t="s">
         <v>22</v>
       </c>
@@ -5119,9 +4777,6 @@
       <c r="D150" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G150" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O150" s="2" t="s">
         <v>470</v>
       </c>
@@ -5139,9 +4794,6 @@
       <c r="D151" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G151" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O151" s="2" t="s">
         <v>471</v>
       </c>
@@ -5159,7 +4811,6 @@
       <c r="D152" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G152" s="2"/>
       <c r="N152" s="8" t="s">
         <v>22</v>
       </c>
@@ -5180,7 +4831,6 @@
       <c r="D153" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G153" s="2"/>
       <c r="N153" s="8" t="s">
         <v>22</v>
       </c>
@@ -5201,9 +4851,6 @@
       <c r="D154" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G154" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N154" s="4"/>
       <c r="O154" s="4" t="s">
         <v>288</v>
@@ -5222,9 +4869,6 @@
       <c r="D155" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G155" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O155" s="2" t="s">
         <v>472</v>
       </c>
@@ -5242,7 +4886,6 @@
       <c r="D156" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G156" s="2"/>
       <c r="N156" s="8" t="s">
         <v>22</v>
       </c>
@@ -5263,7 +4906,6 @@
       <c r="D157" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="G157" s="2"/>
       <c r="N157" s="8" t="s">
         <v>22</v>
       </c>
@@ -5284,9 +4926,6 @@
       <c r="D158" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="G158" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N158" s="8" t="s">
         <v>22</v>
       </c>
@@ -5307,9 +4946,6 @@
       <c r="D159" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="G159" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N159" s="8" t="s">
         <v>22</v>
       </c>
@@ -5330,9 +4966,6 @@
       <c r="D160" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G160" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N160" s="8" t="s">
         <v>22</v>
       </c>
@@ -5353,9 +4986,6 @@
       <c r="D161" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G161" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N161" s="8" t="s">
         <v>22</v>
       </c>
@@ -5376,9 +5006,6 @@
       <c r="D162" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="G162" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O162" s="2" t="s">
         <v>473</v>
       </c>
@@ -5396,9 +5023,6 @@
       <c r="D163" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G163" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N163" s="8" t="s">
         <v>22</v>
       </c>
@@ -5419,7 +5043,6 @@
       <c r="D164" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G164" s="2"/>
       <c r="O164" s="2" t="s">
         <v>23</v>
       </c>
@@ -5437,9 +5060,6 @@
       <c r="D165" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="G165" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O165" s="2" t="s">
         <v>23</v>
       </c>
@@ -5457,7 +5077,6 @@
       <c r="D166" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="G166" s="2"/>
       <c r="N166" s="8" t="s">
         <v>22</v>
       </c>
@@ -5478,7 +5097,6 @@
       <c r="D167" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="G167" s="2"/>
       <c r="O167" s="2" t="s">
         <v>23</v>
       </c>
@@ -5496,9 +5114,6 @@
       <c r="D168" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="G168" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O168" s="2" t="s">
         <v>23</v>
       </c>
@@ -5516,9 +5131,6 @@
       <c r="D169" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="G169" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N169" s="8" t="s">
         <v>22</v>
       </c>
@@ -5539,7 +5151,6 @@
       <c r="D170" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="G170" s="2"/>
       <c r="N170" s="8" t="s">
         <v>22</v>
       </c>
@@ -5560,9 +5171,6 @@
       <c r="D171" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G171" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N171" s="8" t="s">
         <v>22</v>
       </c>
@@ -5583,9 +5191,6 @@
       <c r="D172" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="G172" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N172" s="8" t="s">
         <v>22</v>
       </c>
@@ -5606,9 +5211,6 @@
       <c r="D173" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="G173" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N173" s="8" t="s">
         <v>22</v>
       </c>
@@ -5629,9 +5231,6 @@
       <c r="D174" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="G174" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N174" s="8" t="s">
         <v>22</v>
       </c>
@@ -5652,9 +5251,6 @@
       <c r="D175" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G175" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O175" s="2" t="s">
         <v>474</v>
       </c>
@@ -5672,9 +5268,6 @@
       <c r="D176" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="G176" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O176" s="2" t="s">
         <v>474</v>
       </c>
@@ -5692,7 +5285,6 @@
       <c r="D177" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="G177" s="2"/>
       <c r="O177" s="2" t="s">
         <v>474</v>
       </c>
@@ -5710,7 +5302,6 @@
       <c r="D178" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G178" s="2"/>
       <c r="O178" s="2" t="s">
         <v>23</v>
       </c>
@@ -5728,9 +5319,6 @@
       <c r="D179" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G179" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N179" s="8" t="s">
         <v>22</v>
       </c>
@@ -5751,7 +5339,6 @@
       <c r="D180" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G180" s="2"/>
       <c r="O180" s="2" t="s">
         <v>474</v>
       </c>
@@ -5769,9 +5356,6 @@
       <c r="D181" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="G181" s="2" t="s">
-        <v>483</v>
-      </c>
     </row>
     <row r="182" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
@@ -5786,7 +5370,6 @@
       <c r="D182" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G182" s="2"/>
       <c r="N182" s="8" t="s">
         <v>22</v>
       </c>
@@ -5807,7 +5390,6 @@
       <c r="D183" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="G183" s="2"/>
       <c r="N183" s="8" t="s">
         <v>22</v>
       </c>
@@ -5828,7 +5410,6 @@
       <c r="D184" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G184" s="2"/>
       <c r="N184" s="8" t="s">
         <v>22</v>
       </c>
@@ -5849,9 +5430,6 @@
       <c r="D185" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G185" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N185" s="8" t="s">
         <v>22</v>
       </c>
@@ -5872,9 +5450,6 @@
       <c r="D186" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G186" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N186" s="8" t="s">
         <v>22</v>
       </c>
@@ -5895,9 +5470,6 @@
       <c r="D187" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="G187" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N187" s="8" t="s">
         <v>22</v>
       </c>
@@ -5918,9 +5490,6 @@
       <c r="D188" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G188" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N188" s="8" t="s">
         <v>22</v>
       </c>
@@ -5941,9 +5510,6 @@
       <c r="D189" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="G189" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N189" s="8" t="s">
         <v>22</v>
       </c>
@@ -5964,9 +5530,6 @@
       <c r="D190" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G190" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N190" s="8" t="s">
         <v>22</v>
       </c>
@@ -5987,9 +5550,6 @@
       <c r="D191" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G191" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N191" s="8" t="s">
         <v>22</v>
       </c>
@@ -6010,9 +5570,6 @@
       <c r="D192" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G192" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N192" s="8" t="s">
         <v>22</v>
       </c>
@@ -6033,9 +5590,6 @@
       <c r="D193" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="G193" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N193" s="8" t="s">
         <v>22</v>
       </c>
@@ -6056,9 +5610,6 @@
       <c r="D194" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="G194" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N194" s="8" t="s">
         <v>22</v>
       </c>
@@ -6082,9 +5633,6 @@
       <c r="E195" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="G195" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O195" s="2" t="s">
         <v>475</v>
       </c>
@@ -6102,9 +5650,6 @@
       <c r="D196" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="G196" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N196" s="8" t="s">
         <v>22</v>
       </c>
@@ -6125,7 +5670,6 @@
       <c r="D197" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="G197" s="2"/>
       <c r="N197" s="8" t="s">
         <v>22</v>
       </c>
@@ -6146,9 +5690,6 @@
       <c r="D198" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="G198" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N198" s="8" t="s">
         <v>22</v>
       </c>
@@ -6169,9 +5710,6 @@
       <c r="D199" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="G199" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N199" s="8" t="s">
         <v>22</v>
       </c>
@@ -6192,9 +5730,6 @@
       <c r="D200" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="G200" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N200" s="8" t="s">
         <v>22</v>
       </c>
@@ -6202,7 +5737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="64" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>197</v>
       </c>
@@ -6214,9 +5749,6 @@
       </c>
       <c r="D201" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="N201" s="8" t="s">
         <v>22</v>
@@ -6238,9 +5770,6 @@
       <c r="D202" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G202" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N202" s="8" t="s">
         <v>22</v>
       </c>
@@ -6261,9 +5790,6 @@
       <c r="D203" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="G203" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N203" s="8" t="s">
         <v>22</v>
       </c>
@@ -6271,7 +5797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>200</v>
       </c>
@@ -6284,14 +5810,11 @@
       <c r="D204" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="G204" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="O204" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="64" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>201</v>
       </c>
@@ -6303,9 +5826,6 @@
       </c>
       <c r="D205" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="N205" s="8" t="s">
         <v>22</v>
@@ -6327,7 +5847,6 @@
       <c r="D206" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="G206" s="2"/>
       <c r="N206" s="8" t="s">
         <v>22</v>
       </c>
@@ -6348,9 +5867,6 @@
       <c r="D207" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="G207" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N207" s="8" t="s">
         <v>22</v>
       </c>
@@ -6400,9 +5916,6 @@
       <c r="E209" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="G209" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O209" s="2" t="s">
         <v>447</v>
       </c>
@@ -6420,9 +5933,6 @@
       <c r="D210" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="G210" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="O210" s="2" t="s">
         <v>23</v>
       </c>
@@ -6443,7 +5953,6 @@
       <c r="D211" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="G211" s="2"/>
       <c r="O211" s="2" t="s">
         <v>445</v>
       </c>
@@ -6464,7 +5973,6 @@
       <c r="E212" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G212" s="2"/>
       <c r="O212" s="2" t="s">
         <v>447</v>
       </c>
@@ -6485,7 +5993,9 @@
       <c r="E213" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="G213" s="4"/>
+      <c r="G213" s="4" t="s">
+        <v>483</v>
+      </c>
       <c r="O213" s="2" t="s">
         <v>448</v>
       </c>
@@ -6506,7 +6016,6 @@
       <c r="E214" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="G214" s="2"/>
       <c r="O214" s="2" t="s">
         <v>448</v>
       </c>
@@ -6524,9 +6033,6 @@
       <c r="D215" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="G215" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="O215" s="2" t="s">
         <v>447</v>
       </c>
@@ -6547,7 +6053,6 @@
       <c r="D216" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="G216" s="2"/>
       <c r="N216" s="8" t="s">
         <v>22</v>
       </c>
@@ -6568,7 +6073,6 @@
       <c r="D217" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="G217" s="2"/>
       <c r="N217" s="8" t="s">
         <v>22</v>
       </c>
@@ -6589,9 +6093,6 @@
       <c r="D218" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="G218" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N218" s="8" t="s">
         <v>22</v>
       </c>
@@ -6612,9 +6113,6 @@
       <c r="D219" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="G219" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O219" s="2" t="s">
         <v>449</v>
       </c>
@@ -6632,9 +6130,6 @@
       <c r="D220" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="G220" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="O220" s="2" t="s">
         <v>450</v>
       </c>
@@ -6655,7 +6150,6 @@
       <c r="E221" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="G221" s="2"/>
       <c r="O221" s="2" t="s">
         <v>445</v>
       </c>
@@ -6679,7 +6173,6 @@
       <c r="E222" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="G222" s="2"/>
       <c r="O222" s="2" t="s">
         <v>448</v>
       </c>
@@ -6700,7 +6193,6 @@
       <c r="E223" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="G223" s="2"/>
       <c r="O223" s="2" t="s">
         <v>477</v>
       </c>
@@ -6718,7 +6210,6 @@
       <c r="D224" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G224" s="2"/>
       <c r="O224" s="2" t="s">
         <v>439</v>
       </c>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtian/Documents/UTA/Spring 2025/CSE 3310/cse3310-sp25-002/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samridhsingh/Documents/cse3310-sp25-002-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA529746-D51B-2C42-B1A7-21667C82A392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BF040A-B432-C342-83EC-BE3D326AA56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="6520" windowWidth="25800" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="487">
   <si>
     <t>Tested By</t>
   </si>
@@ -1494,6 +1494,15 @@
   </si>
   <si>
     <t>Test 1: Step 4</t>
+  </si>
+  <si>
+    <t>Test Working</t>
+  </si>
+  <si>
+    <t>Test working</t>
+  </si>
+  <si>
+    <t>Uable to Test</t>
   </si>
 </sst>
 </file>
@@ -1892,8 +1901,8 @@
   </sheetPr>
   <dimension ref="A1:S230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G212" sqref="G212"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1997,6 +2006,9 @@
       <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
       <c r="N5" t="s">
         <v>22</v>
       </c>
@@ -2017,6 +2029,9 @@
       <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
       <c r="N6" t="s">
         <v>22</v>
       </c>
@@ -2105,6 +2120,9 @@
       <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
       <c r="N11" t="s">
         <v>22</v>
       </c>
@@ -2125,6 +2143,9 @@
       <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
       <c r="N12" t="s">
         <v>22</v>
       </c>
@@ -2179,6 +2200,9 @@
       <c r="D15" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
       <c r="N15" t="s">
         <v>22</v>
       </c>
@@ -2199,6 +2223,9 @@
       <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
       <c r="N16" t="s">
         <v>22</v>
       </c>
@@ -2219,6 +2246,9 @@
       <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
       <c r="N17" t="s">
         <v>22</v>
       </c>
@@ -2239,6 +2269,9 @@
       <c r="D18" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
       <c r="N18" t="s">
         <v>22</v>
       </c>
@@ -2259,6 +2292,9 @@
       <c r="D19" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
       <c r="N19" t="s">
         <v>22</v>
       </c>
@@ -2279,6 +2315,9 @@
       <c r="D20" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
       <c r="N20" t="s">
         <v>22</v>
       </c>
@@ -2299,6 +2338,9 @@
       <c r="D21" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
       <c r="N21" t="s">
         <v>22</v>
       </c>
@@ -2319,6 +2361,9 @@
       <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
       <c r="N22" t="s">
         <v>22</v>
       </c>
@@ -2339,6 +2384,9 @@
       <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
       <c r="N23" t="s">
         <v>22</v>
       </c>
@@ -2393,6 +2441,9 @@
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="I26" t="s">
+        <v>22</v>
+      </c>
       <c r="N26" t="s">
         <v>22</v>
       </c>
@@ -2412,6 +2463,9 @@
       </c>
       <c r="D27" s="4" t="s">
         <v>55</v>
+      </c>
+      <c r="I27" t="s">
+        <v>22</v>
       </c>
       <c r="N27" t="s">
         <v>22</v>
@@ -2433,6 +2487,9 @@
       <c r="D28" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
       <c r="N28" t="s">
         <v>22</v>
       </c>
@@ -2453,6 +2510,9 @@
       <c r="D29" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
       <c r="N29" t="s">
         <v>22</v>
       </c>
@@ -2490,6 +2550,9 @@
       <c r="D31" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="I31" t="s">
+        <v>22</v>
+      </c>
       <c r="N31" t="s">
         <v>22</v>
       </c>
@@ -2510,6 +2573,9 @@
       <c r="D32" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="I32" t="s">
+        <v>22</v>
+      </c>
       <c r="N32" t="s">
         <v>22</v>
       </c>
@@ -2530,6 +2596,9 @@
       <c r="D33" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
       <c r="N33" t="s">
         <v>22</v>
       </c>
@@ -2567,6 +2636,9 @@
       <c r="D35" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="I35" t="s">
+        <v>22</v>
+      </c>
       <c r="N35" t="s">
         <v>22</v>
       </c>
@@ -2587,6 +2659,9 @@
       <c r="D36" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
       <c r="N36" t="s">
         <v>22</v>
       </c>
@@ -2607,6 +2682,9 @@
       <c r="D37" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
       <c r="N37" t="s">
         <v>22</v>
       </c>
@@ -2627,6 +2705,9 @@
       <c r="D38" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="I38" t="s">
+        <v>22</v>
+      </c>
       <c r="N38" t="s">
         <v>22</v>
       </c>
@@ -2647,6 +2728,9 @@
       <c r="D39" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="I39" t="s">
+        <v>22</v>
+      </c>
       <c r="N39" t="s">
         <v>22</v>
       </c>
@@ -2684,6 +2768,9 @@
       <c r="D41" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="I41" t="s">
+        <v>22</v>
+      </c>
       <c r="N41" t="s">
         <v>22</v>
       </c>
@@ -2704,6 +2791,9 @@
       <c r="D42" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="I42" t="s">
+        <v>22</v>
+      </c>
       <c r="N42" t="s">
         <v>22</v>
       </c>
@@ -2724,6 +2814,9 @@
       <c r="D43" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="I43" t="s">
+        <v>22</v>
+      </c>
       <c r="N43" t="s">
         <v>22</v>
       </c>
@@ -2778,6 +2871,9 @@
       <c r="D46" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="I46" t="s">
+        <v>22</v>
+      </c>
       <c r="N46" t="s">
         <v>22</v>
       </c>
@@ -2798,6 +2894,9 @@
       <c r="D47" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
       <c r="N47" t="s">
         <v>22</v>
       </c>
@@ -2818,6 +2917,9 @@
       <c r="D48" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="I48" t="s">
+        <v>22</v>
+      </c>
       <c r="N48" t="s">
         <v>22</v>
       </c>
@@ -2838,6 +2940,9 @@
       <c r="D49" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="I49" t="s">
+        <v>22</v>
+      </c>
       <c r="N49" t="s">
         <v>22</v>
       </c>
@@ -2858,6 +2963,9 @@
       <c r="D50" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="I50" t="s">
+        <v>22</v>
+      </c>
       <c r="N50" t="s">
         <v>22</v>
       </c>
@@ -2878,6 +2986,9 @@
       <c r="D51" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="I51" t="s">
+        <v>22</v>
+      </c>
       <c r="N51" t="s">
         <v>22</v>
       </c>
@@ -2898,6 +3009,9 @@
       <c r="D52" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="I52" t="s">
+        <v>22</v>
+      </c>
       <c r="O52" s="2" t="s">
         <v>479</v>
       </c>
@@ -2918,6 +3032,9 @@
       <c r="E53" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="I53" t="s">
+        <v>484</v>
+      </c>
       <c r="O53" s="2" t="s">
         <v>451</v>
       </c>
@@ -2938,6 +3055,9 @@
       <c r="E54" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="I54" t="s">
+        <v>485</v>
+      </c>
       <c r="O54" s="2" t="s">
         <v>452</v>
       </c>
@@ -2958,6 +3078,9 @@
       <c r="E55" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="I55" t="s">
+        <v>485</v>
+      </c>
       <c r="O55" s="2" t="s">
         <v>452</v>
       </c>
@@ -2978,6 +3101,9 @@
       <c r="E56" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="I56" t="s">
+        <v>484</v>
+      </c>
       <c r="O56" s="2" t="s">
         <v>451</v>
       </c>
@@ -2998,6 +3124,9 @@
       <c r="E57" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="I57" t="s">
+        <v>484</v>
+      </c>
       <c r="O57" s="2" t="s">
         <v>451</v>
       </c>
@@ -3018,6 +3147,9 @@
       <c r="E58" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="I58" t="s">
+        <v>22</v>
+      </c>
       <c r="O58" s="2" t="s">
         <v>443</v>
       </c>
@@ -3038,6 +3170,9 @@
       <c r="E59" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="I59" t="s">
+        <v>484</v>
+      </c>
       <c r="O59" s="2" t="s">
         <v>437</v>
       </c>
@@ -3058,6 +3193,9 @@
       <c r="E60" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="I60" t="s">
+        <v>486</v>
+      </c>
       <c r="O60" s="2" t="s">
         <v>451</v>
       </c>
@@ -3078,6 +3216,9 @@
       <c r="E61" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="I61" t="s">
+        <v>484</v>
+      </c>
       <c r="O61" s="2" t="s">
         <v>451</v>
       </c>
@@ -3098,6 +3239,9 @@
       <c r="E62" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="I62" t="s">
+        <v>22</v>
+      </c>
       <c r="N62" t="s">
         <v>22</v>
       </c>
@@ -3124,6 +3268,9 @@
       <c r="G63" s="2" t="s">
         <v>482</v>
       </c>
+      <c r="I63" t="s">
+        <v>22</v>
+      </c>
       <c r="N63" t="s">
         <v>22</v>
       </c>
@@ -3147,6 +3294,9 @@
       <c r="E64" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="I64" t="s">
+        <v>22</v>
+      </c>
       <c r="N64" t="s">
         <v>22</v>
       </c>
@@ -3170,6 +3320,9 @@
       <c r="E65" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="I65" t="s">
+        <v>22</v>
+      </c>
       <c r="N65" t="s">
         <v>22</v>
       </c>
@@ -3193,6 +3346,9 @@
       <c r="E66" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="I66" t="s">
+        <v>22</v>
+      </c>
       <c r="N66" t="s">
         <v>22</v>
       </c>
@@ -3216,6 +3372,9 @@
       <c r="E67" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="I67" t="s">
+        <v>484</v>
+      </c>
       <c r="O67" s="2" t="s">
         <v>434</v>
       </c>
@@ -3236,6 +3395,9 @@
       <c r="E68" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="I68" t="s">
+        <v>484</v>
+      </c>
       <c r="O68" s="2" t="s">
         <v>453</v>
       </c>
@@ -3256,6 +3418,9 @@
       <c r="E69" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="I69" t="s">
+        <v>22</v>
+      </c>
       <c r="N69" t="s">
         <v>22</v>
       </c>
@@ -3279,6 +3444,9 @@
       <c r="E70" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="I70" t="s">
+        <v>22</v>
+      </c>
       <c r="N70" t="s">
         <v>22</v>
       </c>
@@ -3302,6 +3470,9 @@
       <c r="E71" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="I71" t="s">
+        <v>22</v>
+      </c>
       <c r="N71" t="s">
         <v>22</v>
       </c>
@@ -3325,6 +3496,9 @@
       <c r="E72" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
       <c r="N72" t="s">
         <v>22</v>
       </c>
@@ -3345,6 +3519,9 @@
       <c r="D73" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="I73" t="s">
+        <v>22</v>
+      </c>
       <c r="O73" s="2" t="s">
         <v>454</v>
       </c>
@@ -3362,6 +3539,9 @@
       <c r="D74" s="4" t="s">
         <v>144</v>
       </c>
+      <c r="I74" t="s">
+        <v>22</v>
+      </c>
       <c r="O74" s="2" t="s">
         <v>23</v>
       </c>
@@ -3379,6 +3559,9 @@
       <c r="D75" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="I75" t="s">
+        <v>486</v>
+      </c>
       <c r="O75" s="2" t="s">
         <v>456</v>
       </c>
@@ -3396,6 +3579,9 @@
       <c r="D76" s="4" t="s">
         <v>147</v>
       </c>
+      <c r="I76" t="s">
+        <v>484</v>
+      </c>
       <c r="O76" s="2" t="s">
         <v>455</v>
       </c>
@@ -3413,6 +3599,9 @@
       <c r="D77" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="I77" t="s">
+        <v>22</v>
+      </c>
       <c r="N77" t="s">
         <v>22</v>
       </c>
@@ -3433,6 +3622,9 @@
       <c r="D78" s="4" t="s">
         <v>151</v>
       </c>
+      <c r="I78" t="s">
+        <v>22</v>
+      </c>
       <c r="N78" t="s">
         <v>22</v>
       </c>
@@ -3453,6 +3645,9 @@
       <c r="D79" s="4" t="s">
         <v>153</v>
       </c>
+      <c r="I79" t="s">
+        <v>22</v>
+      </c>
       <c r="N79" t="s">
         <v>22</v>
       </c>
@@ -3473,6 +3668,9 @@
       <c r="D80" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="I80" t="s">
+        <v>22</v>
+      </c>
       <c r="N80" t="s">
         <v>22</v>
       </c>
@@ -3493,6 +3691,9 @@
       <c r="D81" s="4" t="s">
         <v>157</v>
       </c>
+      <c r="I81" t="s">
+        <v>22</v>
+      </c>
       <c r="N81" t="s">
         <v>22</v>
       </c>
@@ -3513,6 +3714,9 @@
       <c r="D82" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="I82" t="s">
+        <v>22</v>
+      </c>
       <c r="N82" t="s">
         <v>22</v>
       </c>
@@ -3533,6 +3737,9 @@
       <c r="D83" s="4" t="s">
         <v>161</v>
       </c>
+      <c r="I83" t="s">
+        <v>22</v>
+      </c>
       <c r="O83" s="2" t="s">
         <v>455</v>
       </c>
@@ -3553,6 +3760,9 @@
       <c r="E84" s="4" t="s">
         <v>164</v>
       </c>
+      <c r="I84" t="s">
+        <v>484</v>
+      </c>
       <c r="O84" s="2" t="s">
         <v>458</v>
       </c>
@@ -3573,6 +3783,9 @@
       <c r="E85" s="4" t="s">
         <v>167</v>
       </c>
+      <c r="I85" t="s">
+        <v>484</v>
+      </c>
       <c r="O85" s="2" t="s">
         <v>457</v>
       </c>
@@ -3593,6 +3806,9 @@
       <c r="E86" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="I86" t="s">
+        <v>486</v>
+      </c>
       <c r="O86" s="2" t="s">
         <v>459</v>
       </c>
@@ -3613,6 +3829,9 @@
       <c r="E87" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="I87" t="s">
+        <v>22</v>
+      </c>
       <c r="O87" s="2" t="s">
         <v>460</v>
       </c>
@@ -3630,6 +3849,9 @@
       <c r="D88" s="4" t="s">
         <v>175</v>
       </c>
+      <c r="I88" t="s">
+        <v>22</v>
+      </c>
       <c r="N88" t="s">
         <v>22</v>
       </c>
@@ -3650,6 +3872,9 @@
       <c r="D89" s="4" t="s">
         <v>177</v>
       </c>
+      <c r="I89" t="s">
+        <v>484</v>
+      </c>
       <c r="O89" s="2" t="s">
         <v>435</v>
       </c>
@@ -3670,6 +3895,9 @@
       <c r="E90" s="4" t="s">
         <v>180</v>
       </c>
+      <c r="I90" t="s">
+        <v>486</v>
+      </c>
       <c r="O90" s="2" t="s">
         <v>436</v>
       </c>
@@ -3687,6 +3915,9 @@
       <c r="D91" s="4" t="s">
         <v>182</v>
       </c>
+      <c r="I91" t="s">
+        <v>484</v>
+      </c>
       <c r="O91" s="2" t="s">
         <v>437</v>
       </c>
@@ -3707,6 +3938,9 @@
       <c r="E92" s="4" t="s">
         <v>185</v>
       </c>
+      <c r="I92" t="s">
+        <v>484</v>
+      </c>
       <c r="O92" s="2" t="s">
         <v>438</v>
       </c>
@@ -3724,6 +3958,9 @@
       <c r="D93" s="4" t="s">
         <v>187</v>
       </c>
+      <c r="I93" t="s">
+        <v>22</v>
+      </c>
       <c r="N93" t="s">
         <v>22</v>
       </c>
@@ -3743,6 +3980,9 @@
       </c>
       <c r="D94" s="4" t="s">
         <v>189</v>
+      </c>
+      <c r="I94" t="s">
+        <v>22</v>
       </c>
       <c r="N94" t="s">
         <v>22</v>

--- a/FinalRequirements.xlsx
+++ b/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samridhsingh/Documents/cse3310-sp25-002-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtian/Documents/UTA/Spring 2025/CSE 3310/cse3310-sp25-002/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BF040A-B432-C342-83EC-BE3D326AA56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E52164-2403-BE4F-B260-F4E6DE8A21CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="6520" windowWidth="25800" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="1080" windowWidth="25800" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="499">
   <si>
     <t>Tested By</t>
   </si>
@@ -1489,10 +1489,6 @@
     <t>The program will be compatible with the web browsers Chrome and Firefox.</t>
   </si>
   <si>
-    <t>Test 1 Step 3
-Note: This requirement was modified to exclude Safari as this is not on Fedora.</t>
-  </si>
-  <si>
     <t>Test 1: Step 4</t>
   </si>
   <si>
@@ -1503,6 +1499,46 @@
   </si>
   <si>
     <t>Uable to Test</t>
+  </si>
+  <si>
+    <t>Unable to test</t>
+  </si>
+  <si>
+    <t>Partially testable - may be observed by playing several games but full verfication would require code inspection</t>
+  </si>
+  <si>
+    <t>Unable to test - move evaluation is likely internal</t>
+  </si>
+  <si>
+    <t>Req might be too unclear to test.</t>
+  </si>
+  <si>
+    <t>Req might be too unclear as "fixed strategy" is not fully defined/</t>
+  </si>
+  <si>
+    <t>Req might be too unclear to test as "aggressively" is subjective.</t>
+  </si>
+  <si>
+    <t>Req might be too unclear to test. "Cautiously" is not precisely defined.</t>
+  </si>
+  <si>
+    <t>Test 1: Step 3
+Note: This requirement was modified to remove Safari as this is not on Fedora.</t>
+  </si>
+  <si>
+    <t>Unable to tsst</t>
+  </si>
+  <si>
+    <t>Will need multiple games to verify</t>
+  </si>
+  <si>
+    <t>Req. might be too unlcear to test. What is the state of the board?</t>
+  </si>
+  <si>
+    <t>Depends if the active game count is displayed</t>
+  </si>
+  <si>
+    <t>Req. might be too unlcear to test.What does if needed mean?</t>
   </si>
 </sst>
 </file>
@@ -1901,8 +1937,8 @@
   </sheetPr>
   <dimension ref="A1:S230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2006,6 +2042,9 @@
       <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
@@ -2029,6 +2068,9 @@
       <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
@@ -2039,7 +2081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -2051,6 +2093,9 @@
       </c>
       <c r="D7" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>23</v>
@@ -2069,6 +2114,7 @@
       <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="G8" s="2"/>
       <c r="O8" s="2" t="s">
         <v>479</v>
       </c>
@@ -2086,6 +2132,7 @@
       <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G9" s="2"/>
       <c r="O9" s="2" t="s">
         <v>479</v>
       </c>
@@ -2103,6 +2150,7 @@
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G10" s="2"/>
       <c r="O10" s="2" t="s">
         <v>479</v>
       </c>
@@ -2120,6 +2168,9 @@
       <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I11" t="s">
         <v>22</v>
       </c>
@@ -2143,6 +2194,9 @@
       <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G12" s="2" t="s">
+        <v>488</v>
+      </c>
       <c r="I12" t="s">
         <v>22</v>
       </c>
@@ -2166,6 +2220,7 @@
       <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="G13" s="2"/>
       <c r="O13" s="2" t="s">
         <v>480</v>
       </c>
@@ -2183,6 +2238,7 @@
       <c r="D14" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G14" s="2"/>
       <c r="O14" s="2" t="s">
         <v>479</v>
       </c>
@@ -2200,6 +2256,9 @@
       <c r="D15" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G15" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I15" t="s">
         <v>22</v>
       </c>
@@ -2223,6 +2282,9 @@
       <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="G16" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I16" t="s">
         <v>22</v>
       </c>
@@ -2246,6 +2308,9 @@
       <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="G17" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I17" t="s">
         <v>22</v>
       </c>
@@ -2269,6 +2334,9 @@
       <c r="D18" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="G18" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I18" t="s">
         <v>22</v>
       </c>
@@ -2292,6 +2360,9 @@
       <c r="D19" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="G19" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I19" t="s">
         <v>22</v>
       </c>
@@ -2315,6 +2386,9 @@
       <c r="D20" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G20" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I20" t="s">
         <v>22</v>
       </c>
@@ -2338,6 +2412,9 @@
       <c r="D21" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G21" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I21" t="s">
         <v>22</v>
       </c>
@@ -2361,6 +2438,9 @@
       <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="G22" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I22" t="s">
         <v>22</v>
       </c>
@@ -2384,6 +2464,9 @@
       <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="G23" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I23" t="s">
         <v>22</v>
       </c>
@@ -2407,6 +2490,9 @@
       <c r="D24" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="G24" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="O24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2424,6 +2510,9 @@
       <c r="D25" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="G25" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="O25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2441,6 +2530,9 @@
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="G26" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I26" t="s">
         <v>22</v>
       </c>
@@ -2463,6 +2555,9 @@
       </c>
       <c r="D27" s="4" t="s">
         <v>55</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="I27" t="s">
         <v>22</v>
@@ -2487,6 +2582,9 @@
       <c r="D28" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="G28" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I28" t="s">
         <v>22</v>
       </c>
@@ -2510,6 +2608,9 @@
       <c r="D29" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G29" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I29" t="s">
         <v>22</v>
       </c>
@@ -2520,7 +2621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2532,6 +2633,9 @@
       </c>
       <c r="D30" s="4" t="s">
         <v>59</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>479</v>
@@ -2550,6 +2654,9 @@
       <c r="D31" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="G31" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I31" t="s">
         <v>22</v>
       </c>
@@ -2573,6 +2680,9 @@
       <c r="D32" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="G32" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I32" t="s">
         <v>22</v>
       </c>
@@ -2596,6 +2706,9 @@
       <c r="D33" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="G33" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I33" t="s">
         <v>22</v>
       </c>
@@ -2619,6 +2732,7 @@
       <c r="D34" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="G34" s="2"/>
       <c r="O34" s="2" t="s">
         <v>479</v>
       </c>
@@ -2636,6 +2750,9 @@
       <c r="D35" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="G35" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I35" t="s">
         <v>22</v>
       </c>
@@ -2659,6 +2776,9 @@
       <c r="D36" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="G36" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I36" t="s">
         <v>22</v>
       </c>
@@ -2682,6 +2802,9 @@
       <c r="D37" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="G37" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I37" t="s">
         <v>22</v>
       </c>
@@ -2705,6 +2828,9 @@
       <c r="D38" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="G38" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I38" t="s">
         <v>22</v>
       </c>
@@ -2728,6 +2854,9 @@
       <c r="D39" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="G39" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I39" t="s">
         <v>22</v>
       </c>
@@ -2751,6 +2880,7 @@
       <c r="D40" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="G40" s="2"/>
       <c r="O40" s="2" t="s">
         <v>479</v>
       </c>
@@ -2768,6 +2898,9 @@
       <c r="D41" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="G41" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I41" t="s">
         <v>22</v>
       </c>
@@ -2791,6 +2924,9 @@
       <c r="D42" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="G42" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I42" t="s">
         <v>22</v>
       </c>
@@ -2801,7 +2937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2814,6 +2950,9 @@
       <c r="D43" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="G43" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="I43" t="s">
         <v>22</v>
       </c>
@@ -2824,7 +2963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2836,6 +2975,9 @@
       </c>
       <c r="D44" s="4" t="s">
         <v>83</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>23</v>
@@ -2854,6 +2996,7 @@
       <c r="D45" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="G45" s="2"/>
       <c r="O45" s="2" t="s">
         <v>479</v>
       </c>
@@ -2871,6 +3014,9 @@
       <c r="D46" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="G46" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I46" t="s">
         <v>22</v>
       </c>
@@ -2894,6 +3040,9 @@
       <c r="D47" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="G47" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I47" t="s">
         <v>22</v>
       </c>
@@ -2917,6 +3066,9 @@
       <c r="D48" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="G48" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I48" t="s">
         <v>22</v>
       </c>
@@ -2940,6 +3092,9 @@
       <c r="D49" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="G49" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I49" t="s">
         <v>22</v>
       </c>
@@ -2963,6 +3118,9 @@
       <c r="D50" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="G50" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I50" t="s">
         <v>22</v>
       </c>
@@ -2986,6 +3144,9 @@
       <c r="D51" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="G51" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I51" t="s">
         <v>22</v>
       </c>
@@ -3009,6 +3170,7 @@
       <c r="D52" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="G52" s="2"/>
       <c r="I52" t="s">
         <v>22</v>
       </c>
@@ -3032,8 +3194,9 @@
       <c r="E53" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="G53" s="2"/>
       <c r="I53" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>451</v>
@@ -3055,8 +3218,9 @@
       <c r="E54" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="G54" s="2"/>
       <c r="I54" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>452</v>
@@ -3078,8 +3242,9 @@
       <c r="E55" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="G55" s="2"/>
       <c r="I55" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>452</v>
@@ -3101,8 +3266,9 @@
       <c r="E56" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G56" s="2"/>
       <c r="I56" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>451</v>
@@ -3124,8 +3290,9 @@
       <c r="E57" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="G57" s="2"/>
       <c r="I57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>451</v>
@@ -3147,6 +3314,7 @@
       <c r="E58" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="G58" s="2"/>
       <c r="I58" t="s">
         <v>22</v>
       </c>
@@ -3170,8 +3338,9 @@
       <c r="E59" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="G59" s="2"/>
       <c r="I59" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>437</v>
@@ -3193,8 +3362,9 @@
       <c r="E60" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="G60" s="2"/>
       <c r="I60" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>451</v>
@@ -3216,8 +3386,9 @@
       <c r="E61" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G61" s="2"/>
       <c r="I61" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>451</v>
@@ -3239,6 +3410,9 @@
       <c r="E62" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G62" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I62" t="s">
         <v>22</v>
       </c>
@@ -3266,7 +3440,7 @@
         <v>110</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="I63" t="s">
         <v>22</v>
@@ -3294,6 +3468,9 @@
       <c r="E64" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G64" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I64" t="s">
         <v>22</v>
       </c>
@@ -3320,6 +3497,9 @@
       <c r="E65" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G65" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I65" t="s">
         <v>22</v>
       </c>
@@ -3346,6 +3526,9 @@
       <c r="E66" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G66" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I66" t="s">
         <v>22</v>
       </c>
@@ -3372,8 +3555,9 @@
       <c r="E67" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G67" s="2"/>
       <c r="I67" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>434</v>
@@ -3395,8 +3579,9 @@
       <c r="E68" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G68" s="2"/>
       <c r="I68" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>453</v>
@@ -3418,6 +3603,9 @@
       <c r="E69" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G69" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I69" t="s">
         <v>22</v>
       </c>
@@ -3444,6 +3632,9 @@
       <c r="E70" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G70" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I70" t="s">
         <v>22</v>
       </c>
@@ -3470,6 +3661,9 @@
       <c r="E71" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G71" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I71" t="s">
         <v>22</v>
       </c>
@@ -3496,6 +3690,9 @@
       <c r="E72" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G72" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I72" t="s">
         <v>22</v>
       </c>
@@ -3519,6 +3716,7 @@
       <c r="D73" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="G73" s="2"/>
       <c r="I73" t="s">
         <v>22</v>
       </c>
@@ -3539,6 +3737,7 @@
       <c r="D74" s="4" t="s">
         <v>144</v>
       </c>
+      <c r="G74" s="2"/>
       <c r="I74" t="s">
         <v>22</v>
       </c>
@@ -3559,8 +3758,9 @@
       <c r="D75" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="G75" s="2"/>
       <c r="I75" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>456</v>
@@ -3579,8 +3779,9 @@
       <c r="D76" s="4" t="s">
         <v>147</v>
       </c>
+      <c r="G76" s="2"/>
       <c r="I76" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>455</v>
@@ -3599,6 +3800,9 @@
       <c r="D77" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="G77" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I77" t="s">
         <v>22</v>
       </c>
@@ -3622,6 +3826,9 @@
       <c r="D78" s="4" t="s">
         <v>151</v>
       </c>
+      <c r="G78" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I78" t="s">
         <v>22</v>
       </c>
@@ -3645,6 +3852,9 @@
       <c r="D79" s="4" t="s">
         <v>153</v>
       </c>
+      <c r="G79" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I79" t="s">
         <v>22</v>
       </c>
@@ -3668,6 +3878,9 @@
       <c r="D80" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="G80" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I80" t="s">
         <v>22</v>
       </c>
@@ -3691,6 +3904,9 @@
       <c r="D81" s="4" t="s">
         <v>157</v>
       </c>
+      <c r="G81" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I81" t="s">
         <v>22</v>
       </c>
@@ -3714,6 +3930,9 @@
       <c r="D82" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="G82" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I82" t="s">
         <v>22</v>
       </c>
@@ -3737,6 +3956,7 @@
       <c r="D83" s="4" t="s">
         <v>161</v>
       </c>
+      <c r="G83" s="2"/>
       <c r="I83" t="s">
         <v>22</v>
       </c>
@@ -3760,8 +3980,9 @@
       <c r="E84" s="4" t="s">
         <v>164</v>
       </c>
+      <c r="G84" s="2"/>
       <c r="I84" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>458</v>
@@ -3783,8 +4004,9 @@
       <c r="E85" s="4" t="s">
         <v>167</v>
       </c>
+      <c r="G85" s="2"/>
       <c r="I85" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>457</v>
@@ -3806,8 +4028,9 @@
       <c r="E86" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="G86" s="2"/>
       <c r="I86" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>459</v>
@@ -3829,6 +4052,7 @@
       <c r="E87" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="G87" s="2"/>
       <c r="I87" t="s">
         <v>22</v>
       </c>
@@ -3849,6 +4073,9 @@
       <c r="D88" s="4" t="s">
         <v>175</v>
       </c>
+      <c r="G88" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I88" t="s">
         <v>22</v>
       </c>
@@ -3872,8 +4099,9 @@
       <c r="D89" s="4" t="s">
         <v>177</v>
       </c>
+      <c r="G89" s="2"/>
       <c r="I89" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>435</v>
@@ -3895,8 +4123,9 @@
       <c r="E90" s="4" t="s">
         <v>180</v>
       </c>
+      <c r="G90" s="2"/>
       <c r="I90" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>436</v>
@@ -3915,8 +4144,9 @@
       <c r="D91" s="4" t="s">
         <v>182</v>
       </c>
+      <c r="G91" s="2"/>
       <c r="I91" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>437</v>
@@ -3938,8 +4168,9 @@
       <c r="E92" s="4" t="s">
         <v>185</v>
       </c>
+      <c r="G92" s="2"/>
       <c r="I92" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>438</v>
@@ -3958,6 +4189,9 @@
       <c r="D93" s="4" t="s">
         <v>187</v>
       </c>
+      <c r="G93" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I93" t="s">
         <v>22</v>
       </c>
@@ -3981,6 +4215,9 @@
       <c r="D94" s="4" t="s">
         <v>189</v>
       </c>
+      <c r="G94" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="I94" t="s">
         <v>22</v>
       </c>
@@ -4004,6 +4241,7 @@
       <c r="D95" s="4" t="s">
         <v>191</v>
       </c>
+      <c r="G95" s="2"/>
       <c r="O95" s="2" t="s">
         <v>457</v>
       </c>
@@ -4021,6 +4259,7 @@
       <c r="D96" s="4" t="s">
         <v>193</v>
       </c>
+      <c r="G96" s="2"/>
       <c r="O96" s="2" t="s">
         <v>439</v>
       </c>
@@ -4038,6 +4277,9 @@
       <c r="D97" s="4" t="s">
         <v>195</v>
       </c>
+      <c r="G97" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="N97" t="s">
         <v>22</v>
       </c>
@@ -4058,6 +4300,7 @@
       <c r="D98" s="4" t="s">
         <v>197</v>
       </c>
+      <c r="G98" s="2"/>
       <c r="O98" s="2" t="s">
         <v>440</v>
       </c>
@@ -4075,6 +4318,7 @@
       <c r="D99" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="G99" s="2"/>
       <c r="O99" s="2" t="s">
         <v>441</v>
       </c>
@@ -4092,6 +4336,7 @@
       <c r="D100" s="4" t="s">
         <v>201</v>
       </c>
+      <c r="G100" s="2"/>
       <c r="O100" s="2" t="s">
         <v>441</v>
       </c>
@@ -4109,6 +4354,9 @@
       <c r="D101" s="4" t="s">
         <v>203</v>
       </c>
+      <c r="G101" s="2" t="